--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ririth\Desktop\GameProject\高松\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CYOMEKO/Desktop/GameProject/高松/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -732,8 +738,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,7 +749,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -754,8 +760,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -765,7 +771,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -776,8 +782,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -787,7 +793,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -798,8 +804,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -1231,18 +1237,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1250,7 +1256,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1258,7 +1264,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1266,7 +1272,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1274,7 +1280,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1282,7 +1288,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1290,7 +1296,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1298,7 +1304,7 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1306,7 +1312,7 @@
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1314,7 +1320,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1322,7 +1328,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1330,7 +1336,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1338,7 +1344,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1346,7 +1352,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1354,7 +1360,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1362,7 +1368,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1370,7 +1376,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFFFF00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1378,7 +1384,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF00B0F0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1386,7 +1392,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1399,7 +1405,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1407,7 +1413,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1415,7 +1421,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1423,14 +1429,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1438,7 +1444,7 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1486,78 +1492,78 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1565,42 +1571,42 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1608,7 +1614,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1618,7 +1624,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1715,6 +1721,93 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1778,93 +1871,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1883,7 +1889,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1928,9 +1934,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1963,9 +1969,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2147,93 +2153,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N138" sqref="N138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="15" width="8.6640625" customWidth="1"/>
     <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="7.25" customWidth="1"/>
-    <col min="18" max="18" width="17.25" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
-    <col min="29" max="29" width="24.25" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="29" max="29" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="U1" s="46" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="U1" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-    </row>
-    <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-    </row>
-    <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+    </row>
+    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+    </row>
+    <row r="3" spans="1:29" ht="31" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2282,26 +2288,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-    </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+    </row>
+    <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2316,34 +2322,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="80"/>
+      <c r="S4" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -2356,26 +2362,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="52"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2390,17 +2396,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="57" t="s">
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="81"/>
+    </row>
+    <row r="7" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2413,17 +2419,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="52"/>
-    </row>
-    <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="62" t="s">
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="81"/>
+    </row>
+    <row r="8" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -2436,18 +2442,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="65" t="s">
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="81"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="61" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2461,18 +2467,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="52"/>
-    </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="67" t="s">
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="81"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2484,17 +2490,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="75"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+    </row>
+    <row r="11" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
       <c r="B11" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -2507,17 +2513,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="52"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="57" t="s">
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="81"/>
+    </row>
+    <row r="12" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -2530,65 +2536,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="52"/>
-    </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="59" t="s">
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="81"/>
+    </row>
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="62" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="84" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="52"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="81"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="63"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="57" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="81"/>
+    </row>
+    <row r="15" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2601,17 +2607,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="52"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="57" t="s">
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="81"/>
+    </row>
+    <row r="16" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2624,17 +2630,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="57" t="s">
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="81"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2647,17 +2653,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="59" t="s">
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="81"/>
+    </row>
+    <row r="18" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2672,17 +2678,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="57" t="s">
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="81"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2695,17 +2701,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="58" t="s">
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="81"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2718,17 +2724,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="57" t="s">
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="81"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2741,17 +2747,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="57" t="s">
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="81"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2764,17 +2770,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="57" t="s">
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="81"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2787,17 +2793,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="59" t="s">
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="81"/>
+    </row>
+    <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2812,17 +2818,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="57" t="s">
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="81"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -2835,17 +2841,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="57" t="s">
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="81"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -2858,17 +2864,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" s="57" t="s">
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="81"/>
+    </row>
+    <row r="27" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -2881,17 +2887,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="59" t="s">
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="81"/>
+    </row>
+    <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2906,17 +2912,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="57" t="s">
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="81"/>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -2929,17 +2935,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="52"/>
-    </row>
-    <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="57" t="s">
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="81"/>
+    </row>
+    <row r="30" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -2952,17 +2958,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="52"/>
-    </row>
-    <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="58" t="s">
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="81"/>
+    </row>
+    <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -2975,17 +2981,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="52"/>
-    </row>
-    <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="58" t="s">
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="81"/>
+    </row>
+    <row r="32" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -2998,17 +3004,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="52"/>
-    </row>
-    <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="59" t="s">
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="81"/>
+    </row>
+    <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3023,17 +3029,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="52"/>
-    </row>
-    <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="57" t="s">
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="81"/>
+    </row>
+    <row r="34" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3046,17 +3052,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="52"/>
-    </row>
-    <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="58" t="s">
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="81"/>
+    </row>
+    <row r="35" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3069,17 +3075,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="52"/>
-    </row>
-    <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="58" t="s">
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="81"/>
+    </row>
+    <row r="36" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3092,17 +3098,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="52"/>
-    </row>
-    <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="75"/>
-      <c r="B37" s="59" t="s">
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="81"/>
+    </row>
+    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
@@ -3117,15 +3123,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="52"/>
-    </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A38" s="75"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="81"/>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -3138,15 +3144,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="52"/>
-    </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="73"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="81"/>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -3159,17 +3165,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="52"/>
-    </row>
-    <row r="40" spans="1:19" ht="18" customHeight="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="59" t="s">
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="81"/>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -3184,19 +3190,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="52"/>
-    </row>
-    <row r="41" spans="1:19" ht="21" customHeight="1">
-      <c r="A41" s="77" t="s">
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="81"/>
+    </row>
+    <row r="41" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="5" t="s">
         <v>25</v>
       </c>
@@ -3211,17 +3217,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="52"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A42" s="78"/>
-      <c r="B42" s="61" t="s">
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="81"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="58"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -3234,17 +3240,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="52"/>
-    </row>
-    <row r="43" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="61" t="s">
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="81"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3257,17 +3263,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="52"/>
-    </row>
-    <row r="44" spans="1:19" ht="21" customHeight="1">
-      <c r="A44" s="78"/>
-      <c r="B44" s="73" t="s">
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="81"/>
+    </row>
+    <row r="44" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="5" t="s">
         <v>25</v>
       </c>
@@ -3282,17 +3288,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="52"/>
-    </row>
-    <row r="45" spans="1:19" ht="21" customHeight="1">
-      <c r="A45" s="78"/>
-      <c r="B45" s="61" t="s">
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="81"/>
+    </row>
+    <row r="45" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -3305,17 +3311,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="52"/>
-    </row>
-    <row r="46" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A46" s="78"/>
-      <c r="B46" s="72" t="s">
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="81"/>
+    </row>
+    <row r="46" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -3328,17 +3334,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="52"/>
-    </row>
-    <row r="47" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A47" s="78"/>
-      <c r="B47" s="73" t="s">
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="81"/>
+    </row>
+    <row r="47" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3353,17 +3359,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="52"/>
-    </row>
-    <row r="48" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="76" t="s">
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="81"/>
+    </row>
+    <row r="48" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="60"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="5" t="s">
         <v>25</v>
       </c>
@@ -3378,19 +3384,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="52"/>
-    </row>
-    <row r="49" spans="1:19" ht="21" customHeight="1">
-      <c r="A49" s="78" t="s">
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="81"/>
+    </row>
+    <row r="49" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="60"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="5" t="s">
         <v>25</v>
       </c>
@@ -3405,17 +3411,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="52"/>
-    </row>
-    <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="78"/>
-      <c r="B50" s="61" t="s">
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="81"/>
+    </row>
+    <row r="50" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -3428,17 +3434,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="52"/>
-    </row>
-    <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="78"/>
-      <c r="B51" s="72" t="s">
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="81"/>
+    </row>
+    <row r="51" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="58"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3451,17 +3457,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="52"/>
-    </row>
-    <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="78"/>
-      <c r="B52" s="72" t="s">
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="81"/>
+    </row>
+    <row r="52" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3474,17 +3480,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="52"/>
-    </row>
-    <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="78"/>
-      <c r="B53" s="72" t="s">
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="81"/>
+    </row>
+    <row r="53" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="58"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3497,17 +3503,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="52"/>
-    </row>
-    <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="78"/>
-      <c r="B54" s="72" t="s">
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="81"/>
+    </row>
+    <row r="54" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="58"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3520,17 +3526,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="52"/>
-    </row>
-    <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="78"/>
-      <c r="B55" s="72" t="s">
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="81"/>
+    </row>
+    <row r="55" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="58"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3543,17 +3549,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="52"/>
-    </row>
-    <row r="56" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A56" s="78"/>
-      <c r="B56" s="72" t="s">
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="81"/>
+    </row>
+    <row r="56" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="58"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3566,17 +3572,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="52"/>
-    </row>
-    <row r="57" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A57" s="78"/>
-      <c r="B57" s="72" t="s">
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="81"/>
+    </row>
+    <row r="57" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="58"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3589,17 +3595,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="52"/>
-    </row>
-    <row r="58" spans="1:19" ht="21" customHeight="1">
-      <c r="A58" s="79"/>
-      <c r="B58" s="73" t="s">
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="81"/>
+    </row>
+    <row r="58" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="60"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="5" t="s">
         <v>25</v>
       </c>
@@ -3614,19 +3620,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="52"/>
-    </row>
-    <row r="59" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A59" s="70" t="s">
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="81"/>
+    </row>
+    <row r="59" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="1" t="s">
         <v>84</v>
       </c>
@@ -3641,17 +3647,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="52"/>
-    </row>
-    <row r="60" spans="1:19" ht="21" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="59" t="s">
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="81"/>
+    </row>
+    <row r="60" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
+      <c r="B60" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="5" t="s">
         <v>84</v>
       </c>
@@ -3666,17 +3672,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="52"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A61" s="71"/>
-      <c r="B61" s="57" t="s">
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="81"/>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
+      <c r="B61" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="58"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -3689,17 +3695,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="52"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="57" t="s">
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="81"/>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+      <c r="B62" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="58"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -3712,17 +3718,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="52"/>
-    </row>
-    <row r="63" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A63" s="71"/>
-      <c r="B63" s="59" t="s">
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="81"/>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="5" t="s">
         <v>84</v>
       </c>
@@ -3737,17 +3743,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="52"/>
-    </row>
-    <row r="64" spans="1:19" ht="21" customHeight="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="59" t="s">
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="82"/>
+      <c r="S63" s="81"/>
+    </row>
+    <row r="64" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
+      <c r="B64" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="60"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="5" t="s">
         <v>84</v>
       </c>
@@ -3762,17 +3768,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="52"/>
-    </row>
-    <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="71"/>
-      <c r="B65" s="57" t="s">
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="81"/>
+    </row>
+    <row r="65" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
+      <c r="B65" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="58"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -3785,17 +3791,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="52"/>
-    </row>
-    <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="71"/>
-      <c r="B66" s="58" t="s">
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="82"/>
+      <c r="S65" s="81"/>
+    </row>
+    <row r="66" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56"/>
+      <c r="B66" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="58"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -3808,17 +3814,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="52"/>
-    </row>
-    <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="71"/>
-      <c r="B67" s="58" t="s">
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="82"/>
+      <c r="S66" s="81"/>
+    </row>
+    <row r="67" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
+      <c r="B67" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="58"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -3831,17 +3837,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="52"/>
-    </row>
-    <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="71"/>
-      <c r="B68" s="58" t="s">
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="82"/>
+      <c r="S67" s="81"/>
+    </row>
+    <row r="68" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="56"/>
+      <c r="B68" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="58"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -3854,17 +3860,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="52"/>
-    </row>
-    <row r="69" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A69" s="71"/>
-      <c r="B69" s="58" t="s">
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="82"/>
+      <c r="S68" s="81"/>
+    </row>
+    <row r="69" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="58"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -3877,17 +3883,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="52"/>
-    </row>
-    <row r="70" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A70" s="71"/>
-      <c r="B70" s="58" t="s">
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="81"/>
+    </row>
+    <row r="70" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56"/>
+      <c r="B70" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="58"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -3900,17 +3906,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="52"/>
-    </row>
-    <row r="71" spans="1:19" ht="21" customHeight="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="59" t="s">
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="81"/>
+    </row>
+    <row r="71" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56"/>
+      <c r="B71" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="60"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="5" t="s">
         <v>84</v>
       </c>
@@ -3925,17 +3931,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="52"/>
-    </row>
-    <row r="72" spans="1:19" ht="21" customHeight="1">
-      <c r="A72" s="71"/>
-      <c r="B72" s="59" t="s">
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="81"/>
+    </row>
+    <row r="72" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="56"/>
+      <c r="B72" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="5" t="s">
         <v>84</v>
       </c>
@@ -3950,19 +3956,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="52"/>
-    </row>
-    <row r="73" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A73" s="75" t="s">
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="82"/>
+      <c r="S72" s="81"/>
+    </row>
+    <row r="73" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="60"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="1" t="s">
         <v>95</v>
       </c>
@@ -3977,17 +3983,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="52"/>
-    </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1">
-      <c r="A74" s="75"/>
-      <c r="B74" s="57" t="s">
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="82"/>
+      <c r="S73" s="81"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="58"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -4000,17 +4006,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="53"/>
-      <c r="S74" s="52"/>
-    </row>
-    <row r="75" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A75" s="75"/>
-      <c r="B75" s="58" t="s">
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="82"/>
+      <c r="S74" s="81"/>
+    </row>
+    <row r="75" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="58"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4027,17 +4033,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="52"/>
-    </row>
-    <row r="76" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="B76" s="58" t="s">
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="82"/>
+      <c r="S75" s="81"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="58"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>113</v>
@@ -4053,17 +4059,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="52"/>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1">
-      <c r="A77" s="75"/>
-      <c r="B77" s="58" t="s">
+      <c r="P76" s="81"/>
+      <c r="Q76" s="81"/>
+      <c r="R76" s="82"/>
+      <c r="S76" s="81"/>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="58"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -4080,17 +4086,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="52"/>
-    </row>
-    <row r="78" spans="1:19" ht="21" customHeight="1">
-      <c r="A78" s="75"/>
-      <c r="B78" s="59" t="s">
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="82"/>
+      <c r="S77" s="81"/>
+    </row>
+    <row r="78" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="B78" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="60"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="5" t="s">
         <v>88</v>
       </c>
@@ -4105,17 +4111,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="52"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="52"/>
-    </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1">
-      <c r="A79" s="75"/>
-      <c r="B79" s="57" t="s">
+      <c r="P78" s="81"/>
+      <c r="Q78" s="81"/>
+      <c r="R78" s="82"/>
+      <c r="S78" s="81"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="58"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -4128,17 +4134,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="52"/>
-    </row>
-    <row r="80" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A80" s="75"/>
-      <c r="B80" s="58" t="s">
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
+      <c r="R79" s="82"/>
+      <c r="S79" s="81"/>
+    </row>
+    <row r="80" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40"/>
+      <c r="B80" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="58"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -4151,17 +4157,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="52"/>
-    </row>
-    <row r="81" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A81" s="75"/>
-      <c r="B81" s="58" t="s">
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="82"/>
+      <c r="S80" s="81"/>
+    </row>
+    <row r="81" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40"/>
+      <c r="B81" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="58"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -4174,17 +4180,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="52"/>
-    </row>
-    <row r="82" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A82" s="75"/>
-      <c r="B82" s="59" t="s">
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="82"/>
+      <c r="S81" s="81"/>
+    </row>
+    <row r="82" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40"/>
+      <c r="B82" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="60"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="5" t="s">
         <v>88</v>
       </c>
@@ -4199,17 +4205,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="52"/>
-      <c r="R82" s="53"/>
-      <c r="S82" s="52"/>
-    </row>
-    <row r="83" spans="1:19" ht="18" customHeight="1">
-      <c r="A83" s="75"/>
-      <c r="B83" s="57" t="s">
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="82"/>
+      <c r="S82" s="81"/>
+    </row>
+    <row r="83" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="58"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4222,17 +4228,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="52"/>
-    </row>
-    <row r="84" spans="1:19" ht="18" customHeight="1">
-      <c r="A84" s="75"/>
-      <c r="B84" s="58" t="s">
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="82"/>
+      <c r="S83" s="81"/>
+    </row>
+    <row r="84" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="40"/>
+      <c r="B84" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="58"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4245,17 +4251,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="52"/>
-      <c r="R84" s="53"/>
-      <c r="S84" s="52"/>
-    </row>
-    <row r="85" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A85" s="75"/>
-      <c r="B85" s="58" t="s">
+      <c r="P84" s="81"/>
+      <c r="Q84" s="81"/>
+      <c r="R84" s="82"/>
+      <c r="S84" s="81"/>
+    </row>
+    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40"/>
+      <c r="B85" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="58"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -4268,19 +4274,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="53"/>
-      <c r="S85" s="52"/>
-    </row>
-    <row r="86" spans="1:19" ht="21" customHeight="1">
-      <c r="A86" s="75" t="s">
+      <c r="P85" s="81"/>
+      <c r="Q85" s="81"/>
+      <c r="R85" s="82"/>
+      <c r="S85" s="81"/>
+    </row>
+    <row r="86" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="60"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="1" t="s">
         <v>61</v>
       </c>
@@ -4295,17 +4301,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="53"/>
-      <c r="S86" s="52"/>
-    </row>
-    <row r="87" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A87" s="75"/>
-      <c r="B87" s="57" t="s">
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="82"/>
+      <c r="S86" s="81"/>
+    </row>
+    <row r="87" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="40"/>
+      <c r="B87" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="58"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
       <c r="E87" s="16" t="s">
         <v>112</v>
@@ -4320,17 +4326,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="52"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="75"/>
-      <c r="B88" s="57" t="s">
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="81"/>
+    </row>
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
+      <c r="B88" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="58"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4345,17 +4351,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="52"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="75"/>
-      <c r="B89" s="58" t="s">
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="82"/>
+      <c r="S88" s="81"/>
+    </row>
+    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
+      <c r="B89" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="58"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4370,17 +4376,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="53"/>
-      <c r="S89" s="52"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="75"/>
-      <c r="B90" s="58" t="s">
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="81"/>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="40"/>
+      <c r="B90" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="58"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4397,17 +4403,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="53"/>
-      <c r="S90" s="52"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="75"/>
-      <c r="B91" s="58" t="s">
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="82"/>
+      <c r="S90" s="81"/>
+    </row>
+    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
+      <c r="B91" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="58"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4424,17 +4430,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="52"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A92" s="75"/>
-      <c r="B92" s="58" t="s">
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="81"/>
+    </row>
+    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="40"/>
+      <c r="B92" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="58"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -4451,17 +4457,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="52"/>
-      <c r="R92" s="53"/>
-      <c r="S92" s="52"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A93" s="75"/>
-      <c r="B93" s="58" t="s">
+      <c r="P92" s="81"/>
+      <c r="Q92" s="81"/>
+      <c r="R92" s="82"/>
+      <c r="S92" s="81"/>
+    </row>
+    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="40"/>
+      <c r="B93" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="58"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -4478,17 +4484,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="53"/>
-      <c r="S93" s="52"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A94" s="75"/>
-      <c r="B94" s="58" t="s">
+      <c r="P93" s="81"/>
+      <c r="Q93" s="81"/>
+      <c r="R93" s="82"/>
+      <c r="S93" s="81"/>
+    </row>
+    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="58"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -4503,17 +4509,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="52"/>
-    </row>
-    <row r="95" spans="1:19" ht="21" customHeight="1">
-      <c r="A95" s="75"/>
-      <c r="B95" s="59" t="s">
+      <c r="P94" s="81"/>
+      <c r="Q94" s="81"/>
+      <c r="R94" s="82"/>
+      <c r="S94" s="81"/>
+    </row>
+    <row r="95" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="60"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="5" t="s">
         <v>61</v>
       </c>
@@ -4528,17 +4534,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="52"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="52"/>
-    </row>
-    <row r="96" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A96" s="75"/>
-      <c r="B96" s="57" t="s">
+      <c r="P95" s="81"/>
+      <c r="Q95" s="81"/>
+      <c r="R95" s="82"/>
+      <c r="S95" s="81"/>
+    </row>
+    <row r="96" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="58"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="5"/>
       <c r="E96" s="17" t="s">
         <v>112</v>
@@ -4553,17 +4559,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="52"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="52"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="75"/>
-      <c r="B97" s="57" t="s">
+      <c r="P96" s="81"/>
+      <c r="Q96" s="81"/>
+      <c r="R96" s="82"/>
+      <c r="S96" s="81"/>
+    </row>
+    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="58"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -4578,17 +4584,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="52"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="58" t="s">
+      <c r="P97" s="81"/>
+      <c r="Q97" s="81"/>
+      <c r="R97" s="82"/>
+      <c r="S97" s="81"/>
+    </row>
+    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="58"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -4603,17 +4609,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="52"/>
-      <c r="Q98" s="52"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="52"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A99" s="75"/>
-      <c r="B99" s="58" t="s">
+      <c r="P98" s="81"/>
+      <c r="Q98" s="81"/>
+      <c r="R98" s="82"/>
+      <c r="S98" s="81"/>
+    </row>
+    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="58"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -4632,17 +4638,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="52"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A100" s="75"/>
-      <c r="B100" s="58" t="s">
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
+      <c r="R99" s="82"/>
+      <c r="S99" s="81"/>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="58"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -4657,17 +4663,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="52"/>
-      <c r="Q100" s="52"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="52"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A101" s="75"/>
-      <c r="B101" s="58" t="s">
+      <c r="P100" s="81"/>
+      <c r="Q100" s="81"/>
+      <c r="R100" s="82"/>
+      <c r="S100" s="81"/>
+    </row>
+    <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="58"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -4682,19 +4688,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="52"/>
-      <c r="Q101" s="52"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="52"/>
-    </row>
-    <row r="102" spans="1:19" ht="18" customHeight="1">
-      <c r="A102" s="75" t="s">
+      <c r="P101" s="81"/>
+      <c r="Q101" s="81"/>
+      <c r="R101" s="82"/>
+      <c r="S101" s="81"/>
+    </row>
+    <row r="102" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="59" t="s">
+      <c r="B102" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="60"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="1" t="s">
         <v>61</v>
       </c>
@@ -4709,17 +4715,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="52"/>
-      <c r="Q102" s="52"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="52"/>
-    </row>
-    <row r="103" spans="1:19" ht="18" customHeight="1">
-      <c r="A103" s="75"/>
-      <c r="B103" s="57" t="s">
+      <c r="P102" s="81"/>
+      <c r="Q102" s="81"/>
+      <c r="R102" s="82"/>
+      <c r="S102" s="81"/>
+    </row>
+    <row r="103" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="58"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="1"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -4734,17 +4740,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="52"/>
-      <c r="Q103" s="52"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="52"/>
-    </row>
-    <row r="104" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A104" s="75"/>
-      <c r="B104" s="57" t="s">
+      <c r="P103" s="81"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="82"/>
+      <c r="S103" s="81"/>
+    </row>
+    <row r="104" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="58"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -4757,17 +4763,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="52"/>
-      <c r="Q104" s="52"/>
-      <c r="R104" s="53"/>
-      <c r="S104" s="52"/>
-    </row>
-    <row r="105" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A105" s="75"/>
-      <c r="B105" s="59" t="s">
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="82"/>
+      <c r="S104" s="81"/>
+    </row>
+    <row r="105" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="60"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="5" t="s">
         <v>61</v>
       </c>
@@ -4782,17 +4788,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="52"/>
-      <c r="Q105" s="52"/>
-      <c r="R105" s="53"/>
-      <c r="S105" s="52"/>
-    </row>
-    <row r="106" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A106" s="75"/>
-      <c r="B106" s="57" t="s">
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="82"/>
+      <c r="S105" s="81"/>
+    </row>
+    <row r="106" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="57"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="5"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -4807,17 +4813,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="52"/>
-      <c r="Q106" s="52"/>
-      <c r="R106" s="53"/>
-      <c r="S106" s="52"/>
-    </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1">
-      <c r="A107" s="75"/>
-      <c r="B107" s="57" t="s">
+      <c r="P106" s="81"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="82"/>
+      <c r="S106" s="81"/>
+    </row>
+    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="58"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -4832,17 +4838,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="52"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="52"/>
-    </row>
-    <row r="108" spans="1:19" ht="15" customHeight="1">
-      <c r="A108" s="75"/>
-      <c r="B108" s="58" t="s">
+      <c r="P107" s="81"/>
+      <c r="Q107" s="81"/>
+      <c r="R107" s="82"/>
+      <c r="S107" s="81"/>
+    </row>
+    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="58"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -4857,17 +4863,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="52"/>
-      <c r="Q108" s="52"/>
-      <c r="R108" s="53"/>
-      <c r="S108" s="52"/>
-    </row>
-    <row r="109" spans="1:19" ht="15" customHeight="1">
-      <c r="A109" s="75"/>
-      <c r="B109" s="58" t="s">
+      <c r="P108" s="81"/>
+      <c r="Q108" s="81"/>
+      <c r="R108" s="82"/>
+      <c r="S108" s="81"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="58"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -4882,17 +4888,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="52"/>
-      <c r="Q109" s="52"/>
-      <c r="R109" s="53"/>
-      <c r="S109" s="52"/>
-    </row>
-    <row r="110" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A110" s="75"/>
-      <c r="B110" s="58" t="s">
+      <c r="P109" s="81"/>
+      <c r="Q109" s="81"/>
+      <c r="R109" s="82"/>
+      <c r="S109" s="81"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="58"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -4907,17 +4913,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="52"/>
-      <c r="Q110" s="52"/>
-      <c r="R110" s="53"/>
-      <c r="S110" s="52"/>
-    </row>
-    <row r="111" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A111" s="75"/>
-      <c r="B111" s="58" t="s">
+      <c r="P110" s="81"/>
+      <c r="Q110" s="81"/>
+      <c r="R110" s="82"/>
+      <c r="S110" s="81"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="58"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -4932,17 +4938,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="52"/>
-      <c r="Q111" s="52"/>
-      <c r="R111" s="53"/>
-      <c r="S111" s="52"/>
-    </row>
-    <row r="112" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A112" s="75"/>
-      <c r="B112" s="58" t="s">
+      <c r="P111" s="81"/>
+      <c r="Q111" s="81"/>
+      <c r="R111" s="82"/>
+      <c r="S111" s="81"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="58"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -4957,17 +4963,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="52"/>
-      <c r="Q112" s="52"/>
-      <c r="R112" s="53"/>
-      <c r="S112" s="52"/>
-    </row>
-    <row r="113" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A113" s="75"/>
-      <c r="B113" s="59" t="s">
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="82"/>
+      <c r="S112" s="81"/>
+    </row>
+    <row r="113" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="60"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="5" t="s">
         <v>61</v>
       </c>
@@ -4982,17 +4988,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="52"/>
-      <c r="Q113" s="52"/>
-      <c r="R113" s="53"/>
-      <c r="S113" s="52"/>
-    </row>
-    <row r="114" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A114" s="75"/>
-      <c r="B114" s="57" t="s">
+      <c r="P113" s="81"/>
+      <c r="Q113" s="81"/>
+      <c r="R113" s="82"/>
+      <c r="S113" s="81"/>
+    </row>
+    <row r="114" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="58"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="5"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -5007,17 +5013,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="52"/>
-      <c r="Q114" s="52"/>
-      <c r="R114" s="53"/>
-      <c r="S114" s="52"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A115" s="75"/>
-      <c r="B115" s="57" t="s">
+      <c r="P114" s="81"/>
+      <c r="Q114" s="81"/>
+      <c r="R114" s="82"/>
+      <c r="S114" s="81"/>
+    </row>
+    <row r="115" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="58"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5032,17 +5038,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="52"/>
-      <c r="Q115" s="52"/>
-      <c r="R115" s="53"/>
-      <c r="S115" s="52"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A116" s="75"/>
-      <c r="B116" s="58" t="s">
+      <c r="P115" s="81"/>
+      <c r="Q115" s="81"/>
+      <c r="R115" s="82"/>
+      <c r="S115" s="81"/>
+    </row>
+    <row r="116" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C116" s="58"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -5057,17 +5063,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="52"/>
-      <c r="Q116" s="52"/>
-      <c r="R116" s="53"/>
-      <c r="S116" s="52"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A117" s="75"/>
-      <c r="B117" s="58" t="s">
+      <c r="P116" s="81"/>
+      <c r="Q116" s="81"/>
+      <c r="R116" s="82"/>
+      <c r="S116" s="81"/>
+    </row>
+    <row r="117" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C117" s="58"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -5082,17 +5088,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="52"/>
-      <c r="Q117" s="52"/>
-      <c r="R117" s="53"/>
-      <c r="S117" s="52"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A118" s="75"/>
-      <c r="B118" s="58" t="s">
+      <c r="P117" s="81"/>
+      <c r="Q117" s="81"/>
+      <c r="R117" s="82"/>
+      <c r="S117" s="81"/>
+    </row>
+    <row r="118" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="58"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -5107,17 +5113,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="52"/>
-      <c r="Q118" s="52"/>
-      <c r="R118" s="53"/>
-      <c r="S118" s="52"/>
-    </row>
-    <row r="119" spans="1:19" ht="21" customHeight="1">
-      <c r="A119" s="75"/>
-      <c r="B119" s="59" t="s">
+      <c r="P118" s="81"/>
+      <c r="Q118" s="81"/>
+      <c r="R118" s="82"/>
+      <c r="S118" s="81"/>
+    </row>
+    <row r="119" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="40"/>
+      <c r="B119" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="60"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="5" t="s">
         <v>61</v>
       </c>
@@ -5132,17 +5138,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="52"/>
-      <c r="Q119" s="52"/>
-      <c r="R119" s="53"/>
-      <c r="S119" s="52"/>
-    </row>
-    <row r="120" spans="1:19" ht="21" customHeight="1">
-      <c r="A120" s="75"/>
-      <c r="B120" s="57" t="s">
+      <c r="P119" s="81"/>
+      <c r="Q119" s="81"/>
+      <c r="R119" s="82"/>
+      <c r="S119" s="81"/>
+    </row>
+    <row r="120" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="40"/>
+      <c r="B120" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="58"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="5"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -5157,17 +5163,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="52"/>
-      <c r="Q120" s="52"/>
-      <c r="R120" s="53"/>
-      <c r="S120" s="52"/>
-    </row>
-    <row r="121" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A121" s="75"/>
-      <c r="B121" s="57" t="s">
+      <c r="P120" s="81"/>
+      <c r="Q120" s="81"/>
+      <c r="R120" s="82"/>
+      <c r="S120" s="81"/>
+    </row>
+    <row r="121" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="40"/>
+      <c r="B121" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="58"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -5182,58 +5188,58 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="54"/>
-      <c r="Q121" s="54"/>
-      <c r="R121" s="55"/>
-      <c r="S121" s="54"/>
-    </row>
-    <row r="122" spans="1:19">
-      <c r="B122" s="74"/>
-      <c r="C122" s="74"/>
-    </row>
-    <row r="123" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A123" s="45" t="s">
+      <c r="P121" s="83"/>
+      <c r="Q121" s="83"/>
+      <c r="R121" s="84"/>
+      <c r="S121" s="83"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+    </row>
+    <row r="123" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
-      <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="45"/>
-      <c r="P123" s="45"/>
-      <c r="Q123" s="45"/>
-      <c r="R123" s="45"/>
-    </row>
-    <row r="124" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="45"/>
-      <c r="L124" s="45"/>
-      <c r="M124" s="45"/>
-      <c r="N124" s="45"/>
-      <c r="O124" s="45"/>
-      <c r="P124" s="45"/>
-      <c r="Q124" s="45"/>
-      <c r="R124" s="45"/>
-    </row>
-    <row r="125" spans="1:19" ht="13.5" customHeight="1">
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="74"/>
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="74"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+    </row>
+    <row r="124" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="74"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="74"/>
+      <c r="R124" s="74"/>
+    </row>
+    <row r="125" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>165</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="13.5" customHeight="1">
+    <row r="126" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>163</v>
       </c>
@@ -5306,12 +5312,12 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="36"/>
-      <c r="P126" s="39"/>
-      <c r="Q126" s="40"/>
-      <c r="R126" s="36"/>
-    </row>
-    <row r="127" spans="1:19" ht="13.5" customHeight="1">
+      <c r="O126" s="65"/>
+      <c r="P126" s="68"/>
+      <c r="Q126" s="69"/>
+      <c r="R126" s="65"/>
+    </row>
+    <row r="127" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>144</v>
       </c>
@@ -5332,12 +5338,12 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="37"/>
-      <c r="P127" s="41"/>
-      <c r="Q127" s="42"/>
-      <c r="R127" s="37"/>
-    </row>
-    <row r="128" spans="1:19" ht="13.5" customHeight="1">
+      <c r="O127" s="66"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="71"/>
+      <c r="R127" s="66"/>
+    </row>
+    <row r="128" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>162</v>
       </c>
@@ -5362,12 +5368,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="37"/>
-      <c r="P128" s="41"/>
-      <c r="Q128" s="42"/>
-      <c r="R128" s="37"/>
-    </row>
-    <row r="129" spans="1:18" ht="14.25">
+      <c r="O128" s="66"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="71"/>
+      <c r="R128" s="66"/>
+    </row>
+    <row r="129" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>127</v>
       </c>
@@ -5390,12 +5396,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="37"/>
-      <c r="P129" s="41"/>
-      <c r="Q129" s="42"/>
-      <c r="R129" s="37"/>
-    </row>
-    <row r="130" spans="1:18" ht="17.25">
+      <c r="O129" s="66"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="71"/>
+      <c r="R129" s="66"/>
+    </row>
+    <row r="130" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>159</v>
       </c>
@@ -5412,12 +5418,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="37"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="42"/>
-      <c r="R130" s="37"/>
-    </row>
-    <row r="131" spans="1:18" ht="14.25">
+      <c r="O130" s="66"/>
+      <c r="P130" s="70"/>
+      <c r="Q130" s="71"/>
+      <c r="R130" s="66"/>
+    </row>
+    <row r="131" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A131" s="34" t="s">
         <v>127</v>
       </c>
@@ -5438,12 +5444,12 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="37"/>
-      <c r="P131" s="41"/>
-      <c r="Q131" s="42"/>
-      <c r="R131" s="37"/>
-    </row>
-    <row r="132" spans="1:18" ht="14.25">
+      <c r="O131" s="66"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="71"/>
+      <c r="R131" s="66"/>
+    </row>
+    <row r="132" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
         <v>157</v>
       </c>
@@ -5464,12 +5470,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="37"/>
-      <c r="P132" s="41"/>
-      <c r="Q132" s="42"/>
-      <c r="R132" s="37"/>
-    </row>
-    <row r="133" spans="1:18" ht="17.25">
+      <c r="O132" s="66"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="66"/>
+    </row>
+    <row r="133" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -5486,12 +5492,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="41"/>
-      <c r="Q133" s="42"/>
-      <c r="R133" s="37"/>
-    </row>
-    <row r="134" spans="1:18" ht="14.25">
+      <c r="O133" s="66"/>
+      <c r="P133" s="70"/>
+      <c r="Q133" s="71"/>
+      <c r="R133" s="66"/>
+    </row>
+    <row r="134" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A134" s="34" t="s">
         <v>155</v>
       </c>
@@ -5510,12 +5516,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="37"/>
-      <c r="P134" s="41"/>
-      <c r="Q134" s="42"/>
-      <c r="R134" s="37"/>
-    </row>
-    <row r="135" spans="1:18" ht="14.25">
+      <c r="O134" s="66"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="71"/>
+      <c r="R134" s="66"/>
+    </row>
+    <row r="135" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
         <v>154</v>
       </c>
@@ -5534,12 +5540,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="37"/>
-      <c r="P135" s="41"/>
-      <c r="Q135" s="42"/>
-      <c r="R135" s="37"/>
-    </row>
-    <row r="136" spans="1:18" ht="14.25">
+      <c r="O135" s="66"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="71"/>
+      <c r="R135" s="66"/>
+    </row>
+    <row r="136" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A136" s="30" t="s">
         <v>153</v>
       </c>
@@ -5562,12 +5568,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="37"/>
-      <c r="P136" s="41"/>
-      <c r="Q136" s="42"/>
-      <c r="R136" s="37"/>
-    </row>
-    <row r="137" spans="1:18" ht="14.25">
+      <c r="O136" s="66"/>
+      <c r="P136" s="70"/>
+      <c r="Q136" s="71"/>
+      <c r="R136" s="66"/>
+    </row>
+    <row r="137" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A137" s="30" t="s">
         <v>151</v>
       </c>
@@ -5590,12 +5596,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="37"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="42"/>
-      <c r="R137" s="37"/>
-    </row>
-    <row r="138" spans="1:18" ht="14.25">
+      <c r="O137" s="66"/>
+      <c r="P137" s="70"/>
+      <c r="Q137" s="71"/>
+      <c r="R137" s="66"/>
+    </row>
+    <row r="138" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A138" s="30" t="s">
         <v>150</v>
       </c>
@@ -5623,21 +5629,21 @@
       <c r="K138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="L138" s="28" t="s">
+      <c r="L138" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="M138" s="28" t="s">
+      <c r="M138" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="N138" s="28" t="s">
+      <c r="N138" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="O138" s="37"/>
-      <c r="P138" s="41"/>
-      <c r="Q138" s="42"/>
-      <c r="R138" s="37"/>
-    </row>
-    <row r="139" spans="1:18" ht="17.25">
+      <c r="O138" s="66"/>
+      <c r="P138" s="70"/>
+      <c r="Q138" s="71"/>
+      <c r="R138" s="66"/>
+    </row>
+    <row r="139" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
         <v>147</v>
       </c>
@@ -5654,12 +5660,12 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="37"/>
-      <c r="P139" s="41"/>
-      <c r="Q139" s="42"/>
-      <c r="R139" s="37"/>
-    </row>
-    <row r="140" spans="1:18" ht="14.25">
+      <c r="O139" s="66"/>
+      <c r="P139" s="70"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="66"/>
+    </row>
+    <row r="140" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A140" s="30" t="s">
         <v>144</v>
       </c>
@@ -5682,12 +5688,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="37"/>
-      <c r="P140" s="41"/>
-      <c r="Q140" s="42"/>
-      <c r="R140" s="37"/>
-    </row>
-    <row r="141" spans="1:18" ht="17.25">
+      <c r="O140" s="66"/>
+      <c r="P140" s="70"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="66"/>
+    </row>
+    <row r="141" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
         <v>145</v>
       </c>
@@ -5704,12 +5710,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="37"/>
-      <c r="P141" s="41"/>
-      <c r="Q141" s="42"/>
-      <c r="R141" s="37"/>
-    </row>
-    <row r="142" spans="1:18" ht="14.25">
+      <c r="O141" s="66"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="66"/>
+    </row>
+    <row r="142" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A142" s="30" t="s">
         <v>144</v>
       </c>
@@ -5732,12 +5738,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="37"/>
-      <c r="P142" s="41"/>
-      <c r="Q142" s="42"/>
-      <c r="R142" s="37"/>
-    </row>
-    <row r="143" spans="1:18" ht="17.25">
+      <c r="O142" s="66"/>
+      <c r="P142" s="70"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="66"/>
+    </row>
+    <row r="143" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
@@ -5754,12 +5760,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="37"/>
-      <c r="P143" s="41"/>
-      <c r="Q143" s="42"/>
-      <c r="R143" s="37"/>
-    </row>
-    <row r="144" spans="1:18" ht="14.25">
+      <c r="O143" s="66"/>
+      <c r="P143" s="70"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="66"/>
+    </row>
+    <row r="144" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>141</v>
       </c>
@@ -5788,12 +5794,12 @@
       <c r="N144" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O144" s="37"/>
-      <c r="P144" s="41"/>
-      <c r="Q144" s="42"/>
-      <c r="R144" s="37"/>
-    </row>
-    <row r="145" spans="1:18" ht="14.25">
+      <c r="O144" s="66"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="66"/>
+    </row>
+    <row r="145" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="s">
         <v>140</v>
       </c>
@@ -5822,12 +5828,12 @@
       <c r="N145" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O145" s="37"/>
-      <c r="P145" s="41"/>
-      <c r="Q145" s="42"/>
-      <c r="R145" s="37"/>
-    </row>
-    <row r="146" spans="1:18" ht="17.25">
+      <c r="O145" s="66"/>
+      <c r="P145" s="70"/>
+      <c r="Q145" s="71"/>
+      <c r="R145" s="66"/>
+    </row>
+    <row r="146" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
         <v>136</v>
       </c>
@@ -5844,12 +5850,12 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="37"/>
-      <c r="P146" s="41"/>
-      <c r="Q146" s="42"/>
-      <c r="R146" s="37"/>
-    </row>
-    <row r="147" spans="1:18" ht="14.25">
+      <c r="O146" s="66"/>
+      <c r="P146" s="70"/>
+      <c r="Q146" s="71"/>
+      <c r="R146" s="66"/>
+    </row>
+    <row r="147" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>135</v>
       </c>
@@ -5870,12 +5876,12 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="37"/>
-      <c r="P147" s="41"/>
-      <c r="Q147" s="42"/>
-      <c r="R147" s="37"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="O147" s="66"/>
+      <c r="P147" s="70"/>
+      <c r="Q147" s="71"/>
+      <c r="R147" s="66"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>133</v>
       </c>
@@ -5894,12 +5900,12 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="37"/>
-      <c r="P148" s="41"/>
-      <c r="Q148" s="42"/>
-      <c r="R148" s="37"/>
-    </row>
-    <row r="149" spans="1:18" ht="17.25">
+      <c r="O148" s="66"/>
+      <c r="P148" s="70"/>
+      <c r="Q148" s="71"/>
+      <c r="R148" s="66"/>
+    </row>
+    <row r="149" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
         <v>132</v>
       </c>
@@ -5916,12 +5922,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="37"/>
-      <c r="P149" s="41"/>
-      <c r="Q149" s="42"/>
-      <c r="R149" s="37"/>
-    </row>
-    <row r="150" spans="1:18" ht="14.25">
+      <c r="O149" s="66"/>
+      <c r="P149" s="70"/>
+      <c r="Q149" s="71"/>
+      <c r="R149" s="66"/>
+    </row>
+    <row r="150" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A150" s="23" t="s">
         <v>131</v>
       </c>
@@ -5942,12 +5948,12 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="37"/>
-      <c r="P150" s="41"/>
-      <c r="Q150" s="42"/>
-      <c r="R150" s="37"/>
-    </row>
-    <row r="151" spans="1:18" ht="14.25">
+      <c r="O150" s="66"/>
+      <c r="P150" s="70"/>
+      <c r="Q150" s="71"/>
+      <c r="R150" s="66"/>
+    </row>
+    <row r="151" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
         <v>129</v>
       </c>
@@ -5968,12 +5974,12 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="37"/>
-      <c r="P151" s="41"/>
-      <c r="Q151" s="42"/>
-      <c r="R151" s="37"/>
-    </row>
-    <row r="152" spans="1:18" ht="17.25">
+      <c r="O151" s="66"/>
+      <c r="P151" s="70"/>
+      <c r="Q151" s="71"/>
+      <c r="R151" s="66"/>
+    </row>
+    <row r="152" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
         <v>128</v>
       </c>
@@ -5990,12 +5996,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="37"/>
-      <c r="P152" s="41"/>
-      <c r="Q152" s="42"/>
-      <c r="R152" s="37"/>
-    </row>
-    <row r="153" spans="1:18" ht="14.25">
+      <c r="O152" s="66"/>
+      <c r="P152" s="70"/>
+      <c r="Q152" s="71"/>
+      <c r="R152" s="66"/>
+    </row>
+    <row r="153" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A153" s="23" t="s">
         <v>127</v>
       </c>
@@ -6016,12 +6022,12 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="37"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="37"/>
-    </row>
-    <row r="154" spans="1:18" ht="17.25">
+      <c r="O153" s="66"/>
+      <c r="P153" s="70"/>
+      <c r="Q153" s="71"/>
+      <c r="R153" s="66"/>
+    </row>
+    <row r="154" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
         <v>125</v>
       </c>
@@ -6038,12 +6044,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="37"/>
-      <c r="P154" s="41"/>
-      <c r="Q154" s="42"/>
-      <c r="R154" s="37"/>
-    </row>
-    <row r="155" spans="1:18" ht="14.25">
+      <c r="O154" s="66"/>
+      <c r="P154" s="70"/>
+      <c r="Q154" s="71"/>
+      <c r="R154" s="66"/>
+    </row>
+    <row r="155" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A155" s="23" t="s">
         <v>124</v>
       </c>
@@ -6066,12 +6072,12 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="41"/>
-      <c r="Q155" s="42"/>
-      <c r="R155" s="37"/>
-    </row>
-    <row r="156" spans="1:18" ht="14.25">
+      <c r="O155" s="66"/>
+      <c r="P155" s="70"/>
+      <c r="Q155" s="71"/>
+      <c r="R155" s="66"/>
+    </row>
+    <row r="156" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
         <v>124</v>
       </c>
@@ -6094,12 +6100,12 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="41"/>
-      <c r="Q156" s="42"/>
-      <c r="R156" s="37"/>
-    </row>
-    <row r="157" spans="1:18" ht="14.25">
+      <c r="O156" s="66"/>
+      <c r="P156" s="70"/>
+      <c r="Q156" s="71"/>
+      <c r="R156" s="66"/>
+    </row>
+    <row r="157" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A157" s="24" t="s">
         <v>121</v>
       </c>
@@ -6120,12 +6126,12 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="42"/>
-      <c r="R157" s="37"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="O157" s="66"/>
+      <c r="P157" s="70"/>
+      <c r="Q157" s="71"/>
+      <c r="R157" s="66"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>117</v>
       </c>
@@ -6144,12 +6150,12 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="37"/>
-      <c r="P158" s="41"/>
-      <c r="Q158" s="42"/>
-      <c r="R158" s="37"/>
-    </row>
-    <row r="159" spans="1:18" ht="14.25">
+      <c r="O158" s="66"/>
+      <c r="P158" s="70"/>
+      <c r="Q158" s="71"/>
+      <c r="R158" s="66"/>
+    </row>
+    <row r="159" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A159" s="18" t="s">
         <v>117</v>
       </c>
@@ -6170,22 +6176,130 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="38"/>
-      <c r="P159" s="43"/>
-      <c r="Q159" s="44"/>
-      <c r="R159" s="38"/>
+      <c r="O159" s="67"/>
+      <c r="P159" s="72"/>
+      <c r="Q159" s="73"/>
+      <c r="R159" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O126:O159"/>
+    <mergeCell ref="P126:Q159"/>
+    <mergeCell ref="R126:R159"/>
+    <mergeCell ref="A123:R124"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="Q4:R121"/>
+    <mergeCell ref="S4:S121"/>
+    <mergeCell ref="P4:P121"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="A4:A40"/>
@@ -6210,123 +6324,15 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O126:O159"/>
-    <mergeCell ref="P126:Q159"/>
-    <mergeCell ref="R126:R159"/>
-    <mergeCell ref="A123:R124"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="Q4:R121"/>
-    <mergeCell ref="S4:S121"/>
-    <mergeCell ref="P4:P121"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6342,82 +6348,82 @@
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.75" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="U1" s="46" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="U1" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-    </row>
-    <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="59" t="s">
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+    </row>
+    <row r="3" spans="1:29" ht="31" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6466,26 +6472,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-    </row>
-    <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="75" t="s">
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+    </row>
+    <row r="4" spans="1:29" ht="31" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6500,34 +6506,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="80"/>
+      <c r="S4" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="17.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6540,26 +6546,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="52"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="21">
-      <c r="A6" s="75"/>
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="1:29" ht="31" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -6574,17 +6580,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="1:29" ht="17.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="57" t="s">
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="81"/>
+    </row>
+    <row r="7" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -6597,17 +6603,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="52"/>
-    </row>
-    <row r="8" spans="1:29" ht="17.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="62" t="s">
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="81"/>
+    </row>
+    <row r="8" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -6620,18 +6626,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="9" spans="1:29" ht="21">
-      <c r="A9" s="82"/>
-      <c r="B9" s="65" t="s">
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="81"/>
+    </row>
+    <row r="9" spans="1:29" ht="31" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="61" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -6645,18 +6651,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="52"/>
-    </row>
-    <row r="10" spans="1:29" ht="21">
-      <c r="A10" s="82"/>
-      <c r="B10" s="67" t="s">
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="81"/>
+    </row>
+    <row r="10" spans="1:29" ht="31" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6668,17 +6674,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25">
-      <c r="A11" s="75"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+    </row>
+    <row r="11" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
       <c r="B11" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -6691,17 +6697,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="52"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="57" t="s">
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="81"/>
+    </row>
+    <row r="12" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -6714,65 +6720,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="52"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="75"/>
-      <c r="B13" s="59" t="s">
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="81"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="62" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="84" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="52"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="75"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="81"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="63"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="57" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="81"/>
+    </row>
+    <row r="15" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -6785,17 +6791,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="52"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="57" t="s">
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="81"/>
+    </row>
+    <row r="16" spans="1:29" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -6808,17 +6814,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="57" t="s">
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="81"/>
+    </row>
+    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -6831,17 +6837,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19" ht="21">
-      <c r="A18" s="75"/>
-      <c r="B18" s="59" t="s">
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="81"/>
+    </row>
+    <row r="18" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -6856,17 +6862,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="57" t="s">
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="81"/>
+    </row>
+    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -6879,17 +6885,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="58" t="s">
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="81"/>
+    </row>
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -6902,17 +6908,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="57" t="s">
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="81"/>
+    </row>
+    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -6925,17 +6931,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="57" t="s">
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="81"/>
+    </row>
+    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -6948,17 +6954,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="57" t="s">
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="81"/>
+    </row>
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -6971,17 +6977,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="1:19" ht="21">
-      <c r="A24" s="75"/>
-      <c r="B24" s="59" t="s">
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="81"/>
+    </row>
+    <row r="24" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -6996,17 +7002,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="57" t="s">
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="81"/>
+    </row>
+    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7019,17 +7025,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="57" t="s">
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="81"/>
+    </row>
+    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7042,17 +7048,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="57" t="s">
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="81"/>
+    </row>
+    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7065,17 +7071,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="1:19" ht="21">
-      <c r="A28" s="75"/>
-      <c r="B28" s="59" t="s">
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="81"/>
+    </row>
+    <row r="28" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7090,17 +7096,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="1:19" ht="17.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="57" t="s">
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="81"/>
+    </row>
+    <row r="29" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7113,17 +7119,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="52"/>
-    </row>
-    <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="57" t="s">
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="81"/>
+    </row>
+    <row r="30" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7136,17 +7142,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="52"/>
-    </row>
-    <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="58" t="s">
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="81"/>
+    </row>
+    <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7159,17 +7165,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="52"/>
-    </row>
-    <row r="32" spans="1:19" ht="17.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="58" t="s">
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="81"/>
+    </row>
+    <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7182,17 +7188,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="52"/>
-    </row>
-    <row r="33" spans="1:19" ht="21">
-      <c r="A33" s="75"/>
-      <c r="B33" s="59" t="s">
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="81"/>
+    </row>
+    <row r="33" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7207,17 +7213,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="52"/>
-    </row>
-    <row r="34" spans="1:19" ht="17.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="57" t="s">
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="81"/>
+    </row>
+    <row r="34" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7230,17 +7236,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="52"/>
-    </row>
-    <row r="35" spans="1:19" ht="17.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="58" t="s">
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="81"/>
+    </row>
+    <row r="35" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7253,17 +7259,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="52"/>
-    </row>
-    <row r="36" spans="1:19" ht="17.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="58" t="s">
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="81"/>
+    </row>
+    <row r="36" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7276,17 +7282,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="52"/>
-    </row>
-    <row r="37" spans="1:19" ht="21">
-      <c r="A37" s="75"/>
-      <c r="B37" s="59" t="s">
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="81"/>
+    </row>
+    <row r="37" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7301,15 +7307,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="52"/>
-    </row>
-    <row r="38" spans="1:19" ht="21">
-      <c r="A38" s="75"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="81"/>
+    </row>
+    <row r="38" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7322,15 +7328,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="52"/>
-    </row>
-    <row r="39" spans="1:19" ht="21">
-      <c r="A39" s="75"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="73"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="81"/>
+    </row>
+    <row r="39" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7343,17 +7349,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="52"/>
-    </row>
-    <row r="40" spans="1:19" ht="21">
-      <c r="A40" s="77"/>
-      <c r="B40" s="59" t="s">
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="81"/>
+    </row>
+    <row r="40" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7368,19 +7374,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="52"/>
-    </row>
-    <row r="41" spans="1:19" ht="21">
-      <c r="A41" s="77" t="s">
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="81"/>
+    </row>
+    <row r="41" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7395,17 +7401,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="52"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="61" t="s">
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="81"/>
+    </row>
+    <row r="42" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="58"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7418,17 +7424,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="52"/>
-    </row>
-    <row r="43" spans="1:19" ht="17.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="61" t="s">
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="81"/>
+    </row>
+    <row r="43" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7441,17 +7447,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="52"/>
-    </row>
-    <row r="44" spans="1:19" ht="21">
-      <c r="A44" s="78"/>
-      <c r="B44" s="73" t="s">
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="81"/>
+    </row>
+    <row r="44" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7466,17 +7472,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="52"/>
-    </row>
-    <row r="45" spans="1:19" ht="17.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="61" t="s">
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="81"/>
+    </row>
+    <row r="45" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7489,17 +7495,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="52"/>
-    </row>
-    <row r="46" spans="1:19" ht="17.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="72" t="s">
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="81"/>
+    </row>
+    <row r="46" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7512,17 +7518,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="52"/>
-    </row>
-    <row r="47" spans="1:19" ht="21">
-      <c r="A47" s="78"/>
-      <c r="B47" s="73" t="s">
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="81"/>
+    </row>
+    <row r="47" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7537,17 +7543,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="52"/>
-    </row>
-    <row r="48" spans="1:19" ht="21">
-      <c r="A48" s="78"/>
-      <c r="B48" s="76" t="s">
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="81"/>
+    </row>
+    <row r="48" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="60"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -7562,19 +7568,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="52"/>
-    </row>
-    <row r="49" spans="1:19" ht="21">
-      <c r="A49" s="78" t="s">
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="81"/>
+    </row>
+    <row r="49" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="60"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -7589,17 +7595,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="52"/>
-    </row>
-    <row r="50" spans="1:19" ht="17.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="61" t="s">
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="81"/>
+    </row>
+    <row r="50" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -7612,17 +7618,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="52"/>
-    </row>
-    <row r="51" spans="1:19" ht="17.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="72" t="s">
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="81"/>
+    </row>
+    <row r="51" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="58"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7635,17 +7641,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="52"/>
-    </row>
-    <row r="52" spans="1:19" ht="17.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="72" t="s">
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="81"/>
+    </row>
+    <row r="52" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -7658,17 +7664,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="52"/>
-    </row>
-    <row r="53" spans="1:19" ht="17.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="72" t="s">
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="81"/>
+    </row>
+    <row r="53" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="58"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -7681,17 +7687,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="52"/>
-    </row>
-    <row r="54" spans="1:19" ht="17.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="72" t="s">
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="81"/>
+    </row>
+    <row r="54" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="58"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -7704,17 +7710,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="52"/>
-    </row>
-    <row r="55" spans="1:19" ht="17.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="72" t="s">
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="81"/>
+    </row>
+    <row r="55" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="58"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -7727,17 +7733,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="52"/>
-    </row>
-    <row r="56" spans="1:19" ht="17.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="72" t="s">
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="81"/>
+    </row>
+    <row r="56" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="58"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -7750,17 +7756,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="52"/>
-    </row>
-    <row r="57" spans="1:19" ht="17.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="72" t="s">
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="81"/>
+    </row>
+    <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="58"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7773,17 +7779,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="52"/>
-    </row>
-    <row r="58" spans="1:19" ht="21">
-      <c r="A58" s="79"/>
-      <c r="B58" s="73" t="s">
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="81"/>
+    </row>
+    <row r="58" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="60"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -7798,19 +7804,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="52"/>
-    </row>
-    <row r="59" spans="1:19" ht="21">
-      <c r="A59" s="70" t="s">
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="81"/>
+    </row>
+    <row r="59" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -7825,17 +7831,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="52"/>
-    </row>
-    <row r="60" spans="1:19" ht="21">
-      <c r="A60" s="71"/>
-      <c r="B60" s="59" t="s">
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="81"/>
+    </row>
+    <row r="60" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
+      <c r="B60" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -7850,17 +7856,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="52"/>
-    </row>
-    <row r="61" spans="1:19" ht="17.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="57" t="s">
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="81"/>
+    </row>
+    <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
+      <c r="B61" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="58"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -7873,17 +7879,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="52"/>
-    </row>
-    <row r="62" spans="1:19" ht="17.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="57" t="s">
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="81"/>
+    </row>
+    <row r="62" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+      <c r="B62" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="58"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -7896,17 +7902,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="52"/>
-    </row>
-    <row r="63" spans="1:19" ht="21">
-      <c r="A63" s="71"/>
-      <c r="B63" s="59" t="s">
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="81"/>
+    </row>
+    <row r="63" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -7921,17 +7927,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="52"/>
-    </row>
-    <row r="64" spans="1:19" ht="21">
-      <c r="A64" s="71"/>
-      <c r="B64" s="59" t="s">
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="82"/>
+      <c r="S63" s="81"/>
+    </row>
+    <row r="64" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
+      <c r="B64" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="60"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -7946,17 +7952,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="52"/>
-    </row>
-    <row r="65" spans="1:19" ht="17.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="57" t="s">
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="81"/>
+    </row>
+    <row r="65" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
+      <c r="B65" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="58"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -7969,17 +7975,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="52"/>
-    </row>
-    <row r="66" spans="1:19" ht="17.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="58" t="s">
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="82"/>
+      <c r="S65" s="81"/>
+    </row>
+    <row r="66" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A66" s="56"/>
+      <c r="B66" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="58"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -7992,17 +7998,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="52"/>
-    </row>
-    <row r="67" spans="1:19" ht="17.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="58" t="s">
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="82"/>
+      <c r="S66" s="81"/>
+    </row>
+    <row r="67" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
+      <c r="B67" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="58"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8015,17 +8021,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="52"/>
-    </row>
-    <row r="68" spans="1:19" ht="17.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="58" t="s">
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="82"/>
+      <c r="S67" s="81"/>
+    </row>
+    <row r="68" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A68" s="56"/>
+      <c r="B68" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="58"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8038,17 +8044,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="52"/>
-    </row>
-    <row r="69" spans="1:19" ht="17.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="58" t="s">
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="82"/>
+      <c r="S68" s="81"/>
+    </row>
+    <row r="69" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="58"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8061,17 +8067,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="52"/>
-    </row>
-    <row r="70" spans="1:19" ht="17.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="58" t="s">
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="81"/>
+    </row>
+    <row r="70" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="56"/>
+      <c r="B70" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="58"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8084,17 +8090,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="52"/>
-    </row>
-    <row r="71" spans="1:19" ht="21">
-      <c r="A71" s="71"/>
-      <c r="B71" s="59" t="s">
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="81"/>
+    </row>
+    <row r="71" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A71" s="56"/>
+      <c r="B71" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="60"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8109,17 +8115,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="52"/>
-    </row>
-    <row r="72" spans="1:19" ht="21">
-      <c r="A72" s="71"/>
-      <c r="B72" s="59" t="s">
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="81"/>
+    </row>
+    <row r="72" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A72" s="56"/>
+      <c r="B72" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8134,19 +8140,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="52"/>
-    </row>
-    <row r="73" spans="1:19" ht="21">
-      <c r="A73" s="75" t="s">
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="82"/>
+      <c r="S72" s="81"/>
+    </row>
+    <row r="73" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A73" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="60"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8161,17 +8167,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="52"/>
-    </row>
-    <row r="74" spans="1:19" ht="17.25">
-      <c r="A74" s="75"/>
-      <c r="B74" s="57" t="s">
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="82"/>
+      <c r="S73" s="81"/>
+    </row>
+    <row r="74" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="58"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8184,17 +8190,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="53"/>
-      <c r="S74" s="52"/>
-    </row>
-    <row r="75" spans="1:19" ht="17.25">
-      <c r="A75" s="75"/>
-      <c r="B75" s="58" t="s">
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="82"/>
+      <c r="S74" s="81"/>
+    </row>
+    <row r="75" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="58"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8211,17 +8217,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="52"/>
-    </row>
-    <row r="76" spans="1:19" ht="17.25">
-      <c r="A76" s="75"/>
-      <c r="B76" s="58" t="s">
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="82"/>
+      <c r="S75" s="81"/>
+    </row>
+    <row r="76" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="58"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8237,17 +8243,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="52"/>
-    </row>
-    <row r="77" spans="1:19" ht="17.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="58" t="s">
+      <c r="P76" s="81"/>
+      <c r="Q76" s="81"/>
+      <c r="R76" s="82"/>
+      <c r="S76" s="81"/>
+    </row>
+    <row r="77" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="58"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8264,17 +8270,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="52"/>
-    </row>
-    <row r="78" spans="1:19" ht="21">
-      <c r="A78" s="75"/>
-      <c r="B78" s="59" t="s">
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="82"/>
+      <c r="S77" s="81"/>
+    </row>
+    <row r="78" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="B78" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="60"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8289,17 +8295,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="52"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="52"/>
-    </row>
-    <row r="79" spans="1:19" ht="17.25">
-      <c r="A79" s="75"/>
-      <c r="B79" s="57" t="s">
+      <c r="P78" s="81"/>
+      <c r="Q78" s="81"/>
+      <c r="R78" s="82"/>
+      <c r="S78" s="81"/>
+    </row>
+    <row r="79" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="58"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8312,17 +8318,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="52"/>
-    </row>
-    <row r="80" spans="1:19" ht="17.25">
-      <c r="A80" s="75"/>
-      <c r="B80" s="58" t="s">
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
+      <c r="R79" s="82"/>
+      <c r="S79" s="81"/>
+    </row>
+    <row r="80" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A80" s="40"/>
+      <c r="B80" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="58"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8335,17 +8341,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="52"/>
-    </row>
-    <row r="81" spans="1:19" ht="17.25">
-      <c r="A81" s="75"/>
-      <c r="B81" s="58" t="s">
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="82"/>
+      <c r="S80" s="81"/>
+    </row>
+    <row r="81" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A81" s="40"/>
+      <c r="B81" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="58"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8358,17 +8364,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="52"/>
-    </row>
-    <row r="82" spans="1:19" ht="21">
-      <c r="A82" s="75"/>
-      <c r="B82" s="59" t="s">
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="82"/>
+      <c r="S81" s="81"/>
+    </row>
+    <row r="82" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A82" s="40"/>
+      <c r="B82" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="60"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8383,17 +8389,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="52"/>
-      <c r="R82" s="53"/>
-      <c r="S82" s="52"/>
-    </row>
-    <row r="83" spans="1:19" ht="17.25">
-      <c r="A83" s="75"/>
-      <c r="B83" s="57" t="s">
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="82"/>
+      <c r="S82" s="81"/>
+    </row>
+    <row r="83" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="58"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8406,17 +8412,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="52"/>
-    </row>
-    <row r="84" spans="1:19" ht="17.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="58" t="s">
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="82"/>
+      <c r="S83" s="81"/>
+    </row>
+    <row r="84" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A84" s="40"/>
+      <c r="B84" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="58"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8429,17 +8435,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="52"/>
-      <c r="R84" s="53"/>
-      <c r="S84" s="52"/>
-    </row>
-    <row r="85" spans="1:19" ht="17.25">
-      <c r="A85" s="75"/>
-      <c r="B85" s="58" t="s">
+      <c r="P84" s="81"/>
+      <c r="Q84" s="81"/>
+      <c r="R84" s="82"/>
+      <c r="S84" s="81"/>
+    </row>
+    <row r="85" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A85" s="40"/>
+      <c r="B85" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="58"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8452,19 +8458,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="53"/>
-      <c r="S85" s="52"/>
-    </row>
-    <row r="86" spans="1:19" ht="21">
-      <c r="A86" s="75" t="s">
+      <c r="P85" s="81"/>
+      <c r="Q85" s="81"/>
+      <c r="R85" s="82"/>
+      <c r="S85" s="81"/>
+    </row>
+    <row r="86" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A86" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="60"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8479,17 +8485,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="53"/>
-      <c r="S86" s="52"/>
-    </row>
-    <row r="87" spans="1:19" ht="17.25">
-      <c r="A87" s="75"/>
-      <c r="B87" s="57" t="s">
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="82"/>
+      <c r="S86" s="81"/>
+    </row>
+    <row r="87" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A87" s="40"/>
+      <c r="B87" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="58"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>112</v>
@@ -8504,17 +8510,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="52"/>
-    </row>
-    <row r="88" spans="1:19" ht="17.25">
-      <c r="A88" s="75"/>
-      <c r="B88" s="57" t="s">
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="81"/>
+    </row>
+    <row r="88" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
+      <c r="B88" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="58"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8529,17 +8535,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="52"/>
-    </row>
-    <row r="89" spans="1:19" ht="17.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="58" t="s">
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="82"/>
+      <c r="S88" s="81"/>
+    </row>
+    <row r="89" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
+      <c r="B89" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="58"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -8554,17 +8560,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="53"/>
-      <c r="S89" s="52"/>
-    </row>
-    <row r="90" spans="1:19" ht="17.25">
-      <c r="A90" s="75"/>
-      <c r="B90" s="58" t="s">
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="81"/>
+    </row>
+    <row r="90" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A90" s="40"/>
+      <c r="B90" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="58"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -8581,17 +8587,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="53"/>
-      <c r="S90" s="52"/>
-    </row>
-    <row r="91" spans="1:19" ht="17.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="58" t="s">
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="82"/>
+      <c r="S90" s="81"/>
+    </row>
+    <row r="91" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
+      <c r="B91" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="58"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -8608,17 +8614,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="52"/>
-    </row>
-    <row r="92" spans="1:19" ht="17.25">
-      <c r="A92" s="75"/>
-      <c r="B92" s="58" t="s">
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="81"/>
+    </row>
+    <row r="92" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A92" s="40"/>
+      <c r="B92" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="58"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -8635,17 +8641,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="52"/>
-      <c r="R92" s="53"/>
-      <c r="S92" s="52"/>
-    </row>
-    <row r="93" spans="1:19" ht="17.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="58" t="s">
+      <c r="P92" s="81"/>
+      <c r="Q92" s="81"/>
+      <c r="R92" s="82"/>
+      <c r="S92" s="81"/>
+    </row>
+    <row r="93" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A93" s="40"/>
+      <c r="B93" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="58"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -8662,17 +8668,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="53"/>
-      <c r="S93" s="52"/>
-    </row>
-    <row r="94" spans="1:19" ht="17.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="58" t="s">
+      <c r="P93" s="81"/>
+      <c r="Q93" s="81"/>
+      <c r="R93" s="82"/>
+      <c r="S93" s="81"/>
+    </row>
+    <row r="94" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="58"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -8687,17 +8693,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="52"/>
-    </row>
-    <row r="95" spans="1:19" ht="21">
-      <c r="A95" s="75"/>
-      <c r="B95" s="59" t="s">
+      <c r="P94" s="81"/>
+      <c r="Q94" s="81"/>
+      <c r="R94" s="82"/>
+      <c r="S94" s="81"/>
+    </row>
+    <row r="95" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="60"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -8712,17 +8718,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="52"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="52"/>
-    </row>
-    <row r="96" spans="1:19" ht="17.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="57" t="s">
+      <c r="P95" s="81"/>
+      <c r="Q95" s="81"/>
+      <c r="R95" s="82"/>
+      <c r="S95" s="81"/>
+    </row>
+    <row r="96" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="58"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>112</v>
@@ -8737,17 +8743,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="52"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="52"/>
-    </row>
-    <row r="97" spans="1:19" ht="17.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="57" t="s">
+      <c r="P96" s="81"/>
+      <c r="Q96" s="81"/>
+      <c r="R96" s="82"/>
+      <c r="S96" s="81"/>
+    </row>
+    <row r="97" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="58"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -8762,17 +8768,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="52"/>
-    </row>
-    <row r="98" spans="1:19" ht="17.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="58" t="s">
+      <c r="P97" s="81"/>
+      <c r="Q97" s="81"/>
+      <c r="R97" s="82"/>
+      <c r="S97" s="81"/>
+    </row>
+    <row r="98" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="58"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -8787,17 +8793,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="52"/>
-      <c r="Q98" s="52"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="52"/>
-    </row>
-    <row r="99" spans="1:19" ht="17.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="58" t="s">
+      <c r="P98" s="81"/>
+      <c r="Q98" s="81"/>
+      <c r="R98" s="82"/>
+      <c r="S98" s="81"/>
+    </row>
+    <row r="99" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="58"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -8816,17 +8822,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="52"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="52"/>
-    </row>
-    <row r="100" spans="1:19" ht="17.25">
-      <c r="A100" s="75"/>
-      <c r="B100" s="58" t="s">
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
+      <c r="R99" s="82"/>
+      <c r="S99" s="81"/>
+    </row>
+    <row r="100" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="58"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -8841,17 +8847,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="52"/>
-      <c r="Q100" s="52"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="52"/>
-    </row>
-    <row r="101" spans="1:19" ht="17.25">
-      <c r="A101" s="75"/>
-      <c r="B101" s="58" t="s">
+      <c r="P100" s="81"/>
+      <c r="Q100" s="81"/>
+      <c r="R100" s="82"/>
+      <c r="S100" s="81"/>
+    </row>
+    <row r="101" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="58"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -8866,19 +8872,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="52"/>
-      <c r="Q101" s="52"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="52"/>
-    </row>
-    <row r="102" spans="1:19" ht="21">
-      <c r="A102" s="75" t="s">
+      <c r="P101" s="81"/>
+      <c r="Q101" s="81"/>
+      <c r="R101" s="82"/>
+      <c r="S101" s="81"/>
+    </row>
+    <row r="102" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A102" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="59" t="s">
+      <c r="B102" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="60"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -8893,17 +8899,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="52"/>
-      <c r="Q102" s="52"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="52"/>
-    </row>
-    <row r="103" spans="1:19" ht="17.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="57" t="s">
+      <c r="P102" s="81"/>
+      <c r="Q102" s="81"/>
+      <c r="R102" s="82"/>
+      <c r="S102" s="81"/>
+    </row>
+    <row r="103" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="58"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -8918,17 +8924,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="52"/>
-      <c r="Q103" s="52"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="52"/>
-    </row>
-    <row r="104" spans="1:19" ht="17.25">
-      <c r="A104" s="75"/>
-      <c r="B104" s="57" t="s">
+      <c r="P103" s="81"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="82"/>
+      <c r="S103" s="81"/>
+    </row>
+    <row r="104" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="58"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -8941,17 +8947,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="52"/>
-      <c r="Q104" s="52"/>
-      <c r="R104" s="53"/>
-      <c r="S104" s="52"/>
-    </row>
-    <row r="105" spans="1:19" ht="21">
-      <c r="A105" s="75"/>
-      <c r="B105" s="59" t="s">
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="82"/>
+      <c r="S104" s="81"/>
+    </row>
+    <row r="105" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="60"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -8966,17 +8972,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="52"/>
-      <c r="Q105" s="52"/>
-      <c r="R105" s="53"/>
-      <c r="S105" s="52"/>
-    </row>
-    <row r="106" spans="1:19" ht="17.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="57" t="s">
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="82"/>
+      <c r="S105" s="81"/>
+    </row>
+    <row r="106" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="57"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -8991,17 +8997,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="52"/>
-      <c r="Q106" s="52"/>
-      <c r="R106" s="53"/>
-      <c r="S106" s="52"/>
-    </row>
-    <row r="107" spans="1:19" ht="17.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="57" t="s">
+      <c r="P106" s="81"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="82"/>
+      <c r="S106" s="81"/>
+    </row>
+    <row r="107" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="58"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9016,17 +9022,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="52"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="52"/>
-    </row>
-    <row r="108" spans="1:19" ht="17.25">
-      <c r="A108" s="75"/>
-      <c r="B108" s="58" t="s">
+      <c r="P107" s="81"/>
+      <c r="Q107" s="81"/>
+      <c r="R107" s="82"/>
+      <c r="S107" s="81"/>
+    </row>
+    <row r="108" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="58"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9041,17 +9047,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="52"/>
-      <c r="Q108" s="52"/>
-      <c r="R108" s="53"/>
-      <c r="S108" s="52"/>
-    </row>
-    <row r="109" spans="1:19" ht="17.25">
-      <c r="A109" s="75"/>
-      <c r="B109" s="58" t="s">
+      <c r="P108" s="81"/>
+      <c r="Q108" s="81"/>
+      <c r="R108" s="82"/>
+      <c r="S108" s="81"/>
+    </row>
+    <row r="109" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="58"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9066,17 +9072,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="52"/>
-      <c r="Q109" s="52"/>
-      <c r="R109" s="53"/>
-      <c r="S109" s="52"/>
-    </row>
-    <row r="110" spans="1:19" ht="17.25">
-      <c r="A110" s="75"/>
-      <c r="B110" s="58" t="s">
+      <c r="P109" s="81"/>
+      <c r="Q109" s="81"/>
+      <c r="R109" s="82"/>
+      <c r="S109" s="81"/>
+    </row>
+    <row r="110" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="58"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9091,17 +9097,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="52"/>
-      <c r="Q110" s="52"/>
-      <c r="R110" s="53"/>
-      <c r="S110" s="52"/>
-    </row>
-    <row r="111" spans="1:19" ht="17.25">
-      <c r="A111" s="75"/>
-      <c r="B111" s="58" t="s">
+      <c r="P110" s="81"/>
+      <c r="Q110" s="81"/>
+      <c r="R110" s="82"/>
+      <c r="S110" s="81"/>
+    </row>
+    <row r="111" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="58"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9116,17 +9122,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="52"/>
-      <c r="Q111" s="52"/>
-      <c r="R111" s="53"/>
-      <c r="S111" s="52"/>
-    </row>
-    <row r="112" spans="1:19" ht="17.25">
-      <c r="A112" s="75"/>
-      <c r="B112" s="58" t="s">
+      <c r="P111" s="81"/>
+      <c r="Q111" s="81"/>
+      <c r="R111" s="82"/>
+      <c r="S111" s="81"/>
+    </row>
+    <row r="112" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="58"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9141,17 +9147,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="52"/>
-      <c r="Q112" s="52"/>
-      <c r="R112" s="53"/>
-      <c r="S112" s="52"/>
-    </row>
-    <row r="113" spans="1:19" ht="21">
-      <c r="A113" s="75"/>
-      <c r="B113" s="59" t="s">
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="82"/>
+      <c r="S112" s="81"/>
+    </row>
+    <row r="113" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="60"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9166,17 +9172,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="52"/>
-      <c r="Q113" s="52"/>
-      <c r="R113" s="53"/>
-      <c r="S113" s="52"/>
-    </row>
-    <row r="114" spans="1:19" ht="17.25">
-      <c r="A114" s="75"/>
-      <c r="B114" s="57" t="s">
+      <c r="P113" s="81"/>
+      <c r="Q113" s="81"/>
+      <c r="R113" s="82"/>
+      <c r="S113" s="81"/>
+    </row>
+    <row r="114" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="58"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9191,17 +9197,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="52"/>
-      <c r="Q114" s="52"/>
-      <c r="R114" s="53"/>
-      <c r="S114" s="52"/>
-    </row>
-    <row r="115" spans="1:19" ht="17.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="57" t="s">
+      <c r="P114" s="81"/>
+      <c r="Q114" s="81"/>
+      <c r="R114" s="82"/>
+      <c r="S114" s="81"/>
+    </row>
+    <row r="115" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="58"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9216,17 +9222,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="52"/>
-      <c r="Q115" s="52"/>
-      <c r="R115" s="53"/>
-      <c r="S115" s="52"/>
-    </row>
-    <row r="116" spans="1:19" ht="17.25">
-      <c r="A116" s="75"/>
-      <c r="B116" s="58" t="s">
+      <c r="P115" s="81"/>
+      <c r="Q115" s="81"/>
+      <c r="R115" s="82"/>
+      <c r="S115" s="81"/>
+    </row>
+    <row r="116" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="58"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9241,17 +9247,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="52"/>
-      <c r="Q116" s="52"/>
-      <c r="R116" s="53"/>
-      <c r="S116" s="52"/>
-    </row>
-    <row r="117" spans="1:19" ht="17.25">
-      <c r="A117" s="75"/>
-      <c r="B117" s="58" t="s">
+      <c r="P116" s="81"/>
+      <c r="Q116" s="81"/>
+      <c r="R116" s="82"/>
+      <c r="S116" s="81"/>
+    </row>
+    <row r="117" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="58"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9266,17 +9272,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="52"/>
-      <c r="Q117" s="52"/>
-      <c r="R117" s="53"/>
-      <c r="S117" s="52"/>
-    </row>
-    <row r="118" spans="1:19" ht="17.25">
-      <c r="A118" s="75"/>
-      <c r="B118" s="58" t="s">
+      <c r="P117" s="81"/>
+      <c r="Q117" s="81"/>
+      <c r="R117" s="82"/>
+      <c r="S117" s="81"/>
+    </row>
+    <row r="118" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="58"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9291,17 +9297,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="52"/>
-      <c r="Q118" s="52"/>
-      <c r="R118" s="53"/>
-      <c r="S118" s="52"/>
-    </row>
-    <row r="119" spans="1:19" ht="21">
-      <c r="A119" s="75"/>
-      <c r="B119" s="59" t="s">
+      <c r="P118" s="81"/>
+      <c r="Q118" s="81"/>
+      <c r="R118" s="82"/>
+      <c r="S118" s="81"/>
+    </row>
+    <row r="119" spans="1:19" ht="31" x14ac:dyDescent="0.25">
+      <c r="A119" s="40"/>
+      <c r="B119" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="60"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9316,17 +9322,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="52"/>
-      <c r="Q119" s="52"/>
-      <c r="R119" s="53"/>
-      <c r="S119" s="52"/>
-    </row>
-    <row r="120" spans="1:19" ht="17.25">
-      <c r="A120" s="75"/>
-      <c r="B120" s="57" t="s">
+      <c r="P119" s="81"/>
+      <c r="Q119" s="81"/>
+      <c r="R119" s="82"/>
+      <c r="S119" s="81"/>
+    </row>
+    <row r="120" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A120" s="40"/>
+      <c r="B120" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="58"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9341,17 +9347,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="52"/>
-      <c r="Q120" s="52"/>
-      <c r="R120" s="53"/>
-      <c r="S120" s="52"/>
-    </row>
-    <row r="121" spans="1:19" ht="17.25">
-      <c r="A121" s="75"/>
-      <c r="B121" s="57" t="s">
+      <c r="P120" s="81"/>
+      <c r="Q120" s="81"/>
+      <c r="R120" s="82"/>
+      <c r="S120" s="81"/>
+    </row>
+    <row r="121" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A121" s="40"/>
+      <c r="B121" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="58"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9366,58 +9372,58 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="54"/>
-      <c r="Q121" s="54"/>
-      <c r="R121" s="55"/>
-      <c r="S121" s="54"/>
-    </row>
-    <row r="122" spans="1:19">
-      <c r="B122" s="74"/>
-      <c r="C122" s="74"/>
-    </row>
-    <row r="123" spans="1:19">
-      <c r="A123" s="45" t="s">
+      <c r="P121" s="83"/>
+      <c r="Q121" s="83"/>
+      <c r="R121" s="84"/>
+      <c r="S121" s="83"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
-      <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="45"/>
-      <c r="P123" s="45"/>
-      <c r="Q123" s="45"/>
-      <c r="R123" s="45"/>
-    </row>
-    <row r="124" spans="1:19">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="45"/>
-      <c r="L124" s="45"/>
-      <c r="M124" s="45"/>
-      <c r="N124" s="45"/>
-      <c r="O124" s="45"/>
-      <c r="P124" s="45"/>
-      <c r="Q124" s="45"/>
-      <c r="R124" s="45"/>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="74"/>
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="74"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="74"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="74"/>
+      <c r="R124" s="74"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>165</v>
       </c>
@@ -9473,7 +9479,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="17.25">
+    <row r="126" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>163</v>
       </c>
@@ -9490,12 +9496,12 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="36"/>
-      <c r="P126" s="39"/>
-      <c r="Q126" s="40"/>
-      <c r="R126" s="36"/>
-    </row>
-    <row r="127" spans="1:19" ht="14.25">
+      <c r="O126" s="65"/>
+      <c r="P126" s="68"/>
+      <c r="Q126" s="69"/>
+      <c r="R126" s="65"/>
+    </row>
+    <row r="127" spans="1:19" ht="20" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>144</v>
       </c>
@@ -9516,12 +9522,12 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="37"/>
-      <c r="P127" s="41"/>
-      <c r="Q127" s="42"/>
-      <c r="R127" s="37"/>
-    </row>
-    <row r="128" spans="1:19" ht="14.25">
+      <c r="O127" s="66"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="71"/>
+      <c r="R127" s="66"/>
+    </row>
+    <row r="128" spans="1:19" ht="20" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>162</v>
       </c>
@@ -9546,12 +9552,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="37"/>
-      <c r="P128" s="41"/>
-      <c r="Q128" s="42"/>
-      <c r="R128" s="37"/>
-    </row>
-    <row r="129" spans="1:18" ht="14.25">
+      <c r="O128" s="66"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="71"/>
+      <c r="R128" s="66"/>
+    </row>
+    <row r="129" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>127</v>
       </c>
@@ -9574,12 +9580,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="37"/>
-      <c r="P129" s="41"/>
-      <c r="Q129" s="42"/>
-      <c r="R129" s="37"/>
-    </row>
-    <row r="130" spans="1:18" ht="17.25">
+      <c r="O129" s="66"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="71"/>
+      <c r="R129" s="66"/>
+    </row>
+    <row r="130" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>159</v>
       </c>
@@ -9596,12 +9602,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="37"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="42"/>
-      <c r="R130" s="37"/>
-    </row>
-    <row r="131" spans="1:18" ht="14.25">
+      <c r="O130" s="66"/>
+      <c r="P130" s="70"/>
+      <c r="Q130" s="71"/>
+      <c r="R130" s="66"/>
+    </row>
+    <row r="131" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A131" s="34" t="s">
         <v>127</v>
       </c>
@@ -9622,12 +9628,12 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="37"/>
-      <c r="P131" s="41"/>
-      <c r="Q131" s="42"/>
-      <c r="R131" s="37"/>
-    </row>
-    <row r="132" spans="1:18" ht="14.25">
+      <c r="O131" s="66"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="71"/>
+      <c r="R131" s="66"/>
+    </row>
+    <row r="132" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
         <v>157</v>
       </c>
@@ -9648,12 +9654,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="37"/>
-      <c r="P132" s="41"/>
-      <c r="Q132" s="42"/>
-      <c r="R132" s="37"/>
-    </row>
-    <row r="133" spans="1:18" ht="17.25">
+      <c r="O132" s="66"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="66"/>
+    </row>
+    <row r="133" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -9670,12 +9676,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="41"/>
-      <c r="Q133" s="42"/>
-      <c r="R133" s="37"/>
-    </row>
-    <row r="134" spans="1:18" ht="14.25">
+      <c r="O133" s="66"/>
+      <c r="P133" s="70"/>
+      <c r="Q133" s="71"/>
+      <c r="R133" s="66"/>
+    </row>
+    <row r="134" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A134" s="34" t="s">
         <v>155</v>
       </c>
@@ -9694,12 +9700,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="37"/>
-      <c r="P134" s="41"/>
-      <c r="Q134" s="42"/>
-      <c r="R134" s="37"/>
-    </row>
-    <row r="135" spans="1:18" ht="14.25">
+      <c r="O134" s="66"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="71"/>
+      <c r="R134" s="66"/>
+    </row>
+    <row r="135" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
         <v>154</v>
       </c>
@@ -9718,12 +9724,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="37"/>
-      <c r="P135" s="41"/>
-      <c r="Q135" s="42"/>
-      <c r="R135" s="37"/>
-    </row>
-    <row r="136" spans="1:18" ht="14.25">
+      <c r="O135" s="66"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="71"/>
+      <c r="R135" s="66"/>
+    </row>
+    <row r="136" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A136" s="30" t="s">
         <v>153</v>
       </c>
@@ -9746,12 +9752,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="37"/>
-      <c r="P136" s="41"/>
-      <c r="Q136" s="42"/>
-      <c r="R136" s="37"/>
-    </row>
-    <row r="137" spans="1:18" ht="14.25">
+      <c r="O136" s="66"/>
+      <c r="P136" s="70"/>
+      <c r="Q136" s="71"/>
+      <c r="R136" s="66"/>
+    </row>
+    <row r="137" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A137" s="30" t="s">
         <v>151</v>
       </c>
@@ -9774,12 +9780,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="37"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="42"/>
-      <c r="R137" s="37"/>
-    </row>
-    <row r="138" spans="1:18" ht="14.25">
+      <c r="O137" s="66"/>
+      <c r="P137" s="70"/>
+      <c r="Q137" s="71"/>
+      <c r="R137" s="66"/>
+    </row>
+    <row r="138" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A138" s="30" t="s">
         <v>150</v>
       </c>
@@ -9816,12 +9822,12 @@
       <c r="N138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="O138" s="37"/>
-      <c r="P138" s="41"/>
-      <c r="Q138" s="42"/>
-      <c r="R138" s="37"/>
-    </row>
-    <row r="139" spans="1:18" ht="17.25">
+      <c r="O138" s="66"/>
+      <c r="P138" s="70"/>
+      <c r="Q138" s="71"/>
+      <c r="R138" s="66"/>
+    </row>
+    <row r="139" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
         <v>147</v>
       </c>
@@ -9838,12 +9844,12 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="37"/>
-      <c r="P139" s="41"/>
-      <c r="Q139" s="42"/>
-      <c r="R139" s="37"/>
-    </row>
-    <row r="140" spans="1:18" ht="14.25">
+      <c r="O139" s="66"/>
+      <c r="P139" s="70"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="66"/>
+    </row>
+    <row r="140" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A140" s="30" t="s">
         <v>144</v>
       </c>
@@ -9866,12 +9872,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="37"/>
-      <c r="P140" s="41"/>
-      <c r="Q140" s="42"/>
-      <c r="R140" s="37"/>
-    </row>
-    <row r="141" spans="1:18" ht="17.25">
+      <c r="O140" s="66"/>
+      <c r="P140" s="70"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="66"/>
+    </row>
+    <row r="141" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
         <v>145</v>
       </c>
@@ -9888,12 +9894,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="37"/>
-      <c r="P141" s="41"/>
-      <c r="Q141" s="42"/>
-      <c r="R141" s="37"/>
-    </row>
-    <row r="142" spans="1:18" ht="14.25">
+      <c r="O141" s="66"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="66"/>
+    </row>
+    <row r="142" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A142" s="30" t="s">
         <v>144</v>
       </c>
@@ -9916,12 +9922,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="37"/>
-      <c r="P142" s="41"/>
-      <c r="Q142" s="42"/>
-      <c r="R142" s="37"/>
-    </row>
-    <row r="143" spans="1:18" ht="17.25">
+      <c r="O142" s="66"/>
+      <c r="P142" s="70"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="66"/>
+    </row>
+    <row r="143" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
@@ -9938,12 +9944,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="37"/>
-      <c r="P143" s="41"/>
-      <c r="Q143" s="42"/>
-      <c r="R143" s="37"/>
-    </row>
-    <row r="144" spans="1:18" ht="14.25">
+      <c r="O143" s="66"/>
+      <c r="P143" s="70"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="66"/>
+    </row>
+    <row r="144" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
         <v>141</v>
       </c>
@@ -9972,12 +9978,12 @@
       <c r="N144" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O144" s="37"/>
-      <c r="P144" s="41"/>
-      <c r="Q144" s="42"/>
-      <c r="R144" s="37"/>
-    </row>
-    <row r="145" spans="1:18" ht="14.25">
+      <c r="O144" s="66"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="66"/>
+    </row>
+    <row r="145" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="s">
         <v>140</v>
       </c>
@@ -10006,12 +10012,12 @@
       <c r="N145" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O145" s="37"/>
-      <c r="P145" s="41"/>
-      <c r="Q145" s="42"/>
-      <c r="R145" s="37"/>
-    </row>
-    <row r="146" spans="1:18" ht="17.25">
+      <c r="O145" s="66"/>
+      <c r="P145" s="70"/>
+      <c r="Q145" s="71"/>
+      <c r="R145" s="66"/>
+    </row>
+    <row r="146" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
         <v>136</v>
       </c>
@@ -10028,12 +10034,12 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="37"/>
-      <c r="P146" s="41"/>
-      <c r="Q146" s="42"/>
-      <c r="R146" s="37"/>
-    </row>
-    <row r="147" spans="1:18" ht="14.25">
+      <c r="O146" s="66"/>
+      <c r="P146" s="70"/>
+      <c r="Q146" s="71"/>
+      <c r="R146" s="66"/>
+    </row>
+    <row r="147" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>135</v>
       </c>
@@ -10054,12 +10060,12 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="37"/>
-      <c r="P147" s="41"/>
-      <c r="Q147" s="42"/>
-      <c r="R147" s="37"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="O147" s="66"/>
+      <c r="P147" s="70"/>
+      <c r="Q147" s="71"/>
+      <c r="R147" s="66"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>133</v>
       </c>
@@ -10078,12 +10084,12 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="37"/>
-      <c r="P148" s="41"/>
-      <c r="Q148" s="42"/>
-      <c r="R148" s="37"/>
-    </row>
-    <row r="149" spans="1:18" ht="17.25">
+      <c r="O148" s="66"/>
+      <c r="P148" s="70"/>
+      <c r="Q148" s="71"/>
+      <c r="R148" s="66"/>
+    </row>
+    <row r="149" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
         <v>132</v>
       </c>
@@ -10100,12 +10106,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="37"/>
-      <c r="P149" s="41"/>
-      <c r="Q149" s="42"/>
-      <c r="R149" s="37"/>
-    </row>
-    <row r="150" spans="1:18" ht="14.25">
+      <c r="O149" s="66"/>
+      <c r="P149" s="70"/>
+      <c r="Q149" s="71"/>
+      <c r="R149" s="66"/>
+    </row>
+    <row r="150" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A150" s="23" t="s">
         <v>131</v>
       </c>
@@ -10126,12 +10132,12 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="37"/>
-      <c r="P150" s="41"/>
-      <c r="Q150" s="42"/>
-      <c r="R150" s="37"/>
-    </row>
-    <row r="151" spans="1:18" ht="14.25">
+      <c r="O150" s="66"/>
+      <c r="P150" s="70"/>
+      <c r="Q150" s="71"/>
+      <c r="R150" s="66"/>
+    </row>
+    <row r="151" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
         <v>129</v>
       </c>
@@ -10152,12 +10158,12 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="37"/>
-      <c r="P151" s="41"/>
-      <c r="Q151" s="42"/>
-      <c r="R151" s="37"/>
-    </row>
-    <row r="152" spans="1:18" ht="17.25">
+      <c r="O151" s="66"/>
+      <c r="P151" s="70"/>
+      <c r="Q151" s="71"/>
+      <c r="R151" s="66"/>
+    </row>
+    <row r="152" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
         <v>128</v>
       </c>
@@ -10174,12 +10180,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="37"/>
-      <c r="P152" s="41"/>
-      <c r="Q152" s="42"/>
-      <c r="R152" s="37"/>
-    </row>
-    <row r="153" spans="1:18" ht="14.25">
+      <c r="O152" s="66"/>
+      <c r="P152" s="70"/>
+      <c r="Q152" s="71"/>
+      <c r="R152" s="66"/>
+    </row>
+    <row r="153" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A153" s="23" t="s">
         <v>127</v>
       </c>
@@ -10200,12 +10206,12 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="37"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="37"/>
-    </row>
-    <row r="154" spans="1:18" ht="17.25">
+      <c r="O153" s="66"/>
+      <c r="P153" s="70"/>
+      <c r="Q153" s="71"/>
+      <c r="R153" s="66"/>
+    </row>
+    <row r="154" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
         <v>125</v>
       </c>
@@ -10222,12 +10228,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="37"/>
-      <c r="P154" s="41"/>
-      <c r="Q154" s="42"/>
-      <c r="R154" s="37"/>
-    </row>
-    <row r="155" spans="1:18" ht="14.25">
+      <c r="O154" s="66"/>
+      <c r="P154" s="70"/>
+      <c r="Q154" s="71"/>
+      <c r="R154" s="66"/>
+    </row>
+    <row r="155" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A155" s="23" t="s">
         <v>124</v>
       </c>
@@ -10250,12 +10256,12 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="41"/>
-      <c r="Q155" s="42"/>
-      <c r="R155" s="37"/>
-    </row>
-    <row r="156" spans="1:18" ht="14.25">
+      <c r="O155" s="66"/>
+      <c r="P155" s="70"/>
+      <c r="Q155" s="71"/>
+      <c r="R155" s="66"/>
+    </row>
+    <row r="156" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
         <v>124</v>
       </c>
@@ -10278,12 +10284,12 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="41"/>
-      <c r="Q156" s="42"/>
-      <c r="R156" s="37"/>
-    </row>
-    <row r="157" spans="1:18" ht="14.25">
+      <c r="O156" s="66"/>
+      <c r="P156" s="70"/>
+      <c r="Q156" s="71"/>
+      <c r="R156" s="66"/>
+    </row>
+    <row r="157" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A157" s="24" t="s">
         <v>121</v>
       </c>
@@ -10304,12 +10310,12 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="42"/>
-      <c r="R157" s="37"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="O157" s="66"/>
+      <c r="P157" s="70"/>
+      <c r="Q157" s="71"/>
+      <c r="R157" s="66"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>117</v>
       </c>
@@ -10328,12 +10334,12 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="37"/>
-      <c r="P158" s="41"/>
-      <c r="Q158" s="42"/>
-      <c r="R158" s="37"/>
-    </row>
-    <row r="159" spans="1:18" ht="14.25">
+      <c r="O158" s="66"/>
+      <c r="P158" s="70"/>
+      <c r="Q158" s="71"/>
+      <c r="R158" s="66"/>
+    </row>
+    <row r="159" spans="1:18" ht="20" x14ac:dyDescent="0.3">
       <c r="A159" s="18" t="s">
         <v>117</v>
       </c>
@@ -10354,13 +10360,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="38"/>
-      <c r="P159" s="43"/>
-      <c r="Q159" s="44"/>
-      <c r="R159" s="38"/>
+      <c r="O159" s="67"/>
+      <c r="P159" s="72"/>
+      <c r="Q159" s="73"/>
+      <c r="R159" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A123:R124"/>
+    <mergeCell ref="O126:O159"/>
+    <mergeCell ref="P126:Q159"/>
+    <mergeCell ref="R126:R159"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="U1:AC2"/>
     <mergeCell ref="A3:C3"/>
@@ -10385,132 +10517,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="A123:R124"/>
-    <mergeCell ref="O126:O159"/>
-    <mergeCell ref="P126:Q159"/>
-    <mergeCell ref="R126:R159"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A102:A121"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CYOMEKO/Desktop/GameProject/高松/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作\GCLUC\GameProject\高松\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="169">
   <si>
     <t>高松プログラマー開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -738,8 +732,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -749,7 +743,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -760,8 +754,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,7 +765,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -782,8 +776,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,7 +787,7 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -804,8 +798,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -1232,23 +1226,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>6時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1256,7 +1264,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1264,7 +1272,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1272,7 +1280,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1280,7 +1288,7 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1288,7 +1296,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1296,7 +1304,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1304,7 +1312,7 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1312,7 +1320,7 @@
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1320,7 +1328,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1328,7 +1336,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1336,7 +1344,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1344,7 +1352,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1352,7 +1360,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1360,7 +1368,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1368,7 +1376,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1376,7 +1384,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFFFF00"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1384,7 +1392,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF00B0F0"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1392,7 +1400,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1405,7 +1413,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1413,7 +1421,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1421,7 +1429,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1429,14 +1437,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1444,7 +1452,23 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1492,78 +1516,78 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1571,42 +1595,42 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1614,7 +1638,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1624,7 +1648,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1636,7 +1660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1721,92 +1745,14 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,6 +1817,96 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1889,7 +1925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1934,9 +1970,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1969,9 +2005,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2153,93 +2189,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N138" sqref="N138"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" customWidth="1"/>
+    <col min="29" max="29" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="U1" s="75" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="U1" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-    </row>
-    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-    </row>
-    <row r="3" spans="1:29" ht="31" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+    </row>
+    <row r="2" spans="1:29" ht="18.75" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+    </row>
+    <row r="3" spans="1:29" ht="21">
+      <c r="A3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2288,26 +2324,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="76" t="s">
+      <c r="U3" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-    </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+    </row>
+    <row r="4" spans="1:29" ht="21" customHeight="1">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2322,34 +2358,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="80"/>
-      <c r="S4" s="79" t="s">
+      <c r="R4" s="54"/>
+      <c r="S4" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A5" s="78"/>
+      <c r="B5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -2362,26 +2398,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="1:29" ht="21" customHeight="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,17 +2432,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="81"/>
-    </row>
-    <row r="7" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="46" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="55"/>
+    </row>
+    <row r="7" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A7" s="78"/>
+      <c r="B7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2419,17 +2455,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="81"/>
-    </row>
-    <row r="8" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="57" t="s">
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -2442,18 +2478,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="81"/>
-    </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="59" t="s">
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="55"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" customHeight="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2467,18 +2503,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="61" t="s">
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2490,17 +2526,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="81"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="63" t="s">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="55"/>
+    </row>
+    <row r="11" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -2513,17 +2549,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="81"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="46" t="s">
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="55"/>
+    </row>
+    <row r="12" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -2536,65 +2572,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="81"/>
-    </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43" t="s">
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="55"/>
+    </row>
+    <row r="13" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="38" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="81"/>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="81"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="46" t="s">
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="55"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A14" s="78"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="55"/>
+    </row>
+    <row r="15" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A15" s="78"/>
+      <c r="B15" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2607,17 +2643,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="81"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="46" t="s">
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A16" s="78"/>
+      <c r="B16" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2630,17 +2666,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="81"/>
-    </row>
-    <row r="17" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="46" t="s">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="55"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A17" s="78"/>
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2653,17 +2689,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="81"/>
-    </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43" t="s">
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="55"/>
+    </row>
+    <row r="18" spans="1:19" ht="21" customHeight="1">
+      <c r="A18" s="78"/>
+      <c r="B18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2678,17 +2714,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="81"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="46" t="s">
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="55"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A19" s="78"/>
+      <c r="B19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2701,17 +2737,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="81"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="47" t="s">
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="55"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A20" s="78"/>
+      <c r="B20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2724,17 +2760,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="81"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="46" t="s">
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="55"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A21" s="78"/>
+      <c r="B21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2747,17 +2783,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="81"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="46" t="s">
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="55"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A22" s="78"/>
+      <c r="B22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2770,17 +2806,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="81"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="46" t="s">
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="55"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A23" s="78"/>
+      <c r="B23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2793,17 +2829,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="81"/>
-    </row>
-    <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43" t="s">
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="55"/>
+    </row>
+    <row r="24" spans="1:19" ht="21" customHeight="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2818,17 +2854,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="81"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="46" t="s">
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="55"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A25" s="78"/>
+      <c r="B25" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -2841,17 +2877,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="81"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="46" t="s">
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="55"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A26" s="78"/>
+      <c r="B26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -2864,17 +2900,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="81"/>
-    </row>
-    <row r="27" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="46" t="s">
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="55"/>
+    </row>
+    <row r="27" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A27" s="78"/>
+      <c r="B27" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -2887,17 +2923,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="81"/>
-    </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43" t="s">
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="55"/>
+    </row>
+    <row r="28" spans="1:19" ht="21" customHeight="1">
+      <c r="A28" s="78"/>
+      <c r="B28" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2912,17 +2948,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="81"/>
-    </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="46" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="55"/>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A29" s="78"/>
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -2935,17 +2971,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="81"/>
-    </row>
-    <row r="30" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="46" t="s">
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="55"/>
+    </row>
+    <row r="30" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A30" s="78"/>
+      <c r="B30" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -2958,17 +2994,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="81"/>
-    </row>
-    <row r="31" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="47" t="s">
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="55"/>
+    </row>
+    <row r="31" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A31" s="78"/>
+      <c r="B31" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -2981,17 +3017,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="81"/>
-    </row>
-    <row r="32" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="47" t="s">
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="55"/>
+    </row>
+    <row r="32" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A32" s="78"/>
+      <c r="B32" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3004,17 +3040,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="81"/>
-    </row>
-    <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43" t="s">
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="55"/>
+    </row>
+    <row r="33" spans="1:19" ht="21" customHeight="1">
+      <c r="A33" s="78"/>
+      <c r="B33" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3029,17 +3065,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="81"/>
-    </row>
-    <row r="34" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="46" t="s">
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="55"/>
+    </row>
+    <row r="34" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A34" s="78"/>
+      <c r="B34" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3052,17 +3088,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="81"/>
-    </row>
-    <row r="35" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="47" t="s">
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="55"/>
+    </row>
+    <row r="35" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A35" s="78"/>
+      <c r="B35" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3075,17 +3111,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="81"/>
-    </row>
-    <row r="36" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="47" t="s">
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="55"/>
+    </row>
+    <row r="36" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A36" s="78"/>
+      <c r="B36" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3098,17 +3134,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="81"/>
-    </row>
-    <row r="37" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43" t="s">
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="55"/>
+    </row>
+    <row r="37" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A37" s="78"/>
+      <c r="B37" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
@@ -3123,15 +3159,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="81"/>
-    </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="55"/>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A38" s="78"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -3144,15 +3180,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="81"/>
-    </row>
-    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="45"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="55"/>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A39" s="78"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -3165,17 +3201,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="81"/>
-    </row>
-    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43" t="s">
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="55"/>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1">
+      <c r="A40" s="80"/>
+      <c r="B40" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -3190,19 +3226,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="81"/>
-    </row>
-    <row r="41" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="55"/>
+    </row>
+    <row r="41" spans="1:19" ht="21" customHeight="1">
+      <c r="A41" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
         <v>25</v>
       </c>
@@ -3217,17 +3253,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="81"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="49" t="s">
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="55"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -3240,17 +3276,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="81"/>
-    </row>
-    <row r="43" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="49" t="s">
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="55"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A43" s="81"/>
+      <c r="B43" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3263,17 +3299,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="81"/>
-    </row>
-    <row r="44" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="45" t="s">
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="55"/>
+    </row>
+    <row r="44" spans="1:19" ht="21" customHeight="1">
+      <c r="A44" s="81"/>
+      <c r="B44" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="5" t="s">
         <v>25</v>
       </c>
@@ -3288,17 +3324,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="81"/>
-    </row>
-    <row r="45" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49" t="s">
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="55"/>
+    </row>
+    <row r="45" spans="1:19" ht="21" customHeight="1">
+      <c r="A45" s="81"/>
+      <c r="B45" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -3311,17 +3347,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="81"/>
-    </row>
-    <row r="46" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="48" t="s">
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="55"/>
+    </row>
+    <row r="46" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A46" s="81"/>
+      <c r="B46" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="47"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -3334,17 +3370,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="81"/>
-    </row>
-    <row r="47" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="45" t="s">
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="55"/>
+    </row>
+    <row r="47" spans="1:19" ht="19.5" customHeight="1">
+      <c r="A47" s="81"/>
+      <c r="B47" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="43"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3359,17 +3395,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="81"/>
-    </row>
-    <row r="48" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53" t="s">
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="55"/>
+    </row>
+    <row r="48" spans="1:19" ht="19.5" customHeight="1">
+      <c r="A48" s="81"/>
+      <c r="B48" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="44"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="5" t="s">
         <v>25</v>
       </c>
@@ -3384,19 +3420,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="81"/>
-    </row>
-    <row r="49" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="55"/>
+    </row>
+    <row r="49" spans="1:19" ht="21" customHeight="1">
+      <c r="A49" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="5" t="s">
         <v>25</v>
       </c>
@@ -3411,17 +3447,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="81"/>
-    </row>
-    <row r="50" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="49" t="s">
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="55"/>
+    </row>
+    <row r="50" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A50" s="81"/>
+      <c r="B50" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="47"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -3434,17 +3470,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="81"/>
-    </row>
-    <row r="51" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="48" t="s">
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="55"/>
+    </row>
+    <row r="51" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A51" s="81"/>
+      <c r="B51" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="47"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3457,17 +3493,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="81"/>
-    </row>
-    <row r="52" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="48" t="s">
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="55"/>
+    </row>
+    <row r="52" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A52" s="81"/>
+      <c r="B52" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="47"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3480,17 +3516,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="81"/>
-    </row>
-    <row r="53" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="48" t="s">
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="55"/>
+    </row>
+    <row r="53" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A53" s="81"/>
+      <c r="B53" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3503,17 +3539,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="81"/>
-    </row>
-    <row r="54" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="48" t="s">
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="55"/>
+    </row>
+    <row r="54" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A54" s="81"/>
+      <c r="B54" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="47"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3526,17 +3562,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="81"/>
-    </row>
-    <row r="55" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="48" t="s">
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="55"/>
+    </row>
+    <row r="55" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A55" s="81"/>
+      <c r="B55" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="47"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3549,17 +3585,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="81"/>
-    </row>
-    <row r="56" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="48" t="s">
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="55"/>
+    </row>
+    <row r="56" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A56" s="81"/>
+      <c r="B56" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="47"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3572,17 +3608,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="81"/>
-    </row>
-    <row r="57" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="48" t="s">
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="55"/>
+    </row>
+    <row r="57" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A57" s="81"/>
+      <c r="B57" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="47"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3595,17 +3631,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="81"/>
-    </row>
-    <row r="58" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="45" t="s">
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="55"/>
+    </row>
+    <row r="58" spans="1:19" ht="21" customHeight="1">
+      <c r="A58" s="82"/>
+      <c r="B58" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="44"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="5" t="s">
         <v>25</v>
       </c>
@@ -3620,26 +3656,30 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="81"/>
-    </row>
-    <row r="59" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="55"/>
+    </row>
+    <row r="59" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A59" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="44"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="G59" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3647,17 +3687,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="81"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="81"/>
-    </row>
-    <row r="60" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="43" t="s">
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="55"/>
+    </row>
+    <row r="60" spans="1:19" ht="21" customHeight="1">
+      <c r="A60" s="74"/>
+      <c r="B60" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="44"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="5" t="s">
         <v>84</v>
       </c>
@@ -3672,17 +3712,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="81"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="46" t="s">
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="55"/>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A61" s="74"/>
+      <c r="B61" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="47"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -3690,22 +3730,30 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="8"/>
+      <c r="K61" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L61" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M61" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="N61" s="89" t="s">
+        <v>167</v>
+      </c>
       <c r="O61" s="8"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="81"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="46" t="s">
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="55"/>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A62" s="74"/>
+      <c r="B62" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -3713,22 +3761,30 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="K62" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L62" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M62" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="N62" s="89" t="s">
+        <v>167</v>
+      </c>
       <c r="O62" s="3"/>
-      <c r="P62" s="81"/>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="81"/>
-    </row>
-    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="43" t="s">
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="55"/>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A63" s="74"/>
+      <c r="B63" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="44"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="5" t="s">
         <v>84</v>
       </c>
@@ -3740,20 +3796,22 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="M63" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="81"/>
-    </row>
-    <row r="64" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="43" t="s">
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="55"/>
+    </row>
+    <row r="64" spans="1:19" ht="21" customHeight="1">
+      <c r="A64" s="74"/>
+      <c r="B64" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="44"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="5" t="s">
         <v>84</v>
       </c>
@@ -3768,207 +3826,247 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="81"/>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="81"/>
-    </row>
-    <row r="65" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="46" t="s">
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="55"/>
+    </row>
+    <row r="65" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A65" s="74"/>
+      <c r="B65" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="47"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="J65" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K65" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L65" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="81"/>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="81"/>
-    </row>
-    <row r="66" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="47" t="s">
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="55"/>
+    </row>
+    <row r="66" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A66" s="74"/>
+      <c r="B66" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="47"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="J66" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L66" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="81"/>
-      <c r="Q66" s="81"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="81"/>
-    </row>
-    <row r="67" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="47" t="s">
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="55"/>
+    </row>
+    <row r="67" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A67" s="74"/>
+      <c r="B67" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="47"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="J67" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="81"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="81"/>
-    </row>
-    <row r="68" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="47" t="s">
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="55"/>
+    </row>
+    <row r="68" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A68" s="74"/>
+      <c r="B68" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="47"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="J68" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K68" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L68" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="81"/>
-      <c r="Q68" s="81"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="81"/>
-    </row>
-    <row r="69" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="47" t="s">
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="55"/>
+    </row>
+    <row r="69" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A69" s="74"/>
+      <c r="B69" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="47"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="J69" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K69" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="81"/>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="82"/>
-      <c r="S69" s="81"/>
-    </row>
-    <row r="70" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="47" t="s">
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="55"/>
+    </row>
+    <row r="70" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A70" s="74"/>
+      <c r="B70" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="47"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="J70" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="L70" s="89" t="s">
+        <v>106</v>
+      </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="81"/>
-    </row>
-    <row r="71" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="43" t="s">
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="55"/>
+    </row>
+    <row r="71" spans="1:19" ht="21" customHeight="1">
+      <c r="A71" s="74"/>
+      <c r="B71" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="44"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="81"/>
-    </row>
-    <row r="72" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="43" t="s">
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="55"/>
+    </row>
+    <row r="72" spans="1:19" ht="21" customHeight="1">
+      <c r="A72" s="74"/>
+      <c r="B72" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="44"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="81"/>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="82"/>
-      <c r="S72" s="81"/>
-    </row>
-    <row r="73" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="55"/>
+    </row>
+    <row r="73" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A73" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="1" t="s">
         <v>95</v>
       </c>
@@ -3983,22 +4081,26 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="81"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="82"/>
-      <c r="S73" s="81"/>
-    </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="46" t="s">
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="55"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1">
+      <c r="A74" s="78"/>
+      <c r="B74" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="47"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="8"/>
+      <c r="E74" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -4006,19 +4108,21 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="81"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="82"/>
-      <c r="S74" s="81"/>
-    </row>
-    <row r="75" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="47" t="s">
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="55"/>
+    </row>
+    <row r="75" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A75" s="78"/>
+      <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="47"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="8"/>
+      <c r="E75" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="16" t="s">
@@ -4033,20 +4137,20 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="81"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="82"/>
-      <c r="S75" s="81"/>
-    </row>
-    <row r="76" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="47" t="s">
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="55"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A76" s="78"/>
+      <c r="B76" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="47"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="16" t="s">
-        <v>113</v>
+      <c r="E76" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -4059,17 +4163,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="81"/>
-      <c r="Q76" s="81"/>
-      <c r="R76" s="82"/>
-      <c r="S76" s="81"/>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="47" t="s">
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="55"/>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1">
+      <c r="A77" s="78"/>
+      <c r="B77" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="47"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -4086,17 +4190,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="81"/>
-      <c r="Q77" s="81"/>
-      <c r="R77" s="82"/>
-      <c r="S77" s="81"/>
-    </row>
-    <row r="78" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43" t="s">
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="55"/>
+    </row>
+    <row r="78" spans="1:19" ht="21" customHeight="1">
+      <c r="A78" s="78"/>
+      <c r="B78" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="44"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="5" t="s">
         <v>88</v>
       </c>
@@ -4111,20 +4215,22 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="81"/>
-      <c r="Q78" s="81"/>
-      <c r="R78" s="82"/>
-      <c r="S78" s="81"/>
-    </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="46" t="s">
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="55"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1">
+      <c r="A79" s="78"/>
+      <c r="B79" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="47"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="38" t="s">
+        <v>168</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -4134,20 +4240,22 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="81"/>
-      <c r="Q79" s="81"/>
-      <c r="R79" s="82"/>
-      <c r="S79" s="81"/>
-    </row>
-    <row r="80" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="47" t="s">
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="55"/>
+    </row>
+    <row r="80" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A80" s="78"/>
+      <c r="B80" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="47"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="8"/>
+      <c r="F80" s="38" t="s">
+        <v>168</v>
+      </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -4157,20 +4265,22 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="81"/>
-      <c r="Q80" s="81"/>
-      <c r="R80" s="82"/>
-      <c r="S80" s="81"/>
-    </row>
-    <row r="81" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="47" t="s">
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="55"/>
+    </row>
+    <row r="81" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A81" s="78"/>
+      <c r="B81" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="38" t="s">
+        <v>105</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -4180,17 +4290,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="81"/>
-      <c r="Q81" s="81"/>
-      <c r="R81" s="82"/>
-      <c r="S81" s="81"/>
-    </row>
-    <row r="82" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43" t="s">
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="55"/>
+    </row>
+    <row r="82" spans="1:19" ht="19.5" customHeight="1">
+      <c r="A82" s="78"/>
+      <c r="B82" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="44"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="5" t="s">
         <v>88</v>
       </c>
@@ -4205,20 +4315,22 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="81"/>
-      <c r="Q82" s="81"/>
-      <c r="R82" s="82"/>
-      <c r="S82" s="81"/>
-    </row>
-    <row r="83" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="46" t="s">
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="55"/>
+    </row>
+    <row r="83" spans="1:19" ht="18" customHeight="1">
+      <c r="A83" s="78"/>
+      <c r="B83" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="47"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="38" t="s">
+        <v>168</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4228,21 +4340,22 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="82"/>
-      <c r="S83" s="81"/>
-    </row>
-    <row r="84" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="47" t="s">
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="55"/>
+    </row>
+    <row r="84" spans="1:19" ht="18" customHeight="1">
+      <c r="A84" s="78"/>
+      <c r="B84" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="47"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="G84" s="38" t="s">
+        <v>168</v>
+      </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -4251,17 +4364,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="81"/>
-      <c r="Q84" s="81"/>
-      <c r="R84" s="82"/>
-      <c r="S84" s="81"/>
-    </row>
-    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="47" t="s">
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="55"/>
+    </row>
+    <row r="85" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A85" s="78"/>
+      <c r="B85" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="47"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -4274,19 +4387,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="81"/>
-      <c r="Q85" s="81"/>
-      <c r="R85" s="82"/>
-      <c r="S85" s="81"/>
-    </row>
-    <row r="86" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40" t="s">
+      <c r="P85" s="55"/>
+      <c r="Q85" s="55"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="55"/>
+    </row>
+    <row r="86" spans="1:19" ht="21" customHeight="1">
+      <c r="A86" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="44"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="1" t="s">
         <v>61</v>
       </c>
@@ -4301,17 +4414,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="81"/>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="82"/>
-      <c r="S86" s="81"/>
-    </row>
-    <row r="87" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="46" t="s">
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="55"/>
+    </row>
+    <row r="87" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A87" s="78"/>
+      <c r="B87" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="47"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="1"/>
       <c r="E87" s="16" t="s">
         <v>112</v>
@@ -4326,17 +4439,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="81"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="46" t="s">
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="55"/>
+    </row>
+    <row r="88" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A88" s="78"/>
+      <c r="B88" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="47"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4351,17 +4464,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="82"/>
-      <c r="S88" s="81"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="47" t="s">
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="55"/>
+    </row>
+    <row r="89" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A89" s="78"/>
+      <c r="B89" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="47"/>
+      <c r="C89" s="61"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4376,17 +4489,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="82"/>
-      <c r="S89" s="81"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="47" t="s">
+      <c r="P89" s="55"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="55"/>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A90" s="78"/>
+      <c r="B90" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="47"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4403,17 +4516,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="82"/>
-      <c r="S90" s="81"/>
-    </row>
-    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="47" t="s">
+      <c r="P90" s="55"/>
+      <c r="Q90" s="55"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="55"/>
+    </row>
+    <row r="91" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A91" s="78"/>
+      <c r="B91" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="47"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4430,17 +4543,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="81"/>
-      <c r="Q91" s="81"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="81"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="47" t="s">
+      <c r="P91" s="55"/>
+      <c r="Q91" s="55"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="55"/>
+    </row>
+    <row r="92" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A92" s="78"/>
+      <c r="B92" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="47"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -4457,17 +4570,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="81"/>
-      <c r="Q92" s="81"/>
-      <c r="R92" s="82"/>
-      <c r="S92" s="81"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="47" t="s">
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="55"/>
+    </row>
+    <row r="93" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A93" s="78"/>
+      <c r="B93" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="47"/>
+      <c r="C93" s="61"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -4484,17 +4597,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="81"/>
-      <c r="Q93" s="81"/>
-      <c r="R93" s="82"/>
-      <c r="S93" s="81"/>
-    </row>
-    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="47" t="s">
+      <c r="P93" s="55"/>
+      <c r="Q93" s="55"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="55"/>
+    </row>
+    <row r="94" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A94" s="78"/>
+      <c r="B94" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="47"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -4509,17 +4622,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="81"/>
-      <c r="Q94" s="81"/>
-      <c r="R94" s="82"/>
-      <c r="S94" s="81"/>
-    </row>
-    <row r="95" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43" t="s">
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="55"/>
+    </row>
+    <row r="95" spans="1:19" ht="21" customHeight="1">
+      <c r="A95" s="78"/>
+      <c r="B95" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="44"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="5" t="s">
         <v>61</v>
       </c>
@@ -4534,17 +4647,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="81"/>
-      <c r="Q95" s="81"/>
-      <c r="R95" s="82"/>
-      <c r="S95" s="81"/>
-    </row>
-    <row r="96" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="46" t="s">
+      <c r="P95" s="55"/>
+      <c r="Q95" s="55"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="55"/>
+    </row>
+    <row r="96" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A96" s="78"/>
+      <c r="B96" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="47"/>
+      <c r="C96" s="61"/>
       <c r="D96" s="5"/>
       <c r="E96" s="17" t="s">
         <v>112</v>
@@ -4559,17 +4672,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="81"/>
-      <c r="Q96" s="81"/>
-      <c r="R96" s="82"/>
-      <c r="S96" s="81"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="46" t="s">
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="55"/>
+    </row>
+    <row r="97" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A97" s="78"/>
+      <c r="B97" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="47"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -4584,17 +4697,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="81"/>
-      <c r="Q97" s="81"/>
-      <c r="R97" s="82"/>
-      <c r="S97" s="81"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="47" t="s">
+      <c r="P97" s="55"/>
+      <c r="Q97" s="55"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="55"/>
+    </row>
+    <row r="98" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A98" s="78"/>
+      <c r="B98" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="47"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -4609,17 +4722,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="81"/>
-      <c r="Q98" s="81"/>
-      <c r="R98" s="82"/>
-      <c r="S98" s="81"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="47" t="s">
+      <c r="P98" s="55"/>
+      <c r="Q98" s="55"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="55"/>
+    </row>
+    <row r="99" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A99" s="78"/>
+      <c r="B99" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="47"/>
+      <c r="C99" s="61"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -4638,17 +4751,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="81"/>
-      <c r="Q99" s="81"/>
-      <c r="R99" s="82"/>
-      <c r="S99" s="81"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="47" t="s">
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="56"/>
+      <c r="S99" s="55"/>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A100" s="78"/>
+      <c r="B100" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="47"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -4663,17 +4776,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="81"/>
-      <c r="Q100" s="81"/>
-      <c r="R100" s="82"/>
-      <c r="S100" s="81"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="47" t="s">
+      <c r="P100" s="55"/>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="55"/>
+    </row>
+    <row r="101" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A101" s="78"/>
+      <c r="B101" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="47"/>
+      <c r="C101" s="61"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -4688,19 +4801,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="81"/>
-      <c r="Q101" s="81"/>
-      <c r="R101" s="82"/>
-      <c r="S101" s="81"/>
-    </row>
-    <row r="102" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40" t="s">
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="56"/>
+      <c r="S101" s="55"/>
+    </row>
+    <row r="102" spans="1:19" ht="18" customHeight="1">
+      <c r="A102" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="44"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="1" t="s">
         <v>61</v>
       </c>
@@ -4715,17 +4828,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="81"/>
-      <c r="Q102" s="81"/>
-      <c r="R102" s="82"/>
-      <c r="S102" s="81"/>
-    </row>
-    <row r="103" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="46" t="s">
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="55"/>
+    </row>
+    <row r="103" spans="1:19" ht="18" customHeight="1">
+      <c r="A103" s="78"/>
+      <c r="B103" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="47"/>
+      <c r="C103" s="61"/>
       <c r="D103" s="1"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -4740,17 +4853,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="81"/>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="82"/>
-      <c r="S103" s="81"/>
-    </row>
-    <row r="104" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="46" t="s">
+      <c r="P103" s="55"/>
+      <c r="Q103" s="55"/>
+      <c r="R103" s="56"/>
+      <c r="S103" s="55"/>
+    </row>
+    <row r="104" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A104" s="78"/>
+      <c r="B104" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="47"/>
+      <c r="C104" s="61"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -4763,17 +4876,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="82"/>
-      <c r="S104" s="81"/>
-    </row>
-    <row r="105" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="43" t="s">
+      <c r="P104" s="55"/>
+      <c r="Q104" s="55"/>
+      <c r="R104" s="56"/>
+      <c r="S104" s="55"/>
+    </row>
+    <row r="105" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A105" s="78"/>
+      <c r="B105" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="44"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="5" t="s">
         <v>61</v>
       </c>
@@ -4788,17 +4901,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="82"/>
-      <c r="S105" s="81"/>
-    </row>
-    <row r="106" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="46" t="s">
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="55"/>
+    </row>
+    <row r="106" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A106" s="78"/>
+      <c r="B106" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="46"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="5"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -4813,17 +4926,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="81"/>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="82"/>
-      <c r="S106" s="81"/>
-    </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="46" t="s">
+      <c r="P106" s="55"/>
+      <c r="Q106" s="55"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="55"/>
+    </row>
+    <row r="107" spans="1:19" ht="15" customHeight="1">
+      <c r="A107" s="78"/>
+      <c r="B107" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="47"/>
+      <c r="C107" s="61"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -4838,17 +4951,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="81"/>
-      <c r="Q107" s="81"/>
-      <c r="R107" s="82"/>
-      <c r="S107" s="81"/>
-    </row>
-    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="47" t="s">
+      <c r="P107" s="55"/>
+      <c r="Q107" s="55"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="55"/>
+    </row>
+    <row r="108" spans="1:19" ht="15" customHeight="1">
+      <c r="A108" s="78"/>
+      <c r="B108" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="47"/>
+      <c r="C108" s="61"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -4863,17 +4976,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="81"/>
-      <c r="Q108" s="81"/>
-      <c r="R108" s="82"/>
-      <c r="S108" s="81"/>
-    </row>
-    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="47" t="s">
+      <c r="P108" s="55"/>
+      <c r="Q108" s="55"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="55"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" customHeight="1">
+      <c r="A109" s="78"/>
+      <c r="B109" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="47"/>
+      <c r="C109" s="61"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -4888,17 +5001,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="81"/>
-      <c r="Q109" s="81"/>
-      <c r="R109" s="82"/>
-      <c r="S109" s="81"/>
-    </row>
-    <row r="110" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="47" t="s">
+      <c r="P109" s="55"/>
+      <c r="Q109" s="55"/>
+      <c r="R109" s="56"/>
+      <c r="S109" s="55"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A110" s="78"/>
+      <c r="B110" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="47"/>
+      <c r="C110" s="61"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -4913,17 +5026,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="81"/>
-      <c r="Q110" s="81"/>
-      <c r="R110" s="82"/>
-      <c r="S110" s="81"/>
-    </row>
-    <row r="111" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="47" t="s">
+      <c r="P110" s="55"/>
+      <c r="Q110" s="55"/>
+      <c r="R110" s="56"/>
+      <c r="S110" s="55"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A111" s="78"/>
+      <c r="B111" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="47"/>
+      <c r="C111" s="61"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -4938,17 +5051,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="81"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="82"/>
-      <c r="S111" s="81"/>
-    </row>
-    <row r="112" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="47" t="s">
+      <c r="P111" s="55"/>
+      <c r="Q111" s="55"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="55"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A112" s="78"/>
+      <c r="B112" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="47"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -4963,17 +5076,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="81"/>
-      <c r="Q112" s="81"/>
-      <c r="R112" s="82"/>
-      <c r="S112" s="81"/>
-    </row>
-    <row r="113" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="43" t="s">
+      <c r="P112" s="55"/>
+      <c r="Q112" s="55"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="55"/>
+    </row>
+    <row r="113" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A113" s="78"/>
+      <c r="B113" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="44"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="5" t="s">
         <v>61</v>
       </c>
@@ -4988,17 +5101,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="81"/>
-      <c r="Q113" s="81"/>
-      <c r="R113" s="82"/>
-      <c r="S113" s="81"/>
-    </row>
-    <row r="114" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="46" t="s">
+      <c r="P113" s="55"/>
+      <c r="Q113" s="55"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="55"/>
+    </row>
+    <row r="114" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A114" s="78"/>
+      <c r="B114" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="47"/>
+      <c r="C114" s="61"/>
       <c r="D114" s="5"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -5013,17 +5126,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="81"/>
-      <c r="Q114" s="81"/>
-      <c r="R114" s="82"/>
-      <c r="S114" s="81"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="46" t="s">
+      <c r="P114" s="55"/>
+      <c r="Q114" s="55"/>
+      <c r="R114" s="56"/>
+      <c r="S114" s="55"/>
+    </row>
+    <row r="115" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A115" s="78"/>
+      <c r="B115" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="47"/>
+      <c r="C115" s="61"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5038,17 +5151,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="81"/>
-      <c r="Q115" s="81"/>
-      <c r="R115" s="82"/>
-      <c r="S115" s="81"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="47" t="s">
+      <c r="P115" s="55"/>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="55"/>
+    </row>
+    <row r="116" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A116" s="78"/>
+      <c r="B116" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C116" s="47"/>
+      <c r="C116" s="61"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -5063,17 +5176,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="81"/>
-      <c r="Q116" s="81"/>
-      <c r="R116" s="82"/>
-      <c r="S116" s="81"/>
-    </row>
-    <row r="117" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="47" t="s">
+      <c r="P116" s="55"/>
+      <c r="Q116" s="55"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="55"/>
+    </row>
+    <row r="117" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A117" s="78"/>
+      <c r="B117" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C117" s="47"/>
+      <c r="C117" s="61"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -5088,17 +5201,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="81"/>
-      <c r="Q117" s="81"/>
-      <c r="R117" s="82"/>
-      <c r="S117" s="81"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="47" t="s">
+      <c r="P117" s="55"/>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="56"/>
+      <c r="S117" s="55"/>
+    </row>
+    <row r="118" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A118" s="78"/>
+      <c r="B118" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="47"/>
+      <c r="C118" s="61"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -5113,17 +5226,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="81"/>
-      <c r="Q118" s="81"/>
-      <c r="R118" s="82"/>
-      <c r="S118" s="81"/>
-    </row>
-    <row r="119" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="43" t="s">
+      <c r="P118" s="55"/>
+      <c r="Q118" s="55"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="55"/>
+    </row>
+    <row r="119" spans="1:19" ht="21" customHeight="1">
+      <c r="A119" s="78"/>
+      <c r="B119" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="44"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="5" t="s">
         <v>61</v>
       </c>
@@ -5138,17 +5251,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="81"/>
-      <c r="Q119" s="81"/>
-      <c r="R119" s="82"/>
-      <c r="S119" s="81"/>
-    </row>
-    <row r="120" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="46" t="s">
+      <c r="P119" s="55"/>
+      <c r="Q119" s="55"/>
+      <c r="R119" s="56"/>
+      <c r="S119" s="55"/>
+    </row>
+    <row r="120" spans="1:19" ht="21" customHeight="1">
+      <c r="A120" s="78"/>
+      <c r="B120" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="47"/>
+      <c r="C120" s="61"/>
       <c r="D120" s="5"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -5163,17 +5276,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="81"/>
-      <c r="Q120" s="81"/>
-      <c r="R120" s="82"/>
-      <c r="S120" s="81"/>
-    </row>
-    <row r="121" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="46" t="s">
+      <c r="P120" s="55"/>
+      <c r="Q120" s="55"/>
+      <c r="R120" s="56"/>
+      <c r="S120" s="55"/>
+    </row>
+    <row r="121" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A121" s="78"/>
+      <c r="B121" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="47"/>
+      <c r="C121" s="61"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -5188,58 +5301,58 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="83"/>
-      <c r="Q121" s="83"/>
-      <c r="R121" s="84"/>
-      <c r="S121" s="83"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-    </row>
-    <row r="123" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="74" t="s">
+      <c r="P121" s="57"/>
+      <c r="Q121" s="57"/>
+      <c r="R121" s="58"/>
+      <c r="S121" s="57"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+    </row>
+    <row r="123" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A123" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="74"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="74"/>
-      <c r="J123" s="74"/>
-      <c r="K123" s="74"/>
-      <c r="L123" s="74"/>
-      <c r="M123" s="74"/>
-      <c r="N123" s="74"/>
-      <c r="O123" s="74"/>
-      <c r="P123" s="74"/>
-      <c r="Q123" s="74"/>
-      <c r="R123" s="74"/>
-    </row>
-    <row r="124" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="74"/>
-      <c r="L124" s="74"/>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="74"/>
-      <c r="Q124" s="74"/>
-      <c r="R124" s="74"/>
-    </row>
-    <row r="125" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+      <c r="L123" s="48"/>
+      <c r="M123" s="48"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="48"/>
+      <c r="P123" s="48"/>
+      <c r="Q123" s="48"/>
+      <c r="R123" s="48"/>
+    </row>
+    <row r="124" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="48"/>
+      <c r="O124" s="48"/>
+      <c r="P124" s="48"/>
+      <c r="Q124" s="48"/>
+      <c r="R124" s="48"/>
+    </row>
+    <row r="125" spans="1:19" ht="13.5" customHeight="1">
       <c r="A125" s="18" t="s">
         <v>165</v>
       </c>
@@ -5295,7 +5408,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="13.5" customHeight="1">
       <c r="A126" s="25" t="s">
         <v>163</v>
       </c>
@@ -5312,12 +5425,12 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="65"/>
-      <c r="P126" s="68"/>
-      <c r="Q126" s="69"/>
-      <c r="R126" s="65"/>
-    </row>
-    <row r="127" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O126" s="39"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="39"/>
+    </row>
+    <row r="127" spans="1:19" ht="13.5" customHeight="1">
       <c r="A127" s="23" t="s">
         <v>144</v>
       </c>
@@ -5338,12 +5451,12 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="66"/>
-      <c r="P127" s="70"/>
-      <c r="Q127" s="71"/>
-      <c r="R127" s="66"/>
-    </row>
-    <row r="128" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O127" s="40"/>
+      <c r="P127" s="44"/>
+      <c r="Q127" s="45"/>
+      <c r="R127" s="40"/>
+    </row>
+    <row r="128" spans="1:19" ht="13.5" customHeight="1">
       <c r="A128" s="23" t="s">
         <v>162</v>
       </c>
@@ -5368,12 +5481,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="66"/>
-      <c r="P128" s="70"/>
-      <c r="Q128" s="71"/>
-      <c r="R128" s="66"/>
-    </row>
-    <row r="129" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O128" s="40"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="45"/>
+      <c r="R128" s="40"/>
+    </row>
+    <row r="129" spans="1:18" ht="14.4">
       <c r="A129" s="23" t="s">
         <v>127</v>
       </c>
@@ -5396,12 +5509,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="66"/>
-      <c r="P129" s="70"/>
-      <c r="Q129" s="71"/>
-      <c r="R129" s="66"/>
-    </row>
-    <row r="130" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O129" s="40"/>
+      <c r="P129" s="44"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="40"/>
+    </row>
+    <row r="130" spans="1:18" ht="16.2">
       <c r="A130" s="25" t="s">
         <v>159</v>
       </c>
@@ -5418,12 +5531,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="66"/>
-      <c r="P130" s="70"/>
-      <c r="Q130" s="71"/>
-      <c r="R130" s="66"/>
-    </row>
-    <row r="131" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O130" s="40"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="40"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.4">
       <c r="A131" s="34" t="s">
         <v>127</v>
       </c>
@@ -5444,12 +5557,12 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="66"/>
-      <c r="P131" s="70"/>
-      <c r="Q131" s="71"/>
-      <c r="R131" s="66"/>
-    </row>
-    <row r="132" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O131" s="40"/>
+      <c r="P131" s="44"/>
+      <c r="Q131" s="45"/>
+      <c r="R131" s="40"/>
+    </row>
+    <row r="132" spans="1:18" ht="14.4">
       <c r="A132" s="24" t="s">
         <v>157</v>
       </c>
@@ -5470,12 +5583,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="66"/>
-      <c r="P132" s="70"/>
-      <c r="Q132" s="71"/>
-      <c r="R132" s="66"/>
-    </row>
-    <row r="133" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O132" s="40"/>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="45"/>
+      <c r="R132" s="40"/>
+    </row>
+    <row r="133" spans="1:18" ht="16.2">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -5492,12 +5605,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="66"/>
-      <c r="P133" s="70"/>
-      <c r="Q133" s="71"/>
-      <c r="R133" s="66"/>
-    </row>
-    <row r="134" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O133" s="40"/>
+      <c r="P133" s="44"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="40"/>
+    </row>
+    <row r="134" spans="1:18" ht="14.4">
       <c r="A134" s="34" t="s">
         <v>155</v>
       </c>
@@ -5516,12 +5629,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="66"/>
-      <c r="P134" s="70"/>
-      <c r="Q134" s="71"/>
-      <c r="R134" s="66"/>
-    </row>
-    <row r="135" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O134" s="40"/>
+      <c r="P134" s="44"/>
+      <c r="Q134" s="45"/>
+      <c r="R134" s="40"/>
+    </row>
+    <row r="135" spans="1:18" ht="14.4">
       <c r="A135" s="24" t="s">
         <v>154</v>
       </c>
@@ -5540,12 +5653,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="66"/>
-      <c r="P135" s="70"/>
-      <c r="Q135" s="71"/>
-      <c r="R135" s="66"/>
-    </row>
-    <row r="136" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O135" s="40"/>
+      <c r="P135" s="44"/>
+      <c r="Q135" s="45"/>
+      <c r="R135" s="40"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.4">
       <c r="A136" s="30" t="s">
         <v>153</v>
       </c>
@@ -5568,12 +5681,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="66"/>
-      <c r="P136" s="70"/>
-      <c r="Q136" s="71"/>
-      <c r="R136" s="66"/>
-    </row>
-    <row r="137" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O136" s="40"/>
+      <c r="P136" s="44"/>
+      <c r="Q136" s="45"/>
+      <c r="R136" s="40"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.4">
       <c r="A137" s="30" t="s">
         <v>151</v>
       </c>
@@ -5596,12 +5709,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="66"/>
-      <c r="P137" s="70"/>
-      <c r="Q137" s="71"/>
-      <c r="R137" s="66"/>
-    </row>
-    <row r="138" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O137" s="40"/>
+      <c r="P137" s="44"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="40"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.4">
       <c r="A138" s="30" t="s">
         <v>150</v>
       </c>
@@ -5629,21 +5742,21 @@
       <c r="K138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="L138" s="29" t="s">
+      <c r="L138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="M138" s="29" t="s">
+      <c r="M138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="N138" s="29" t="s">
+      <c r="N138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="O138" s="66"/>
-      <c r="P138" s="70"/>
-      <c r="Q138" s="71"/>
-      <c r="R138" s="66"/>
-    </row>
-    <row r="139" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O138" s="40"/>
+      <c r="P138" s="44"/>
+      <c r="Q138" s="45"/>
+      <c r="R138" s="40"/>
+    </row>
+    <row r="139" spans="1:18" ht="16.2">
       <c r="A139" s="25" t="s">
         <v>147</v>
       </c>
@@ -5660,12 +5773,12 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="66"/>
-      <c r="P139" s="70"/>
-      <c r="Q139" s="71"/>
-      <c r="R139" s="66"/>
-    </row>
-    <row r="140" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O139" s="40"/>
+      <c r="P139" s="44"/>
+      <c r="Q139" s="45"/>
+      <c r="R139" s="40"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.4">
       <c r="A140" s="30" t="s">
         <v>144</v>
       </c>
@@ -5688,12 +5801,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="66"/>
-      <c r="P140" s="70"/>
-      <c r="Q140" s="71"/>
-      <c r="R140" s="66"/>
-    </row>
-    <row r="141" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O140" s="40"/>
+      <c r="P140" s="44"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="40"/>
+    </row>
+    <row r="141" spans="1:18" ht="16.2">
       <c r="A141" s="25" t="s">
         <v>145</v>
       </c>
@@ -5710,12 +5823,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="66"/>
-      <c r="P141" s="70"/>
-      <c r="Q141" s="71"/>
-      <c r="R141" s="66"/>
-    </row>
-    <row r="142" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O141" s="40"/>
+      <c r="P141" s="44"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="40"/>
+    </row>
+    <row r="142" spans="1:18" ht="14.4">
       <c r="A142" s="30" t="s">
         <v>144</v>
       </c>
@@ -5738,12 +5851,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="66"/>
-      <c r="P142" s="70"/>
-      <c r="Q142" s="71"/>
-      <c r="R142" s="66"/>
-    </row>
-    <row r="143" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O142" s="40"/>
+      <c r="P142" s="44"/>
+      <c r="Q142" s="45"/>
+      <c r="R142" s="40"/>
+    </row>
+    <row r="143" spans="1:18" ht="16.2">
       <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
@@ -5760,12 +5873,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="66"/>
-      <c r="P143" s="70"/>
-      <c r="Q143" s="71"/>
-      <c r="R143" s="66"/>
-    </row>
-    <row r="144" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O143" s="40"/>
+      <c r="P143" s="44"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="40"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.4">
       <c r="A144" s="23" t="s">
         <v>141</v>
       </c>
@@ -5794,12 +5907,12 @@
       <c r="N144" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O144" s="66"/>
-      <c r="P144" s="70"/>
-      <c r="Q144" s="71"/>
-      <c r="R144" s="66"/>
-    </row>
-    <row r="145" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O144" s="40"/>
+      <c r="P144" s="44"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="40"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.4">
       <c r="A145" s="23" t="s">
         <v>140</v>
       </c>
@@ -5828,12 +5941,12 @@
       <c r="N145" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O145" s="66"/>
-      <c r="P145" s="70"/>
-      <c r="Q145" s="71"/>
-      <c r="R145" s="66"/>
-    </row>
-    <row r="146" spans="1:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="O145" s="40"/>
+      <c r="P145" s="44"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="40"/>
+    </row>
+    <row r="146" spans="1:18" ht="16.2">
       <c r="A146" s="25" t="s">
         <v>136</v>
       </c>
@@ -5850,12 +5963,12 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="66"/>
-      <c r="P146" s="70"/>
-      <c r="Q146" s="71"/>
-      <c r="R146" s="66"/>
-    </row>
-    <row r="147" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O146" s="40"/>
+      <c r="P146" s="44"/>
+      <c r="Q146" s="45"/>
+      <c r="R146" s="40"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.4">
       <c r="A147" s="23" t="s">
         <v>135</v>
       </c>
@@ -5876,12 +5989,12 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="66"/>
-      <c r="P147" s="70"/>
-      <c r="Q147" s="71"/>
-      <c r="R147" s="66"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O147" s="40"/>
+      <c r="P147" s="44"/>
+      <c r="Q147" s="45"/>
+      <c r="R147" s="40"/>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
         <v>133</v>
       </c>
@@ -5900,12 +6013,12 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="66"/>
-      <c r="P148" s="70"/>
-      <c r="Q148" s="71"/>
-      <c r="R148" s="66"/>
-    </row>
-    <row r="149" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O148" s="40"/>
+      <c r="P148" s="44"/>
+      <c r="Q148" s="45"/>
+      <c r="R148" s="40"/>
+    </row>
+    <row r="149" spans="1:18" ht="16.2">
       <c r="A149" s="25" t="s">
         <v>132</v>
       </c>
@@ -5922,12 +6035,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="66"/>
-      <c r="P149" s="70"/>
-      <c r="Q149" s="71"/>
-      <c r="R149" s="66"/>
-    </row>
-    <row r="150" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O149" s="40"/>
+      <c r="P149" s="44"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="40"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.4">
       <c r="A150" s="23" t="s">
         <v>131</v>
       </c>
@@ -5948,12 +6061,12 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="66"/>
-      <c r="P150" s="70"/>
-      <c r="Q150" s="71"/>
-      <c r="R150" s="66"/>
-    </row>
-    <row r="151" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O150" s="40"/>
+      <c r="P150" s="44"/>
+      <c r="Q150" s="45"/>
+      <c r="R150" s="40"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.4">
       <c r="A151" s="23" t="s">
         <v>129</v>
       </c>
@@ -5974,12 +6087,12 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="66"/>
-      <c r="P151" s="70"/>
-      <c r="Q151" s="71"/>
-      <c r="R151" s="66"/>
-    </row>
-    <row r="152" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O151" s="40"/>
+      <c r="P151" s="44"/>
+      <c r="Q151" s="45"/>
+      <c r="R151" s="40"/>
+    </row>
+    <row r="152" spans="1:18" ht="16.2">
       <c r="A152" s="25" t="s">
         <v>128</v>
       </c>
@@ -5996,12 +6109,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="66"/>
-      <c r="P152" s="70"/>
-      <c r="Q152" s="71"/>
-      <c r="R152" s="66"/>
-    </row>
-    <row r="153" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O152" s="40"/>
+      <c r="P152" s="44"/>
+      <c r="Q152" s="45"/>
+      <c r="R152" s="40"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.4">
       <c r="A153" s="23" t="s">
         <v>127</v>
       </c>
@@ -6022,12 +6135,12 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="66"/>
-      <c r="P153" s="70"/>
-      <c r="Q153" s="71"/>
-      <c r="R153" s="66"/>
-    </row>
-    <row r="154" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O153" s="40"/>
+      <c r="P153" s="44"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="40"/>
+    </row>
+    <row r="154" spans="1:18" ht="16.2">
       <c r="A154" s="25" t="s">
         <v>125</v>
       </c>
@@ -6044,12 +6157,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="66"/>
-      <c r="P154" s="70"/>
-      <c r="Q154" s="71"/>
-      <c r="R154" s="66"/>
-    </row>
-    <row r="155" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O154" s="40"/>
+      <c r="P154" s="44"/>
+      <c r="Q154" s="45"/>
+      <c r="R154" s="40"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.4">
       <c r="A155" s="23" t="s">
         <v>124</v>
       </c>
@@ -6072,12 +6185,12 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="66"/>
-      <c r="P155" s="70"/>
-      <c r="Q155" s="71"/>
-      <c r="R155" s="66"/>
-    </row>
-    <row r="156" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O155" s="40"/>
+      <c r="P155" s="44"/>
+      <c r="Q155" s="45"/>
+      <c r="R155" s="40"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.4">
       <c r="A156" s="23" t="s">
         <v>124</v>
       </c>
@@ -6100,12 +6213,12 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="66"/>
-      <c r="P156" s="70"/>
-      <c r="Q156" s="71"/>
-      <c r="R156" s="66"/>
-    </row>
-    <row r="157" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O156" s="40"/>
+      <c r="P156" s="44"/>
+      <c r="Q156" s="45"/>
+      <c r="R156" s="40"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.4">
       <c r="A157" s="24" t="s">
         <v>121</v>
       </c>
@@ -6126,12 +6239,12 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="66"/>
-      <c r="P157" s="70"/>
-      <c r="Q157" s="71"/>
-      <c r="R157" s="66"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O157" s="40"/>
+      <c r="P157" s="44"/>
+      <c r="Q157" s="45"/>
+      <c r="R157" s="40"/>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
         <v>117</v>
       </c>
@@ -6150,12 +6263,12 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="66"/>
-      <c r="P158" s="70"/>
-      <c r="Q158" s="71"/>
-      <c r="R158" s="66"/>
-    </row>
-    <row r="159" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O158" s="40"/>
+      <c r="P158" s="44"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="40"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.4">
       <c r="A159" s="18" t="s">
         <v>117</v>
       </c>
@@ -6176,13 +6289,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="67"/>
-      <c r="P159" s="72"/>
-      <c r="Q159" s="73"/>
-      <c r="R159" s="67"/>
+      <c r="O159" s="41"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="47"/>
+      <c r="R159" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A4:A40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="O126:O159"/>
     <mergeCell ref="P126:Q159"/>
     <mergeCell ref="R126:R159"/>
@@ -6207,132 +6446,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A4:A40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,82 +6461,82 @@
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="1" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="U1" s="75" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="U1" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-    </row>
-    <row r="3" spans="1:29" ht="31" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+    </row>
+    <row r="3" spans="1:29" ht="21">
+      <c r="A3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6472,26 +6585,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="76" t="s">
+      <c r="U3" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-    </row>
-    <row r="4" spans="1:29" ht="31" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+    </row>
+    <row r="4" spans="1:29" ht="21">
+      <c r="A4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6506,34 +6619,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="80"/>
-      <c r="S4" s="79" t="s">
+      <c r="R4" s="54"/>
+      <c r="S4" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="1:29" ht="16.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6546,26 +6659,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="55"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="31" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="1:29" ht="21">
+      <c r="A6" s="78"/>
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -6580,17 +6693,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="81"/>
-    </row>
-    <row r="7" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="46" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="55"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.2">
+      <c r="A7" s="78"/>
+      <c r="B7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -6603,17 +6716,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="81"/>
-    </row>
-    <row r="8" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="57" t="s">
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.2">
+      <c r="A8" s="78"/>
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -6626,18 +6739,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="81"/>
-    </row>
-    <row r="9" spans="1:29" ht="31" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="59" t="s">
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="55"/>
+    </row>
+    <row r="9" spans="1:29" ht="21">
+      <c r="A9" s="85"/>
+      <c r="B9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -6651,18 +6764,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:29" ht="31" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="61" t="s">
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="1:29" ht="21">
+      <c r="A10" s="85"/>
+      <c r="B10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6674,17 +6787,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="81"/>
-    </row>
-    <row r="11" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="63" t="s">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="55"/>
+    </row>
+    <row r="11" spans="1:29" ht="16.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -6697,17 +6810,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="81"/>
-    </row>
-    <row r="12" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="46" t="s">
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="55"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.2">
+      <c r="A12" s="78"/>
+      <c r="B12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -6720,65 +6833,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="81"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43" t="s">
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="55"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="78"/>
+      <c r="B13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="38" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="81"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="81"/>
-    </row>
-    <row r="15" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="46" t="s">
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="55"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="78"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="55"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -6791,17 +6904,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="81"/>
-    </row>
-    <row r="16" spans="1:29" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="46" t="s">
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -6814,17 +6927,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="81"/>
-    </row>
-    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="46" t="s">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="55"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.2">
+      <c r="A17" s="78"/>
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -6837,17 +6950,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="81"/>
-    </row>
-    <row r="18" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43" t="s">
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="55"/>
+    </row>
+    <row r="18" spans="1:19" ht="21">
+      <c r="A18" s="78"/>
+      <c r="B18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -6862,17 +6975,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="81"/>
-    </row>
-    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="46" t="s">
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="55"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.2">
+      <c r="A19" s="78"/>
+      <c r="B19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -6885,17 +6998,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="81"/>
-    </row>
-    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="47" t="s">
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="55"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.2">
+      <c r="A20" s="78"/>
+      <c r="B20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -6908,17 +7021,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="81"/>
-    </row>
-    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="46" t="s">
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="55"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -6931,17 +7044,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="81"/>
-    </row>
-    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="46" t="s">
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="55"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.2">
+      <c r="A22" s="78"/>
+      <c r="B22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -6954,17 +7067,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="81"/>
-    </row>
-    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="46" t="s">
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="55"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.2">
+      <c r="A23" s="78"/>
+      <c r="B23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -6977,17 +7090,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="81"/>
-    </row>
-    <row r="24" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43" t="s">
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="55"/>
+    </row>
+    <row r="24" spans="1:19" ht="21">
+      <c r="A24" s="78"/>
+      <c r="B24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7002,17 +7115,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="81"/>
-    </row>
-    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="46" t="s">
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="55"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.2">
+      <c r="A25" s="78"/>
+      <c r="B25" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7025,17 +7138,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="81"/>
-    </row>
-    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="46" t="s">
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="55"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.2">
+      <c r="A26" s="78"/>
+      <c r="B26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7048,17 +7161,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="81"/>
-    </row>
-    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="46" t="s">
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="55"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.2">
+      <c r="A27" s="78"/>
+      <c r="B27" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7071,17 +7184,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="81"/>
-    </row>
-    <row r="28" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43" t="s">
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="55"/>
+    </row>
+    <row r="28" spans="1:19" ht="21">
+      <c r="A28" s="78"/>
+      <c r="B28" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7096,17 +7209,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="81"/>
-    </row>
-    <row r="29" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="46" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="55"/>
+    </row>
+    <row r="29" spans="1:19" ht="16.2">
+      <c r="A29" s="78"/>
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7119,17 +7232,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="81"/>
-    </row>
-    <row r="30" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="46" t="s">
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="55"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.2">
+      <c r="A30" s="78"/>
+      <c r="B30" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7142,17 +7255,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="81"/>
-    </row>
-    <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="47" t="s">
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="55"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.2">
+      <c r="A31" s="78"/>
+      <c r="B31" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7165,17 +7278,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="81"/>
-    </row>
-    <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="47" t="s">
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="55"/>
+    </row>
+    <row r="32" spans="1:19" ht="16.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7188,17 +7301,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="81"/>
-    </row>
-    <row r="33" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43" t="s">
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="55"/>
+    </row>
+    <row r="33" spans="1:19" ht="21">
+      <c r="A33" s="78"/>
+      <c r="B33" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7213,17 +7326,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="81"/>
-    </row>
-    <row r="34" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="46" t="s">
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="55"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7236,17 +7349,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="81"/>
-    </row>
-    <row r="35" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="47" t="s">
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="55"/>
+    </row>
+    <row r="35" spans="1:19" ht="16.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7259,17 +7372,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="81"/>
-    </row>
-    <row r="36" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="47" t="s">
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="55"/>
+    </row>
+    <row r="36" spans="1:19" ht="16.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7282,17 +7395,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="81"/>
-    </row>
-    <row r="37" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43" t="s">
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="55"/>
+    </row>
+    <row r="37" spans="1:19" ht="21">
+      <c r="A37" s="78"/>
+      <c r="B37" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7307,15 +7420,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="81"/>
-    </row>
-    <row r="38" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="55"/>
+    </row>
+    <row r="38" spans="1:19" ht="21">
+      <c r="A38" s="78"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7328,15 +7441,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="81"/>
-    </row>
-    <row r="39" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="45"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="55"/>
+    </row>
+    <row r="39" spans="1:19" ht="21">
+      <c r="A39" s="78"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7349,17 +7462,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="81"/>
-    </row>
-    <row r="40" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43" t="s">
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="55"/>
+    </row>
+    <row r="40" spans="1:19" ht="21">
+      <c r="A40" s="80"/>
+      <c r="B40" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7374,19 +7487,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="81"/>
-    </row>
-    <row r="41" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="55"/>
+    </row>
+    <row r="41" spans="1:19" ht="21">
+      <c r="A41" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7401,17 +7514,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="81"/>
-    </row>
-    <row r="42" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="49" t="s">
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="55"/>
+    </row>
+    <row r="42" spans="1:19" ht="16.2">
+      <c r="A42" s="81"/>
+      <c r="B42" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7424,17 +7537,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="81"/>
-    </row>
-    <row r="43" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="49" t="s">
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="55"/>
+    </row>
+    <row r="43" spans="1:19" ht="16.2">
+      <c r="A43" s="81"/>
+      <c r="B43" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7447,17 +7560,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="81"/>
-    </row>
-    <row r="44" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="45" t="s">
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="55"/>
+    </row>
+    <row r="44" spans="1:19" ht="21">
+      <c r="A44" s="81"/>
+      <c r="B44" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7472,17 +7585,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="81"/>
-    </row>
-    <row r="45" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49" t="s">
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="55"/>
+    </row>
+    <row r="45" spans="1:19" ht="16.2">
+      <c r="A45" s="81"/>
+      <c r="B45" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7495,17 +7608,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="81"/>
-    </row>
-    <row r="46" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="48" t="s">
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="55"/>
+    </row>
+    <row r="46" spans="1:19" ht="16.2">
+      <c r="A46" s="81"/>
+      <c r="B46" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="47"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7518,17 +7631,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="81"/>
-    </row>
-    <row r="47" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="45" t="s">
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="55"/>
+    </row>
+    <row r="47" spans="1:19" ht="21">
+      <c r="A47" s="81"/>
+      <c r="B47" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="43"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7543,17 +7656,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="81"/>
-    </row>
-    <row r="48" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53" t="s">
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="55"/>
+    </row>
+    <row r="48" spans="1:19" ht="21">
+      <c r="A48" s="81"/>
+      <c r="B48" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="44"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -7568,19 +7681,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="81"/>
-    </row>
-    <row r="49" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="55"/>
+    </row>
+    <row r="49" spans="1:19" ht="21">
+      <c r="A49" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -7595,17 +7708,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="81"/>
-    </row>
-    <row r="50" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="49" t="s">
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="55"/>
+    </row>
+    <row r="50" spans="1:19" ht="16.2">
+      <c r="A50" s="81"/>
+      <c r="B50" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="47"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -7618,17 +7731,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="81"/>
-    </row>
-    <row r="51" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="48" t="s">
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="55"/>
+    </row>
+    <row r="51" spans="1:19" ht="16.2">
+      <c r="A51" s="81"/>
+      <c r="B51" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="47"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7641,17 +7754,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="81"/>
-    </row>
-    <row r="52" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="48" t="s">
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="55"/>
+    </row>
+    <row r="52" spans="1:19" ht="16.2">
+      <c r="A52" s="81"/>
+      <c r="B52" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="47"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -7664,17 +7777,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="81"/>
-    </row>
-    <row r="53" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="48" t="s">
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="55"/>
+    </row>
+    <row r="53" spans="1:19" ht="16.2">
+      <c r="A53" s="81"/>
+      <c r="B53" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -7687,17 +7800,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="81"/>
-    </row>
-    <row r="54" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="48" t="s">
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="55"/>
+    </row>
+    <row r="54" spans="1:19" ht="16.2">
+      <c r="A54" s="81"/>
+      <c r="B54" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="47"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -7710,17 +7823,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="81"/>
-    </row>
-    <row r="55" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="48" t="s">
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="55"/>
+    </row>
+    <row r="55" spans="1:19" ht="16.2">
+      <c r="A55" s="81"/>
+      <c r="B55" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="47"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -7733,17 +7846,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="81"/>
-    </row>
-    <row r="56" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="48" t="s">
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="55"/>
+    </row>
+    <row r="56" spans="1:19" ht="16.2">
+      <c r="A56" s="81"/>
+      <c r="B56" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="47"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -7756,17 +7869,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="81"/>
-    </row>
-    <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="48" t="s">
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="55"/>
+    </row>
+    <row r="57" spans="1:19" ht="16.2">
+      <c r="A57" s="81"/>
+      <c r="B57" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="47"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7779,17 +7892,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="81"/>
-    </row>
-    <row r="58" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="45" t="s">
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="55"/>
+    </row>
+    <row r="58" spans="1:19" ht="21">
+      <c r="A58" s="82"/>
+      <c r="B58" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="44"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -7804,19 +7917,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="81"/>
-    </row>
-    <row r="59" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="55"/>
+    </row>
+    <row r="59" spans="1:19" ht="21">
+      <c r="A59" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="44"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -7831,17 +7944,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="81"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="81"/>
-    </row>
-    <row r="60" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="43" t="s">
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="55"/>
+    </row>
+    <row r="60" spans="1:19" ht="21">
+      <c r="A60" s="74"/>
+      <c r="B60" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="44"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -7856,17 +7969,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="81"/>
-    </row>
-    <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="46" t="s">
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="55"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.2">
+      <c r="A61" s="74"/>
+      <c r="B61" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="47"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -7879,17 +7992,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="81"/>
-    </row>
-    <row r="62" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="46" t="s">
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="55"/>
+    </row>
+    <row r="62" spans="1:19" ht="16.2">
+      <c r="A62" s="74"/>
+      <c r="B62" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -7902,17 +8015,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="81"/>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="81"/>
-    </row>
-    <row r="63" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="43" t="s">
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="55"/>
+    </row>
+    <row r="63" spans="1:19" ht="21">
+      <c r="A63" s="74"/>
+      <c r="B63" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="44"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -7927,17 +8040,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="81"/>
-    </row>
-    <row r="64" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="43" t="s">
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="55"/>
+    </row>
+    <row r="64" spans="1:19" ht="21">
+      <c r="A64" s="74"/>
+      <c r="B64" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="44"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -7952,17 +8065,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="81"/>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="81"/>
-    </row>
-    <row r="65" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="46" t="s">
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="55"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.2">
+      <c r="A65" s="74"/>
+      <c r="B65" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="47"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -7975,17 +8088,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="81"/>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="81"/>
-    </row>
-    <row r="66" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="47" t="s">
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="55"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.2">
+      <c r="A66" s="74"/>
+      <c r="B66" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="47"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -7998,17 +8111,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="81"/>
-      <c r="Q66" s="81"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="81"/>
-    </row>
-    <row r="67" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="47" t="s">
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="55"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.2">
+      <c r="A67" s="74"/>
+      <c r="B67" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="47"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8021,17 +8134,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="81"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="81"/>
-    </row>
-    <row r="68" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="47" t="s">
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="55"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.2">
+      <c r="A68" s="74"/>
+      <c r="B68" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="47"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8044,17 +8157,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="81"/>
-      <c r="Q68" s="81"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="81"/>
-    </row>
-    <row r="69" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="47" t="s">
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="55"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.2">
+      <c r="A69" s="74"/>
+      <c r="B69" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="47"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8067,17 +8180,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="81"/>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="82"/>
-      <c r="S69" s="81"/>
-    </row>
-    <row r="70" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="47" t="s">
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="55"/>
+    </row>
+    <row r="70" spans="1:19" ht="16.2">
+      <c r="A70" s="74"/>
+      <c r="B70" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="47"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8090,17 +8203,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="81"/>
-    </row>
-    <row r="71" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="43" t="s">
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="55"/>
+    </row>
+    <row r="71" spans="1:19" ht="21">
+      <c r="A71" s="74"/>
+      <c r="B71" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="44"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8115,17 +8228,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="81"/>
-    </row>
-    <row r="72" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="43" t="s">
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="55"/>
+    </row>
+    <row r="72" spans="1:19" ht="21">
+      <c r="A72" s="74"/>
+      <c r="B72" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="44"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8140,19 +8253,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="81"/>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="82"/>
-      <c r="S72" s="81"/>
-    </row>
-    <row r="73" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="55"/>
+    </row>
+    <row r="73" spans="1:19" ht="21">
+      <c r="A73" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8167,17 +8280,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="81"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="82"/>
-      <c r="S73" s="81"/>
-    </row>
-    <row r="74" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="46" t="s">
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="55"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.2">
+      <c r="A74" s="78"/>
+      <c r="B74" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="47"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8190,17 +8303,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="81"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="82"/>
-      <c r="S74" s="81"/>
-    </row>
-    <row r="75" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="47" t="s">
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="55"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.2">
+      <c r="A75" s="78"/>
+      <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="47"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8217,17 +8330,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="81"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="82"/>
-      <c r="S75" s="81"/>
-    </row>
-    <row r="76" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="47" t="s">
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="55"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.2">
+      <c r="A76" s="78"/>
+      <c r="B76" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="47"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8243,17 +8356,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="81"/>
-      <c r="Q76" s="81"/>
-      <c r="R76" s="82"/>
-      <c r="S76" s="81"/>
-    </row>
-    <row r="77" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="47" t="s">
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="55"/>
+    </row>
+    <row r="77" spans="1:19" ht="16.2">
+      <c r="A77" s="78"/>
+      <c r="B77" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="47"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8270,17 +8383,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="81"/>
-      <c r="Q77" s="81"/>
-      <c r="R77" s="82"/>
-      <c r="S77" s="81"/>
-    </row>
-    <row r="78" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43" t="s">
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="55"/>
+    </row>
+    <row r="78" spans="1:19" ht="21">
+      <c r="A78" s="78"/>
+      <c r="B78" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="44"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8295,17 +8408,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="81"/>
-      <c r="Q78" s="81"/>
-      <c r="R78" s="82"/>
-      <c r="S78" s="81"/>
-    </row>
-    <row r="79" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="46" t="s">
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="55"/>
+    </row>
+    <row r="79" spans="1:19" ht="16.2">
+      <c r="A79" s="78"/>
+      <c r="B79" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="47"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8318,17 +8431,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="81"/>
-      <c r="Q79" s="81"/>
-      <c r="R79" s="82"/>
-      <c r="S79" s="81"/>
-    </row>
-    <row r="80" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="47" t="s">
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="55"/>
+    </row>
+    <row r="80" spans="1:19" ht="16.2">
+      <c r="A80" s="78"/>
+      <c r="B80" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="47"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8341,17 +8454,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="81"/>
-      <c r="Q80" s="81"/>
-      <c r="R80" s="82"/>
-      <c r="S80" s="81"/>
-    </row>
-    <row r="81" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="47" t="s">
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="55"/>
+    </row>
+    <row r="81" spans="1:19" ht="16.2">
+      <c r="A81" s="78"/>
+      <c r="B81" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8364,17 +8477,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="81"/>
-      <c r="Q81" s="81"/>
-      <c r="R81" s="82"/>
-      <c r="S81" s="81"/>
-    </row>
-    <row r="82" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43" t="s">
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="55"/>
+    </row>
+    <row r="82" spans="1:19" ht="21">
+      <c r="A82" s="78"/>
+      <c r="B82" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="44"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8389,17 +8502,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="81"/>
-      <c r="Q82" s="81"/>
-      <c r="R82" s="82"/>
-      <c r="S82" s="81"/>
-    </row>
-    <row r="83" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="46" t="s">
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="55"/>
+    </row>
+    <row r="83" spans="1:19" ht="16.2">
+      <c r="A83" s="78"/>
+      <c r="B83" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="47"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8412,17 +8525,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="82"/>
-      <c r="S83" s="81"/>
-    </row>
-    <row r="84" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="47" t="s">
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="55"/>
+    </row>
+    <row r="84" spans="1:19" ht="16.2">
+      <c r="A84" s="78"/>
+      <c r="B84" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="47"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8435,17 +8548,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="81"/>
-      <c r="Q84" s="81"/>
-      <c r="R84" s="82"/>
-      <c r="S84" s="81"/>
-    </row>
-    <row r="85" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="47" t="s">
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="55"/>
+    </row>
+    <row r="85" spans="1:19" ht="16.2">
+      <c r="A85" s="78"/>
+      <c r="B85" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="47"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8458,19 +8571,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="81"/>
-      <c r="Q85" s="81"/>
-      <c r="R85" s="82"/>
-      <c r="S85" s="81"/>
-    </row>
-    <row r="86" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A86" s="40" t="s">
+      <c r="P85" s="55"/>
+      <c r="Q85" s="55"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="55"/>
+    </row>
+    <row r="86" spans="1:19" ht="21">
+      <c r="A86" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="44"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8485,17 +8598,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="81"/>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="82"/>
-      <c r="S86" s="81"/>
-    </row>
-    <row r="87" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="46" t="s">
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="55"/>
+    </row>
+    <row r="87" spans="1:19" ht="16.2">
+      <c r="A87" s="78"/>
+      <c r="B87" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="47"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>112</v>
@@ -8510,17 +8623,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="81"/>
-    </row>
-    <row r="88" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="46" t="s">
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="55"/>
+    </row>
+    <row r="88" spans="1:19" ht="16.2">
+      <c r="A88" s="78"/>
+      <c r="B88" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="47"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8535,17 +8648,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="82"/>
-      <c r="S88" s="81"/>
-    </row>
-    <row r="89" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="47" t="s">
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="55"/>
+    </row>
+    <row r="89" spans="1:19" ht="16.2">
+      <c r="A89" s="78"/>
+      <c r="B89" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="47"/>
+      <c r="C89" s="61"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -8560,17 +8673,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="82"/>
-      <c r="S89" s="81"/>
-    </row>
-    <row r="90" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="47" t="s">
+      <c r="P89" s="55"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="55"/>
+    </row>
+    <row r="90" spans="1:19" ht="16.2">
+      <c r="A90" s="78"/>
+      <c r="B90" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="47"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -8587,17 +8700,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="82"/>
-      <c r="S90" s="81"/>
-    </row>
-    <row r="91" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="47" t="s">
+      <c r="P90" s="55"/>
+      <c r="Q90" s="55"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="55"/>
+    </row>
+    <row r="91" spans="1:19" ht="16.2">
+      <c r="A91" s="78"/>
+      <c r="B91" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="47"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -8614,17 +8727,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="81"/>
-      <c r="Q91" s="81"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="81"/>
-    </row>
-    <row r="92" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="47" t="s">
+      <c r="P91" s="55"/>
+      <c r="Q91" s="55"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="55"/>
+    </row>
+    <row r="92" spans="1:19" ht="16.2">
+      <c r="A92" s="78"/>
+      <c r="B92" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="47"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -8641,17 +8754,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="81"/>
-      <c r="Q92" s="81"/>
-      <c r="R92" s="82"/>
-      <c r="S92" s="81"/>
-    </row>
-    <row r="93" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="47" t="s">
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="55"/>
+    </row>
+    <row r="93" spans="1:19" ht="16.2">
+      <c r="A93" s="78"/>
+      <c r="B93" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="47"/>
+      <c r="C93" s="61"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -8668,17 +8781,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="81"/>
-      <c r="Q93" s="81"/>
-      <c r="R93" s="82"/>
-      <c r="S93" s="81"/>
-    </row>
-    <row r="94" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="47" t="s">
+      <c r="P93" s="55"/>
+      <c r="Q93" s="55"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="55"/>
+    </row>
+    <row r="94" spans="1:19" ht="16.2">
+      <c r="A94" s="78"/>
+      <c r="B94" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="47"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -8693,17 +8806,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="81"/>
-      <c r="Q94" s="81"/>
-      <c r="R94" s="82"/>
-      <c r="S94" s="81"/>
-    </row>
-    <row r="95" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43" t="s">
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="55"/>
+    </row>
+    <row r="95" spans="1:19" ht="21">
+      <c r="A95" s="78"/>
+      <c r="B95" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="44"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -8718,17 +8831,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="81"/>
-      <c r="Q95" s="81"/>
-      <c r="R95" s="82"/>
-      <c r="S95" s="81"/>
-    </row>
-    <row r="96" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="46" t="s">
+      <c r="P95" s="55"/>
+      <c r="Q95" s="55"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="55"/>
+    </row>
+    <row r="96" spans="1:19" ht="16.2">
+      <c r="A96" s="78"/>
+      <c r="B96" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="47"/>
+      <c r="C96" s="61"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>112</v>
@@ -8743,17 +8856,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="81"/>
-      <c r="Q96" s="81"/>
-      <c r="R96" s="82"/>
-      <c r="S96" s="81"/>
-    </row>
-    <row r="97" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="46" t="s">
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="55"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.2">
+      <c r="A97" s="78"/>
+      <c r="B97" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="47"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -8768,17 +8881,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="81"/>
-      <c r="Q97" s="81"/>
-      <c r="R97" s="82"/>
-      <c r="S97" s="81"/>
-    </row>
-    <row r="98" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="47" t="s">
+      <c r="P97" s="55"/>
+      <c r="Q97" s="55"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="55"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.2">
+      <c r="A98" s="78"/>
+      <c r="B98" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="47"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -8793,17 +8906,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="81"/>
-      <c r="Q98" s="81"/>
-      <c r="R98" s="82"/>
-      <c r="S98" s="81"/>
-    </row>
-    <row r="99" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="47" t="s">
+      <c r="P98" s="55"/>
+      <c r="Q98" s="55"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="55"/>
+    </row>
+    <row r="99" spans="1:19" ht="16.2">
+      <c r="A99" s="78"/>
+      <c r="B99" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="47"/>
+      <c r="C99" s="61"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -8822,17 +8935,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="81"/>
-      <c r="Q99" s="81"/>
-      <c r="R99" s="82"/>
-      <c r="S99" s="81"/>
-    </row>
-    <row r="100" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="47" t="s">
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="56"/>
+      <c r="S99" s="55"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.2">
+      <c r="A100" s="78"/>
+      <c r="B100" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="47"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -8847,17 +8960,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="81"/>
-      <c r="Q100" s="81"/>
-      <c r="R100" s="82"/>
-      <c r="S100" s="81"/>
-    </row>
-    <row r="101" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="47" t="s">
+      <c r="P100" s="55"/>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="55"/>
+    </row>
+    <row r="101" spans="1:19" ht="16.2">
+      <c r="A101" s="78"/>
+      <c r="B101" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="47"/>
+      <c r="C101" s="61"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -8872,19 +8985,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="81"/>
-      <c r="Q101" s="81"/>
-      <c r="R101" s="82"/>
-      <c r="S101" s="81"/>
-    </row>
-    <row r="102" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A102" s="40" t="s">
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="56"/>
+      <c r="S101" s="55"/>
+    </row>
+    <row r="102" spans="1:19" ht="21">
+      <c r="A102" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="44"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -8899,17 +9012,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="81"/>
-      <c r="Q102" s="81"/>
-      <c r="R102" s="82"/>
-      <c r="S102" s="81"/>
-    </row>
-    <row r="103" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="46" t="s">
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="55"/>
+    </row>
+    <row r="103" spans="1:19" ht="16.2">
+      <c r="A103" s="78"/>
+      <c r="B103" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="47"/>
+      <c r="C103" s="61"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -8924,17 +9037,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="81"/>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="82"/>
-      <c r="S103" s="81"/>
-    </row>
-    <row r="104" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="46" t="s">
+      <c r="P103" s="55"/>
+      <c r="Q103" s="55"/>
+      <c r="R103" s="56"/>
+      <c r="S103" s="55"/>
+    </row>
+    <row r="104" spans="1:19" ht="16.2">
+      <c r="A104" s="78"/>
+      <c r="B104" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="47"/>
+      <c r="C104" s="61"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -8947,17 +9060,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="82"/>
-      <c r="S104" s="81"/>
-    </row>
-    <row r="105" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="43" t="s">
+      <c r="P104" s="55"/>
+      <c r="Q104" s="55"/>
+      <c r="R104" s="56"/>
+      <c r="S104" s="55"/>
+    </row>
+    <row r="105" spans="1:19" ht="21">
+      <c r="A105" s="78"/>
+      <c r="B105" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="44"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -8972,17 +9085,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="82"/>
-      <c r="S105" s="81"/>
-    </row>
-    <row r="106" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="46" t="s">
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="55"/>
+    </row>
+    <row r="106" spans="1:19" ht="16.2">
+      <c r="A106" s="78"/>
+      <c r="B106" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="46"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -8997,17 +9110,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="81"/>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="82"/>
-      <c r="S106" s="81"/>
-    </row>
-    <row r="107" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="46" t="s">
+      <c r="P106" s="55"/>
+      <c r="Q106" s="55"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="55"/>
+    </row>
+    <row r="107" spans="1:19" ht="16.2">
+      <c r="A107" s="78"/>
+      <c r="B107" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="47"/>
+      <c r="C107" s="61"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9022,17 +9135,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="81"/>
-      <c r="Q107" s="81"/>
-      <c r="R107" s="82"/>
-      <c r="S107" s="81"/>
-    </row>
-    <row r="108" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="47" t="s">
+      <c r="P107" s="55"/>
+      <c r="Q107" s="55"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="55"/>
+    </row>
+    <row r="108" spans="1:19" ht="16.2">
+      <c r="A108" s="78"/>
+      <c r="B108" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="47"/>
+      <c r="C108" s="61"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9047,17 +9160,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="81"/>
-      <c r="Q108" s="81"/>
-      <c r="R108" s="82"/>
-      <c r="S108" s="81"/>
-    </row>
-    <row r="109" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="47" t="s">
+      <c r="P108" s="55"/>
+      <c r="Q108" s="55"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="55"/>
+    </row>
+    <row r="109" spans="1:19" ht="16.2">
+      <c r="A109" s="78"/>
+      <c r="B109" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="47"/>
+      <c r="C109" s="61"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9072,17 +9185,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="81"/>
-      <c r="Q109" s="81"/>
-      <c r="R109" s="82"/>
-      <c r="S109" s="81"/>
-    </row>
-    <row r="110" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="47" t="s">
+      <c r="P109" s="55"/>
+      <c r="Q109" s="55"/>
+      <c r="R109" s="56"/>
+      <c r="S109" s="55"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.2">
+      <c r="A110" s="78"/>
+      <c r="B110" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="47"/>
+      <c r="C110" s="61"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9097,17 +9210,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="81"/>
-      <c r="Q110" s="81"/>
-      <c r="R110" s="82"/>
-      <c r="S110" s="81"/>
-    </row>
-    <row r="111" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="47" t="s">
+      <c r="P110" s="55"/>
+      <c r="Q110" s="55"/>
+      <c r="R110" s="56"/>
+      <c r="S110" s="55"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.2">
+      <c r="A111" s="78"/>
+      <c r="B111" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="47"/>
+      <c r="C111" s="61"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9122,17 +9235,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="81"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="82"/>
-      <c r="S111" s="81"/>
-    </row>
-    <row r="112" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="47" t="s">
+      <c r="P111" s="55"/>
+      <c r="Q111" s="55"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="55"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.2">
+      <c r="A112" s="78"/>
+      <c r="B112" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="47"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9147,17 +9260,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="81"/>
-      <c r="Q112" s="81"/>
-      <c r="R112" s="82"/>
-      <c r="S112" s="81"/>
-    </row>
-    <row r="113" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="43" t="s">
+      <c r="P112" s="55"/>
+      <c r="Q112" s="55"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="55"/>
+    </row>
+    <row r="113" spans="1:19" ht="21">
+      <c r="A113" s="78"/>
+      <c r="B113" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="44"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9172,17 +9285,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="81"/>
-      <c r="Q113" s="81"/>
-      <c r="R113" s="82"/>
-      <c r="S113" s="81"/>
-    </row>
-    <row r="114" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="46" t="s">
+      <c r="P113" s="55"/>
+      <c r="Q113" s="55"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="55"/>
+    </row>
+    <row r="114" spans="1:19" ht="16.2">
+      <c r="A114" s="78"/>
+      <c r="B114" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="47"/>
+      <c r="C114" s="61"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9197,17 +9310,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="81"/>
-      <c r="Q114" s="81"/>
-      <c r="R114" s="82"/>
-      <c r="S114" s="81"/>
-    </row>
-    <row r="115" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="46" t="s">
+      <c r="P114" s="55"/>
+      <c r="Q114" s="55"/>
+      <c r="R114" s="56"/>
+      <c r="S114" s="55"/>
+    </row>
+    <row r="115" spans="1:19" ht="16.2">
+      <c r="A115" s="78"/>
+      <c r="B115" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="47"/>
+      <c r="C115" s="61"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9222,17 +9335,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="81"/>
-      <c r="Q115" s="81"/>
-      <c r="R115" s="82"/>
-      <c r="S115" s="81"/>
-    </row>
-    <row r="116" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="47" t="s">
+      <c r="P115" s="55"/>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="55"/>
+    </row>
+    <row r="116" spans="1:19" ht="16.2">
+      <c r="A116" s="78"/>
+      <c r="B116" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="47"/>
+      <c r="C116" s="61"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9247,17 +9360,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="81"/>
-      <c r="Q116" s="81"/>
-      <c r="R116" s="82"/>
-      <c r="S116" s="81"/>
-    </row>
-    <row r="117" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="47" t="s">
+      <c r="P116" s="55"/>
+      <c r="Q116" s="55"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="55"/>
+    </row>
+    <row r="117" spans="1:19" ht="16.2">
+      <c r="A117" s="78"/>
+      <c r="B117" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="47"/>
+      <c r="C117" s="61"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9272,17 +9385,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="81"/>
-      <c r="Q117" s="81"/>
-      <c r="R117" s="82"/>
-      <c r="S117" s="81"/>
-    </row>
-    <row r="118" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="47" t="s">
+      <c r="P117" s="55"/>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="56"/>
+      <c r="S117" s="55"/>
+    </row>
+    <row r="118" spans="1:19" ht="16.2">
+      <c r="A118" s="78"/>
+      <c r="B118" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="47"/>
+      <c r="C118" s="61"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9297,17 +9410,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="81"/>
-      <c r="Q118" s="81"/>
-      <c r="R118" s="82"/>
-      <c r="S118" s="81"/>
-    </row>
-    <row r="119" spans="1:19" ht="31" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="43" t="s">
+      <c r="P118" s="55"/>
+      <c r="Q118" s="55"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="55"/>
+    </row>
+    <row r="119" spans="1:19" ht="21">
+      <c r="A119" s="78"/>
+      <c r="B119" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="44"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9322,17 +9435,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="81"/>
-      <c r="Q119" s="81"/>
-      <c r="R119" s="82"/>
-      <c r="S119" s="81"/>
-    </row>
-    <row r="120" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="46" t="s">
+      <c r="P119" s="55"/>
+      <c r="Q119" s="55"/>
+      <c r="R119" s="56"/>
+      <c r="S119" s="55"/>
+    </row>
+    <row r="120" spans="1:19" ht="16.2">
+      <c r="A120" s="78"/>
+      <c r="B120" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="47"/>
+      <c r="C120" s="61"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9347,17 +9460,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="81"/>
-      <c r="Q120" s="81"/>
-      <c r="R120" s="82"/>
-      <c r="S120" s="81"/>
-    </row>
-    <row r="121" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="46" t="s">
+      <c r="P120" s="55"/>
+      <c r="Q120" s="55"/>
+      <c r="R120" s="56"/>
+      <c r="S120" s="55"/>
+    </row>
+    <row r="121" spans="1:19" ht="16.2">
+      <c r="A121" s="78"/>
+      <c r="B121" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="47"/>
+      <c r="C121" s="61"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9372,58 +9485,58 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="83"/>
-      <c r="Q121" s="83"/>
-      <c r="R121" s="84"/>
-      <c r="S121" s="83"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="74" t="s">
+      <c r="P121" s="57"/>
+      <c r="Q121" s="57"/>
+      <c r="R121" s="58"/>
+      <c r="S121" s="57"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="74"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="74"/>
-      <c r="J123" s="74"/>
-      <c r="K123" s="74"/>
-      <c r="L123" s="74"/>
-      <c r="M123" s="74"/>
-      <c r="N123" s="74"/>
-      <c r="O123" s="74"/>
-      <c r="P123" s="74"/>
-      <c r="Q123" s="74"/>
-      <c r="R123" s="74"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="74"/>
-      <c r="L124" s="74"/>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="74"/>
-      <c r="Q124" s="74"/>
-      <c r="R124" s="74"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+      <c r="L123" s="48"/>
+      <c r="M123" s="48"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="48"/>
+      <c r="P123" s="48"/>
+      <c r="Q123" s="48"/>
+      <c r="R123" s="48"/>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="48"/>
+      <c r="N124" s="48"/>
+      <c r="O124" s="48"/>
+      <c r="P124" s="48"/>
+      <c r="Q124" s="48"/>
+      <c r="R124" s="48"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
         <v>165</v>
       </c>
@@ -9479,7 +9592,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="16.2">
       <c r="A126" s="25" t="s">
         <v>163</v>
       </c>
@@ -9496,12 +9609,12 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="65"/>
-      <c r="P126" s="68"/>
-      <c r="Q126" s="69"/>
-      <c r="R126" s="65"/>
-    </row>
-    <row r="127" spans="1:19" ht="20" x14ac:dyDescent="0.3">
+      <c r="O126" s="39"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="39"/>
+    </row>
+    <row r="127" spans="1:19" ht="14.4">
       <c r="A127" s="23" t="s">
         <v>144</v>
       </c>
@@ -9522,12 +9635,12 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="66"/>
-      <c r="P127" s="70"/>
-      <c r="Q127" s="71"/>
-      <c r="R127" s="66"/>
-    </row>
-    <row r="128" spans="1:19" ht="20" x14ac:dyDescent="0.3">
+      <c r="O127" s="40"/>
+      <c r="P127" s="44"/>
+      <c r="Q127" s="45"/>
+      <c r="R127" s="40"/>
+    </row>
+    <row r="128" spans="1:19" ht="14.4">
       <c r="A128" s="23" t="s">
         <v>162</v>
       </c>
@@ -9552,12 +9665,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="66"/>
-      <c r="P128" s="70"/>
-      <c r="Q128" s="71"/>
-      <c r="R128" s="66"/>
-    </row>
-    <row r="129" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O128" s="40"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="45"/>
+      <c r="R128" s="40"/>
+    </row>
+    <row r="129" spans="1:18" ht="14.4">
       <c r="A129" s="23" t="s">
         <v>127</v>
       </c>
@@ -9580,12 +9693,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="66"/>
-      <c r="P129" s="70"/>
-      <c r="Q129" s="71"/>
-      <c r="R129" s="66"/>
-    </row>
-    <row r="130" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O129" s="40"/>
+      <c r="P129" s="44"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="40"/>
+    </row>
+    <row r="130" spans="1:18" ht="16.2">
       <c r="A130" s="25" t="s">
         <v>159</v>
       </c>
@@ -9602,12 +9715,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="66"/>
-      <c r="P130" s="70"/>
-      <c r="Q130" s="71"/>
-      <c r="R130" s="66"/>
-    </row>
-    <row r="131" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O130" s="40"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="40"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.4">
       <c r="A131" s="34" t="s">
         <v>127</v>
       </c>
@@ -9628,12 +9741,12 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="66"/>
-      <c r="P131" s="70"/>
-      <c r="Q131" s="71"/>
-      <c r="R131" s="66"/>
-    </row>
-    <row r="132" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O131" s="40"/>
+      <c r="P131" s="44"/>
+      <c r="Q131" s="45"/>
+      <c r="R131" s="40"/>
+    </row>
+    <row r="132" spans="1:18" ht="14.4">
       <c r="A132" s="24" t="s">
         <v>157</v>
       </c>
@@ -9654,12 +9767,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="66"/>
-      <c r="P132" s="70"/>
-      <c r="Q132" s="71"/>
-      <c r="R132" s="66"/>
-    </row>
-    <row r="133" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O132" s="40"/>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="45"/>
+      <c r="R132" s="40"/>
+    </row>
+    <row r="133" spans="1:18" ht="16.2">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -9676,12 +9789,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="66"/>
-      <c r="P133" s="70"/>
-      <c r="Q133" s="71"/>
-      <c r="R133" s="66"/>
-    </row>
-    <row r="134" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O133" s="40"/>
+      <c r="P133" s="44"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="40"/>
+    </row>
+    <row r="134" spans="1:18" ht="14.4">
       <c r="A134" s="34" t="s">
         <v>155</v>
       </c>
@@ -9700,12 +9813,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="66"/>
-      <c r="P134" s="70"/>
-      <c r="Q134" s="71"/>
-      <c r="R134" s="66"/>
-    </row>
-    <row r="135" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O134" s="40"/>
+      <c r="P134" s="44"/>
+      <c r="Q134" s="45"/>
+      <c r="R134" s="40"/>
+    </row>
+    <row r="135" spans="1:18" ht="14.4">
       <c r="A135" s="24" t="s">
         <v>154</v>
       </c>
@@ -9724,12 +9837,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="66"/>
-      <c r="P135" s="70"/>
-      <c r="Q135" s="71"/>
-      <c r="R135" s="66"/>
-    </row>
-    <row r="136" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O135" s="40"/>
+      <c r="P135" s="44"/>
+      <c r="Q135" s="45"/>
+      <c r="R135" s="40"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.4">
       <c r="A136" s="30" t="s">
         <v>153</v>
       </c>
@@ -9752,12 +9865,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="66"/>
-      <c r="P136" s="70"/>
-      <c r="Q136" s="71"/>
-      <c r="R136" s="66"/>
-    </row>
-    <row r="137" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O136" s="40"/>
+      <c r="P136" s="44"/>
+      <c r="Q136" s="45"/>
+      <c r="R136" s="40"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.4">
       <c r="A137" s="30" t="s">
         <v>151</v>
       </c>
@@ -9780,12 +9893,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="66"/>
-      <c r="P137" s="70"/>
-      <c r="Q137" s="71"/>
-      <c r="R137" s="66"/>
-    </row>
-    <row r="138" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O137" s="40"/>
+      <c r="P137" s="44"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="40"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.4">
       <c r="A138" s="30" t="s">
         <v>150</v>
       </c>
@@ -9822,12 +9935,12 @@
       <c r="N138" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="O138" s="66"/>
-      <c r="P138" s="70"/>
-      <c r="Q138" s="71"/>
-      <c r="R138" s="66"/>
-    </row>
-    <row r="139" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O138" s="40"/>
+      <c r="P138" s="44"/>
+      <c r="Q138" s="45"/>
+      <c r="R138" s="40"/>
+    </row>
+    <row r="139" spans="1:18" ht="16.2">
       <c r="A139" s="25" t="s">
         <v>147</v>
       </c>
@@ -9844,12 +9957,12 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="66"/>
-      <c r="P139" s="70"/>
-      <c r="Q139" s="71"/>
-      <c r="R139" s="66"/>
-    </row>
-    <row r="140" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O139" s="40"/>
+      <c r="P139" s="44"/>
+      <c r="Q139" s="45"/>
+      <c r="R139" s="40"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.4">
       <c r="A140" s="30" t="s">
         <v>144</v>
       </c>
@@ -9872,12 +9985,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="66"/>
-      <c r="P140" s="70"/>
-      <c r="Q140" s="71"/>
-      <c r="R140" s="66"/>
-    </row>
-    <row r="141" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O140" s="40"/>
+      <c r="P140" s="44"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="40"/>
+    </row>
+    <row r="141" spans="1:18" ht="16.2">
       <c r="A141" s="25" t="s">
         <v>145</v>
       </c>
@@ -9894,12 +10007,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="66"/>
-      <c r="P141" s="70"/>
-      <c r="Q141" s="71"/>
-      <c r="R141" s="66"/>
-    </row>
-    <row r="142" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O141" s="40"/>
+      <c r="P141" s="44"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="40"/>
+    </row>
+    <row r="142" spans="1:18" ht="14.4">
       <c r="A142" s="30" t="s">
         <v>144</v>
       </c>
@@ -9922,12 +10035,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="66"/>
-      <c r="P142" s="70"/>
-      <c r="Q142" s="71"/>
-      <c r="R142" s="66"/>
-    </row>
-    <row r="143" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O142" s="40"/>
+      <c r="P142" s="44"/>
+      <c r="Q142" s="45"/>
+      <c r="R142" s="40"/>
+    </row>
+    <row r="143" spans="1:18" ht="16.2">
       <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
@@ -9944,12 +10057,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="66"/>
-      <c r="P143" s="70"/>
-      <c r="Q143" s="71"/>
-      <c r="R143" s="66"/>
-    </row>
-    <row r="144" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O143" s="40"/>
+      <c r="P143" s="44"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="40"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.4">
       <c r="A144" s="23" t="s">
         <v>141</v>
       </c>
@@ -9978,12 +10091,12 @@
       <c r="N144" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O144" s="66"/>
-      <c r="P144" s="70"/>
-      <c r="Q144" s="71"/>
-      <c r="R144" s="66"/>
-    </row>
-    <row r="145" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O144" s="40"/>
+      <c r="P144" s="44"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="40"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.4">
       <c r="A145" s="23" t="s">
         <v>140</v>
       </c>
@@ -10012,12 +10125,12 @@
       <c r="N145" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O145" s="66"/>
-      <c r="P145" s="70"/>
-      <c r="Q145" s="71"/>
-      <c r="R145" s="66"/>
-    </row>
-    <row r="146" spans="1:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="O145" s="40"/>
+      <c r="P145" s="44"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="40"/>
+    </row>
+    <row r="146" spans="1:18" ht="16.2">
       <c r="A146" s="25" t="s">
         <v>136</v>
       </c>
@@ -10034,12 +10147,12 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="66"/>
-      <c r="P146" s="70"/>
-      <c r="Q146" s="71"/>
-      <c r="R146" s="66"/>
-    </row>
-    <row r="147" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O146" s="40"/>
+      <c r="P146" s="44"/>
+      <c r="Q146" s="45"/>
+      <c r="R146" s="40"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.4">
       <c r="A147" s="23" t="s">
         <v>135</v>
       </c>
@@ -10060,12 +10173,12 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="66"/>
-      <c r="P147" s="70"/>
-      <c r="Q147" s="71"/>
-      <c r="R147" s="66"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O147" s="40"/>
+      <c r="P147" s="44"/>
+      <c r="Q147" s="45"/>
+      <c r="R147" s="40"/>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
         <v>133</v>
       </c>
@@ -10084,12 +10197,12 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="66"/>
-      <c r="P148" s="70"/>
-      <c r="Q148" s="71"/>
-      <c r="R148" s="66"/>
-    </row>
-    <row r="149" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O148" s="40"/>
+      <c r="P148" s="44"/>
+      <c r="Q148" s="45"/>
+      <c r="R148" s="40"/>
+    </row>
+    <row r="149" spans="1:18" ht="16.2">
       <c r="A149" s="25" t="s">
         <v>132</v>
       </c>
@@ -10106,12 +10219,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="66"/>
-      <c r="P149" s="70"/>
-      <c r="Q149" s="71"/>
-      <c r="R149" s="66"/>
-    </row>
-    <row r="150" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O149" s="40"/>
+      <c r="P149" s="44"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="40"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.4">
       <c r="A150" s="23" t="s">
         <v>131</v>
       </c>
@@ -10132,12 +10245,12 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="66"/>
-      <c r="P150" s="70"/>
-      <c r="Q150" s="71"/>
-      <c r="R150" s="66"/>
-    </row>
-    <row r="151" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O150" s="40"/>
+      <c r="P150" s="44"/>
+      <c r="Q150" s="45"/>
+      <c r="R150" s="40"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.4">
       <c r="A151" s="23" t="s">
         <v>129</v>
       </c>
@@ -10158,12 +10271,12 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="66"/>
-      <c r="P151" s="70"/>
-      <c r="Q151" s="71"/>
-      <c r="R151" s="66"/>
-    </row>
-    <row r="152" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O151" s="40"/>
+      <c r="P151" s="44"/>
+      <c r="Q151" s="45"/>
+      <c r="R151" s="40"/>
+    </row>
+    <row r="152" spans="1:18" ht="16.2">
       <c r="A152" s="25" t="s">
         <v>128</v>
       </c>
@@ -10180,12 +10293,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="66"/>
-      <c r="P152" s="70"/>
-      <c r="Q152" s="71"/>
-      <c r="R152" s="66"/>
-    </row>
-    <row r="153" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O152" s="40"/>
+      <c r="P152" s="44"/>
+      <c r="Q152" s="45"/>
+      <c r="R152" s="40"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.4">
       <c r="A153" s="23" t="s">
         <v>127</v>
       </c>
@@ -10206,12 +10319,12 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="66"/>
-      <c r="P153" s="70"/>
-      <c r="Q153" s="71"/>
-      <c r="R153" s="66"/>
-    </row>
-    <row r="154" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="O153" s="40"/>
+      <c r="P153" s="44"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="40"/>
+    </row>
+    <row r="154" spans="1:18" ht="16.2">
       <c r="A154" s="25" t="s">
         <v>125</v>
       </c>
@@ -10228,12 +10341,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="66"/>
-      <c r="P154" s="70"/>
-      <c r="Q154" s="71"/>
-      <c r="R154" s="66"/>
-    </row>
-    <row r="155" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O154" s="40"/>
+      <c r="P154" s="44"/>
+      <c r="Q154" s="45"/>
+      <c r="R154" s="40"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.4">
       <c r="A155" s="23" t="s">
         <v>124</v>
       </c>
@@ -10256,12 +10369,12 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="66"/>
-      <c r="P155" s="70"/>
-      <c r="Q155" s="71"/>
-      <c r="R155" s="66"/>
-    </row>
-    <row r="156" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O155" s="40"/>
+      <c r="P155" s="44"/>
+      <c r="Q155" s="45"/>
+      <c r="R155" s="40"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.4">
       <c r="A156" s="23" t="s">
         <v>124</v>
       </c>
@@ -10284,12 +10397,12 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="66"/>
-      <c r="P156" s="70"/>
-      <c r="Q156" s="71"/>
-      <c r="R156" s="66"/>
-    </row>
-    <row r="157" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O156" s="40"/>
+      <c r="P156" s="44"/>
+      <c r="Q156" s="45"/>
+      <c r="R156" s="40"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.4">
       <c r="A157" s="24" t="s">
         <v>121</v>
       </c>
@@ -10310,12 +10423,12 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="66"/>
-      <c r="P157" s="70"/>
-      <c r="Q157" s="71"/>
-      <c r="R157" s="66"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O157" s="40"/>
+      <c r="P157" s="44"/>
+      <c r="Q157" s="45"/>
+      <c r="R157" s="40"/>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
         <v>117</v>
       </c>
@@ -10334,12 +10447,12 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="66"/>
-      <c r="P158" s="70"/>
-      <c r="Q158" s="71"/>
-      <c r="R158" s="66"/>
-    </row>
-    <row r="159" spans="1:18" ht="20" x14ac:dyDescent="0.3">
+      <c r="O158" s="40"/>
+      <c r="P158" s="44"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="40"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.4">
       <c r="A159" s="18" t="s">
         <v>117</v>
       </c>
@@ -10360,76 +10473,76 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="67"/>
-      <c r="P159" s="72"/>
-      <c r="Q159" s="73"/>
-      <c r="R159" s="67"/>
+      <c r="O159" s="41"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="47"/>
+      <c r="R159" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="A123:R124"/>
-    <mergeCell ref="O126:O159"/>
-    <mergeCell ref="P126:Q159"/>
-    <mergeCell ref="R126:R159"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="A4:A40"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="P4:P121"/>
+    <mergeCell ref="Q4:R121"/>
+    <mergeCell ref="S4:S121"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A59:A72"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
@@ -10454,69 +10567,69 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="A4:A40"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="P4:P121"/>
-    <mergeCell ref="Q4:R121"/>
-    <mergeCell ref="S4:S121"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A123:R124"/>
+    <mergeCell ref="O126:O159"/>
+    <mergeCell ref="P126:Q159"/>
+    <mergeCell ref="R126:R159"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="169">
   <si>
     <t>高松プログラマー開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -1766,6 +1766,90 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,97 +1913,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2204,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2222,75 +2222,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="53" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="U1" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2339,26 +2339,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2373,34 +2373,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="57" t="s">
+      <c r="R4" s="86"/>
+      <c r="S4" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="1"/>
       <c r="E5" s="41" t="s">
         <v>108</v>
@@ -2419,26 +2419,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="59"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2453,17 +2453,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="87"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="1"/>
       <c r="E7" s="42" t="s">
         <v>105</v>
@@ -2482,17 +2482,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="87"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="1"/>
       <c r="E8" s="42" t="s">
         <v>105</v>
@@ -2511,18 +2511,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="59"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="87"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="68" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2536,18 +2536,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="87"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2559,17 +2559,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="87"/>
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="1"/>
       <c r="E11" s="42" t="s">
         <v>105</v>
@@ -2588,17 +2588,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="59"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="87"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="42" t="s">
         <v>105</v>
@@ -2617,63 +2617,63 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="87"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="87"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="59"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="87"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2688,17 +2688,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="59"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="87"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2713,17 +2713,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="59"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="87"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2738,17 +2738,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="59"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="87"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2763,17 +2763,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="59"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="87"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2790,17 +2790,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="59"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="87"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2817,17 +2817,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="59"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="87"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2844,17 +2844,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="59"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="87"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2871,17 +2871,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="59"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="87"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2898,17 +2898,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="59"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="87"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2923,17 +2923,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="59"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="87"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -2950,17 +2950,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="87"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -2977,17 +2977,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="59"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="87"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -3004,17 +3004,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="59"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="87"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3029,17 +3029,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="59"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="87"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -3056,17 +3056,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="59"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="87"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -3083,17 +3083,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="59"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="87"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -3110,17 +3110,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="59"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="87"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3137,17 +3137,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="59"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="87"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3162,17 +3162,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="59"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="87"/>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3191,17 +3191,17 @@
       <c r="O34" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="59"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="87"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3220,17 +3220,17 @@
       <c r="O35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="59"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="87"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3249,23 +3249,29 @@
       <c r="O36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="59"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="87"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>105</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -3280,23 +3286,29 @@
       <c r="O37" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="59"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="87"/>
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="66" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>105</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3305,19 +3317,19 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="59"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="87"/>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
@@ -3332,17 +3344,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="59"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="87"/>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A40" s="85"/>
-      <c r="B40" s="68" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="3"/>
       <c r="E40" s="42" t="s">
         <v>105</v>
@@ -3361,17 +3373,17 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="59"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="87"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="85"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="3"/>
       <c r="E41" s="42" t="s">
         <v>105</v>
@@ -3390,17 +3402,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="59"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="87"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1">
-      <c r="A42" s="85"/>
-      <c r="B42" s="80" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
@@ -3415,17 +3427,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="59"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="87"/>
     </row>
     <row r="43" spans="1:19" ht="21" customHeight="1">
-      <c r="A43" s="85"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3444,17 +3456,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="59"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="87"/>
     </row>
     <row r="44" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A44" s="85"/>
-      <c r="B44" s="79" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
@@ -3473,17 +3485,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="59"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="87"/>
     </row>
     <row r="45" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A45" s="85"/>
-      <c r="B45" s="80" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="5" t="s">
         <v>25</v>
       </c>
@@ -3504,17 +3516,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="59"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="87"/>
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A46" s="85"/>
-      <c r="B46" s="83" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
@@ -3535,19 +3547,19 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="59"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="87"/>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3562,17 +3574,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="59"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="87"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A48" s="85"/>
-      <c r="B48" s="68" t="s">
+      <c r="A48" s="57"/>
+      <c r="B48" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="65"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -3593,17 +3605,17 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="59"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="87"/>
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="85"/>
-      <c r="B49" s="79" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="65"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3624,17 +3636,17 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="59"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="87"/>
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="85"/>
-      <c r="B50" s="79" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3655,17 +3667,17 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="59"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="87"/>
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="85"/>
-      <c r="B51" s="79" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3686,17 +3698,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="59"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="87"/>
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="85"/>
-      <c r="B52" s="79" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3717,17 +3729,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="59"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="87"/>
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="85"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="65"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3748,17 +3760,17 @@
       <c r="O53" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="87"/>
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="85"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="57"/>
+      <c r="B54" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3779,17 +3791,17 @@
       <c r="O54" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="59"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="87"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="85"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="65"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3810,17 +3822,17 @@
       <c r="O55" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="87"/>
     </row>
     <row r="56" spans="1:19" ht="21" customHeight="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="80" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="67"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3843,19 +3855,19 @@
       <c r="O56" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="87"/>
     </row>
     <row r="57" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="67"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
@@ -3874,17 +3886,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="59"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="87"/>
     </row>
     <row r="58" spans="1:19" ht="21" customHeight="1">
-      <c r="A58" s="78"/>
-      <c r="B58" s="66" t="s">
+      <c r="A58" s="62"/>
+      <c r="B58" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3899,17 +3911,17 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="59"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="87"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A59" s="78"/>
-      <c r="B59" s="64" t="s">
+      <c r="A59" s="62"/>
+      <c r="B59" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="65"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
@@ -3930,17 +3942,17 @@
         <v>166</v>
       </c>
       <c r="O59" s="8"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="59"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="87"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A60" s="78"/>
-      <c r="B60" s="64" t="s">
+      <c r="A60" s="62"/>
+      <c r="B60" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="65"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
@@ -3961,17 +3973,17 @@
         <v>166</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="59"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="87"/>
     </row>
     <row r="61" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A61" s="78"/>
-      <c r="B61" s="66" t="s">
+      <c r="A61" s="62"/>
+      <c r="B61" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="67"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="5" t="s">
         <v>84</v>
       </c>
@@ -3988,17 +4000,17 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="59"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="87"/>
     </row>
     <row r="62" spans="1:19" ht="21" customHeight="1">
-      <c r="A62" s="78"/>
-      <c r="B62" s="66" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="67"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
@@ -4013,17 +4025,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="59"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="87"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A63" s="78"/>
-      <c r="B63" s="64" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="65"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="8"/>
@@ -4042,17 +4054,17 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="59"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="87"/>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="78"/>
-      <c r="B64" s="65" t="s">
+      <c r="A64" s="62"/>
+      <c r="B64" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="65"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="8"/>
@@ -4071,17 +4083,17 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="59"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="87"/>
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="78"/>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -4100,17 +4112,17 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="59"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="87"/>
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="78"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="62"/>
+      <c r="B66" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -4129,17 +4141,17 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="59"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="87"/>
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="78"/>
-      <c r="B67" s="65" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="65"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -4158,17 +4170,17 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="59"/>
+      <c r="P67" s="87"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="87"/>
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="78"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="62"/>
+      <c r="B68" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="65"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -4187,17 +4199,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="59"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="87"/>
     </row>
     <row r="69" spans="1:19" ht="21" customHeight="1">
-      <c r="A69" s="78"/>
-      <c r="B69" s="66" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="67"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="5" t="s">
         <v>84</v>
       </c>
@@ -4214,17 +4226,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="59"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="87"/>
     </row>
     <row r="70" spans="1:19" ht="21" customHeight="1">
-      <c r="A70" s="78"/>
-      <c r="B70" s="66" t="s">
+      <c r="A70" s="62"/>
+      <c r="B70" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="67"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
@@ -4241,19 +4253,19 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="59"/>
+      <c r="P70" s="87"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="87"/>
     </row>
     <row r="71" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="67"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4268,17 +4280,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="59"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="87"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1">
-      <c r="A72" s="82"/>
-      <c r="B72" s="64" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="65"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="3"/>
       <c r="E72" s="36" t="s">
         <v>167</v>
@@ -4295,17 +4307,17 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="59"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="87"/>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A73" s="82"/>
-      <c r="B73" s="65" t="s">
+      <c r="A73" s="47"/>
+      <c r="B73" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="65"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="3"/>
       <c r="E73" s="36" t="s">
         <v>167</v>
@@ -4324,17 +4336,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="59"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="87"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="82"/>
-      <c r="B74" s="65" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="65"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="3"/>
       <c r="E74" s="36" t="s">
         <v>167</v>
@@ -4350,17 +4362,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="59"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="87"/>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1">
-      <c r="A75" s="82"/>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="47"/>
+      <c r="B75" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="65"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4377,17 +4389,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="59"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="87"/>
     </row>
     <row r="76" spans="1:19" ht="21" customHeight="1">
-      <c r="A76" s="82"/>
-      <c r="B76" s="66" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="67"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="5" t="s">
         <v>88</v>
       </c>
@@ -4402,17 +4414,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="59"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="87"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="87"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1">
-      <c r="A77" s="82"/>
-      <c r="B77" s="64" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="65"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="38" t="s">
@@ -4427,17 +4439,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="59"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="87"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="87"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A78" s="82"/>
-      <c r="B78" s="65" t="s">
+      <c r="A78" s="47"/>
+      <c r="B78" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="65"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="38" t="s">
@@ -4452,17 +4464,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="59"/>
+      <c r="P78" s="87"/>
+      <c r="Q78" s="87"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="87"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="82"/>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="65"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="38" t="s">
@@ -4477,17 +4489,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="59"/>
+      <c r="P79" s="87"/>
+      <c r="Q79" s="87"/>
+      <c r="R79" s="88"/>
+      <c r="S79" s="87"/>
     </row>
     <row r="80" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A80" s="82"/>
-      <c r="B80" s="66" t="s">
+      <c r="A80" s="47"/>
+      <c r="B80" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="67"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="5" t="s">
         <v>88</v>
       </c>
@@ -4502,17 +4514,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="60"/>
-      <c r="S80" s="59"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="87"/>
+      <c r="R80" s="88"/>
+      <c r="S80" s="87"/>
     </row>
     <row r="81" spans="1:19" ht="18" customHeight="1">
-      <c r="A81" s="82"/>
-      <c r="B81" s="64" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="38" t="s">
@@ -4527,17 +4539,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="59"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="87"/>
+      <c r="R81" s="88"/>
+      <c r="S81" s="87"/>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
-      <c r="A82" s="82"/>
-      <c r="B82" s="65" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="65"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="G82" s="38" t="s">
@@ -4551,17 +4563,17 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="59"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="87"/>
+      <c r="R82" s="88"/>
+      <c r="S82" s="87"/>
     </row>
     <row r="83" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A83" s="82"/>
-      <c r="B83" s="65" t="s">
+      <c r="A83" s="47"/>
+      <c r="B83" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4574,19 +4586,19 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="59"/>
+      <c r="P83" s="87"/>
+      <c r="Q83" s="87"/>
+      <c r="R83" s="88"/>
+      <c r="S83" s="87"/>
     </row>
     <row r="84" spans="1:19" ht="21" customHeight="1">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="67"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4601,17 +4613,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="60"/>
-      <c r="S84" s="59"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="87"/>
+      <c r="R84" s="88"/>
+      <c r="S84" s="87"/>
     </row>
     <row r="85" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A85" s="82"/>
-      <c r="B85" s="64" t="s">
+      <c r="A85" s="47"/>
+      <c r="B85" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="1"/>
       <c r="E85" s="16" t="s">
         <v>111</v>
@@ -4626,17 +4638,17 @@
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="59"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
+      <c r="R85" s="88"/>
+      <c r="S85" s="87"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A86" s="82"/>
-      <c r="B86" s="64" t="s">
+      <c r="A86" s="47"/>
+      <c r="B86" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="65"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="3"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4651,17 +4663,17 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="59"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="87"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="87"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A87" s="82"/>
-      <c r="B87" s="65" t="s">
+      <c r="A87" s="47"/>
+      <c r="B87" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="3"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4676,17 +4688,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="59"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="87"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="87"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="82"/>
-      <c r="B88" s="65" t="s">
+      <c r="A88" s="47"/>
+      <c r="B88" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4703,17 +4715,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="59"/>
+      <c r="P88" s="87"/>
+      <c r="Q88" s="87"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="87"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="82"/>
-      <c r="B89" s="65" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4730,17 +4742,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="59"/>
+      <c r="P89" s="87"/>
+      <c r="Q89" s="87"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="87"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="82"/>
-      <c r="B90" s="65" t="s">
+      <c r="A90" s="47"/>
+      <c r="B90" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4757,17 +4769,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="59"/>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="87"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="82"/>
-      <c r="B91" s="65" t="s">
+      <c r="A91" s="47"/>
+      <c r="B91" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4784,17 +4796,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="59"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="87"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="87"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A92" s="82"/>
-      <c r="B92" s="65" t="s">
+      <c r="A92" s="47"/>
+      <c r="B92" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -4809,17 +4821,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="59"/>
+      <c r="P92" s="87"/>
+      <c r="Q92" s="87"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="87"/>
     </row>
     <row r="93" spans="1:19" ht="21" customHeight="1">
-      <c r="A93" s="82"/>
-      <c r="B93" s="66" t="s">
+      <c r="A93" s="47"/>
+      <c r="B93" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="67"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="5" t="s">
         <v>61</v>
       </c>
@@ -4834,17 +4846,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="60"/>
-      <c r="S93" s="59"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="87"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="87"/>
     </row>
     <row r="94" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A94" s="82"/>
-      <c r="B94" s="64" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="5"/>
       <c r="E94" s="17" t="s">
         <v>111</v>
@@ -4859,17 +4871,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="60"/>
-      <c r="S94" s="59"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="87"/>
+      <c r="R94" s="88"/>
+      <c r="S94" s="87"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A95" s="82"/>
-      <c r="B95" s="64" t="s">
+      <c r="A95" s="47"/>
+      <c r="B95" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="65"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="3"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -4884,17 +4896,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="60"/>
-      <c r="S95" s="59"/>
+      <c r="P95" s="87"/>
+      <c r="Q95" s="87"/>
+      <c r="R95" s="88"/>
+      <c r="S95" s="87"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A96" s="82"/>
-      <c r="B96" s="65" t="s">
+      <c r="A96" s="47"/>
+      <c r="B96" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="65"/>
+      <c r="C96" s="54"/>
       <c r="D96" s="3"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -4909,17 +4921,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="60"/>
-      <c r="S96" s="59"/>
+      <c r="P96" s="87"/>
+      <c r="Q96" s="87"/>
+      <c r="R96" s="88"/>
+      <c r="S96" s="87"/>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="82"/>
-      <c r="B97" s="65" t="s">
+      <c r="A97" s="47"/>
+      <c r="B97" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="65"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -4938,17 +4950,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="60"/>
-      <c r="S97" s="59"/>
+      <c r="P97" s="87"/>
+      <c r="Q97" s="87"/>
+      <c r="R97" s="88"/>
+      <c r="S97" s="87"/>
     </row>
     <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="82"/>
-      <c r="B98" s="65" t="s">
+      <c r="A98" s="47"/>
+      <c r="B98" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="65"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -4963,17 +4975,17 @@
       <c r="O98" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="60"/>
-      <c r="S98" s="59"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="87"/>
+      <c r="R98" s="88"/>
+      <c r="S98" s="87"/>
     </row>
     <row r="99" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A99" s="82"/>
-      <c r="B99" s="65" t="s">
+      <c r="A99" s="47"/>
+      <c r="B99" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -4988,19 +5000,19 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="60"/>
-      <c r="S99" s="59"/>
+      <c r="P99" s="87"/>
+      <c r="Q99" s="87"/>
+      <c r="R99" s="88"/>
+      <c r="S99" s="87"/>
     </row>
     <row r="100" spans="1:19" ht="18" customHeight="1">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="67"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="1" t="s">
         <v>61</v>
       </c>
@@ -5015,17 +5027,17 @@
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="60"/>
-      <c r="S100" s="59"/>
+      <c r="P100" s="87"/>
+      <c r="Q100" s="87"/>
+      <c r="R100" s="88"/>
+      <c r="S100" s="87"/>
     </row>
     <row r="101" spans="1:19" ht="18" customHeight="1">
-      <c r="A101" s="82"/>
-      <c r="B101" s="64" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="65"/>
+      <c r="C101" s="54"/>
       <c r="D101" s="1"/>
       <c r="E101" s="15"/>
       <c r="F101" s="16" t="s">
@@ -5040,17 +5052,17 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="60"/>
-      <c r="S101" s="59"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="87"/>
+      <c r="R101" s="88"/>
+      <c r="S101" s="87"/>
     </row>
     <row r="102" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A102" s="82"/>
-      <c r="B102" s="64" t="s">
+      <c r="A102" s="47"/>
+      <c r="B102" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="65"/>
+      <c r="C102" s="54"/>
       <c r="D102" s="3"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -5063,17 +5075,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="60"/>
-      <c r="S102" s="59"/>
+      <c r="P102" s="87"/>
+      <c r="Q102" s="87"/>
+      <c r="R102" s="88"/>
+      <c r="S102" s="87"/>
     </row>
     <row r="103" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A103" s="82"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="47"/>
+      <c r="B103" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="67"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="5" t="s">
         <v>61</v>
       </c>
@@ -5088,17 +5100,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="59"/>
+      <c r="P103" s="87"/>
+      <c r="Q103" s="87"/>
+      <c r="R103" s="88"/>
+      <c r="S103" s="87"/>
     </row>
     <row r="104" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A104" s="82"/>
-      <c r="B104" s="64" t="s">
+      <c r="A104" s="47"/>
+      <c r="B104" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="64"/>
+      <c r="C104" s="53"/>
       <c r="D104" s="5"/>
       <c r="E104" s="15"/>
       <c r="F104" s="16" t="s">
@@ -5113,17 +5125,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="60"/>
-      <c r="S104" s="59"/>
+      <c r="P104" s="87"/>
+      <c r="Q104" s="87"/>
+      <c r="R104" s="88"/>
+      <c r="S104" s="87"/>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1">
-      <c r="A105" s="82"/>
-      <c r="B105" s="64" t="s">
+      <c r="A105" s="47"/>
+      <c r="B105" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="65"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="3"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -5138,17 +5150,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="59"/>
+      <c r="P105" s="87"/>
+      <c r="Q105" s="87"/>
+      <c r="R105" s="88"/>
+      <c r="S105" s="87"/>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1">
-      <c r="A106" s="82"/>
-      <c r="B106" s="65" t="s">
+      <c r="A106" s="47"/>
+      <c r="B106" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C106" s="65"/>
+      <c r="C106" s="54"/>
       <c r="D106" s="3"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
@@ -5163,17 +5175,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="60"/>
-      <c r="S106" s="59"/>
+      <c r="P106" s="87"/>
+      <c r="Q106" s="87"/>
+      <c r="R106" s="88"/>
+      <c r="S106" s="87"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1">
-      <c r="A107" s="82"/>
-      <c r="B107" s="65" t="s">
+      <c r="A107" s="47"/>
+      <c r="B107" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="65"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -5188,17 +5200,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="60"/>
-      <c r="S107" s="59"/>
+      <c r="P107" s="87"/>
+      <c r="Q107" s="87"/>
+      <c r="R107" s="88"/>
+      <c r="S107" s="87"/>
     </row>
     <row r="108" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A108" s="82"/>
-      <c r="B108" s="65" t="s">
+      <c r="A108" s="47"/>
+      <c r="B108" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="65"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -5213,17 +5225,17 @@
       </c>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="60"/>
-      <c r="S108" s="59"/>
+      <c r="P108" s="87"/>
+      <c r="Q108" s="87"/>
+      <c r="R108" s="88"/>
+      <c r="S108" s="87"/>
     </row>
     <row r="109" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A109" s="82"/>
-      <c r="B109" s="65" t="s">
+      <c r="A109" s="47"/>
+      <c r="B109" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="65"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -5238,17 +5250,17 @@
       <c r="O109" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="60"/>
-      <c r="S109" s="59"/>
+      <c r="P109" s="87"/>
+      <c r="Q109" s="87"/>
+      <c r="R109" s="88"/>
+      <c r="S109" s="87"/>
     </row>
     <row r="110" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A110" s="82"/>
-      <c r="B110" s="65" t="s">
+      <c r="A110" s="47"/>
+      <c r="B110" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C110" s="65"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -5263,17 +5275,17 @@
       <c r="O110" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="60"/>
-      <c r="S110" s="59"/>
+      <c r="P110" s="87"/>
+      <c r="Q110" s="87"/>
+      <c r="R110" s="88"/>
+      <c r="S110" s="87"/>
     </row>
     <row r="111" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A111" s="82"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="47"/>
+      <c r="B111" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C111" s="67"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="5" t="s">
         <v>61</v>
       </c>
@@ -5288,17 +5300,17 @@
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="60"/>
-      <c r="S111" s="59"/>
+      <c r="P111" s="87"/>
+      <c r="Q111" s="87"/>
+      <c r="R111" s="88"/>
+      <c r="S111" s="87"/>
     </row>
     <row r="112" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A112" s="82"/>
-      <c r="B112" s="64" t="s">
+      <c r="A112" s="47"/>
+      <c r="B112" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="65"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="5"/>
       <c r="E112" s="15"/>
       <c r="F112" s="16" t="s">
@@ -5313,17 +5325,17 @@
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-      <c r="R112" s="60"/>
-      <c r="S112" s="59"/>
+      <c r="P112" s="87"/>
+      <c r="Q112" s="87"/>
+      <c r="R112" s="88"/>
+      <c r="S112" s="87"/>
     </row>
     <row r="113" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A113" s="82"/>
-      <c r="B113" s="64" t="s">
+      <c r="A113" s="47"/>
+      <c r="B113" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C113" s="65"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="3"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
@@ -5338,17 +5350,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-      <c r="R113" s="60"/>
-      <c r="S113" s="59"/>
+      <c r="P113" s="87"/>
+      <c r="Q113" s="87"/>
+      <c r="R113" s="88"/>
+      <c r="S113" s="87"/>
     </row>
     <row r="114" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A114" s="82"/>
-      <c r="B114" s="65" t="s">
+      <c r="A114" s="47"/>
+      <c r="B114" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="65"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="3"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
@@ -5363,17 +5375,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="60"/>
-      <c r="S114" s="59"/>
+      <c r="P114" s="87"/>
+      <c r="Q114" s="87"/>
+      <c r="R114" s="88"/>
+      <c r="S114" s="87"/>
     </row>
     <row r="115" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A115" s="82"/>
-      <c r="B115" s="65" t="s">
+      <c r="A115" s="47"/>
+      <c r="B115" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="65"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5388,17 +5400,17 @@
       <c r="O115" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="60"/>
-      <c r="S115" s="59"/>
+      <c r="P115" s="87"/>
+      <c r="Q115" s="87"/>
+      <c r="R115" s="88"/>
+      <c r="S115" s="87"/>
     </row>
     <row r="116" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A116" s="82"/>
-      <c r="B116" s="65" t="s">
+      <c r="A116" s="47"/>
+      <c r="B116" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="65"/>
+      <c r="C116" s="54"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -5413,17 +5425,17 @@
       <c r="O116" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-      <c r="R116" s="60"/>
-      <c r="S116" s="59"/>
+      <c r="P116" s="87"/>
+      <c r="Q116" s="87"/>
+      <c r="R116" s="88"/>
+      <c r="S116" s="87"/>
     </row>
     <row r="117" spans="1:19" ht="21" customHeight="1">
-      <c r="A117" s="82"/>
-      <c r="B117" s="66" t="s">
+      <c r="A117" s="47"/>
+      <c r="B117" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="67"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="5" t="s">
         <v>61</v>
       </c>
@@ -5438,17 +5450,17 @@
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-      <c r="R117" s="60"/>
-      <c r="S117" s="59"/>
+      <c r="P117" s="87"/>
+      <c r="Q117" s="87"/>
+      <c r="R117" s="88"/>
+      <c r="S117" s="87"/>
     </row>
     <row r="118" spans="1:19" ht="21" customHeight="1">
-      <c r="A118" s="82"/>
-      <c r="B118" s="64" t="s">
+      <c r="A118" s="47"/>
+      <c r="B118" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="65"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="5"/>
       <c r="E118" s="17" t="s">
         <v>105</v>
@@ -5463,17 +5475,17 @@
       <c r="M118" s="15"/>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="60"/>
-      <c r="S118" s="59"/>
+      <c r="P118" s="87"/>
+      <c r="Q118" s="87"/>
+      <c r="R118" s="88"/>
+      <c r="S118" s="87"/>
     </row>
     <row r="119" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A119" s="82"/>
-      <c r="B119" s="64" t="s">
+      <c r="A119" s="47"/>
+      <c r="B119" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C119" s="65"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="3"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
@@ -5488,56 +5500,56 @@
         <v>105</v>
       </c>
       <c r="O119" s="15"/>
-      <c r="P119" s="61"/>
-      <c r="Q119" s="61"/>
-      <c r="R119" s="62"/>
-      <c r="S119" s="61"/>
+      <c r="P119" s="89"/>
+      <c r="Q119" s="89"/>
+      <c r="R119" s="90"/>
+      <c r="S119" s="89"/>
     </row>
     <row r="120" spans="1:19">
-      <c r="B120" s="81"/>
-      <c r="C120" s="81"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
     </row>
     <row r="121" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="52"/>
-      <c r="L121" s="52"/>
-      <c r="M121" s="52"/>
-      <c r="N121" s="52"/>
-      <c r="O121" s="52"/>
-      <c r="P121" s="52"/>
-      <c r="Q121" s="52"/>
-      <c r="R121" s="52"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="80"/>
+      <c r="H121" s="80"/>
+      <c r="I121" s="80"/>
+      <c r="J121" s="80"/>
+      <c r="K121" s="80"/>
+      <c r="L121" s="80"/>
+      <c r="M121" s="80"/>
+      <c r="N121" s="80"/>
+      <c r="O121" s="80"/>
+      <c r="P121" s="80"/>
+      <c r="Q121" s="80"/>
+      <c r="R121" s="80"/>
     </row>
     <row r="122" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="52"/>
-      <c r="L122" s="52"/>
-      <c r="M122" s="52"/>
-      <c r="N122" s="52"/>
-      <c r="O122" s="52"/>
-      <c r="P122" s="52"/>
-      <c r="Q122" s="52"/>
-      <c r="R122" s="52"/>
+      <c r="A122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="H122" s="80"/>
+      <c r="I122" s="80"/>
+      <c r="J122" s="80"/>
+      <c r="K122" s="80"/>
+      <c r="L122" s="80"/>
+      <c r="M122" s="80"/>
+      <c r="N122" s="80"/>
+      <c r="O122" s="80"/>
+      <c r="P122" s="80"/>
+      <c r="Q122" s="80"/>
+      <c r="R122" s="80"/>
     </row>
     <row r="123" spans="1:19" ht="13.5" customHeight="1">
       <c r="A123" s="18" t="s">
@@ -5612,10 +5624,10 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="47"/>
-      <c r="R124" s="43"/>
+      <c r="O124" s="71"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="75"/>
+      <c r="R124" s="71"/>
     </row>
     <row r="125" spans="1:19" ht="13.5" customHeight="1">
       <c r="A125" s="23" t="s">
@@ -5638,10 +5650,10 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
-      <c r="O125" s="44"/>
-      <c r="P125" s="48"/>
-      <c r="Q125" s="49"/>
-      <c r="R125" s="44"/>
+      <c r="O125" s="72"/>
+      <c r="P125" s="76"/>
+      <c r="Q125" s="77"/>
+      <c r="R125" s="72"/>
     </row>
     <row r="126" spans="1:19" ht="13.5" customHeight="1">
       <c r="A126" s="23" t="s">
@@ -5668,10 +5680,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="44"/>
-      <c r="P126" s="48"/>
-      <c r="Q126" s="49"/>
-      <c r="R126" s="44"/>
+      <c r="O126" s="72"/>
+      <c r="P126" s="76"/>
+      <c r="Q126" s="77"/>
+      <c r="R126" s="72"/>
     </row>
     <row r="127" spans="1:19" ht="14.25">
       <c r="A127" s="23" t="s">
@@ -5696,10 +5708,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="44"/>
-      <c r="P127" s="48"/>
-      <c r="Q127" s="49"/>
-      <c r="R127" s="44"/>
+      <c r="O127" s="72"/>
+      <c r="P127" s="76"/>
+      <c r="Q127" s="77"/>
+      <c r="R127" s="72"/>
     </row>
     <row r="128" spans="1:19" ht="17.25">
       <c r="A128" s="25" t="s">
@@ -5718,10 +5730,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="44"/>
-      <c r="P128" s="48"/>
-      <c r="Q128" s="49"/>
-      <c r="R128" s="44"/>
+      <c r="O128" s="72"/>
+      <c r="P128" s="76"/>
+      <c r="Q128" s="77"/>
+      <c r="R128" s="72"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="34" t="s">
@@ -5744,10 +5756,10 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="44"/>
-      <c r="P129" s="48"/>
-      <c r="Q129" s="49"/>
-      <c r="R129" s="44"/>
+      <c r="O129" s="72"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="77"/>
+      <c r="R129" s="72"/>
     </row>
     <row r="130" spans="1:18" ht="14.25">
       <c r="A130" s="24" t="s">
@@ -5770,10 +5782,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="44"/>
-      <c r="P130" s="48"/>
-      <c r="Q130" s="49"/>
-      <c r="R130" s="44"/>
+      <c r="O130" s="72"/>
+      <c r="P130" s="76"/>
+      <c r="Q130" s="77"/>
+      <c r="R130" s="72"/>
     </row>
     <row r="131" spans="1:18" ht="17.25">
       <c r="A131" s="25" t="s">
@@ -5792,10 +5804,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="44"/>
-      <c r="P131" s="48"/>
-      <c r="Q131" s="49"/>
-      <c r="R131" s="44"/>
+      <c r="O131" s="72"/>
+      <c r="P131" s="76"/>
+      <c r="Q131" s="77"/>
+      <c r="R131" s="72"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="34" t="s">
@@ -5816,10 +5828,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="48"/>
-      <c r="Q132" s="49"/>
-      <c r="R132" s="44"/>
+      <c r="O132" s="72"/>
+      <c r="P132" s="76"/>
+      <c r="Q132" s="77"/>
+      <c r="R132" s="72"/>
     </row>
     <row r="133" spans="1:18" ht="14.25">
       <c r="A133" s="24" t="s">
@@ -5840,10 +5852,10 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="44"/>
-      <c r="P133" s="48"/>
-      <c r="Q133" s="49"/>
-      <c r="R133" s="44"/>
+      <c r="O133" s="72"/>
+      <c r="P133" s="76"/>
+      <c r="Q133" s="77"/>
+      <c r="R133" s="72"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="30" t="s">
@@ -5868,10 +5880,10 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="44"/>
-      <c r="P134" s="48"/>
-      <c r="Q134" s="49"/>
-      <c r="R134" s="44"/>
+      <c r="O134" s="72"/>
+      <c r="P134" s="76"/>
+      <c r="Q134" s="77"/>
+      <c r="R134" s="72"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="30" t="s">
@@ -5896,10 +5908,10 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="44"/>
-      <c r="P135" s="48"/>
-      <c r="Q135" s="49"/>
-      <c r="R135" s="44"/>
+      <c r="O135" s="72"/>
+      <c r="P135" s="76"/>
+      <c r="Q135" s="77"/>
+      <c r="R135" s="72"/>
     </row>
     <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="30" t="s">
@@ -5938,10 +5950,10 @@
       <c r="N136" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O136" s="44"/>
-      <c r="P136" s="48"/>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="44"/>
+      <c r="O136" s="72"/>
+      <c r="P136" s="76"/>
+      <c r="Q136" s="77"/>
+      <c r="R136" s="72"/>
     </row>
     <row r="137" spans="1:18" ht="17.25">
       <c r="A137" s="25" t="s">
@@ -5960,10 +5972,10 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="44"/>
-      <c r="P137" s="48"/>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="44"/>
+      <c r="O137" s="72"/>
+      <c r="P137" s="76"/>
+      <c r="Q137" s="77"/>
+      <c r="R137" s="72"/>
     </row>
     <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="30" t="s">
@@ -5988,10 +6000,10 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="44"/>
-      <c r="P138" s="48"/>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="44"/>
+      <c r="O138" s="72"/>
+      <c r="P138" s="76"/>
+      <c r="Q138" s="77"/>
+      <c r="R138" s="72"/>
     </row>
     <row r="139" spans="1:18" ht="17.25">
       <c r="A139" s="25" t="s">
@@ -6010,10 +6022,10 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="44"/>
-      <c r="P139" s="48"/>
-      <c r="Q139" s="49"/>
-      <c r="R139" s="44"/>
+      <c r="O139" s="72"/>
+      <c r="P139" s="76"/>
+      <c r="Q139" s="77"/>
+      <c r="R139" s="72"/>
     </row>
     <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="30" t="s">
@@ -6038,10 +6050,10 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="44"/>
-      <c r="P140" s="48"/>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="44"/>
+      <c r="O140" s="72"/>
+      <c r="P140" s="76"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="72"/>
     </row>
     <row r="141" spans="1:18" ht="17.25">
       <c r="A141" s="25" t="s">
@@ -6060,10 +6072,10 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="44"/>
-      <c r="P141" s="48"/>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="44"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="76"/>
+      <c r="Q141" s="77"/>
+      <c r="R141" s="72"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="23" t="s">
@@ -6094,10 +6106,10 @@
       <c r="N142" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O142" s="44"/>
-      <c r="P142" s="48"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="44"/>
+      <c r="O142" s="72"/>
+      <c r="P142" s="76"/>
+      <c r="Q142" s="77"/>
+      <c r="R142" s="72"/>
     </row>
     <row r="143" spans="1:18" ht="14.25">
       <c r="A143" s="23" t="s">
@@ -6128,10 +6140,10 @@
       <c r="N143" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O143" s="44"/>
-      <c r="P143" s="48"/>
-      <c r="Q143" s="49"/>
-      <c r="R143" s="44"/>
+      <c r="O143" s="72"/>
+      <c r="P143" s="76"/>
+      <c r="Q143" s="77"/>
+      <c r="R143" s="72"/>
     </row>
     <row r="144" spans="1:18" ht="17.25">
       <c r="A144" s="25" t="s">
@@ -6150,10 +6162,10 @@
       <c r="L144" s="26"/>
       <c r="M144" s="26"/>
       <c r="N144" s="26"/>
-      <c r="O144" s="44"/>
-      <c r="P144" s="48"/>
-      <c r="Q144" s="49"/>
-      <c r="R144" s="44"/>
+      <c r="O144" s="72"/>
+      <c r="P144" s="76"/>
+      <c r="Q144" s="77"/>
+      <c r="R144" s="72"/>
     </row>
     <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
@@ -6176,10 +6188,10 @@
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
-      <c r="O145" s="44"/>
-      <c r="P145" s="48"/>
-      <c r="Q145" s="49"/>
-      <c r="R145" s="44"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="76"/>
+      <c r="Q145" s="77"/>
+      <c r="R145" s="72"/>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="23" t="s">
@@ -6200,10 +6212,10 @@
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
-      <c r="O146" s="44"/>
-      <c r="P146" s="48"/>
-      <c r="Q146" s="49"/>
-      <c r="R146" s="44"/>
+      <c r="O146" s="72"/>
+      <c r="P146" s="76"/>
+      <c r="Q146" s="77"/>
+      <c r="R146" s="72"/>
     </row>
     <row r="147" spans="1:18" ht="17.25">
       <c r="A147" s="25" t="s">
@@ -6222,10 +6234,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="44"/>
-      <c r="P147" s="48"/>
-      <c r="Q147" s="49"/>
-      <c r="R147" s="44"/>
+      <c r="O147" s="72"/>
+      <c r="P147" s="76"/>
+      <c r="Q147" s="77"/>
+      <c r="R147" s="72"/>
     </row>
     <row r="148" spans="1:18" ht="14.25">
       <c r="A148" s="23" t="s">
@@ -6248,10 +6260,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="44"/>
-      <c r="P148" s="48"/>
-      <c r="Q148" s="49"/>
-      <c r="R148" s="44"/>
+      <c r="O148" s="72"/>
+      <c r="P148" s="76"/>
+      <c r="Q148" s="77"/>
+      <c r="R148" s="72"/>
     </row>
     <row r="149" spans="1:18" ht="14.25">
       <c r="A149" s="23" t="s">
@@ -6274,10 +6286,10 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="44"/>
-      <c r="P149" s="48"/>
-      <c r="Q149" s="49"/>
-      <c r="R149" s="44"/>
+      <c r="O149" s="72"/>
+      <c r="P149" s="76"/>
+      <c r="Q149" s="77"/>
+      <c r="R149" s="72"/>
     </row>
     <row r="150" spans="1:18" ht="17.25">
       <c r="A150" s="25" t="s">
@@ -6296,10 +6308,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="44"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="44"/>
+      <c r="O150" s="72"/>
+      <c r="P150" s="76"/>
+      <c r="Q150" s="77"/>
+      <c r="R150" s="72"/>
     </row>
     <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="23" t="s">
@@ -6322,10 +6334,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="44"/>
-      <c r="P151" s="48"/>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="44"/>
+      <c r="O151" s="72"/>
+      <c r="P151" s="76"/>
+      <c r="Q151" s="77"/>
+      <c r="R151" s="72"/>
     </row>
     <row r="152" spans="1:18" ht="17.25">
       <c r="A152" s="25" t="s">
@@ -6344,10 +6356,10 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="44"/>
-      <c r="P152" s="48"/>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="44"/>
+      <c r="O152" s="72"/>
+      <c r="P152" s="76"/>
+      <c r="Q152" s="77"/>
+      <c r="R152" s="72"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
@@ -6372,10 +6384,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="44"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="49"/>
-      <c r="R153" s="44"/>
+      <c r="O153" s="72"/>
+      <c r="P153" s="76"/>
+      <c r="Q153" s="77"/>
+      <c r="R153" s="72"/>
     </row>
     <row r="154" spans="1:18" ht="14.25">
       <c r="A154" s="23" t="s">
@@ -6400,10 +6412,10 @@
       <c r="L154" s="21"/>
       <c r="M154" s="21"/>
       <c r="N154" s="21"/>
-      <c r="O154" s="44"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="49"/>
-      <c r="R154" s="44"/>
+      <c r="O154" s="72"/>
+      <c r="P154" s="76"/>
+      <c r="Q154" s="77"/>
+      <c r="R154" s="72"/>
     </row>
     <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="24" t="s">
@@ -6426,10 +6438,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="44"/>
-      <c r="P155" s="48"/>
-      <c r="Q155" s="49"/>
-      <c r="R155" s="44"/>
+      <c r="O155" s="72"/>
+      <c r="P155" s="76"/>
+      <c r="Q155" s="77"/>
+      <c r="R155" s="72"/>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="18" t="s">
@@ -6450,10 +6462,10 @@
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="49"/>
-      <c r="R156" s="44"/>
+      <c r="O156" s="72"/>
+      <c r="P156" s="76"/>
+      <c r="Q156" s="77"/>
+      <c r="R156" s="72"/>
     </row>
     <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="18" t="s">
@@ -6476,22 +6488,128 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="45"/>
-      <c r="P157" s="50"/>
-      <c r="Q157" s="51"/>
-      <c r="R157" s="45"/>
+      <c r="O157" s="73"/>
+      <c r="P157" s="78"/>
+      <c r="Q157" s="79"/>
+      <c r="R157" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O124:O157"/>
+    <mergeCell ref="P124:Q157"/>
+    <mergeCell ref="R124:R157"/>
+    <mergeCell ref="A121:R122"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="Q4:R119"/>
+    <mergeCell ref="S4:S119"/>
+    <mergeCell ref="P4:P119"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A100:A119"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="A4:A38"/>
@@ -6516,121 +6634,15 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="A47:A56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A100:A119"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A84:A99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O124:O157"/>
-    <mergeCell ref="P124:Q157"/>
-    <mergeCell ref="R124:R157"/>
-    <mergeCell ref="A121:R122"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="Q4:R119"/>
-    <mergeCell ref="S4:S119"/>
-    <mergeCell ref="P4:P119"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6653,75 +6665,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="53" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="U1" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6770,26 +6782,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6804,34 +6816,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="57" t="s">
+      <c r="R4" s="86"/>
+      <c r="S4" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6844,26 +6856,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="59"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="87"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21">
-      <c r="A6" s="82"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -6878,17 +6890,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="87"/>
     </row>
     <row r="7" spans="1:29" ht="17.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -6901,17 +6913,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="87"/>
     </row>
     <row r="8" spans="1:29" ht="17.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -6924,18 +6936,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="59"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="87"/>
     </row>
     <row r="9" spans="1:29" ht="21">
-      <c r="A9" s="89"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="68" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -6949,18 +6961,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="87"/>
     </row>
     <row r="10" spans="1:29" ht="21">
-      <c r="A10" s="89"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6972,17 +6984,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="87"/>
     </row>
     <row r="11" spans="1:29" ht="17.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -6995,17 +7007,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="59"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="87"/>
     </row>
     <row r="12" spans="1:29" ht="17.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -7018,65 +7030,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="87"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="82"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="93" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="87"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="82"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="59"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="87"/>
     </row>
     <row r="15" spans="1:29" ht="17.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -7089,17 +7101,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="59"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="87"/>
     </row>
     <row r="16" spans="1:29" ht="17.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -7112,17 +7124,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="59"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="87"/>
     </row>
     <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -7135,17 +7147,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="59"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="87"/>
     </row>
     <row r="18" spans="1:19" ht="21">
-      <c r="A18" s="82"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -7160,17 +7172,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="59"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="87"/>
     </row>
     <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -7183,17 +7195,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="59"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="87"/>
     </row>
     <row r="20" spans="1:19" ht="17.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -7206,17 +7218,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="59"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="87"/>
     </row>
     <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -7229,17 +7241,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="59"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="87"/>
     </row>
     <row r="22" spans="1:19" ht="17.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -7252,17 +7264,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="59"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="87"/>
     </row>
     <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -7275,17 +7287,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="59"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="87"/>
     </row>
     <row r="24" spans="1:19" ht="21">
-      <c r="A24" s="82"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7300,17 +7312,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="59"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="87"/>
     </row>
     <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7323,17 +7335,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="87"/>
     </row>
     <row r="26" spans="1:19" ht="17.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7346,17 +7358,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="59"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="87"/>
     </row>
     <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7369,17 +7381,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="59"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="87"/>
     </row>
     <row r="28" spans="1:19" ht="21">
-      <c r="A28" s="82"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7394,17 +7406,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="59"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="87"/>
     </row>
     <row r="29" spans="1:19" ht="17.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7417,17 +7429,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="59"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="87"/>
     </row>
     <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7440,17 +7452,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="59"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="87"/>
     </row>
     <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7463,17 +7475,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="59"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="87"/>
     </row>
     <row r="32" spans="1:19" ht="17.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7486,17 +7498,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="59"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="87"/>
     </row>
     <row r="33" spans="1:19" ht="21">
-      <c r="A33" s="82"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7511,17 +7523,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="59"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="87"/>
     </row>
     <row r="34" spans="1:19" ht="17.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7534,17 +7546,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="59"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="87"/>
     </row>
     <row r="35" spans="1:19" ht="17.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7557,17 +7569,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="59"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="87"/>
     </row>
     <row r="36" spans="1:19" ht="17.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7580,17 +7592,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="59"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="87"/>
     </row>
     <row r="37" spans="1:19" ht="21">
-      <c r="A37" s="82"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7605,15 +7617,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="59"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="87"/>
     </row>
     <row r="38" spans="1:19" ht="21">
-      <c r="A38" s="82"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7626,15 +7638,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="59"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="87"/>
     </row>
     <row r="39" spans="1:19" ht="21">
-      <c r="A39" s="82"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="80"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7647,17 +7659,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="59"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="87"/>
     </row>
     <row r="40" spans="1:19" ht="21">
-      <c r="A40" s="84"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7672,19 +7684,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="59"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="87"/>
     </row>
     <row r="41" spans="1:19" ht="21">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7699,17 +7711,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="59"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="87"/>
     </row>
     <row r="42" spans="1:19" ht="17.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7722,17 +7734,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="59"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="87"/>
     </row>
     <row r="43" spans="1:19" ht="17.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7745,17 +7757,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="59"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="87"/>
     </row>
     <row r="44" spans="1:19" ht="21">
-      <c r="A44" s="85"/>
-      <c r="B44" s="80" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="66"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7770,17 +7782,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="59"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="87"/>
     </row>
     <row r="45" spans="1:19" ht="17.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="64"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7793,17 +7805,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="59"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="87"/>
     </row>
     <row r="46" spans="1:19" ht="17.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="79" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7816,17 +7828,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="59"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="87"/>
     </row>
     <row r="47" spans="1:19" ht="21">
-      <c r="A47" s="85"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="57"/>
+      <c r="B47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7841,17 +7853,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="59"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="87"/>
     </row>
     <row r="48" spans="1:19" ht="21">
-      <c r="A48" s="85"/>
-      <c r="B48" s="83" t="s">
+      <c r="A48" s="57"/>
+      <c r="B48" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="67"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -7866,19 +7878,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="59"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="87"/>
     </row>
     <row r="49" spans="1:19" ht="21">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -7893,17 +7905,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="59"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="87"/>
     </row>
     <row r="50" spans="1:19" ht="17.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="68" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -7916,17 +7928,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="59"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="87"/>
     </row>
     <row r="51" spans="1:19" ht="17.25">
-      <c r="A51" s="85"/>
-      <c r="B51" s="79" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7939,17 +7951,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="59"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="87"/>
     </row>
     <row r="52" spans="1:19" ht="17.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="79" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -7962,17 +7974,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="59"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="87"/>
     </row>
     <row r="53" spans="1:19" ht="17.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="65"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -7985,17 +7997,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="87"/>
     </row>
     <row r="54" spans="1:19" ht="17.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="57"/>
+      <c r="B54" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -8008,17 +8020,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="59"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="87"/>
     </row>
     <row r="55" spans="1:19" ht="17.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="65"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8031,17 +8043,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="87"/>
     </row>
     <row r="56" spans="1:19" ht="17.25">
-      <c r="A56" s="85"/>
-      <c r="B56" s="79" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="65"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -8054,17 +8066,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="87"/>
     </row>
     <row r="57" spans="1:19" ht="17.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="79" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="65"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8077,17 +8089,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="59"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="87"/>
     </row>
     <row r="58" spans="1:19" ht="21">
-      <c r="A58" s="86"/>
-      <c r="B58" s="80" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -8102,19 +8114,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="59"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="87"/>
     </row>
     <row r="59" spans="1:19" ht="21">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="67"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -8129,17 +8141,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="59"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="87"/>
     </row>
     <row r="60" spans="1:19" ht="21">
-      <c r="A60" s="78"/>
-      <c r="B60" s="66" t="s">
+      <c r="A60" s="62"/>
+      <c r="B60" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="67"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -8154,17 +8166,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="59"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="87"/>
     </row>
     <row r="61" spans="1:19" ht="17.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="64" t="s">
+      <c r="A61" s="62"/>
+      <c r="B61" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="65"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -8177,17 +8189,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="59"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="87"/>
     </row>
     <row r="62" spans="1:19" ht="17.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="64" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="65"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -8200,17 +8212,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="59"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="87"/>
     </row>
     <row r="63" spans="1:19" ht="21">
-      <c r="A63" s="78"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -8225,17 +8237,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="59"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="87"/>
     </row>
     <row r="64" spans="1:19" ht="21">
-      <c r="A64" s="78"/>
-      <c r="B64" s="66" t="s">
+      <c r="A64" s="62"/>
+      <c r="B64" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -8250,17 +8262,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="59"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="87"/>
     </row>
     <row r="65" spans="1:19" ht="17.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="64" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -8273,17 +8285,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="59"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="87"/>
     </row>
     <row r="66" spans="1:19" ht="17.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="62"/>
+      <c r="B66" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -8296,17 +8308,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="59"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="87"/>
     </row>
     <row r="67" spans="1:19" ht="17.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="65" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="65"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8319,17 +8331,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="59"/>
+      <c r="P67" s="87"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="87"/>
     </row>
     <row r="68" spans="1:19" ht="17.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="62"/>
+      <c r="B68" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="65"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8342,17 +8354,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="59"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="87"/>
     </row>
     <row r="69" spans="1:19" ht="17.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="65"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8365,17 +8377,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="59"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="87"/>
     </row>
     <row r="70" spans="1:19" ht="17.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="65" t="s">
+      <c r="A70" s="62"/>
+      <c r="B70" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="65"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8388,17 +8400,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="59"/>
+      <c r="P70" s="87"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="87"/>
     </row>
     <row r="71" spans="1:19" ht="21">
-      <c r="A71" s="78"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="62"/>
+      <c r="B71" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="67"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8413,17 +8425,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="59"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="87"/>
     </row>
     <row r="72" spans="1:19" ht="21">
-      <c r="A72" s="78"/>
-      <c r="B72" s="66" t="s">
+      <c r="A72" s="62"/>
+      <c r="B72" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="67"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8438,19 +8450,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="59"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="87"/>
     </row>
     <row r="73" spans="1:19" ht="21">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="67"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8465,17 +8477,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="59"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="87"/>
     </row>
     <row r="74" spans="1:19" ht="17.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="64" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="65"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8488,17 +8500,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="59"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="87"/>
     </row>
     <row r="75" spans="1:19" ht="17.25">
-      <c r="A75" s="82"/>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="47"/>
+      <c r="B75" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="65"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8515,17 +8527,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="59"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="87"/>
     </row>
     <row r="76" spans="1:19" ht="17.25">
-      <c r="A76" s="82"/>
-      <c r="B76" s="65" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="65"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8541,17 +8553,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="59"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="87"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="87"/>
     </row>
     <row r="77" spans="1:19" ht="17.25">
-      <c r="A77" s="82"/>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="65"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8568,17 +8580,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="59"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="87"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="87"/>
     </row>
     <row r="78" spans="1:19" ht="21">
-      <c r="A78" s="82"/>
-      <c r="B78" s="66" t="s">
+      <c r="A78" s="47"/>
+      <c r="B78" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="67"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8593,17 +8605,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="59"/>
+      <c r="P78" s="87"/>
+      <c r="Q78" s="87"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="87"/>
     </row>
     <row r="79" spans="1:19" ht="17.25">
-      <c r="A79" s="82"/>
-      <c r="B79" s="64" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="65"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8616,17 +8628,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="59"/>
+      <c r="P79" s="87"/>
+      <c r="Q79" s="87"/>
+      <c r="R79" s="88"/>
+      <c r="S79" s="87"/>
     </row>
     <row r="80" spans="1:19" ht="17.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="65" t="s">
+      <c r="A80" s="47"/>
+      <c r="B80" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="65"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8639,17 +8651,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="60"/>
-      <c r="S80" s="59"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="87"/>
+      <c r="R80" s="88"/>
+      <c r="S80" s="87"/>
     </row>
     <row r="81" spans="1:19" ht="17.25">
-      <c r="A81" s="82"/>
-      <c r="B81" s="65" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8662,17 +8674,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="59"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="87"/>
+      <c r="R81" s="88"/>
+      <c r="S81" s="87"/>
     </row>
     <row r="82" spans="1:19" ht="21">
-      <c r="A82" s="82"/>
-      <c r="B82" s="66" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="67"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8687,17 +8699,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="59"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="87"/>
+      <c r="R82" s="88"/>
+      <c r="S82" s="87"/>
     </row>
     <row r="83" spans="1:19" ht="17.25">
-      <c r="A83" s="82"/>
-      <c r="B83" s="64" t="s">
+      <c r="A83" s="47"/>
+      <c r="B83" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8710,17 +8722,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="59"/>
+      <c r="P83" s="87"/>
+      <c r="Q83" s="87"/>
+      <c r="R83" s="88"/>
+      <c r="S83" s="87"/>
     </row>
     <row r="84" spans="1:19" ht="17.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="65" t="s">
+      <c r="A84" s="47"/>
+      <c r="B84" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="65"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8733,17 +8745,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="60"/>
-      <c r="S84" s="59"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="87"/>
+      <c r="R84" s="88"/>
+      <c r="S84" s="87"/>
     </row>
     <row r="85" spans="1:19" ht="17.25">
-      <c r="A85" s="82"/>
-      <c r="B85" s="65" t="s">
+      <c r="A85" s="47"/>
+      <c r="B85" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8756,19 +8768,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="59"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
+      <c r="R85" s="88"/>
+      <c r="S85" s="87"/>
     </row>
     <row r="86" spans="1:19" ht="21">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="67"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8783,17 +8795,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="59"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="87"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="87"/>
     </row>
     <row r="87" spans="1:19" ht="17.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="64" t="s">
+      <c r="A87" s="47"/>
+      <c r="B87" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>111</v>
@@ -8808,17 +8820,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="59"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="87"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="87"/>
     </row>
     <row r="88" spans="1:19" ht="17.25">
-      <c r="A88" s="82"/>
-      <c r="B88" s="64" t="s">
+      <c r="A88" s="47"/>
+      <c r="B88" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8833,17 +8845,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="59"/>
+      <c r="P88" s="87"/>
+      <c r="Q88" s="87"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="87"/>
     </row>
     <row r="89" spans="1:19" ht="17.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="65" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -8858,17 +8870,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="59"/>
+      <c r="P89" s="87"/>
+      <c r="Q89" s="87"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="87"/>
     </row>
     <row r="90" spans="1:19" ht="17.25">
-      <c r="A90" s="82"/>
-      <c r="B90" s="65" t="s">
+      <c r="A90" s="47"/>
+      <c r="B90" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -8885,17 +8897,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="59"/>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="87"/>
     </row>
     <row r="91" spans="1:19" ht="17.25">
-      <c r="A91" s="82"/>
-      <c r="B91" s="65" t="s">
+      <c r="A91" s="47"/>
+      <c r="B91" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -8912,17 +8924,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="59"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="87"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="87"/>
     </row>
     <row r="92" spans="1:19" ht="17.25">
-      <c r="A92" s="82"/>
-      <c r="B92" s="65" t="s">
+      <c r="A92" s="47"/>
+      <c r="B92" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -8939,17 +8951,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="59"/>
+      <c r="P92" s="87"/>
+      <c r="Q92" s="87"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="87"/>
     </row>
     <row r="93" spans="1:19" ht="17.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="65" t="s">
+      <c r="A93" s="47"/>
+      <c r="B93" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="65"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -8966,17 +8978,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="60"/>
-      <c r="S93" s="59"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="87"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="87"/>
     </row>
     <row r="94" spans="1:19" ht="17.25">
-      <c r="A94" s="82"/>
-      <c r="B94" s="65" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -8991,17 +9003,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="60"/>
-      <c r="S94" s="59"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="87"/>
+      <c r="R94" s="88"/>
+      <c r="S94" s="87"/>
     </row>
     <row r="95" spans="1:19" ht="21">
-      <c r="A95" s="82"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="47"/>
+      <c r="B95" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="67"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -9016,17 +9028,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="60"/>
-      <c r="S95" s="59"/>
+      <c r="P95" s="87"/>
+      <c r="Q95" s="87"/>
+      <c r="R95" s="88"/>
+      <c r="S95" s="87"/>
     </row>
     <row r="96" spans="1:19" ht="17.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="64" t="s">
+      <c r="A96" s="47"/>
+      <c r="B96" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="65"/>
+      <c r="C96" s="54"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>111</v>
@@ -9041,17 +9053,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="60"/>
-      <c r="S96" s="59"/>
+      <c r="P96" s="87"/>
+      <c r="Q96" s="87"/>
+      <c r="R96" s="88"/>
+      <c r="S96" s="87"/>
     </row>
     <row r="97" spans="1:19" ht="17.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="64" t="s">
+      <c r="A97" s="47"/>
+      <c r="B97" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="65"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9066,17 +9078,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="60"/>
-      <c r="S97" s="59"/>
+      <c r="P97" s="87"/>
+      <c r="Q97" s="87"/>
+      <c r="R97" s="88"/>
+      <c r="S97" s="87"/>
     </row>
     <row r="98" spans="1:19" ht="17.25">
-      <c r="A98" s="82"/>
-      <c r="B98" s="65" t="s">
+      <c r="A98" s="47"/>
+      <c r="B98" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="65"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9091,17 +9103,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="60"/>
-      <c r="S98" s="59"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="87"/>
+      <c r="R98" s="88"/>
+      <c r="S98" s="87"/>
     </row>
     <row r="99" spans="1:19" ht="17.25">
-      <c r="A99" s="82"/>
-      <c r="B99" s="65" t="s">
+      <c r="A99" s="47"/>
+      <c r="B99" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9120,17 +9132,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="60"/>
-      <c r="S99" s="59"/>
+      <c r="P99" s="87"/>
+      <c r="Q99" s="87"/>
+      <c r="R99" s="88"/>
+      <c r="S99" s="87"/>
     </row>
     <row r="100" spans="1:19" ht="17.25">
-      <c r="A100" s="82"/>
-      <c r="B100" s="65" t="s">
+      <c r="A100" s="47"/>
+      <c r="B100" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="65"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9145,17 +9157,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="60"/>
-      <c r="S100" s="59"/>
+      <c r="P100" s="87"/>
+      <c r="Q100" s="87"/>
+      <c r="R100" s="88"/>
+      <c r="S100" s="87"/>
     </row>
     <row r="101" spans="1:19" ht="17.25">
-      <c r="A101" s="82"/>
-      <c r="B101" s="65" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="65"/>
+      <c r="C101" s="54"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9170,19 +9182,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="60"/>
-      <c r="S101" s="59"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="87"/>
+      <c r="R101" s="88"/>
+      <c r="S101" s="87"/>
     </row>
     <row r="102" spans="1:19" ht="21">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="67"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -9197,17 +9209,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="60"/>
-      <c r="S102" s="59"/>
+      <c r="P102" s="87"/>
+      <c r="Q102" s="87"/>
+      <c r="R102" s="88"/>
+      <c r="S102" s="87"/>
     </row>
     <row r="103" spans="1:19" ht="17.25">
-      <c r="A103" s="82"/>
-      <c r="B103" s="64" t="s">
+      <c r="A103" s="47"/>
+      <c r="B103" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="65"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -9222,17 +9234,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="59"/>
+      <c r="P103" s="87"/>
+      <c r="Q103" s="87"/>
+      <c r="R103" s="88"/>
+      <c r="S103" s="87"/>
     </row>
     <row r="104" spans="1:19" ht="17.25">
-      <c r="A104" s="82"/>
-      <c r="B104" s="64" t="s">
+      <c r="A104" s="47"/>
+      <c r="B104" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="65"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9245,17 +9257,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="60"/>
-      <c r="S104" s="59"/>
+      <c r="P104" s="87"/>
+      <c r="Q104" s="87"/>
+      <c r="R104" s="88"/>
+      <c r="S104" s="87"/>
     </row>
     <row r="105" spans="1:19" ht="21">
-      <c r="A105" s="82"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="47"/>
+      <c r="B105" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="67"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -9270,17 +9282,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="59"/>
+      <c r="P105" s="87"/>
+      <c r="Q105" s="87"/>
+      <c r="R105" s="88"/>
+      <c r="S105" s="87"/>
     </row>
     <row r="106" spans="1:19" ht="17.25">
-      <c r="A106" s="82"/>
-      <c r="B106" s="64" t="s">
+      <c r="A106" s="47"/>
+      <c r="B106" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="64"/>
+      <c r="C106" s="53"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -9295,17 +9307,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="60"/>
-      <c r="S106" s="59"/>
+      <c r="P106" s="87"/>
+      <c r="Q106" s="87"/>
+      <c r="R106" s="88"/>
+      <c r="S106" s="87"/>
     </row>
     <row r="107" spans="1:19" ht="17.25">
-      <c r="A107" s="82"/>
-      <c r="B107" s="64" t="s">
+      <c r="A107" s="47"/>
+      <c r="B107" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="65"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9320,17 +9332,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="60"/>
-      <c r="S107" s="59"/>
+      <c r="P107" s="87"/>
+      <c r="Q107" s="87"/>
+      <c r="R107" s="88"/>
+      <c r="S107" s="87"/>
     </row>
     <row r="108" spans="1:19" ht="17.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="65" t="s">
+      <c r="A108" s="47"/>
+      <c r="B108" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="65"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9345,17 +9357,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="60"/>
-      <c r="S108" s="59"/>
+      <c r="P108" s="87"/>
+      <c r="Q108" s="87"/>
+      <c r="R108" s="88"/>
+      <c r="S108" s="87"/>
     </row>
     <row r="109" spans="1:19" ht="17.25">
-      <c r="A109" s="82"/>
-      <c r="B109" s="65" t="s">
+      <c r="A109" s="47"/>
+      <c r="B109" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="65"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9370,17 +9382,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="60"/>
-      <c r="S109" s="59"/>
+      <c r="P109" s="87"/>
+      <c r="Q109" s="87"/>
+      <c r="R109" s="88"/>
+      <c r="S109" s="87"/>
     </row>
     <row r="110" spans="1:19" ht="17.25">
-      <c r="A110" s="82"/>
-      <c r="B110" s="65" t="s">
+      <c r="A110" s="47"/>
+      <c r="B110" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="65"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9395,17 +9407,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="60"/>
-      <c r="S110" s="59"/>
+      <c r="P110" s="87"/>
+      <c r="Q110" s="87"/>
+      <c r="R110" s="88"/>
+      <c r="S110" s="87"/>
     </row>
     <row r="111" spans="1:19" ht="17.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="65" t="s">
+      <c r="A111" s="47"/>
+      <c r="B111" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="65"/>
+      <c r="C111" s="54"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9420,17 +9432,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="60"/>
-      <c r="S111" s="59"/>
+      <c r="P111" s="87"/>
+      <c r="Q111" s="87"/>
+      <c r="R111" s="88"/>
+      <c r="S111" s="87"/>
     </row>
     <row r="112" spans="1:19" ht="17.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="65" t="s">
+      <c r="A112" s="47"/>
+      <c r="B112" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="65"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9445,17 +9457,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-      <c r="R112" s="60"/>
-      <c r="S112" s="59"/>
+      <c r="P112" s="87"/>
+      <c r="Q112" s="87"/>
+      <c r="R112" s="88"/>
+      <c r="S112" s="87"/>
     </row>
     <row r="113" spans="1:19" ht="21">
-      <c r="A113" s="82"/>
-      <c r="B113" s="66" t="s">
+      <c r="A113" s="47"/>
+      <c r="B113" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="67"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9470,17 +9482,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-      <c r="R113" s="60"/>
-      <c r="S113" s="59"/>
+      <c r="P113" s="87"/>
+      <c r="Q113" s="87"/>
+      <c r="R113" s="88"/>
+      <c r="S113" s="87"/>
     </row>
     <row r="114" spans="1:19" ht="17.25">
-      <c r="A114" s="82"/>
-      <c r="B114" s="64" t="s">
+      <c r="A114" s="47"/>
+      <c r="B114" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="65"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9495,17 +9507,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="60"/>
-      <c r="S114" s="59"/>
+      <c r="P114" s="87"/>
+      <c r="Q114" s="87"/>
+      <c r="R114" s="88"/>
+      <c r="S114" s="87"/>
     </row>
     <row r="115" spans="1:19" ht="17.25">
-      <c r="A115" s="82"/>
-      <c r="B115" s="64" t="s">
+      <c r="A115" s="47"/>
+      <c r="B115" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="65"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9520,17 +9532,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="60"/>
-      <c r="S115" s="59"/>
+      <c r="P115" s="87"/>
+      <c r="Q115" s="87"/>
+      <c r="R115" s="88"/>
+      <c r="S115" s="87"/>
     </row>
     <row r="116" spans="1:19" ht="17.25">
-      <c r="A116" s="82"/>
-      <c r="B116" s="65" t="s">
+      <c r="A116" s="47"/>
+      <c r="B116" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="65"/>
+      <c r="C116" s="54"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9545,17 +9557,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-      <c r="R116" s="60"/>
-      <c r="S116" s="59"/>
+      <c r="P116" s="87"/>
+      <c r="Q116" s="87"/>
+      <c r="R116" s="88"/>
+      <c r="S116" s="87"/>
     </row>
     <row r="117" spans="1:19" ht="17.25">
-      <c r="A117" s="82"/>
-      <c r="B117" s="65" t="s">
+      <c r="A117" s="47"/>
+      <c r="B117" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="65"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9570,17 +9582,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-      <c r="R117" s="60"/>
-      <c r="S117" s="59"/>
+      <c r="P117" s="87"/>
+      <c r="Q117" s="87"/>
+      <c r="R117" s="88"/>
+      <c r="S117" s="87"/>
     </row>
     <row r="118" spans="1:19" ht="17.25">
-      <c r="A118" s="82"/>
-      <c r="B118" s="65" t="s">
+      <c r="A118" s="47"/>
+      <c r="B118" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="65"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9595,17 +9607,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="60"/>
-      <c r="S118" s="59"/>
+      <c r="P118" s="87"/>
+      <c r="Q118" s="87"/>
+      <c r="R118" s="88"/>
+      <c r="S118" s="87"/>
     </row>
     <row r="119" spans="1:19" ht="21">
-      <c r="A119" s="82"/>
-      <c r="B119" s="66" t="s">
+      <c r="A119" s="47"/>
+      <c r="B119" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="67"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9620,17 +9632,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="59"/>
-      <c r="Q119" s="59"/>
-      <c r="R119" s="60"/>
-      <c r="S119" s="59"/>
+      <c r="P119" s="87"/>
+      <c r="Q119" s="87"/>
+      <c r="R119" s="88"/>
+      <c r="S119" s="87"/>
     </row>
     <row r="120" spans="1:19" ht="17.25">
-      <c r="A120" s="82"/>
-      <c r="B120" s="64" t="s">
+      <c r="A120" s="47"/>
+      <c r="B120" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="65"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9645,17 +9657,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="59"/>
-      <c r="R120" s="60"/>
-      <c r="S120" s="59"/>
+      <c r="P120" s="87"/>
+      <c r="Q120" s="87"/>
+      <c r="R120" s="88"/>
+      <c r="S120" s="87"/>
     </row>
     <row r="121" spans="1:19" ht="17.25">
-      <c r="A121" s="82"/>
-      <c r="B121" s="64" t="s">
+      <c r="A121" s="47"/>
+      <c r="B121" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="65"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9670,56 +9682,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="61"/>
-      <c r="Q121" s="61"/>
-      <c r="R121" s="62"/>
-      <c r="S121" s="61"/>
+      <c r="P121" s="89"/>
+      <c r="Q121" s="89"/>
+      <c r="R121" s="90"/>
+      <c r="S121" s="89"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="81"/>
-      <c r="C122" s="81"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="60"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="52"/>
-      <c r="M123" s="52"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="52"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="52"/>
-      <c r="R123" s="52"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="80"/>
+      <c r="I123" s="80"/>
+      <c r="J123" s="80"/>
+      <c r="K123" s="80"/>
+      <c r="L123" s="80"/>
+      <c r="M123" s="80"/>
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="80"/>
+      <c r="Q123" s="80"/>
+      <c r="R123" s="80"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="52"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
-      <c r="K124" s="52"/>
-      <c r="L124" s="52"/>
-      <c r="M124" s="52"/>
-      <c r="N124" s="52"/>
-      <c r="O124" s="52"/>
-      <c r="P124" s="52"/>
-      <c r="Q124" s="52"/>
-      <c r="R124" s="52"/>
+      <c r="A124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="80"/>
+      <c r="H124" s="80"/>
+      <c r="I124" s="80"/>
+      <c r="J124" s="80"/>
+      <c r="K124" s="80"/>
+      <c r="L124" s="80"/>
+      <c r="M124" s="80"/>
+      <c r="N124" s="80"/>
+      <c r="O124" s="80"/>
+      <c r="P124" s="80"/>
+      <c r="Q124" s="80"/>
+      <c r="R124" s="80"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
@@ -9794,10 +9806,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="47"/>
-      <c r="R126" s="43"/>
+      <c r="O126" s="71"/>
+      <c r="P126" s="74"/>
+      <c r="Q126" s="75"/>
+      <c r="R126" s="71"/>
     </row>
     <row r="127" spans="1:19" ht="14.25">
       <c r="A127" s="23" t="s">
@@ -9820,10 +9832,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="44"/>
-      <c r="P127" s="48"/>
-      <c r="Q127" s="49"/>
-      <c r="R127" s="44"/>
+      <c r="O127" s="72"/>
+      <c r="P127" s="76"/>
+      <c r="Q127" s="77"/>
+      <c r="R127" s="72"/>
     </row>
     <row r="128" spans="1:19" ht="14.25">
       <c r="A128" s="23" t="s">
@@ -9850,10 +9862,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="44"/>
-      <c r="P128" s="48"/>
-      <c r="Q128" s="49"/>
-      <c r="R128" s="44"/>
+      <c r="O128" s="72"/>
+      <c r="P128" s="76"/>
+      <c r="Q128" s="77"/>
+      <c r="R128" s="72"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="23" t="s">
@@ -9878,10 +9890,10 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="44"/>
-      <c r="P129" s="48"/>
-      <c r="Q129" s="49"/>
-      <c r="R129" s="44"/>
+      <c r="O129" s="72"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="77"/>
+      <c r="R129" s="72"/>
     </row>
     <row r="130" spans="1:18" ht="17.25">
       <c r="A130" s="25" t="s">
@@ -9900,10 +9912,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="44"/>
-      <c r="P130" s="48"/>
-      <c r="Q130" s="49"/>
-      <c r="R130" s="44"/>
+      <c r="O130" s="72"/>
+      <c r="P130" s="76"/>
+      <c r="Q130" s="77"/>
+      <c r="R130" s="72"/>
     </row>
     <row r="131" spans="1:18" ht="14.25">
       <c r="A131" s="34" t="s">
@@ -9926,10 +9938,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="44"/>
-      <c r="P131" s="48"/>
-      <c r="Q131" s="49"/>
-      <c r="R131" s="44"/>
+      <c r="O131" s="72"/>
+      <c r="P131" s="76"/>
+      <c r="Q131" s="77"/>
+      <c r="R131" s="72"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="24" t="s">
@@ -9952,10 +9964,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="48"/>
-      <c r="Q132" s="49"/>
-      <c r="R132" s="44"/>
+      <c r="O132" s="72"/>
+      <c r="P132" s="76"/>
+      <c r="Q132" s="77"/>
+      <c r="R132" s="72"/>
     </row>
     <row r="133" spans="1:18" ht="17.25">
       <c r="A133" s="25" t="s">
@@ -9974,10 +9986,10 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="44"/>
-      <c r="P133" s="48"/>
-      <c r="Q133" s="49"/>
-      <c r="R133" s="44"/>
+      <c r="O133" s="72"/>
+      <c r="P133" s="76"/>
+      <c r="Q133" s="77"/>
+      <c r="R133" s="72"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="34" t="s">
@@ -9998,10 +10010,10 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="44"/>
-      <c r="P134" s="48"/>
-      <c r="Q134" s="49"/>
-      <c r="R134" s="44"/>
+      <c r="O134" s="72"/>
+      <c r="P134" s="76"/>
+      <c r="Q134" s="77"/>
+      <c r="R134" s="72"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="24" t="s">
@@ -10022,10 +10034,10 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="44"/>
-      <c r="P135" s="48"/>
-      <c r="Q135" s="49"/>
-      <c r="R135" s="44"/>
+      <c r="O135" s="72"/>
+      <c r="P135" s="76"/>
+      <c r="Q135" s="77"/>
+      <c r="R135" s="72"/>
     </row>
     <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="30" t="s">
@@ -10050,10 +10062,10 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="44"/>
-      <c r="P136" s="48"/>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="44"/>
+      <c r="O136" s="72"/>
+      <c r="P136" s="76"/>
+      <c r="Q136" s="77"/>
+      <c r="R136" s="72"/>
     </row>
     <row r="137" spans="1:18" ht="14.25">
       <c r="A137" s="30" t="s">
@@ -10078,10 +10090,10 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="44"/>
-      <c r="P137" s="48"/>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="44"/>
+      <c r="O137" s="72"/>
+      <c r="P137" s="76"/>
+      <c r="Q137" s="77"/>
+      <c r="R137" s="72"/>
     </row>
     <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="30" t="s">
@@ -10120,10 +10132,10 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="44"/>
-      <c r="P138" s="48"/>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="44"/>
+      <c r="O138" s="72"/>
+      <c r="P138" s="76"/>
+      <c r="Q138" s="77"/>
+      <c r="R138" s="72"/>
     </row>
     <row r="139" spans="1:18" ht="17.25">
       <c r="A139" s="25" t="s">
@@ -10142,10 +10154,10 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="44"/>
-      <c r="P139" s="48"/>
-      <c r="Q139" s="49"/>
-      <c r="R139" s="44"/>
+      <c r="O139" s="72"/>
+      <c r="P139" s="76"/>
+      <c r="Q139" s="77"/>
+      <c r="R139" s="72"/>
     </row>
     <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="30" t="s">
@@ -10170,10 +10182,10 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="44"/>
-      <c r="P140" s="48"/>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="44"/>
+      <c r="O140" s="72"/>
+      <c r="P140" s="76"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="72"/>
     </row>
     <row r="141" spans="1:18" ht="17.25">
       <c r="A141" s="25" t="s">
@@ -10192,10 +10204,10 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="44"/>
-      <c r="P141" s="48"/>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="44"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="76"/>
+      <c r="Q141" s="77"/>
+      <c r="R141" s="72"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="30" t="s">
@@ -10220,10 +10232,10 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="44"/>
-      <c r="P142" s="48"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="44"/>
+      <c r="O142" s="72"/>
+      <c r="P142" s="76"/>
+      <c r="Q142" s="77"/>
+      <c r="R142" s="72"/>
     </row>
     <row r="143" spans="1:18" ht="17.25">
       <c r="A143" s="25" t="s">
@@ -10242,10 +10254,10 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="44"/>
-      <c r="P143" s="48"/>
-      <c r="Q143" s="49"/>
-      <c r="R143" s="44"/>
+      <c r="O143" s="72"/>
+      <c r="P143" s="76"/>
+      <c r="Q143" s="77"/>
+      <c r="R143" s="72"/>
     </row>
     <row r="144" spans="1:18" ht="14.25">
       <c r="A144" s="23" t="s">
@@ -10276,10 +10288,10 @@
       <c r="N144" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="44"/>
-      <c r="P144" s="48"/>
-      <c r="Q144" s="49"/>
-      <c r="R144" s="44"/>
+      <c r="O144" s="72"/>
+      <c r="P144" s="76"/>
+      <c r="Q144" s="77"/>
+      <c r="R144" s="72"/>
     </row>
     <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
@@ -10310,10 +10322,10 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="44"/>
-      <c r="P145" s="48"/>
-      <c r="Q145" s="49"/>
-      <c r="R145" s="44"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="76"/>
+      <c r="Q145" s="77"/>
+      <c r="R145" s="72"/>
     </row>
     <row r="146" spans="1:18" ht="17.25">
       <c r="A146" s="25" t="s">
@@ -10332,10 +10344,10 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="44"/>
-      <c r="P146" s="48"/>
-      <c r="Q146" s="49"/>
-      <c r="R146" s="44"/>
+      <c r="O146" s="72"/>
+      <c r="P146" s="76"/>
+      <c r="Q146" s="77"/>
+      <c r="R146" s="72"/>
     </row>
     <row r="147" spans="1:18" ht="14.25">
       <c r="A147" s="23" t="s">
@@ -10358,10 +10370,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="44"/>
-      <c r="P147" s="48"/>
-      <c r="Q147" s="49"/>
-      <c r="R147" s="44"/>
+      <c r="O147" s="72"/>
+      <c r="P147" s="76"/>
+      <c r="Q147" s="77"/>
+      <c r="R147" s="72"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -10382,10 +10394,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="44"/>
-      <c r="P148" s="48"/>
-      <c r="Q148" s="49"/>
-      <c r="R148" s="44"/>
+      <c r="O148" s="72"/>
+      <c r="P148" s="76"/>
+      <c r="Q148" s="77"/>
+      <c r="R148" s="72"/>
     </row>
     <row r="149" spans="1:18" ht="17.25">
       <c r="A149" s="25" t="s">
@@ -10404,10 +10416,10 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="44"/>
-      <c r="P149" s="48"/>
-      <c r="Q149" s="49"/>
-      <c r="R149" s="44"/>
+      <c r="O149" s="72"/>
+      <c r="P149" s="76"/>
+      <c r="Q149" s="77"/>
+      <c r="R149" s="72"/>
     </row>
     <row r="150" spans="1:18" ht="14.25">
       <c r="A150" s="23" t="s">
@@ -10430,10 +10442,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="44"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="44"/>
+      <c r="O150" s="72"/>
+      <c r="P150" s="76"/>
+      <c r="Q150" s="77"/>
+      <c r="R150" s="72"/>
     </row>
     <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="23" t="s">
@@ -10456,10 +10468,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="44"/>
-      <c r="P151" s="48"/>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="44"/>
+      <c r="O151" s="72"/>
+      <c r="P151" s="76"/>
+      <c r="Q151" s="77"/>
+      <c r="R151" s="72"/>
     </row>
     <row r="152" spans="1:18" ht="17.25">
       <c r="A152" s="25" t="s">
@@ -10478,10 +10490,10 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="44"/>
-      <c r="P152" s="48"/>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="44"/>
+      <c r="O152" s="72"/>
+      <c r="P152" s="76"/>
+      <c r="Q152" s="77"/>
+      <c r="R152" s="72"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
@@ -10504,10 +10516,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="44"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="49"/>
-      <c r="R153" s="44"/>
+      <c r="O153" s="72"/>
+      <c r="P153" s="76"/>
+      <c r="Q153" s="77"/>
+      <c r="R153" s="72"/>
     </row>
     <row r="154" spans="1:18" ht="17.25">
       <c r="A154" s="25" t="s">
@@ -10526,10 +10538,10 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="44"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="49"/>
-      <c r="R154" s="44"/>
+      <c r="O154" s="72"/>
+      <c r="P154" s="76"/>
+      <c r="Q154" s="77"/>
+      <c r="R154" s="72"/>
     </row>
     <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="23" t="s">
@@ -10554,10 +10566,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="44"/>
-      <c r="P155" s="48"/>
-      <c r="Q155" s="49"/>
-      <c r="R155" s="44"/>
+      <c r="O155" s="72"/>
+      <c r="P155" s="76"/>
+      <c r="Q155" s="77"/>
+      <c r="R155" s="72"/>
     </row>
     <row r="156" spans="1:18" ht="14.25">
       <c r="A156" s="23" t="s">
@@ -10582,10 +10594,10 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="49"/>
-      <c r="R156" s="44"/>
+      <c r="O156" s="72"/>
+      <c r="P156" s="76"/>
+      <c r="Q156" s="77"/>
+      <c r="R156" s="72"/>
     </row>
     <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="24" t="s">
@@ -10608,10 +10620,10 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="44"/>
-      <c r="P157" s="48"/>
-      <c r="Q157" s="49"/>
-      <c r="R157" s="44"/>
+      <c r="O157" s="72"/>
+      <c r="P157" s="76"/>
+      <c r="Q157" s="77"/>
+      <c r="R157" s="72"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
@@ -10632,10 +10644,10 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="44"/>
-      <c r="P158" s="48"/>
-      <c r="Q158" s="49"/>
-      <c r="R158" s="44"/>
+      <c r="O158" s="72"/>
+      <c r="P158" s="76"/>
+      <c r="Q158" s="77"/>
+      <c r="R158" s="72"/>
     </row>
     <row r="159" spans="1:18" ht="14.25">
       <c r="A159" s="18" t="s">
@@ -10658,13 +10670,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="45"/>
-      <c r="P159" s="50"/>
-      <c r="Q159" s="51"/>
-      <c r="R159" s="45"/>
+      <c r="O159" s="73"/>
+      <c r="P159" s="78"/>
+      <c r="Q159" s="79"/>
+      <c r="R159" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A123:R124"/>
+    <mergeCell ref="O126:O159"/>
+    <mergeCell ref="P126:Q159"/>
+    <mergeCell ref="R126:R159"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="U1:AC2"/>
     <mergeCell ref="A3:C3"/>
@@ -10689,132 +10827,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A123:R124"/>
-    <mergeCell ref="O126:O159"/>
-    <mergeCell ref="P126:Q159"/>
-    <mergeCell ref="R126:R159"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="170">
   <si>
     <t>高松プログラマー開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -1237,6 +1237,13 @@
     <t>　15分</t>
     <rPh sb="3" eb="4">
       <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1660,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,90 +1773,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1913,13 +1836,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2204,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2222,75 +2232,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="U1" s="81" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2339,26 +2349,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="82" t="s">
+      <c r="U3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2373,34 +2383,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="86"/>
-      <c r="S4" s="85" t="s">
+      <c r="R4" s="58"/>
+      <c r="S4" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="1"/>
       <c r="E5" s="41" t="s">
         <v>108</v>
@@ -2419,26 +2429,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="87"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="59"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2453,17 +2463,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="87"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="59"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="1"/>
       <c r="E7" s="42" t="s">
         <v>105</v>
@@ -2482,17 +2492,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="87"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="59"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="1"/>
       <c r="E8" s="42" t="s">
         <v>105</v>
@@ -2511,18 +2521,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="87"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="59"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="56" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="68" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2536,18 +2546,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="87"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="59"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2559,17 +2569,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="87"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="59"/>
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="1"/>
       <c r="E11" s="42" t="s">
         <v>105</v>
@@ -2588,17 +2598,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="87"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="59"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="1"/>
       <c r="E12" s="42" t="s">
         <v>105</v>
@@ -2617,138 +2627,138 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="87"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="59"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="87"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="59"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="87"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="59"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="42" t="s">
+        <v>105</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="87"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="87"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="59"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="87"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="59"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2763,17 +2773,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="87"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="59"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="82"/>
+      <c r="B19" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2790,17 +2800,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="87"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="59"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2817,17 +2827,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="87"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="59"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2844,17 +2854,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="87"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="59"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2871,17 +2881,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="87"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="59"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2898,17 +2908,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="87"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="59"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2923,17 +2933,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="87"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="59"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -2950,17 +2960,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="87"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="59"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -2977,17 +2987,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="87"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="59"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="82"/>
+      <c r="B27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -3004,17 +3014,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="87"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="59"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3029,17 +3039,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="87"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="59"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -3056,17 +3066,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="87"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="59"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -3083,17 +3093,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="87"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="59"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -3110,17 +3120,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="87"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="59"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="54" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3137,17 +3147,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="87"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="59"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="82"/>
+      <c r="B33" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3162,17 +3172,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="87"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="59"/>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="82"/>
+      <c r="B34" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3191,17 +3201,17 @@
       <c r="O34" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="87"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="59"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3220,17 +3230,17 @@
       <c r="O35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="87"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="59"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3249,17 +3259,17 @@
       <c r="O36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="87"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="59"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
@@ -3286,50 +3296,54 @@
       <c r="O37" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="87"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="59"/>
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="F38" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="87"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="59"/>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
@@ -3344,17 +3358,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="87"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="59"/>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="88"/>
+      <c r="B40" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="3"/>
       <c r="E40" s="42" t="s">
         <v>105</v>
@@ -3373,17 +3387,17 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="87"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="59"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="88"/>
+      <c r="B41" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="3"/>
       <c r="E41" s="42" t="s">
         <v>105</v>
@@ -3402,17 +3416,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="87"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="52" t="s">
+      <c r="A42" s="88"/>
+      <c r="B42" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
@@ -3427,17 +3441,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="87"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="59"/>
     </row>
     <row r="43" spans="1:19" ht="21" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3456,17 +3470,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="87"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="59"/>
     </row>
     <row r="44" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="88"/>
+      <c r="B44" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
@@ -3485,17 +3499,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="87"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="59"/>
     </row>
     <row r="45" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="52" t="s">
+      <c r="A45" s="88"/>
+      <c r="B45" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="5" t="s">
         <v>25</v>
       </c>
@@ -3516,17 +3530,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="87"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="59"/>
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="59" t="s">
+      <c r="A46" s="88"/>
+      <c r="B46" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
@@ -3547,19 +3561,19 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="87"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="59"/>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="51"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3574,17 +3588,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="87"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="59"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -3605,17 +3619,17 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="87"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="59"/>
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="88"/>
+      <c r="B49" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3636,17 +3650,17 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="87"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="59"/>
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="57"/>
-      <c r="B50" s="55" t="s">
+      <c r="A50" s="88"/>
+      <c r="B50" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3667,17 +3681,17 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="87"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="59"/>
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="55" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3698,17 +3712,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="87"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="59"/>
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="57"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="88"/>
+      <c r="B52" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="54"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3729,17 +3743,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="87"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="59"/>
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="88"/>
+      <c r="B53" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3760,17 +3774,17 @@
       <c r="O53" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="87"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="59"/>
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="55" t="s">
+      <c r="A54" s="88"/>
+      <c r="B54" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3791,17 +3805,17 @@
       <c r="O54" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="87"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="59"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="55" t="s">
+      <c r="A55" s="88"/>
+      <c r="B55" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3822,17 +3836,17 @@
       <c r="O55" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="87"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="59"/>
     </row>
     <row r="56" spans="1:19" ht="21" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="52" t="s">
+      <c r="A56" s="89"/>
+      <c r="B56" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3855,19 +3869,19 @@
       <c r="O56" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="87"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="59"/>
     </row>
     <row r="57" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
@@ -3886,17 +3900,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="87"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="59"/>
     </row>
     <row r="58" spans="1:19" ht="21" customHeight="1">
-      <c r="A58" s="62"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="78"/>
+      <c r="B58" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3911,17 +3925,17 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="87"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="59"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
-      <c r="B59" s="53" t="s">
+      <c r="A59" s="78"/>
+      <c r="B59" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
@@ -3942,17 +3956,17 @@
         <v>166</v>
       </c>
       <c r="O59" s="8"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="87"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="59"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
-      <c r="B60" s="53" t="s">
+      <c r="A60" s="78"/>
+      <c r="B60" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="54"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
@@ -3973,17 +3987,17 @@
         <v>166</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="87"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="59"/>
     </row>
     <row r="61" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A61" s="62"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="78"/>
+      <c r="B61" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="5" t="s">
         <v>84</v>
       </c>
@@ -4000,17 +4014,17 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="87"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="59"/>
     </row>
     <row r="62" spans="1:19" ht="21" customHeight="1">
-      <c r="A62" s="62"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="78"/>
+      <c r="B62" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
@@ -4025,17 +4039,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="87"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="59"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A63" s="62"/>
-      <c r="B63" s="53" t="s">
+      <c r="A63" s="78"/>
+      <c r="B63" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="54"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="8"/>
@@ -4054,17 +4068,17 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="87"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="59"/>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="62"/>
-      <c r="B64" s="54" t="s">
+      <c r="A64" s="78"/>
+      <c r="B64" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="8"/>
@@ -4083,17 +4097,17 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="87"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="87"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="59"/>
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="62"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -4112,17 +4126,17 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="87"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="87"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="59"/>
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="62"/>
-      <c r="B66" s="54" t="s">
+      <c r="A66" s="78"/>
+      <c r="B66" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -4141,17 +4155,17 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="87"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="87"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="59"/>
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -4170,17 +4184,17 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="87"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="87"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="59"/>
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="62"/>
-      <c r="B68" s="54" t="s">
+      <c r="A68" s="78"/>
+      <c r="B68" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="54"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -4199,17 +4213,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="87"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="87"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="59"/>
     </row>
     <row r="69" spans="1:19" ht="21" customHeight="1">
-      <c r="A69" s="62"/>
-      <c r="B69" s="50" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="5" t="s">
         <v>84</v>
       </c>
@@ -4226,17 +4240,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="87"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="87"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="59"/>
     </row>
     <row r="70" spans="1:19" ht="21" customHeight="1">
-      <c r="A70" s="62"/>
-      <c r="B70" s="50" t="s">
+      <c r="A70" s="78"/>
+      <c r="B70" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
@@ -4253,19 +4267,19 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="87"/>
-      <c r="Q70" s="87"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="87"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="59"/>
     </row>
     <row r="71" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4280,17 +4294,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="87"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="59"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1">
-      <c r="A72" s="47"/>
-      <c r="B72" s="53" t="s">
+      <c r="A72" s="82"/>
+      <c r="B72" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="54"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="3"/>
       <c r="E72" s="36" t="s">
         <v>167</v>
@@ -4307,17 +4321,17 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="87"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="59"/>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A73" s="47"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="82"/>
+      <c r="B73" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="3"/>
       <c r="E73" s="36" t="s">
         <v>167</v>
@@ -4336,17 +4350,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="87"/>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="59"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="47"/>
-      <c r="B74" s="54" t="s">
+      <c r="A74" s="82"/>
+      <c r="B74" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="54"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="3"/>
       <c r="E74" s="36" t="s">
         <v>167</v>
@@ -4362,17 +4376,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="87"/>
+      <c r="P74" s="59"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="59"/>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1">
-      <c r="A75" s="47"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="82"/>
+      <c r="B75" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="54"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4389,17 +4403,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="87"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="88"/>
-      <c r="S75" s="87"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="59"/>
     </row>
     <row r="76" spans="1:19" ht="21" customHeight="1">
-      <c r="A76" s="47"/>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="82"/>
+      <c r="B76" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="5" t="s">
         <v>88</v>
       </c>
@@ -4414,17 +4428,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="87"/>
-      <c r="Q76" s="87"/>
-      <c r="R76" s="88"/>
-      <c r="S76" s="87"/>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="60"/>
+      <c r="S76" s="59"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1">
-      <c r="A77" s="47"/>
-      <c r="B77" s="53" t="s">
+      <c r="A77" s="82"/>
+      <c r="B77" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="54"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="38" t="s">
@@ -4439,17 +4453,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="87"/>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="88"/>
-      <c r="S77" s="87"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="59"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A78" s="47"/>
-      <c r="B78" s="54" t="s">
+      <c r="A78" s="82"/>
+      <c r="B78" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="38" t="s">
@@ -4464,17 +4478,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="88"/>
-      <c r="S78" s="87"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="59"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="47"/>
-      <c r="B79" s="54" t="s">
+      <c r="A79" s="82"/>
+      <c r="B79" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="54"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="38" t="s">
@@ -4489,17 +4503,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="87"/>
-      <c r="Q79" s="87"/>
-      <c r="R79" s="88"/>
-      <c r="S79" s="87"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="59"/>
     </row>
     <row r="80" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A80" s="47"/>
-      <c r="B80" s="50" t="s">
+      <c r="A80" s="82"/>
+      <c r="B80" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="51"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="5" t="s">
         <v>88</v>
       </c>
@@ -4514,17 +4528,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="87"/>
-      <c r="Q80" s="87"/>
-      <c r="R80" s="88"/>
-      <c r="S80" s="87"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="59"/>
     </row>
     <row r="81" spans="1:19" ht="18" customHeight="1">
-      <c r="A81" s="47"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="82"/>
+      <c r="B81" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="54"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="38" t="s">
@@ -4539,17 +4553,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="88"/>
-      <c r="S81" s="87"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="59"/>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
-      <c r="A82" s="47"/>
-      <c r="B82" s="54" t="s">
+      <c r="A82" s="82"/>
+      <c r="B82" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="54"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="G82" s="38" t="s">
@@ -4563,17 +4577,17 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="87"/>
-      <c r="Q82" s="87"/>
-      <c r="R82" s="88"/>
-      <c r="S82" s="87"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="59"/>
     </row>
     <row r="83" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A83" s="47"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="82"/>
+      <c r="B83" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="54"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4586,19 +4600,19 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="87"/>
-      <c r="Q83" s="87"/>
-      <c r="R83" s="88"/>
-      <c r="S83" s="87"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="59"/>
     </row>
     <row r="84" spans="1:19" ht="21" customHeight="1">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="51"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4613,17 +4627,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="87"/>
-      <c r="Q84" s="87"/>
-      <c r="R84" s="88"/>
-      <c r="S84" s="87"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="59"/>
     </row>
     <row r="85" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="53" t="s">
+      <c r="A85" s="82"/>
+      <c r="B85" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="54"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="1"/>
       <c r="E85" s="16" t="s">
         <v>111</v>
@@ -4638,17 +4652,17 @@
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
-      <c r="P85" s="87"/>
-      <c r="Q85" s="87"/>
-      <c r="R85" s="88"/>
-      <c r="S85" s="87"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="59"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A86" s="47"/>
-      <c r="B86" s="53" t="s">
+      <c r="A86" s="82"/>
+      <c r="B86" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="54"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="3"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4663,17 +4677,17 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="87"/>
-      <c r="Q86" s="87"/>
-      <c r="R86" s="88"/>
-      <c r="S86" s="87"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="59"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A87" s="47"/>
-      <c r="B87" s="54" t="s">
+      <c r="A87" s="82"/>
+      <c r="B87" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="54"/>
+      <c r="C87" s="65"/>
       <c r="D87" s="3"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4688,17 +4702,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="87"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="59"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="47"/>
-      <c r="B88" s="54" t="s">
+      <c r="A88" s="82"/>
+      <c r="B88" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="54"/>
+      <c r="C88" s="65"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4715,17 +4729,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="87"/>
-      <c r="Q88" s="87"/>
-      <c r="R88" s="88"/>
-      <c r="S88" s="87"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="59"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="47"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="82"/>
+      <c r="B89" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="54"/>
+      <c r="C89" s="65"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4742,17 +4756,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="87"/>
-      <c r="Q89" s="87"/>
-      <c r="R89" s="88"/>
-      <c r="S89" s="87"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="59"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="47"/>
-      <c r="B90" s="54" t="s">
+      <c r="A90" s="82"/>
+      <c r="B90" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="54"/>
+      <c r="C90" s="65"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4769,17 +4783,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="87"/>
-      <c r="Q90" s="87"/>
-      <c r="R90" s="88"/>
-      <c r="S90" s="87"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="59"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="47"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="82"/>
+      <c r="B91" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="54"/>
+      <c r="C91" s="65"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4796,17 +4810,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="87"/>
-      <c r="Q91" s="87"/>
-      <c r="R91" s="88"/>
-      <c r="S91" s="87"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="59"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A92" s="47"/>
-      <c r="B92" s="54" t="s">
+      <c r="A92" s="82"/>
+      <c r="B92" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="54"/>
+      <c r="C92" s="65"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -4821,17 +4835,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="87"/>
-      <c r="R92" s="88"/>
-      <c r="S92" s="87"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="59"/>
     </row>
     <row r="93" spans="1:19" ht="21" customHeight="1">
-      <c r="A93" s="47"/>
-      <c r="B93" s="50" t="s">
+      <c r="A93" s="82"/>
+      <c r="B93" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="51"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="5" t="s">
         <v>61</v>
       </c>
@@ -4846,17 +4860,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="87"/>
-      <c r="R93" s="88"/>
-      <c r="S93" s="87"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="59"/>
     </row>
     <row r="94" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A94" s="47"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="82"/>
+      <c r="B94" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="54"/>
+      <c r="C94" s="65"/>
       <c r="D94" s="5"/>
       <c r="E94" s="17" t="s">
         <v>111</v>
@@ -4871,17 +4885,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="87"/>
-      <c r="R94" s="88"/>
-      <c r="S94" s="87"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="59"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A95" s="47"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="82"/>
+      <c r="B95" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="54"/>
+      <c r="C95" s="65"/>
       <c r="D95" s="3"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -4896,17 +4910,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="87"/>
-      <c r="Q95" s="87"/>
-      <c r="R95" s="88"/>
-      <c r="S95" s="87"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="59"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A96" s="47"/>
-      <c r="B96" s="54" t="s">
+      <c r="A96" s="82"/>
+      <c r="B96" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="54"/>
+      <c r="C96" s="65"/>
       <c r="D96" s="3"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -4921,17 +4935,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="87"/>
-      <c r="R96" s="88"/>
-      <c r="S96" s="87"/>
+      <c r="P96" s="59"/>
+      <c r="Q96" s="59"/>
+      <c r="R96" s="60"/>
+      <c r="S96" s="59"/>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="47"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="82"/>
+      <c r="B97" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="54"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -4950,17 +4964,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="87"/>
-      <c r="Q97" s="87"/>
-      <c r="R97" s="88"/>
-      <c r="S97" s="87"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="59"/>
     </row>
     <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="47"/>
-      <c r="B98" s="54" t="s">
+      <c r="A98" s="82"/>
+      <c r="B98" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="54"/>
+      <c r="C98" s="65"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -4975,17 +4989,17 @@
       <c r="O98" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P98" s="87"/>
-      <c r="Q98" s="87"/>
-      <c r="R98" s="88"/>
-      <c r="S98" s="87"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="59"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="59"/>
     </row>
     <row r="99" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A99" s="47"/>
-      <c r="B99" s="54" t="s">
+      <c r="A99" s="82"/>
+      <c r="B99" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="54"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -5000,19 +5014,19 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="87"/>
-      <c r="Q99" s="87"/>
-      <c r="R99" s="88"/>
-      <c r="S99" s="87"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
+      <c r="R99" s="60"/>
+      <c r="S99" s="59"/>
     </row>
     <row r="100" spans="1:19" ht="18" customHeight="1">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="51"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="1" t="s">
         <v>61</v>
       </c>
@@ -5027,17 +5041,17 @@
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="87"/>
-      <c r="Q100" s="87"/>
-      <c r="R100" s="88"/>
-      <c r="S100" s="87"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="60"/>
+      <c r="S100" s="59"/>
     </row>
     <row r="101" spans="1:19" ht="18" customHeight="1">
-      <c r="A101" s="47"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="82"/>
+      <c r="B101" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="54"/>
+      <c r="C101" s="65"/>
       <c r="D101" s="1"/>
       <c r="E101" s="15"/>
       <c r="F101" s="16" t="s">
@@ -5052,17 +5066,17 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="87"/>
-      <c r="Q101" s="87"/>
-      <c r="R101" s="88"/>
-      <c r="S101" s="87"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="59"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="59"/>
     </row>
     <row r="102" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A102" s="47"/>
-      <c r="B102" s="53" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="54"/>
+      <c r="C102" s="65"/>
       <c r="D102" s="3"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
@@ -5075,17 +5089,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="87"/>
-      <c r="Q102" s="87"/>
-      <c r="R102" s="88"/>
-      <c r="S102" s="87"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="59"/>
+      <c r="R102" s="60"/>
+      <c r="S102" s="59"/>
     </row>
     <row r="103" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A103" s="47"/>
-      <c r="B103" s="50" t="s">
+      <c r="A103" s="82"/>
+      <c r="B103" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="51"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="5" t="s">
         <v>61</v>
       </c>
@@ -5100,17 +5114,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="87"/>
-      <c r="Q103" s="87"/>
-      <c r="R103" s="88"/>
-      <c r="S103" s="87"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="60"/>
+      <c r="S103" s="59"/>
     </row>
     <row r="104" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A104" s="47"/>
-      <c r="B104" s="53" t="s">
+      <c r="A104" s="82"/>
+      <c r="B104" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="53"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="5"/>
       <c r="E104" s="15"/>
       <c r="F104" s="16" t="s">
@@ -5125,17 +5139,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="87"/>
-      <c r="Q104" s="87"/>
-      <c r="R104" s="88"/>
-      <c r="S104" s="87"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="59"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="59"/>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1">
-      <c r="A105" s="47"/>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="82"/>
+      <c r="B105" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="54"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="3"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -5150,23 +5164,23 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="87"/>
-      <c r="Q105" s="87"/>
-      <c r="R105" s="88"/>
-      <c r="S105" s="87"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="60"/>
+      <c r="S105" s="59"/>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1">
-      <c r="A106" s="47"/>
-      <c r="B106" s="54" t="s">
+      <c r="A106" s="82"/>
+      <c r="B106" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C106" s="54"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="3"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
       <c r="H106" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
@@ -5175,17 +5189,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="87"/>
-      <c r="Q106" s="87"/>
-      <c r="R106" s="88"/>
-      <c r="S106" s="87"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59"/>
+      <c r="R106" s="60"/>
+      <c r="S106" s="59"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1">
-      <c r="A107" s="47"/>
-      <c r="B107" s="54" t="s">
+      <c r="A107" s="82"/>
+      <c r="B107" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="54"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -5200,17 +5214,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="87"/>
-      <c r="Q107" s="87"/>
-      <c r="R107" s="88"/>
-      <c r="S107" s="87"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="R107" s="60"/>
+      <c r="S107" s="59"/>
     </row>
     <row r="108" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A108" s="47"/>
-      <c r="B108" s="54" t="s">
+      <c r="A108" s="82"/>
+      <c r="B108" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="54"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -5225,17 +5239,17 @@
       </c>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="87"/>
-      <c r="Q108" s="87"/>
-      <c r="R108" s="88"/>
-      <c r="S108" s="87"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
+      <c r="R108" s="60"/>
+      <c r="S108" s="59"/>
     </row>
     <row r="109" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A109" s="47"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="82"/>
+      <c r="B109" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="54"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -5250,17 +5264,17 @@
       <c r="O109" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P109" s="87"/>
-      <c r="Q109" s="87"/>
-      <c r="R109" s="88"/>
-      <c r="S109" s="87"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="60"/>
+      <c r="S109" s="59"/>
     </row>
     <row r="110" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A110" s="47"/>
-      <c r="B110" s="54" t="s">
+      <c r="A110" s="82"/>
+      <c r="B110" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C110" s="54"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -5275,17 +5289,17 @@
       <c r="O110" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P110" s="87"/>
-      <c r="Q110" s="87"/>
-      <c r="R110" s="88"/>
-      <c r="S110" s="87"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="60"/>
+      <c r="S110" s="59"/>
     </row>
     <row r="111" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A111" s="47"/>
-      <c r="B111" s="50" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C111" s="51"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="5" t="s">
         <v>61</v>
       </c>
@@ -5300,17 +5314,17 @@
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
-      <c r="P111" s="87"/>
-      <c r="Q111" s="87"/>
-      <c r="R111" s="88"/>
-      <c r="S111" s="87"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="60"/>
+      <c r="S111" s="59"/>
     </row>
     <row r="112" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A112" s="47"/>
-      <c r="B112" s="53" t="s">
+      <c r="A112" s="82"/>
+      <c r="B112" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="54"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="5"/>
       <c r="E112" s="15"/>
       <c r="F112" s="16" t="s">
@@ -5325,17 +5339,17 @@
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
-      <c r="P112" s="87"/>
-      <c r="Q112" s="87"/>
-      <c r="R112" s="88"/>
-      <c r="S112" s="87"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
+      <c r="R112" s="60"/>
+      <c r="S112" s="59"/>
     </row>
     <row r="113" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A113" s="47"/>
-      <c r="B113" s="53" t="s">
+      <c r="A113" s="82"/>
+      <c r="B113" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C113" s="54"/>
+      <c r="C113" s="65"/>
       <c r="D113" s="3"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
@@ -5350,17 +5364,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="87"/>
-      <c r="Q113" s="87"/>
-      <c r="R113" s="88"/>
-      <c r="S113" s="87"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
+      <c r="R113" s="60"/>
+      <c r="S113" s="59"/>
     </row>
     <row r="114" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A114" s="47"/>
-      <c r="B114" s="54" t="s">
+      <c r="A114" s="82"/>
+      <c r="B114" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="54"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="3"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
@@ -5375,17 +5389,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="87"/>
-      <c r="Q114" s="87"/>
-      <c r="R114" s="88"/>
-      <c r="S114" s="87"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="59"/>
+      <c r="R114" s="60"/>
+      <c r="S114" s="59"/>
     </row>
     <row r="115" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A115" s="47"/>
-      <c r="B115" s="54" t="s">
+      <c r="A115" s="82"/>
+      <c r="B115" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="54"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5400,17 +5414,17 @@
       <c r="O115" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P115" s="87"/>
-      <c r="Q115" s="87"/>
-      <c r="R115" s="88"/>
-      <c r="S115" s="87"/>
+      <c r="P115" s="59"/>
+      <c r="Q115" s="59"/>
+      <c r="R115" s="60"/>
+      <c r="S115" s="59"/>
     </row>
     <row r="116" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A116" s="47"/>
-      <c r="B116" s="54" t="s">
+      <c r="A116" s="82"/>
+      <c r="B116" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="54"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -5425,17 +5439,17 @@
       <c r="O116" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P116" s="87"/>
-      <c r="Q116" s="87"/>
-      <c r="R116" s="88"/>
-      <c r="S116" s="87"/>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="59"/>
+      <c r="R116" s="60"/>
+      <c r="S116" s="59"/>
     </row>
     <row r="117" spans="1:19" ht="21" customHeight="1">
-      <c r="A117" s="47"/>
-      <c r="B117" s="50" t="s">
+      <c r="A117" s="82"/>
+      <c r="B117" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="51"/>
+      <c r="C117" s="67"/>
       <c r="D117" s="5" t="s">
         <v>61</v>
       </c>
@@ -5450,17 +5464,17 @@
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
-      <c r="P117" s="87"/>
-      <c r="Q117" s="87"/>
-      <c r="R117" s="88"/>
-      <c r="S117" s="87"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="59"/>
+      <c r="R117" s="60"/>
+      <c r="S117" s="59"/>
     </row>
     <row r="118" spans="1:19" ht="21" customHeight="1">
-      <c r="A118" s="47"/>
-      <c r="B118" s="53" t="s">
+      <c r="A118" s="82"/>
+      <c r="B118" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="54"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="5"/>
       <c r="E118" s="17" t="s">
         <v>105</v>
@@ -5475,17 +5489,17 @@
       <c r="M118" s="15"/>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
-      <c r="P118" s="87"/>
-      <c r="Q118" s="87"/>
-      <c r="R118" s="88"/>
-      <c r="S118" s="87"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
+      <c r="R118" s="60"/>
+      <c r="S118" s="59"/>
     </row>
     <row r="119" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A119" s="47"/>
-      <c r="B119" s="53" t="s">
+      <c r="A119" s="82"/>
+      <c r="B119" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C119" s="54"/>
+      <c r="C119" s="65"/>
       <c r="D119" s="3"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
@@ -5500,56 +5514,56 @@
         <v>105</v>
       </c>
       <c r="O119" s="15"/>
-      <c r="P119" s="89"/>
-      <c r="Q119" s="89"/>
-      <c r="R119" s="90"/>
-      <c r="S119" s="89"/>
+      <c r="P119" s="61"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="62"/>
+      <c r="S119" s="61"/>
     </row>
     <row r="120" spans="1:19">
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="81"/>
     </row>
     <row r="121" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A121" s="80" t="s">
+      <c r="A121" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="80"/>
-      <c r="C121" s="80"/>
-      <c r="D121" s="80"/>
-      <c r="E121" s="80"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="80"/>
-      <c r="H121" s="80"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
-      <c r="K121" s="80"/>
-      <c r="L121" s="80"/>
-      <c r="M121" s="80"/>
-      <c r="N121" s="80"/>
-      <c r="O121" s="80"/>
-      <c r="P121" s="80"/>
-      <c r="Q121" s="80"/>
-      <c r="R121" s="80"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="52"/>
+      <c r="J121" s="52"/>
+      <c r="K121" s="52"/>
+      <c r="L121" s="52"/>
+      <c r="M121" s="52"/>
+      <c r="N121" s="52"/>
+      <c r="O121" s="52"/>
+      <c r="P121" s="52"/>
+      <c r="Q121" s="52"/>
+      <c r="R121" s="52"/>
     </row>
     <row r="122" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A122" s="80"/>
-      <c r="B122" s="80"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="80"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="80"/>
-      <c r="K122" s="80"/>
-      <c r="L122" s="80"/>
-      <c r="M122" s="80"/>
-      <c r="N122" s="80"/>
-      <c r="O122" s="80"/>
-      <c r="P122" s="80"/>
-      <c r="Q122" s="80"/>
-      <c r="R122" s="80"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="52"/>
+      <c r="J122" s="52"/>
+      <c r="K122" s="52"/>
+      <c r="L122" s="52"/>
+      <c r="M122" s="52"/>
+      <c r="N122" s="52"/>
+      <c r="O122" s="52"/>
+      <c r="P122" s="52"/>
+      <c r="Q122" s="52"/>
+      <c r="R122" s="52"/>
     </row>
     <row r="123" spans="1:19" ht="13.5" customHeight="1">
       <c r="A123" s="18" t="s">
@@ -5624,10 +5638,10 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
-      <c r="O124" s="71"/>
-      <c r="P124" s="74"/>
-      <c r="Q124" s="75"/>
-      <c r="R124" s="71"/>
+      <c r="O124" s="43"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="47"/>
+      <c r="R124" s="43"/>
     </row>
     <row r="125" spans="1:19" ht="13.5" customHeight="1">
       <c r="A125" s="23" t="s">
@@ -5650,10 +5664,10 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
-      <c r="O125" s="72"/>
-      <c r="P125" s="76"/>
-      <c r="Q125" s="77"/>
-      <c r="R125" s="72"/>
+      <c r="O125" s="44"/>
+      <c r="P125" s="48"/>
+      <c r="Q125" s="49"/>
+      <c r="R125" s="44"/>
     </row>
     <row r="126" spans="1:19" ht="13.5" customHeight="1">
       <c r="A126" s="23" t="s">
@@ -5680,10 +5694,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="72"/>
-      <c r="P126" s="76"/>
-      <c r="Q126" s="77"/>
-      <c r="R126" s="72"/>
+      <c r="O126" s="44"/>
+      <c r="P126" s="48"/>
+      <c r="Q126" s="49"/>
+      <c r="R126" s="44"/>
     </row>
     <row r="127" spans="1:19" ht="14.25">
       <c r="A127" s="23" t="s">
@@ -5708,10 +5722,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="72"/>
-      <c r="P127" s="76"/>
-      <c r="Q127" s="77"/>
-      <c r="R127" s="72"/>
+      <c r="O127" s="44"/>
+      <c r="P127" s="48"/>
+      <c r="Q127" s="49"/>
+      <c r="R127" s="44"/>
     </row>
     <row r="128" spans="1:19" ht="17.25">
       <c r="A128" s="25" t="s">
@@ -5730,10 +5744,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="72"/>
-      <c r="P128" s="76"/>
-      <c r="Q128" s="77"/>
-      <c r="R128" s="72"/>
+      <c r="O128" s="44"/>
+      <c r="P128" s="48"/>
+      <c r="Q128" s="49"/>
+      <c r="R128" s="44"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="34" t="s">
@@ -5756,10 +5770,10 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="72"/>
-      <c r="P129" s="76"/>
-      <c r="Q129" s="77"/>
-      <c r="R129" s="72"/>
+      <c r="O129" s="44"/>
+      <c r="P129" s="48"/>
+      <c r="Q129" s="49"/>
+      <c r="R129" s="44"/>
     </row>
     <row r="130" spans="1:18" ht="14.25">
       <c r="A130" s="24" t="s">
@@ -5782,10 +5796,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="72"/>
-      <c r="P130" s="76"/>
-      <c r="Q130" s="77"/>
-      <c r="R130" s="72"/>
+      <c r="O130" s="44"/>
+      <c r="P130" s="48"/>
+      <c r="Q130" s="49"/>
+      <c r="R130" s="44"/>
     </row>
     <row r="131" spans="1:18" ht="17.25">
       <c r="A131" s="25" t="s">
@@ -5804,10 +5818,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="72"/>
-      <c r="P131" s="76"/>
-      <c r="Q131" s="77"/>
-      <c r="R131" s="72"/>
+      <c r="O131" s="44"/>
+      <c r="P131" s="48"/>
+      <c r="Q131" s="49"/>
+      <c r="R131" s="44"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="34" t="s">
@@ -5828,10 +5842,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="72"/>
-      <c r="P132" s="76"/>
-      <c r="Q132" s="77"/>
-      <c r="R132" s="72"/>
+      <c r="O132" s="44"/>
+      <c r="P132" s="48"/>
+      <c r="Q132" s="49"/>
+      <c r="R132" s="44"/>
     </row>
     <row r="133" spans="1:18" ht="14.25">
       <c r="A133" s="24" t="s">
@@ -5852,10 +5866,10 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="72"/>
-      <c r="P133" s="76"/>
-      <c r="Q133" s="77"/>
-      <c r="R133" s="72"/>
+      <c r="O133" s="44"/>
+      <c r="P133" s="48"/>
+      <c r="Q133" s="49"/>
+      <c r="R133" s="44"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="30" t="s">
@@ -5880,10 +5894,10 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="72"/>
-      <c r="P134" s="76"/>
-      <c r="Q134" s="77"/>
-      <c r="R134" s="72"/>
+      <c r="O134" s="44"/>
+      <c r="P134" s="48"/>
+      <c r="Q134" s="49"/>
+      <c r="R134" s="44"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="30" t="s">
@@ -5908,10 +5922,10 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="72"/>
-      <c r="P135" s="76"/>
-      <c r="Q135" s="77"/>
-      <c r="R135" s="72"/>
+      <c r="O135" s="44"/>
+      <c r="P135" s="48"/>
+      <c r="Q135" s="49"/>
+      <c r="R135" s="44"/>
     </row>
     <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="30" t="s">
@@ -5950,10 +5964,10 @@
       <c r="N136" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O136" s="72"/>
-      <c r="P136" s="76"/>
-      <c r="Q136" s="77"/>
-      <c r="R136" s="72"/>
+      <c r="O136" s="44"/>
+      <c r="P136" s="48"/>
+      <c r="Q136" s="49"/>
+      <c r="R136" s="44"/>
     </row>
     <row r="137" spans="1:18" ht="17.25">
       <c r="A137" s="25" t="s">
@@ -5972,10 +5986,10 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="72"/>
-      <c r="P137" s="76"/>
-      <c r="Q137" s="77"/>
-      <c r="R137" s="72"/>
+      <c r="O137" s="44"/>
+      <c r="P137" s="48"/>
+      <c r="Q137" s="49"/>
+      <c r="R137" s="44"/>
     </row>
     <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="30" t="s">
@@ -6000,10 +6014,10 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="72"/>
-      <c r="P138" s="76"/>
-      <c r="Q138" s="77"/>
-      <c r="R138" s="72"/>
+      <c r="O138" s="44"/>
+      <c r="P138" s="48"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="44"/>
     </row>
     <row r="139" spans="1:18" ht="17.25">
       <c r="A139" s="25" t="s">
@@ -6022,10 +6036,10 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="72"/>
-      <c r="P139" s="76"/>
-      <c r="Q139" s="77"/>
-      <c r="R139" s="72"/>
+      <c r="O139" s="44"/>
+      <c r="P139" s="48"/>
+      <c r="Q139" s="49"/>
+      <c r="R139" s="44"/>
     </row>
     <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="30" t="s">
@@ -6050,10 +6064,10 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="72"/>
-      <c r="P140" s="76"/>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="72"/>
+      <c r="O140" s="44"/>
+      <c r="P140" s="48"/>
+      <c r="Q140" s="49"/>
+      <c r="R140" s="44"/>
     </row>
     <row r="141" spans="1:18" ht="17.25">
       <c r="A141" s="25" t="s">
@@ -6072,10 +6086,10 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="72"/>
-      <c r="P141" s="76"/>
-      <c r="Q141" s="77"/>
-      <c r="R141" s="72"/>
+      <c r="O141" s="44"/>
+      <c r="P141" s="48"/>
+      <c r="Q141" s="49"/>
+      <c r="R141" s="44"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="23" t="s">
@@ -6106,10 +6120,10 @@
       <c r="N142" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O142" s="72"/>
-      <c r="P142" s="76"/>
-      <c r="Q142" s="77"/>
-      <c r="R142" s="72"/>
+      <c r="O142" s="44"/>
+      <c r="P142" s="48"/>
+      <c r="Q142" s="49"/>
+      <c r="R142" s="44"/>
     </row>
     <row r="143" spans="1:18" ht="14.25">
       <c r="A143" s="23" t="s">
@@ -6140,10 +6154,10 @@
       <c r="N143" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O143" s="72"/>
-      <c r="P143" s="76"/>
-      <c r="Q143" s="77"/>
-      <c r="R143" s="72"/>
+      <c r="O143" s="44"/>
+      <c r="P143" s="48"/>
+      <c r="Q143" s="49"/>
+      <c r="R143" s="44"/>
     </row>
     <row r="144" spans="1:18" ht="17.25">
       <c r="A144" s="25" t="s">
@@ -6162,10 +6176,10 @@
       <c r="L144" s="26"/>
       <c r="M144" s="26"/>
       <c r="N144" s="26"/>
-      <c r="O144" s="72"/>
-      <c r="P144" s="76"/>
-      <c r="Q144" s="77"/>
-      <c r="R144" s="72"/>
+      <c r="O144" s="44"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="49"/>
+      <c r="R144" s="44"/>
     </row>
     <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
@@ -6188,10 +6202,10 @@
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="76"/>
-      <c r="Q145" s="77"/>
-      <c r="R145" s="72"/>
+      <c r="O145" s="44"/>
+      <c r="P145" s="48"/>
+      <c r="Q145" s="49"/>
+      <c r="R145" s="44"/>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="23" t="s">
@@ -6212,10 +6226,10 @@
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
-      <c r="O146" s="72"/>
-      <c r="P146" s="76"/>
-      <c r="Q146" s="77"/>
-      <c r="R146" s="72"/>
+      <c r="O146" s="44"/>
+      <c r="P146" s="48"/>
+      <c r="Q146" s="49"/>
+      <c r="R146" s="44"/>
     </row>
     <row r="147" spans="1:18" ht="17.25">
       <c r="A147" s="25" t="s">
@@ -6234,10 +6248,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="72"/>
-      <c r="P147" s="76"/>
-      <c r="Q147" s="77"/>
-      <c r="R147" s="72"/>
+      <c r="O147" s="44"/>
+      <c r="P147" s="48"/>
+      <c r="Q147" s="49"/>
+      <c r="R147" s="44"/>
     </row>
     <row r="148" spans="1:18" ht="14.25">
       <c r="A148" s="23" t="s">
@@ -6260,10 +6274,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="72"/>
-      <c r="P148" s="76"/>
-      <c r="Q148" s="77"/>
-      <c r="R148" s="72"/>
+      <c r="O148" s="44"/>
+      <c r="P148" s="48"/>
+      <c r="Q148" s="49"/>
+      <c r="R148" s="44"/>
     </row>
     <row r="149" spans="1:18" ht="14.25">
       <c r="A149" s="23" t="s">
@@ -6286,10 +6300,10 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="72"/>
-      <c r="P149" s="76"/>
-      <c r="Q149" s="77"/>
-      <c r="R149" s="72"/>
+      <c r="O149" s="44"/>
+      <c r="P149" s="48"/>
+      <c r="Q149" s="49"/>
+      <c r="R149" s="44"/>
     </row>
     <row r="150" spans="1:18" ht="17.25">
       <c r="A150" s="25" t="s">
@@ -6308,10 +6322,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="72"/>
-      <c r="P150" s="76"/>
-      <c r="Q150" s="77"/>
-      <c r="R150" s="72"/>
+      <c r="O150" s="44"/>
+      <c r="P150" s="48"/>
+      <c r="Q150" s="49"/>
+      <c r="R150" s="44"/>
     </row>
     <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="23" t="s">
@@ -6334,10 +6348,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="72"/>
-      <c r="P151" s="76"/>
-      <c r="Q151" s="77"/>
-      <c r="R151" s="72"/>
+      <c r="O151" s="44"/>
+      <c r="P151" s="48"/>
+      <c r="Q151" s="49"/>
+      <c r="R151" s="44"/>
     </row>
     <row r="152" spans="1:18" ht="17.25">
       <c r="A152" s="25" t="s">
@@ -6356,10 +6370,10 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="72"/>
-      <c r="P152" s="76"/>
-      <c r="Q152" s="77"/>
-      <c r="R152" s="72"/>
+      <c r="O152" s="44"/>
+      <c r="P152" s="48"/>
+      <c r="Q152" s="49"/>
+      <c r="R152" s="44"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
@@ -6384,10 +6398,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="72"/>
-      <c r="P153" s="76"/>
-      <c r="Q153" s="77"/>
-      <c r="R153" s="72"/>
+      <c r="O153" s="44"/>
+      <c r="P153" s="48"/>
+      <c r="Q153" s="49"/>
+      <c r="R153" s="44"/>
     </row>
     <row r="154" spans="1:18" ht="14.25">
       <c r="A154" s="23" t="s">
@@ -6412,10 +6426,10 @@
       <c r="L154" s="21"/>
       <c r="M154" s="21"/>
       <c r="N154" s="21"/>
-      <c r="O154" s="72"/>
-      <c r="P154" s="76"/>
-      <c r="Q154" s="77"/>
-      <c r="R154" s="72"/>
+      <c r="O154" s="44"/>
+      <c r="P154" s="48"/>
+      <c r="Q154" s="49"/>
+      <c r="R154" s="44"/>
     </row>
     <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="24" t="s">
@@ -6438,10 +6452,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="72"/>
-      <c r="P155" s="76"/>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="72"/>
+      <c r="O155" s="44"/>
+      <c r="P155" s="48"/>
+      <c r="Q155" s="49"/>
+      <c r="R155" s="44"/>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="18" t="s">
@@ -6462,10 +6476,10 @@
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="72"/>
-      <c r="P156" s="76"/>
-      <c r="Q156" s="77"/>
-      <c r="R156" s="72"/>
+      <c r="O156" s="44"/>
+      <c r="P156" s="48"/>
+      <c r="Q156" s="49"/>
+      <c r="R156" s="44"/>
     </row>
     <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="18" t="s">
@@ -6488,13 +6502,137 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="73"/>
-      <c r="P157" s="78"/>
-      <c r="Q157" s="79"/>
-      <c r="R157" s="73"/>
+      <c r="O157" s="45"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A4:A38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A71:A83"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A100:A119"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="O124:O157"/>
     <mergeCell ref="P124:Q157"/>
     <mergeCell ref="R124:R157"/>
@@ -6519,130 +6657,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A100:A119"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A84:A99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A4:A38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6665,75 +6679,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="U1" s="81" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="U1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6782,26 +6796,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="82" t="s">
+      <c r="U3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6816,34 +6830,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="86"/>
-      <c r="S4" s="85" t="s">
+      <c r="R4" s="58"/>
+      <c r="S4" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6856,26 +6870,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="87"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="59"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -6890,17 +6904,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="87"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="59"/>
     </row>
     <row r="7" spans="1:29" ht="17.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -6913,17 +6927,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="87"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="59"/>
     </row>
     <row r="8" spans="1:29" ht="17.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -6936,18 +6950,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="87"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="59"/>
     </row>
     <row r="9" spans="1:29" ht="21">
-      <c r="A9" s="48"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="56" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="68" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -6961,18 +6975,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="87"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="59"/>
     </row>
     <row r="10" spans="1:29" ht="21">
-      <c r="A10" s="48"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6984,17 +6998,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="87"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="59"/>
     </row>
     <row r="11" spans="1:29" ht="17.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -7007,17 +7021,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="87"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="59"/>
     </row>
     <row r="12" spans="1:29" ht="17.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -7030,65 +7044,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="87"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="59"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="92" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="87"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="59"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="47"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="87"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="59"/>
     </row>
     <row r="15" spans="1:29" ht="17.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -7101,17 +7115,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="87"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="16" spans="1:29" ht="17.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -7124,17 +7138,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="87"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="59"/>
     </row>
     <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -7147,17 +7161,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="87"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="59"/>
     </row>
     <row r="18" spans="1:19" ht="21">
-      <c r="A18" s="47"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -7172,17 +7186,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="87"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="59"/>
     </row>
     <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="82"/>
+      <c r="B19" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -7195,17 +7209,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="87"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="59"/>
     </row>
     <row r="20" spans="1:19" ht="17.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -7218,17 +7232,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="87"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="59"/>
     </row>
     <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -7241,17 +7255,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="87"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="59"/>
     </row>
     <row r="22" spans="1:19" ht="17.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -7264,17 +7278,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="87"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="59"/>
     </row>
     <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -7287,17 +7301,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="87"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="59"/>
     </row>
     <row r="24" spans="1:19" ht="21">
-      <c r="A24" s="47"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7312,17 +7326,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="87"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="59"/>
     </row>
     <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7335,17 +7349,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="87"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="59"/>
     </row>
     <row r="26" spans="1:19" ht="17.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7358,17 +7372,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="87"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="59"/>
     </row>
     <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="82"/>
+      <c r="B27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7381,17 +7395,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="87"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="59"/>
     </row>
     <row r="28" spans="1:19" ht="21">
-      <c r="A28" s="47"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7406,17 +7420,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="87"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="59"/>
     </row>
     <row r="29" spans="1:19" ht="17.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7429,17 +7443,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="87"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="59"/>
     </row>
     <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7452,17 +7466,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="87"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="59"/>
     </row>
     <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7475,17 +7489,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="87"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="59"/>
     </row>
     <row r="32" spans="1:19" ht="17.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="54" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7498,17 +7512,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="87"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="59"/>
     </row>
     <row r="33" spans="1:19" ht="21">
-      <c r="A33" s="47"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="82"/>
+      <c r="B33" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7523,17 +7537,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="87"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="59"/>
     </row>
     <row r="34" spans="1:19" ht="17.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="82"/>
+      <c r="B34" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7546,17 +7560,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="87"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="59"/>
     </row>
     <row r="35" spans="1:19" ht="17.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7569,17 +7583,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="87"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="59"/>
     </row>
     <row r="36" spans="1:19" ht="17.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7592,17 +7606,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="87"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="59"/>
     </row>
     <row r="37" spans="1:19" ht="21">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7617,15 +7631,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="87"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="59"/>
     </row>
     <row r="38" spans="1:19" ht="21">
-      <c r="A38" s="47"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7638,15 +7652,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="87"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="59"/>
     </row>
     <row r="39" spans="1:19" ht="21">
-      <c r="A39" s="47"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="52"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7659,17 +7673,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="87"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="59"/>
     </row>
     <row r="40" spans="1:19" ht="21">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7684,19 +7698,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="87"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="59"/>
     </row>
     <row r="41" spans="1:19" ht="21">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7711,17 +7725,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="87"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:19" ht="17.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="88"/>
+      <c r="B42" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="54"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7734,17 +7748,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="87"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="59"/>
     </row>
     <row r="43" spans="1:19" ht="17.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7757,17 +7771,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="87"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="59"/>
     </row>
     <row r="44" spans="1:19" ht="21">
-      <c r="A44" s="57"/>
-      <c r="B44" s="52" t="s">
+      <c r="A44" s="88"/>
+      <c r="B44" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7782,17 +7796,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="87"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="59"/>
     </row>
     <row r="45" spans="1:19" ht="17.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="88"/>
+      <c r="B45" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7805,17 +7819,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="87"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="59"/>
     </row>
     <row r="46" spans="1:19" ht="17.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="55" t="s">
+      <c r="A46" s="88"/>
+      <c r="B46" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="54"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7828,17 +7842,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="87"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="59"/>
     </row>
     <row r="47" spans="1:19" ht="21">
-      <c r="A47" s="57"/>
-      <c r="B47" s="52" t="s">
+      <c r="A47" s="88"/>
+      <c r="B47" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="50"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7853,17 +7867,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="87"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="59"/>
     </row>
     <row r="48" spans="1:19" ht="21">
-      <c r="A48" s="57"/>
-      <c r="B48" s="59" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -7878,19 +7892,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="87"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="59"/>
     </row>
     <row r="49" spans="1:19" ht="21">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -7905,17 +7919,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="87"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="59"/>
     </row>
     <row r="50" spans="1:19" ht="17.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="56" t="s">
+      <c r="A50" s="88"/>
+      <c r="B50" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -7928,17 +7942,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="87"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="59"/>
     </row>
     <row r="51" spans="1:19" ht="17.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="55" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7951,17 +7965,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="87"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="59"/>
     </row>
     <row r="52" spans="1:19" ht="17.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="88"/>
+      <c r="B52" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="54"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -7974,17 +7988,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="87"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="59"/>
     </row>
     <row r="53" spans="1:19" ht="17.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="88"/>
+      <c r="B53" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -7997,17 +8011,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="87"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="59"/>
     </row>
     <row r="54" spans="1:19" ht="17.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="55" t="s">
+      <c r="A54" s="88"/>
+      <c r="B54" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -8020,17 +8034,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="87"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="59"/>
     </row>
     <row r="55" spans="1:19" ht="17.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="55" t="s">
+      <c r="A55" s="88"/>
+      <c r="B55" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8043,17 +8057,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="87"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="59"/>
     </row>
     <row r="56" spans="1:19" ht="17.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="88"/>
+      <c r="B56" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -8066,17 +8080,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="87"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="59"/>
     </row>
     <row r="57" spans="1:19" ht="17.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8089,17 +8103,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="87"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="59"/>
     </row>
     <row r="58" spans="1:19" ht="21">
-      <c r="A58" s="58"/>
-      <c r="B58" s="52" t="s">
+      <c r="A58" s="89"/>
+      <c r="B58" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -8114,19 +8128,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="87"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="59"/>
     </row>
     <row r="59" spans="1:19" ht="21">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -8141,17 +8155,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="87"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="59"/>
     </row>
     <row r="60" spans="1:19" ht="21">
-      <c r="A60" s="62"/>
-      <c r="B60" s="50" t="s">
+      <c r="A60" s="78"/>
+      <c r="B60" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -8166,17 +8180,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="87"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="59"/>
     </row>
     <row r="61" spans="1:19" ht="17.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="78"/>
+      <c r="B61" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -8189,17 +8203,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="87"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="59"/>
     </row>
     <row r="62" spans="1:19" ht="17.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="78"/>
+      <c r="B62" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="54"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -8212,17 +8226,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="87"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="59"/>
     </row>
     <row r="63" spans="1:19" ht="21">
-      <c r="A63" s="62"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="78"/>
+      <c r="B63" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -8237,17 +8251,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="87"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="59"/>
     </row>
     <row r="64" spans="1:19" ht="21">
-      <c r="A64" s="62"/>
-      <c r="B64" s="50" t="s">
+      <c r="A64" s="78"/>
+      <c r="B64" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -8262,17 +8276,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="87"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="87"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="59"/>
     </row>
     <row r="65" spans="1:19" ht="17.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -8285,17 +8299,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="87"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="87"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="59"/>
     </row>
     <row r="66" spans="1:19" ht="17.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="54" t="s">
+      <c r="A66" s="78"/>
+      <c r="B66" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -8308,17 +8322,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="87"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="87"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="59"/>
     </row>
     <row r="67" spans="1:19" ht="17.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8331,17 +8345,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="87"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="87"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="59"/>
     </row>
     <row r="68" spans="1:19" ht="17.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="54" t="s">
+      <c r="A68" s="78"/>
+      <c r="B68" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="54"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8354,17 +8368,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="87"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="87"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="59"/>
     </row>
     <row r="69" spans="1:19" ht="17.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="54" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="54"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8377,17 +8391,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="87"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="87"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="59"/>
     </row>
     <row r="70" spans="1:19" ht="17.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="54" t="s">
+      <c r="A70" s="78"/>
+      <c r="B70" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="54"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8400,17 +8414,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="87"/>
-      <c r="Q70" s="87"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="87"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="59"/>
     </row>
     <row r="71" spans="1:19" ht="21">
-      <c r="A71" s="62"/>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="78"/>
+      <c r="B71" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8425,17 +8439,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="87"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="59"/>
     </row>
     <row r="72" spans="1:19" ht="21">
-      <c r="A72" s="62"/>
-      <c r="B72" s="50" t="s">
+      <c r="A72" s="78"/>
+      <c r="B72" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8450,19 +8464,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="87"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="59"/>
     </row>
     <row r="73" spans="1:19" ht="21">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8477,17 +8491,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="87"/>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="59"/>
     </row>
     <row r="74" spans="1:19" ht="17.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="53" t="s">
+      <c r="A74" s="82"/>
+      <c r="B74" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="54"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8500,17 +8514,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="87"/>
+      <c r="P74" s="59"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="59"/>
     </row>
     <row r="75" spans="1:19" ht="17.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="82"/>
+      <c r="B75" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="54"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8527,17 +8541,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="87"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="88"/>
-      <c r="S75" s="87"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="59"/>
     </row>
     <row r="76" spans="1:19" ht="17.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="54" t="s">
+      <c r="A76" s="82"/>
+      <c r="B76" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="54"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8553,17 +8567,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="87"/>
-      <c r="Q76" s="87"/>
-      <c r="R76" s="88"/>
-      <c r="S76" s="87"/>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="60"/>
+      <c r="S76" s="59"/>
     </row>
     <row r="77" spans="1:19" ht="17.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="54" t="s">
+      <c r="A77" s="82"/>
+      <c r="B77" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="54"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8580,17 +8594,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="87"/>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="88"/>
-      <c r="S77" s="87"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="59"/>
     </row>
     <row r="78" spans="1:19" ht="21">
-      <c r="A78" s="47"/>
-      <c r="B78" s="50" t="s">
+      <c r="A78" s="82"/>
+      <c r="B78" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="51"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8605,17 +8619,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="88"/>
-      <c r="S78" s="87"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="59"/>
     </row>
     <row r="79" spans="1:19" ht="17.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="82"/>
+      <c r="B79" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="54"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8628,17 +8642,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="87"/>
-      <c r="Q79" s="87"/>
-      <c r="R79" s="88"/>
-      <c r="S79" s="87"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="59"/>
     </row>
     <row r="80" spans="1:19" ht="17.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="54" t="s">
+      <c r="A80" s="82"/>
+      <c r="B80" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="54"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8651,17 +8665,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="87"/>
-      <c r="Q80" s="87"/>
-      <c r="R80" s="88"/>
-      <c r="S80" s="87"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="59"/>
     </row>
     <row r="81" spans="1:19" ht="17.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="82"/>
+      <c r="B81" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="54"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8674,17 +8688,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="88"/>
-      <c r="S81" s="87"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="59"/>
     </row>
     <row r="82" spans="1:19" ht="21">
-      <c r="A82" s="47"/>
-      <c r="B82" s="50" t="s">
+      <c r="A82" s="82"/>
+      <c r="B82" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="51"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8699,17 +8713,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="87"/>
-      <c r="Q82" s="87"/>
-      <c r="R82" s="88"/>
-      <c r="S82" s="87"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="59"/>
     </row>
     <row r="83" spans="1:19" ht="17.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="82"/>
+      <c r="B83" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="54"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8722,17 +8736,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="87"/>
-      <c r="Q83" s="87"/>
-      <c r="R83" s="88"/>
-      <c r="S83" s="87"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="59"/>
     </row>
     <row r="84" spans="1:19" ht="17.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="54" t="s">
+      <c r="A84" s="82"/>
+      <c r="B84" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="54"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8745,17 +8759,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="87"/>
-      <c r="Q84" s="87"/>
-      <c r="R84" s="88"/>
-      <c r="S84" s="87"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="59"/>
     </row>
     <row r="85" spans="1:19" ht="17.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="54" t="s">
+      <c r="A85" s="82"/>
+      <c r="B85" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="54"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8768,19 +8782,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="87"/>
-      <c r="Q85" s="87"/>
-      <c r="R85" s="88"/>
-      <c r="S85" s="87"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="59"/>
     </row>
     <row r="86" spans="1:19" ht="21">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="51"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8795,17 +8809,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="87"/>
-      <c r="Q86" s="87"/>
-      <c r="R86" s="88"/>
-      <c r="S86" s="87"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="59"/>
     </row>
     <row r="87" spans="1:19" ht="17.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="53" t="s">
+      <c r="A87" s="82"/>
+      <c r="B87" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="54"/>
+      <c r="C87" s="65"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>111</v>
@@ -8820,17 +8834,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="87"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="59"/>
     </row>
     <row r="88" spans="1:19" ht="17.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="82"/>
+      <c r="B88" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="54"/>
+      <c r="C88" s="65"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8845,17 +8859,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="87"/>
-      <c r="Q88" s="87"/>
-      <c r="R88" s="88"/>
-      <c r="S88" s="87"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="59"/>
     </row>
     <row r="89" spans="1:19" ht="17.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="82"/>
+      <c r="B89" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="54"/>
+      <c r="C89" s="65"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -8870,17 +8884,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="87"/>
-      <c r="Q89" s="87"/>
-      <c r="R89" s="88"/>
-      <c r="S89" s="87"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="59"/>
     </row>
     <row r="90" spans="1:19" ht="17.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="54" t="s">
+      <c r="A90" s="82"/>
+      <c r="B90" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="54"/>
+      <c r="C90" s="65"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -8897,17 +8911,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="87"/>
-      <c r="Q90" s="87"/>
-      <c r="R90" s="88"/>
-      <c r="S90" s="87"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="59"/>
     </row>
     <row r="91" spans="1:19" ht="17.25">
-      <c r="A91" s="47"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="82"/>
+      <c r="B91" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="54"/>
+      <c r="C91" s="65"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -8924,17 +8938,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="87"/>
-      <c r="Q91" s="87"/>
-      <c r="R91" s="88"/>
-      <c r="S91" s="87"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="59"/>
     </row>
     <row r="92" spans="1:19" ht="17.25">
-      <c r="A92" s="47"/>
-      <c r="B92" s="54" t="s">
+      <c r="A92" s="82"/>
+      <c r="B92" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="54"/>
+      <c r="C92" s="65"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -8951,17 +8965,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="87"/>
-      <c r="R92" s="88"/>
-      <c r="S92" s="87"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="59"/>
     </row>
     <row r="93" spans="1:19" ht="17.25">
-      <c r="A93" s="47"/>
-      <c r="B93" s="54" t="s">
+      <c r="A93" s="82"/>
+      <c r="B93" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="54"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -8978,17 +8992,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="87"/>
-      <c r="R93" s="88"/>
-      <c r="S93" s="87"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="59"/>
     </row>
     <row r="94" spans="1:19" ht="17.25">
-      <c r="A94" s="47"/>
-      <c r="B94" s="54" t="s">
+      <c r="A94" s="82"/>
+      <c r="B94" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="54"/>
+      <c r="C94" s="65"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -9003,17 +9017,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="87"/>
-      <c r="R94" s="88"/>
-      <c r="S94" s="87"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="59"/>
     </row>
     <row r="95" spans="1:19" ht="21">
-      <c r="A95" s="47"/>
-      <c r="B95" s="50" t="s">
+      <c r="A95" s="82"/>
+      <c r="B95" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="51"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -9028,17 +9042,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="87"/>
-      <c r="Q95" s="87"/>
-      <c r="R95" s="88"/>
-      <c r="S95" s="87"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="59"/>
     </row>
     <row r="96" spans="1:19" ht="17.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="53" t="s">
+      <c r="A96" s="82"/>
+      <c r="B96" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="54"/>
+      <c r="C96" s="65"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>111</v>
@@ -9053,17 +9067,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="87"/>
-      <c r="R96" s="88"/>
-      <c r="S96" s="87"/>
+      <c r="P96" s="59"/>
+      <c r="Q96" s="59"/>
+      <c r="R96" s="60"/>
+      <c r="S96" s="59"/>
     </row>
     <row r="97" spans="1:19" ht="17.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="82"/>
+      <c r="B97" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="54"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9078,17 +9092,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="87"/>
-      <c r="Q97" s="87"/>
-      <c r="R97" s="88"/>
-      <c r="S97" s="87"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="59"/>
     </row>
     <row r="98" spans="1:19" ht="17.25">
-      <c r="A98" s="47"/>
-      <c r="B98" s="54" t="s">
+      <c r="A98" s="82"/>
+      <c r="B98" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="54"/>
+      <c r="C98" s="65"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9103,17 +9117,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="87"/>
-      <c r="Q98" s="87"/>
-      <c r="R98" s="88"/>
-      <c r="S98" s="87"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="59"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="59"/>
     </row>
     <row r="99" spans="1:19" ht="17.25">
-      <c r="A99" s="47"/>
-      <c r="B99" s="54" t="s">
+      <c r="A99" s="82"/>
+      <c r="B99" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="54"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9132,17 +9146,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="87"/>
-      <c r="Q99" s="87"/>
-      <c r="R99" s="88"/>
-      <c r="S99" s="87"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
+      <c r="R99" s="60"/>
+      <c r="S99" s="59"/>
     </row>
     <row r="100" spans="1:19" ht="17.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="54" t="s">
+      <c r="A100" s="82"/>
+      <c r="B100" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="54"/>
+      <c r="C100" s="65"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9157,17 +9171,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="87"/>
-      <c r="Q100" s="87"/>
-      <c r="R100" s="88"/>
-      <c r="S100" s="87"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="60"/>
+      <c r="S100" s="59"/>
     </row>
     <row r="101" spans="1:19" ht="17.25">
-      <c r="A101" s="47"/>
-      <c r="B101" s="54" t="s">
+      <c r="A101" s="82"/>
+      <c r="B101" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="54"/>
+      <c r="C101" s="65"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9182,19 +9196,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="87"/>
-      <c r="Q101" s="87"/>
-      <c r="R101" s="88"/>
-      <c r="S101" s="87"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="59"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="59"/>
     </row>
     <row r="102" spans="1:19" ht="21">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="51"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -9209,17 +9223,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="87"/>
-      <c r="Q102" s="87"/>
-      <c r="R102" s="88"/>
-      <c r="S102" s="87"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="59"/>
+      <c r="R102" s="60"/>
+      <c r="S102" s="59"/>
     </row>
     <row r="103" spans="1:19" ht="17.25">
-      <c r="A103" s="47"/>
-      <c r="B103" s="53" t="s">
+      <c r="A103" s="82"/>
+      <c r="B103" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="54"/>
+      <c r="C103" s="65"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -9234,17 +9248,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="87"/>
-      <c r="Q103" s="87"/>
-      <c r="R103" s="88"/>
-      <c r="S103" s="87"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="60"/>
+      <c r="S103" s="59"/>
     </row>
     <row r="104" spans="1:19" ht="17.25">
-      <c r="A104" s="47"/>
-      <c r="B104" s="53" t="s">
+      <c r="A104" s="82"/>
+      <c r="B104" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="54"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9257,17 +9271,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="87"/>
-      <c r="Q104" s="87"/>
-      <c r="R104" s="88"/>
-      <c r="S104" s="87"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="59"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="59"/>
     </row>
     <row r="105" spans="1:19" ht="21">
-      <c r="A105" s="47"/>
-      <c r="B105" s="50" t="s">
+      <c r="A105" s="82"/>
+      <c r="B105" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="51"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -9282,17 +9296,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="87"/>
-      <c r="Q105" s="87"/>
-      <c r="R105" s="88"/>
-      <c r="S105" s="87"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="60"/>
+      <c r="S105" s="59"/>
     </row>
     <row r="106" spans="1:19" ht="17.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="53" t="s">
+      <c r="A106" s="82"/>
+      <c r="B106" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="53"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -9307,17 +9321,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="87"/>
-      <c r="Q106" s="87"/>
-      <c r="R106" s="88"/>
-      <c r="S106" s="87"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59"/>
+      <c r="R106" s="60"/>
+      <c r="S106" s="59"/>
     </row>
     <row r="107" spans="1:19" ht="17.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="53" t="s">
+      <c r="A107" s="82"/>
+      <c r="B107" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="54"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9332,17 +9346,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="87"/>
-      <c r="Q107" s="87"/>
-      <c r="R107" s="88"/>
-      <c r="S107" s="87"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="R107" s="60"/>
+      <c r="S107" s="59"/>
     </row>
     <row r="108" spans="1:19" ht="17.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="54" t="s">
+      <c r="A108" s="82"/>
+      <c r="B108" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="54"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9357,17 +9371,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="87"/>
-      <c r="Q108" s="87"/>
-      <c r="R108" s="88"/>
-      <c r="S108" s="87"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
+      <c r="R108" s="60"/>
+      <c r="S108" s="59"/>
     </row>
     <row r="109" spans="1:19" ht="17.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="82"/>
+      <c r="B109" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="54"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9382,17 +9396,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="87"/>
-      <c r="Q109" s="87"/>
-      <c r="R109" s="88"/>
-      <c r="S109" s="87"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="60"/>
+      <c r="S109" s="59"/>
     </row>
     <row r="110" spans="1:19" ht="17.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="54" t="s">
+      <c r="A110" s="82"/>
+      <c r="B110" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="54"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9407,17 +9421,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="87"/>
-      <c r="Q110" s="87"/>
-      <c r="R110" s="88"/>
-      <c r="S110" s="87"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="60"/>
+      <c r="S110" s="59"/>
     </row>
     <row r="111" spans="1:19" ht="17.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="54"/>
+      <c r="C111" s="65"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9432,17 +9446,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="87"/>
-      <c r="Q111" s="87"/>
-      <c r="R111" s="88"/>
-      <c r="S111" s="87"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="60"/>
+      <c r="S111" s="59"/>
     </row>
     <row r="112" spans="1:19" ht="17.25">
-      <c r="A112" s="47"/>
-      <c r="B112" s="54" t="s">
+      <c r="A112" s="82"/>
+      <c r="B112" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="54"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9457,17 +9471,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="87"/>
-      <c r="Q112" s="87"/>
-      <c r="R112" s="88"/>
-      <c r="S112" s="87"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
+      <c r="R112" s="60"/>
+      <c r="S112" s="59"/>
     </row>
     <row r="113" spans="1:19" ht="21">
-      <c r="A113" s="47"/>
-      <c r="B113" s="50" t="s">
+      <c r="A113" s="82"/>
+      <c r="B113" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="51"/>
+      <c r="C113" s="67"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9482,17 +9496,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="87"/>
-      <c r="Q113" s="87"/>
-      <c r="R113" s="88"/>
-      <c r="S113" s="87"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
+      <c r="R113" s="60"/>
+      <c r="S113" s="59"/>
     </row>
     <row r="114" spans="1:19" ht="17.25">
-      <c r="A114" s="47"/>
-      <c r="B114" s="53" t="s">
+      <c r="A114" s="82"/>
+      <c r="B114" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="54"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9507,17 +9521,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="87"/>
-      <c r="Q114" s="87"/>
-      <c r="R114" s="88"/>
-      <c r="S114" s="87"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="59"/>
+      <c r="R114" s="60"/>
+      <c r="S114" s="59"/>
     </row>
     <row r="115" spans="1:19" ht="17.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="82"/>
+      <c r="B115" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="54"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9532,17 +9546,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="87"/>
-      <c r="Q115" s="87"/>
-      <c r="R115" s="88"/>
-      <c r="S115" s="87"/>
+      <c r="P115" s="59"/>
+      <c r="Q115" s="59"/>
+      <c r="R115" s="60"/>
+      <c r="S115" s="59"/>
     </row>
     <row r="116" spans="1:19" ht="17.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="54" t="s">
+      <c r="A116" s="82"/>
+      <c r="B116" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="54"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9557,17 +9571,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="87"/>
-      <c r="Q116" s="87"/>
-      <c r="R116" s="88"/>
-      <c r="S116" s="87"/>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="59"/>
+      <c r="R116" s="60"/>
+      <c r="S116" s="59"/>
     </row>
     <row r="117" spans="1:19" ht="17.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="54" t="s">
+      <c r="A117" s="82"/>
+      <c r="B117" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="54"/>
+      <c r="C117" s="65"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9582,17 +9596,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="87"/>
-      <c r="Q117" s="87"/>
-      <c r="R117" s="88"/>
-      <c r="S117" s="87"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="59"/>
+      <c r="R117" s="60"/>
+      <c r="S117" s="59"/>
     </row>
     <row r="118" spans="1:19" ht="17.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="54" t="s">
+      <c r="A118" s="82"/>
+      <c r="B118" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="54"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9607,17 +9621,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="87"/>
-      <c r="Q118" s="87"/>
-      <c r="R118" s="88"/>
-      <c r="S118" s="87"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
+      <c r="R118" s="60"/>
+      <c r="S118" s="59"/>
     </row>
     <row r="119" spans="1:19" ht="21">
-      <c r="A119" s="47"/>
-      <c r="B119" s="50" t="s">
+      <c r="A119" s="82"/>
+      <c r="B119" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="51"/>
+      <c r="C119" s="67"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9632,17 +9646,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="87"/>
-      <c r="Q119" s="87"/>
-      <c r="R119" s="88"/>
-      <c r="S119" s="87"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="59"/>
+      <c r="R119" s="60"/>
+      <c r="S119" s="59"/>
     </row>
     <row r="120" spans="1:19" ht="17.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="53" t="s">
+      <c r="A120" s="82"/>
+      <c r="B120" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="54"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9657,17 +9671,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="87"/>
-      <c r="Q120" s="87"/>
-      <c r="R120" s="88"/>
-      <c r="S120" s="87"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59"/>
+      <c r="R120" s="60"/>
+      <c r="S120" s="59"/>
     </row>
     <row r="121" spans="1:19" ht="17.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="82"/>
+      <c r="B121" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="54"/>
+      <c r="C121" s="65"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9682,56 +9696,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="89"/>
-      <c r="Q121" s="89"/>
-      <c r="R121" s="90"/>
-      <c r="S121" s="89"/>
+      <c r="P121" s="61"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="62"/>
+      <c r="S121" s="61"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="60"/>
-      <c r="C122" s="60"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="81"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="80"/>
-      <c r="I123" s="80"/>
-      <c r="J123" s="80"/>
-      <c r="K123" s="80"/>
-      <c r="L123" s="80"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="80"/>
-      <c r="Q123" s="80"/>
-      <c r="R123" s="80"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="52"/>
+      <c r="M123" s="52"/>
+      <c r="N123" s="52"/>
+      <c r="O123" s="52"/>
+      <c r="P123" s="52"/>
+      <c r="Q123" s="52"/>
+      <c r="R123" s="52"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="80"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="80"/>
-      <c r="D124" s="80"/>
-      <c r="E124" s="80"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="80"/>
-      <c r="H124" s="80"/>
-      <c r="I124" s="80"/>
-      <c r="J124" s="80"/>
-      <c r="K124" s="80"/>
-      <c r="L124" s="80"/>
-      <c r="M124" s="80"/>
-      <c r="N124" s="80"/>
-      <c r="O124" s="80"/>
-      <c r="P124" s="80"/>
-      <c r="Q124" s="80"/>
-      <c r="R124" s="80"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="52"/>
+      <c r="M124" s="52"/>
+      <c r="N124" s="52"/>
+      <c r="O124" s="52"/>
+      <c r="P124" s="52"/>
+      <c r="Q124" s="52"/>
+      <c r="R124" s="52"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
@@ -9806,10 +9820,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="71"/>
-      <c r="P126" s="74"/>
-      <c r="Q126" s="75"/>
-      <c r="R126" s="71"/>
+      <c r="O126" s="43"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="47"/>
+      <c r="R126" s="43"/>
     </row>
     <row r="127" spans="1:19" ht="14.25">
       <c r="A127" s="23" t="s">
@@ -9832,10 +9846,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="72"/>
-      <c r="P127" s="76"/>
-      <c r="Q127" s="77"/>
-      <c r="R127" s="72"/>
+      <c r="O127" s="44"/>
+      <c r="P127" s="48"/>
+      <c r="Q127" s="49"/>
+      <c r="R127" s="44"/>
     </row>
     <row r="128" spans="1:19" ht="14.25">
       <c r="A128" s="23" t="s">
@@ -9862,10 +9876,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="72"/>
-      <c r="P128" s="76"/>
-      <c r="Q128" s="77"/>
-      <c r="R128" s="72"/>
+      <c r="O128" s="44"/>
+      <c r="P128" s="48"/>
+      <c r="Q128" s="49"/>
+      <c r="R128" s="44"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="23" t="s">
@@ -9890,10 +9904,10 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="72"/>
-      <c r="P129" s="76"/>
-      <c r="Q129" s="77"/>
-      <c r="R129" s="72"/>
+      <c r="O129" s="44"/>
+      <c r="P129" s="48"/>
+      <c r="Q129" s="49"/>
+      <c r="R129" s="44"/>
     </row>
     <row r="130" spans="1:18" ht="17.25">
       <c r="A130" s="25" t="s">
@@ -9912,10 +9926,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="72"/>
-      <c r="P130" s="76"/>
-      <c r="Q130" s="77"/>
-      <c r="R130" s="72"/>
+      <c r="O130" s="44"/>
+      <c r="P130" s="48"/>
+      <c r="Q130" s="49"/>
+      <c r="R130" s="44"/>
     </row>
     <row r="131" spans="1:18" ht="14.25">
       <c r="A131" s="34" t="s">
@@ -9938,10 +9952,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="72"/>
-      <c r="P131" s="76"/>
-      <c r="Q131" s="77"/>
-      <c r="R131" s="72"/>
+      <c r="O131" s="44"/>
+      <c r="P131" s="48"/>
+      <c r="Q131" s="49"/>
+      <c r="R131" s="44"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="24" t="s">
@@ -9964,10 +9978,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="72"/>
-      <c r="P132" s="76"/>
-      <c r="Q132" s="77"/>
-      <c r="R132" s="72"/>
+      <c r="O132" s="44"/>
+      <c r="P132" s="48"/>
+      <c r="Q132" s="49"/>
+      <c r="R132" s="44"/>
     </row>
     <row r="133" spans="1:18" ht="17.25">
       <c r="A133" s="25" t="s">
@@ -9986,10 +10000,10 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="72"/>
-      <c r="P133" s="76"/>
-      <c r="Q133" s="77"/>
-      <c r="R133" s="72"/>
+      <c r="O133" s="44"/>
+      <c r="P133" s="48"/>
+      <c r="Q133" s="49"/>
+      <c r="R133" s="44"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="34" t="s">
@@ -10010,10 +10024,10 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="72"/>
-      <c r="P134" s="76"/>
-      <c r="Q134" s="77"/>
-      <c r="R134" s="72"/>
+      <c r="O134" s="44"/>
+      <c r="P134" s="48"/>
+      <c r="Q134" s="49"/>
+      <c r="R134" s="44"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="24" t="s">
@@ -10034,10 +10048,10 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="72"/>
-      <c r="P135" s="76"/>
-      <c r="Q135" s="77"/>
-      <c r="R135" s="72"/>
+      <c r="O135" s="44"/>
+      <c r="P135" s="48"/>
+      <c r="Q135" s="49"/>
+      <c r="R135" s="44"/>
     </row>
     <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="30" t="s">
@@ -10062,10 +10076,10 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="72"/>
-      <c r="P136" s="76"/>
-      <c r="Q136" s="77"/>
-      <c r="R136" s="72"/>
+      <c r="O136" s="44"/>
+      <c r="P136" s="48"/>
+      <c r="Q136" s="49"/>
+      <c r="R136" s="44"/>
     </row>
     <row r="137" spans="1:18" ht="14.25">
       <c r="A137" s="30" t="s">
@@ -10090,10 +10104,10 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="72"/>
-      <c r="P137" s="76"/>
-      <c r="Q137" s="77"/>
-      <c r="R137" s="72"/>
+      <c r="O137" s="44"/>
+      <c r="P137" s="48"/>
+      <c r="Q137" s="49"/>
+      <c r="R137" s="44"/>
     </row>
     <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="30" t="s">
@@ -10132,10 +10146,10 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="72"/>
-      <c r="P138" s="76"/>
-      <c r="Q138" s="77"/>
-      <c r="R138" s="72"/>
+      <c r="O138" s="44"/>
+      <c r="P138" s="48"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="44"/>
     </row>
     <row r="139" spans="1:18" ht="17.25">
       <c r="A139" s="25" t="s">
@@ -10154,10 +10168,10 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="72"/>
-      <c r="P139" s="76"/>
-      <c r="Q139" s="77"/>
-      <c r="R139" s="72"/>
+      <c r="O139" s="44"/>
+      <c r="P139" s="48"/>
+      <c r="Q139" s="49"/>
+      <c r="R139" s="44"/>
     </row>
     <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="30" t="s">
@@ -10182,10 +10196,10 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="72"/>
-      <c r="P140" s="76"/>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="72"/>
+      <c r="O140" s="44"/>
+      <c r="P140" s="48"/>
+      <c r="Q140" s="49"/>
+      <c r="R140" s="44"/>
     </row>
     <row r="141" spans="1:18" ht="17.25">
       <c r="A141" s="25" t="s">
@@ -10204,10 +10218,10 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="72"/>
-      <c r="P141" s="76"/>
-      <c r="Q141" s="77"/>
-      <c r="R141" s="72"/>
+      <c r="O141" s="44"/>
+      <c r="P141" s="48"/>
+      <c r="Q141" s="49"/>
+      <c r="R141" s="44"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="30" t="s">
@@ -10232,10 +10246,10 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="72"/>
-      <c r="P142" s="76"/>
-      <c r="Q142" s="77"/>
-      <c r="R142" s="72"/>
+      <c r="O142" s="44"/>
+      <c r="P142" s="48"/>
+      <c r="Q142" s="49"/>
+      <c r="R142" s="44"/>
     </row>
     <row r="143" spans="1:18" ht="17.25">
       <c r="A143" s="25" t="s">
@@ -10254,10 +10268,10 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="72"/>
-      <c r="P143" s="76"/>
-      <c r="Q143" s="77"/>
-      <c r="R143" s="72"/>
+      <c r="O143" s="44"/>
+      <c r="P143" s="48"/>
+      <c r="Q143" s="49"/>
+      <c r="R143" s="44"/>
     </row>
     <row r="144" spans="1:18" ht="14.25">
       <c r="A144" s="23" t="s">
@@ -10288,10 +10302,10 @@
       <c r="N144" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="72"/>
-      <c r="P144" s="76"/>
-      <c r="Q144" s="77"/>
-      <c r="R144" s="72"/>
+      <c r="O144" s="44"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="49"/>
+      <c r="R144" s="44"/>
     </row>
     <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
@@ -10322,10 +10336,10 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="72"/>
-      <c r="P145" s="76"/>
-      <c r="Q145" s="77"/>
-      <c r="R145" s="72"/>
+      <c r="O145" s="44"/>
+      <c r="P145" s="48"/>
+      <c r="Q145" s="49"/>
+      <c r="R145" s="44"/>
     </row>
     <row r="146" spans="1:18" ht="17.25">
       <c r="A146" s="25" t="s">
@@ -10344,10 +10358,10 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="72"/>
-      <c r="P146" s="76"/>
-      <c r="Q146" s="77"/>
-      <c r="R146" s="72"/>
+      <c r="O146" s="44"/>
+      <c r="P146" s="48"/>
+      <c r="Q146" s="49"/>
+      <c r="R146" s="44"/>
     </row>
     <row r="147" spans="1:18" ht="14.25">
       <c r="A147" s="23" t="s">
@@ -10370,10 +10384,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="72"/>
-      <c r="P147" s="76"/>
-      <c r="Q147" s="77"/>
-      <c r="R147" s="72"/>
+      <c r="O147" s="44"/>
+      <c r="P147" s="48"/>
+      <c r="Q147" s="49"/>
+      <c r="R147" s="44"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -10394,10 +10408,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="72"/>
-      <c r="P148" s="76"/>
-      <c r="Q148" s="77"/>
-      <c r="R148" s="72"/>
+      <c r="O148" s="44"/>
+      <c r="P148" s="48"/>
+      <c r="Q148" s="49"/>
+      <c r="R148" s="44"/>
     </row>
     <row r="149" spans="1:18" ht="17.25">
       <c r="A149" s="25" t="s">
@@ -10416,10 +10430,10 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="72"/>
-      <c r="P149" s="76"/>
-      <c r="Q149" s="77"/>
-      <c r="R149" s="72"/>
+      <c r="O149" s="44"/>
+      <c r="P149" s="48"/>
+      <c r="Q149" s="49"/>
+      <c r="R149" s="44"/>
     </row>
     <row r="150" spans="1:18" ht="14.25">
       <c r="A150" s="23" t="s">
@@ -10442,10 +10456,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="72"/>
-      <c r="P150" s="76"/>
-      <c r="Q150" s="77"/>
-      <c r="R150" s="72"/>
+      <c r="O150" s="44"/>
+      <c r="P150" s="48"/>
+      <c r="Q150" s="49"/>
+      <c r="R150" s="44"/>
     </row>
     <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="23" t="s">
@@ -10468,10 +10482,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="72"/>
-      <c r="P151" s="76"/>
-      <c r="Q151" s="77"/>
-      <c r="R151" s="72"/>
+      <c r="O151" s="44"/>
+      <c r="P151" s="48"/>
+      <c r="Q151" s="49"/>
+      <c r="R151" s="44"/>
     </row>
     <row r="152" spans="1:18" ht="17.25">
       <c r="A152" s="25" t="s">
@@ -10490,10 +10504,10 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="72"/>
-      <c r="P152" s="76"/>
-      <c r="Q152" s="77"/>
-      <c r="R152" s="72"/>
+      <c r="O152" s="44"/>
+      <c r="P152" s="48"/>
+      <c r="Q152" s="49"/>
+      <c r="R152" s="44"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
@@ -10516,10 +10530,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="72"/>
-      <c r="P153" s="76"/>
-      <c r="Q153" s="77"/>
-      <c r="R153" s="72"/>
+      <c r="O153" s="44"/>
+      <c r="P153" s="48"/>
+      <c r="Q153" s="49"/>
+      <c r="R153" s="44"/>
     </row>
     <row r="154" spans="1:18" ht="17.25">
       <c r="A154" s="25" t="s">
@@ -10538,10 +10552,10 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="72"/>
-      <c r="P154" s="76"/>
-      <c r="Q154" s="77"/>
-      <c r="R154" s="72"/>
+      <c r="O154" s="44"/>
+      <c r="P154" s="48"/>
+      <c r="Q154" s="49"/>
+      <c r="R154" s="44"/>
     </row>
     <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="23" t="s">
@@ -10566,10 +10580,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="72"/>
-      <c r="P155" s="76"/>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="72"/>
+      <c r="O155" s="44"/>
+      <c r="P155" s="48"/>
+      <c r="Q155" s="49"/>
+      <c r="R155" s="44"/>
     </row>
     <row r="156" spans="1:18" ht="14.25">
       <c r="A156" s="23" t="s">
@@ -10594,10 +10608,10 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="72"/>
-      <c r="P156" s="76"/>
-      <c r="Q156" s="77"/>
-      <c r="R156" s="72"/>
+      <c r="O156" s="44"/>
+      <c r="P156" s="48"/>
+      <c r="Q156" s="49"/>
+      <c r="R156" s="44"/>
     </row>
     <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="24" t="s">
@@ -10620,10 +10634,10 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="72"/>
-      <c r="P157" s="76"/>
-      <c r="Q157" s="77"/>
-      <c r="R157" s="72"/>
+      <c r="O157" s="44"/>
+      <c r="P157" s="48"/>
+      <c r="Q157" s="49"/>
+      <c r="R157" s="44"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
@@ -10644,10 +10658,10 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="72"/>
-      <c r="P158" s="76"/>
-      <c r="Q158" s="77"/>
-      <c r="R158" s="72"/>
+      <c r="O158" s="44"/>
+      <c r="P158" s="48"/>
+      <c r="Q158" s="49"/>
+      <c r="R158" s="44"/>
     </row>
     <row r="159" spans="1:18" ht="14.25">
       <c r="A159" s="18" t="s">
@@ -10670,13 +10684,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="73"/>
-      <c r="P159" s="78"/>
-      <c r="Q159" s="79"/>
-      <c r="R159" s="73"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="50"/>
+      <c r="Q159" s="51"/>
+      <c r="R159" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="A4:A40"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="P4:P121"/>
+    <mergeCell ref="Q4:R121"/>
+    <mergeCell ref="S4:S121"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="A123:R124"/>
     <mergeCell ref="O126:O159"/>
     <mergeCell ref="P126:Q159"/>
@@ -10701,132 +10841,6 @@
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="A4:A40"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="P4:P121"/>
-    <mergeCell ref="Q4:R121"/>
-    <mergeCell ref="S4:S121"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="173">
   <si>
     <t>高松プログラマー開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -1237,6 +1237,27 @@
     <t>　15分</t>
     <rPh sb="3" eb="4">
       <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30分</t>
+    <rPh sb="2" eb="3">
+      <t>プン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境エフェクト（？）</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1481,7 +1502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,6 +1530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,7 +1694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1771,6 +1798,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,7 +1965,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2212,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2232,75 +2268,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="53" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="U1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2349,26 +2385,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,34 +2419,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="57" t="s">
+      <c r="R4" s="61"/>
+      <c r="S4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="1"/>
       <c r="E5" s="41" t="s">
         <v>108</v>
@@ -2429,26 +2465,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="59"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,17 +2499,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="62"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="1"/>
       <c r="E7" s="42" t="s">
         <v>105</v>
@@ -2492,17 +2528,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="62"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="1"/>
       <c r="E8" s="42" t="s">
         <v>105</v>
@@ -2521,18 +2557,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="59"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="62"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="68" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2546,18 +2582,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="62"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2569,17 +2605,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="62"/>
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="1"/>
       <c r="E11" s="42" t="s">
         <v>105</v>
@@ -2598,17 +2634,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="59"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="1"/>
       <c r="E12" s="42" t="s">
         <v>105</v>
@@ -2627,63 +2663,63 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="62"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="59"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="62"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2698,17 +2734,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="59"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="62"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2723,17 +2759,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="59"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="62"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2748,17 +2784,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="59"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="62"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2773,17 +2809,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="59"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="62"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2800,17 +2836,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="59"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2827,17 +2863,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="59"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="62"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2854,17 +2890,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="59"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="62"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2881,17 +2917,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="59"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="62"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2908,17 +2944,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="59"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="62"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2933,17 +2969,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="59"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="62"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -2960,17 +2996,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="62"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -2987,17 +3023,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="59"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="62"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -3014,17 +3050,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="59"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="62"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3039,17 +3075,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="59"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="62"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -3066,17 +3102,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="59"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="62"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -3093,17 +3129,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="59"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="62"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -3120,17 +3156,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="59"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="62"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3147,17 +3183,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="59"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="62"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3172,17 +3208,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="59"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="62"/>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3201,17 +3237,17 @@
       <c r="O34" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="59"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="62"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="85"/>
+      <c r="B35" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3230,17 +3266,17 @@
       <c r="O35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="59"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="62"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3259,17 +3295,17 @@
       <c r="O36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="59"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="62"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
@@ -3296,27 +3332,27 @@
       <c r="O37" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="59"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="66" t="s">
+      <c r="A38" s="90"/>
+      <c r="B38" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="95" t="s">
+      <c r="F38" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="43" t="s">
         <v>105</v>
       </c>
       <c r="H38" s="16" t="s">
@@ -3331,19 +3367,19 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="59"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="62"/>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
@@ -3358,17 +3394,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="59"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="62"/>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A40" s="88"/>
-      <c r="B40" s="68" t="s">
+      <c r="A40" s="91"/>
+      <c r="B40" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="3"/>
       <c r="E40" s="42" t="s">
         <v>105</v>
@@ -3387,17 +3423,17 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="59"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="62"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="88"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="3"/>
       <c r="E41" s="42" t="s">
         <v>105</v>
@@ -3416,17 +3452,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="59"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="62"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1">
-      <c r="A42" s="88"/>
-      <c r="B42" s="80" t="s">
+      <c r="A42" s="91"/>
+      <c r="B42" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
@@ -3441,17 +3477,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="59"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="62"/>
     </row>
     <row r="43" spans="1:19" ht="21" customHeight="1">
-      <c r="A43" s="88"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="91"/>
+      <c r="B43" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3470,17 +3506,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="59"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="62"/>
     </row>
     <row r="44" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A44" s="88"/>
-      <c r="B44" s="79" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
@@ -3499,17 +3535,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="59"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="62"/>
     </row>
     <row r="45" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A45" s="88"/>
-      <c r="B45" s="80" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="5" t="s">
         <v>25</v>
       </c>
@@ -3530,17 +3566,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="59"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="62"/>
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="83" t="s">
+      <c r="A46" s="91"/>
+      <c r="B46" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
@@ -3561,19 +3597,19 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="59"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="62"/>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3588,17 +3624,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="59"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="62"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="68" t="s">
+      <c r="A48" s="91"/>
+      <c r="B48" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="65"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -3619,17 +3655,17 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="59"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="62"/>
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="79" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="65"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3650,17 +3686,17 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="59"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="62"/>
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="79" t="s">
+      <c r="A50" s="91"/>
+      <c r="B50" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3681,17 +3717,17 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="59"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="62"/>
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="79" t="s">
+      <c r="A51" s="91"/>
+      <c r="B51" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3712,17 +3748,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="59"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="62"/>
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="79" t="s">
+      <c r="A52" s="91"/>
+      <c r="B52" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3743,17 +3779,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="59"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="62"/>
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="65"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3774,17 +3810,17 @@
       <c r="O53" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="62"/>
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="91"/>
+      <c r="B54" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3805,17 +3841,17 @@
       <c r="O54" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="59"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="62"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="88"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="91"/>
+      <c r="B55" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="65"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3836,17 +3872,17 @@
       <c r="O55" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="62"/>
     </row>
     <row r="56" spans="1:19" ht="21" customHeight="1">
-      <c r="A56" s="89"/>
-      <c r="B56" s="80" t="s">
+      <c r="A56" s="92"/>
+      <c r="B56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="67"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3869,19 +3905,19 @@
       <c r="O56" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="62"/>
     </row>
     <row r="57" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="67"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
@@ -3900,17 +3936,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="59"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="62"/>
     </row>
     <row r="58" spans="1:19" ht="21" customHeight="1">
-      <c r="A58" s="78"/>
-      <c r="B58" s="66" t="s">
+      <c r="A58" s="81"/>
+      <c r="B58" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3925,17 +3961,17 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="59"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="62"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A59" s="78"/>
-      <c r="B59" s="64" t="s">
+      <c r="A59" s="81"/>
+      <c r="B59" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="65"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
@@ -3956,17 +3992,17 @@
         <v>166</v>
       </c>
       <c r="O59" s="8"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="59"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="62"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A60" s="78"/>
-      <c r="B60" s="64" t="s">
+      <c r="A60" s="81"/>
+      <c r="B60" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="65"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
@@ -3987,17 +4023,17 @@
         <v>166</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="59"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="62"/>
     </row>
     <row r="61" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A61" s="78"/>
-      <c r="B61" s="66" t="s">
+      <c r="A61" s="81"/>
+      <c r="B61" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="67"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="5" t="s">
         <v>84</v>
       </c>
@@ -4014,17 +4050,17 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="59"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="62"/>
     </row>
     <row r="62" spans="1:19" ht="21" customHeight="1">
-      <c r="A62" s="78"/>
-      <c r="B62" s="66" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="67"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
@@ -4039,17 +4075,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="59"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="62"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A63" s="78"/>
-      <c r="B63" s="64" t="s">
+      <c r="A63" s="81"/>
+      <c r="B63" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="65"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="8"/>
@@ -4068,17 +4104,17 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="59"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="62"/>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="78"/>
-      <c r="B64" s="65" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="65"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="8"/>
@@ -4097,17 +4133,17 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="59"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="62"/>
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="78"/>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="81"/>
+      <c r="B65" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -4126,17 +4162,17 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="59"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="62"/>
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="78"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="81"/>
+      <c r="B66" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -4155,17 +4191,17 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="59"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="62"/>
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="78"/>
-      <c r="B67" s="65" t="s">
+      <c r="A67" s="81"/>
+      <c r="B67" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="65"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -4184,17 +4220,17 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="59"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="62"/>
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="78"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="81"/>
+      <c r="B68" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="65"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -4213,17 +4249,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="59"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="62"/>
     </row>
     <row r="69" spans="1:19" ht="21" customHeight="1">
-      <c r="A69" s="78"/>
-      <c r="B69" s="66" t="s">
+      <c r="A69" s="81"/>
+      <c r="B69" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="67"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="5" t="s">
         <v>84</v>
       </c>
@@ -4240,17 +4276,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="59"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="62"/>
     </row>
     <row r="70" spans="1:19" ht="21" customHeight="1">
-      <c r="A70" s="78"/>
-      <c r="B70" s="66" t="s">
+      <c r="A70" s="81"/>
+      <c r="B70" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="67"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
@@ -4267,19 +4303,19 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="59"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="62"/>
     </row>
     <row r="71" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="67"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4294,17 +4330,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="59"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="62"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1">
-      <c r="A72" s="82"/>
-      <c r="B72" s="64" t="s">
+      <c r="A72" s="85"/>
+      <c r="B72" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="65"/>
+      <c r="C72" s="68"/>
       <c r="D72" s="3"/>
       <c r="E72" s="36" t="s">
         <v>167</v>
@@ -4321,17 +4357,17 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="59"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="62"/>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A73" s="82"/>
-      <c r="B73" s="65" t="s">
+      <c r="A73" s="85"/>
+      <c r="B73" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="65"/>
+      <c r="C73" s="68"/>
       <c r="D73" s="3"/>
       <c r="E73" s="36" t="s">
         <v>167</v>
@@ -4350,17 +4386,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="59"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="62"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="82"/>
-      <c r="B74" s="65" t="s">
+      <c r="A74" s="85"/>
+      <c r="B74" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="65"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="3"/>
       <c r="E74" s="36" t="s">
         <v>167</v>
@@ -4376,17 +4412,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="59"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="62"/>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1">
-      <c r="A75" s="82"/>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="85"/>
+      <c r="B75" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="65"/>
+      <c r="C75" s="68"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4403,17 +4439,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="59"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="62"/>
     </row>
     <row r="76" spans="1:19" ht="21" customHeight="1">
-      <c r="A76" s="82"/>
-      <c r="B76" s="66" t="s">
+      <c r="A76" s="85"/>
+      <c r="B76" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="67"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="5" t="s">
         <v>88</v>
       </c>
@@ -4428,17 +4464,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="59"/>
+      <c r="P76" s="62"/>
+      <c r="Q76" s="62"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="62"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1">
-      <c r="A77" s="82"/>
-      <c r="B77" s="64" t="s">
+      <c r="A77" s="85"/>
+      <c r="B77" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="65"/>
+      <c r="C77" s="68"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="38" t="s">
@@ -4453,17 +4489,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="59"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="62"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A78" s="82"/>
-      <c r="B78" s="65" t="s">
+      <c r="A78" s="85"/>
+      <c r="B78" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="65"/>
+      <c r="C78" s="68"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="38" t="s">
@@ -4478,17 +4514,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="59"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="62"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="82"/>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="85"/>
+      <c r="B79" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="65"/>
+      <c r="C79" s="68"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="38" t="s">
@@ -4503,17 +4539,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="59"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="62"/>
     </row>
     <row r="80" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A80" s="82"/>
-      <c r="B80" s="66" t="s">
+      <c r="A80" s="85"/>
+      <c r="B80" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="67"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="5" t="s">
         <v>88</v>
       </c>
@@ -4528,17 +4564,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="60"/>
-      <c r="S80" s="59"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="62"/>
     </row>
     <row r="81" spans="1:19" ht="18" customHeight="1">
-      <c r="A81" s="82"/>
-      <c r="B81" s="64" t="s">
+      <c r="A81" s="85"/>
+      <c r="B81" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="38" t="s">
@@ -4553,17 +4589,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="59"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="62"/>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
-      <c r="A82" s="82"/>
-      <c r="B82" s="65" t="s">
+      <c r="A82" s="85"/>
+      <c r="B82" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="65"/>
+      <c r="C82" s="68"/>
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="G82" s="38" t="s">
@@ -4577,17 +4613,17 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="59"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="62"/>
     </row>
     <row r="83" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A83" s="82"/>
-      <c r="B83" s="65" t="s">
+      <c r="A83" s="85"/>
+      <c r="B83" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="68"/>
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4600,19 +4636,19 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="59"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="62"/>
     </row>
     <row r="84" spans="1:19" ht="21" customHeight="1">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="67"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4627,22 +4663,24 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="60"/>
-      <c r="S84" s="59"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="62"/>
     </row>
     <row r="85" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A85" s="82"/>
-      <c r="B85" s="64" t="s">
+      <c r="A85" s="85"/>
+      <c r="B85" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F85" s="15"/>
+      <c r="F85" s="45" t="s">
+        <v>172</v>
+      </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -4652,17 +4690,17 @@
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="59"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="62"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A86" s="82"/>
-      <c r="B86" s="64" t="s">
+      <c r="A86" s="85"/>
+      <c r="B86" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="65"/>
+      <c r="C86" s="68"/>
       <c r="D86" s="3"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4677,17 +4715,17 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="59"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="63"/>
+      <c r="S86" s="62"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A87" s="82"/>
-      <c r="B87" s="65" t="s">
+      <c r="A87" s="85"/>
+      <c r="B87" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="68"/>
       <c r="D87" s="3"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4702,26 +4740,24 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="59"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="62"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="82"/>
-      <c r="B88" s="65" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="68"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H88" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -4729,17 +4765,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="59"/>
+      <c r="P88" s="62"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="63"/>
+      <c r="S88" s="62"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="82"/>
-      <c r="B89" s="65" t="s">
+      <c r="A89" s="85"/>
+      <c r="B89" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4756,17 +4792,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="59"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="62"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="82"/>
-      <c r="B90" s="65" t="s">
+      <c r="A90" s="85"/>
+      <c r="B90" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4774,26 +4810,24 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="K90" s="15"/>
       <c r="L90" s="16" t="s">
         <v>106</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="59"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="63"/>
+      <c r="S90" s="62"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="82"/>
-      <c r="B91" s="65" t="s">
+      <c r="A91" s="85"/>
+      <c r="B91" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4802,31 +4836,29 @@
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
       <c r="K91" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="L91" s="16" t="s">
         <v>106</v>
       </c>
+      <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="59"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A92" s="82"/>
-      <c r="B92" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="65"/>
-      <c r="D92" s="3"/>
+      <c r="P91" s="62"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="62"/>
+    </row>
+    <row r="92" spans="1:19" ht="21" customHeight="1">
+      <c r="A92" s="85"/>
+      <c r="B92" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="70"/>
+      <c r="D92" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
-      <c r="G92" s="17" t="s">
-        <v>106</v>
-      </c>
+      <c r="G92" s="15"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -4835,22 +4867,24 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="59"/>
-    </row>
-    <row r="93" spans="1:19" ht="21" customHeight="1">
-      <c r="A93" s="82"/>
-      <c r="B93" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
+      <c r="P92" s="62"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="63"/>
+      <c r="S92" s="62"/>
+    </row>
+    <row r="93" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A93" s="85"/>
+      <c r="B93" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="68"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>170</v>
+      </c>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
@@ -4860,23 +4894,23 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="60"/>
-      <c r="S93" s="59"/>
-    </row>
-    <row r="94" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A94" s="82"/>
-      <c r="B94" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="65"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="17" t="s">
-        <v>111</v>
-      </c>
+      <c r="P93" s="62"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="62"/>
+    </row>
+    <row r="94" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A94" s="85"/>
+      <c r="B94" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="68"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="15"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="G94" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -4885,21 +4919,21 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="60"/>
-      <c r="S94" s="59"/>
+      <c r="P94" s="62"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="63"/>
+      <c r="S94" s="62"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A95" s="82"/>
-      <c r="B95" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="65"/>
+      <c r="A95" s="85"/>
+      <c r="B95" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="68"/>
       <c r="D95" s="3"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="16" t="s">
         <v>106</v>
       </c>
       <c r="H95" s="15"/>
@@ -4910,128 +4944,124 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="60"/>
-      <c r="S95" s="59"/>
+      <c r="P95" s="62"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="63"/>
+      <c r="S95" s="62"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A96" s="82"/>
-      <c r="B96" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="65"/>
+      <c r="A96" s="85"/>
+      <c r="B96" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="68"/>
       <c r="D96" s="3"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
+      <c r="K96" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="60"/>
-      <c r="S96" s="59"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="63"/>
+      <c r="S96" s="62"/>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="82"/>
-      <c r="B97" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="65"/>
+      <c r="A97" s="85"/>
+      <c r="B97" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="68"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
-      <c r="H97" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="H97" s="15"/>
       <c r="I97" s="15"/>
-      <c r="J97" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K97" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="60"/>
-      <c r="S97" s="59"/>
+      <c r="O97" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="63"/>
+      <c r="S97" s="62"/>
     </row>
     <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="82"/>
-      <c r="B98" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="65"/>
+      <c r="A98" s="85"/>
+      <c r="B98" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="68"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
+      <c r="I98" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
-      <c r="O98" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="60"/>
-      <c r="S98" s="59"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A99" s="82"/>
-      <c r="B99" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="65"/>
-      <c r="D99" s="3"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="62"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="63"/>
+      <c r="S98" s="62"/>
+    </row>
+    <row r="99" spans="1:19" ht="18" customHeight="1">
+      <c r="A99" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="70"/>
+      <c r="D99" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
-      <c r="I99" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="I99" s="15"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="60"/>
-      <c r="S99" s="59"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="63"/>
+      <c r="S99" s="62"/>
     </row>
     <row r="100" spans="1:19" ht="18" customHeight="1">
-      <c r="A100" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A100" s="85"/>
+      <c r="B100" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="68"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
+      <c r="F100" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
@@ -5041,43 +5071,45 @@
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="60"/>
-      <c r="S100" s="59"/>
-    </row>
-    <row r="101" spans="1:19" ht="18" customHeight="1">
-      <c r="A101" s="82"/>
-      <c r="B101" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" s="65"/>
-      <c r="D101" s="1"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="63"/>
+      <c r="S100" s="62"/>
+    </row>
+    <row r="101" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A101" s="85"/>
+      <c r="B101" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="68"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="15"/>
-      <c r="F101" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
+      <c r="K101" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="60"/>
-      <c r="S101" s="59"/>
-    </row>
-    <row r="102" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A102" s="82"/>
-      <c r="B102" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="65"/>
-      <c r="D102" s="3"/>
+      <c r="P101" s="62"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="63"/>
+      <c r="S101" s="62"/>
+    </row>
+    <row r="102" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A102" s="85"/>
+      <c r="B102" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="70"/>
+      <c r="D102" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -5089,22 +5121,22 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="60"/>
-      <c r="S102" s="59"/>
-    </row>
-    <row r="103" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A103" s="82"/>
-      <c r="B103" s="66" t="s">
-        <v>77</v>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="63"/>
+      <c r="S102" s="62"/>
+    </row>
+    <row r="103" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A103" s="85"/>
+      <c r="B103" s="67" t="s">
+        <v>96</v>
       </c>
       <c r="C103" s="67"/>
-      <c r="D103" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="D103" s="5"/>
       <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
+      <c r="F103" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
@@ -5114,92 +5146,92 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="59"/>
-    </row>
-    <row r="104" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A104" s="82"/>
-      <c r="B104" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="64"/>
-      <c r="D104" s="5"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="63"/>
+      <c r="S103" s="62"/>
+    </row>
+    <row r="104" spans="1:19" ht="15" customHeight="1">
+      <c r="A104" s="85"/>
+      <c r="B104" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="68"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
+      <c r="L104" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="60"/>
-      <c r="S104" s="59"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="63"/>
+      <c r="S104" s="62"/>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1">
-      <c r="A105" s="82"/>
-      <c r="B105" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" s="65"/>
+      <c r="A105" s="85"/>
+      <c r="B105" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="68"/>
       <c r="D105" s="3"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
+      <c r="H105" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
-      <c r="L105" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="L105" s="15"/>
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="59"/>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="63"/>
+      <c r="S105" s="62"/>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1">
-      <c r="A106" s="82"/>
-      <c r="B106" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C106" s="65"/>
+      <c r="A106" s="85"/>
+      <c r="B106" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="68"/>
       <c r="D106" s="3"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
+      <c r="L106" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="60"/>
-      <c r="S106" s="59"/>
-    </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1">
-      <c r="A107" s="82"/>
-      <c r="B107" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C107" s="65"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="63"/>
+      <c r="S106" s="62"/>
+    </row>
+    <row r="107" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A107" s="85"/>
+      <c r="B107" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="68"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -5208,23 +5240,23 @@
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
-      <c r="L107" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="M107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="60"/>
-      <c r="S107" s="59"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="62"/>
     </row>
     <row r="108" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A108" s="82"/>
-      <c r="B108" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="65"/>
+      <c r="A108" s="85"/>
+      <c r="B108" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="68"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -5234,22 +5266,22 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
-      <c r="M108" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="M108" s="15"/>
       <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="60"/>
-      <c r="S108" s="59"/>
+      <c r="O108" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="63"/>
+      <c r="S108" s="62"/>
     </row>
     <row r="109" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A109" s="82"/>
-      <c r="B109" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C109" s="65"/>
+      <c r="A109" s="85"/>
+      <c r="B109" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="68"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -5264,18 +5296,20 @@
       <c r="O109" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="60"/>
-      <c r="S109" s="59"/>
-    </row>
-    <row r="110" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A110" s="82"/>
-      <c r="B110" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="65"/>
-      <c r="D110" s="3"/>
+      <c r="P109" s="62"/>
+      <c r="Q109" s="62"/>
+      <c r="R109" s="63"/>
+      <c r="S109" s="62"/>
+    </row>
+    <row r="110" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A110" s="85"/>
+      <c r="B110" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="70"/>
+      <c r="D110" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -5286,25 +5320,23 @@
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
-      <c r="O110" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="60"/>
-      <c r="S110" s="59"/>
-    </row>
-    <row r="111" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A111" s="82"/>
-      <c r="B111" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="O110" s="15"/>
+      <c r="P110" s="62"/>
+      <c r="Q110" s="62"/>
+      <c r="R110" s="63"/>
+      <c r="S110" s="62"/>
+    </row>
+    <row r="111" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A111" s="85"/>
+      <c r="B111" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="68"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
+      <c r="F111" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -5314,42 +5346,42 @@
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="60"/>
-      <c r="S111" s="59"/>
-    </row>
-    <row r="112" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A112" s="82"/>
-      <c r="B112" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C112" s="65"/>
-      <c r="D112" s="5"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="63"/>
+      <c r="S111" s="62"/>
+    </row>
+    <row r="112" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A112" s="85"/>
+      <c r="B112" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="68"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="15"/>
-      <c r="F112" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
+      <c r="L112" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-      <c r="R112" s="60"/>
-      <c r="S112" s="59"/>
+      <c r="P112" s="62"/>
+      <c r="Q112" s="62"/>
+      <c r="R112" s="63"/>
+      <c r="S112" s="62"/>
     </row>
     <row r="113" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A113" s="82"/>
-      <c r="B113" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C113" s="65"/>
+      <c r="A113" s="85"/>
+      <c r="B113" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="68"/>
       <c r="D113" s="3"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
@@ -5357,24 +5389,24 @@
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="K113" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L113" s="15"/>
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-      <c r="R113" s="60"/>
-      <c r="S113" s="59"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="62"/>
+      <c r="R113" s="63"/>
+      <c r="S113" s="62"/>
     </row>
     <row r="114" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A114" s="82"/>
-      <c r="B114" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="65"/>
+      <c r="A114" s="85"/>
+      <c r="B114" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="68"/>
       <c r="D114" s="3"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
@@ -5382,24 +5414,24 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="K114" s="15"/>
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="60"/>
-      <c r="S114" s="59"/>
+      <c r="O114" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P114" s="62"/>
+      <c r="Q114" s="62"/>
+      <c r="R114" s="63"/>
+      <c r="S114" s="62"/>
     </row>
     <row r="115" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A115" s="82"/>
-      <c r="B115" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" s="65"/>
+      <c r="A115" s="85"/>
+      <c r="B115" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="68"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5412,20 +5444,22 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="60"/>
-      <c r="S115" s="59"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A116" s="82"/>
-      <c r="B116" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="65"/>
-      <c r="D116" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="63"/>
+      <c r="S115" s="62"/>
+    </row>
+    <row r="116" spans="1:19" ht="21" customHeight="1">
+      <c r="A116" s="85"/>
+      <c r="B116" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="70"/>
+      <c r="D116" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
@@ -5436,26 +5470,24 @@
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
-      <c r="O116" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-      <c r="R116" s="60"/>
-      <c r="S116" s="59"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="62"/>
+      <c r="Q116" s="62"/>
+      <c r="R116" s="63"/>
+      <c r="S116" s="62"/>
     </row>
     <row r="117" spans="1:19" ht="21" customHeight="1">
-      <c r="A117" s="82"/>
-      <c r="B117" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A117" s="85"/>
+      <c r="B117" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="68"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
+      <c r="G117" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -5464,21 +5496,19 @@
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-      <c r="R117" s="60"/>
-      <c r="S117" s="59"/>
-    </row>
-    <row r="118" spans="1:19" ht="21" customHeight="1">
-      <c r="A118" s="82"/>
-      <c r="B118" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C118" s="65"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="P117" s="62"/>
+      <c r="Q117" s="62"/>
+      <c r="R117" s="63"/>
+      <c r="S117" s="62"/>
+    </row>
+    <row r="118" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A118" s="85"/>
+      <c r="B118" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="68"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
@@ -5487,146 +5517,149 @@
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
+      <c r="N118" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="O118" s="15"/>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="60"/>
-      <c r="S118" s="59"/>
-    </row>
-    <row r="119" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A119" s="82"/>
-      <c r="B119" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="65"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O119" s="15"/>
-      <c r="P119" s="61"/>
-      <c r="Q119" s="61"/>
-      <c r="R119" s="62"/>
-      <c r="S119" s="61"/>
-    </row>
-    <row r="120" spans="1:19">
-      <c r="B120" s="81"/>
-      <c r="C120" s="81"/>
+      <c r="P118" s="64"/>
+      <c r="Q118" s="64"/>
+      <c r="R118" s="65"/>
+      <c r="S118" s="64"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="B119" s="84"/>
+      <c r="C119" s="84"/>
+    </row>
+    <row r="120" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A120" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="55"/>
+      <c r="M120" s="55"/>
+      <c r="N120" s="55"/>
+      <c r="O120" s="55"/>
+      <c r="P120" s="55"/>
+      <c r="Q120" s="55"/>
+      <c r="R120" s="55"/>
     </row>
     <row r="121" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A121" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="52"/>
-      <c r="L121" s="52"/>
-      <c r="M121" s="52"/>
-      <c r="N121" s="52"/>
-      <c r="O121" s="52"/>
-      <c r="P121" s="52"/>
-      <c r="Q121" s="52"/>
-      <c r="R121" s="52"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="55"/>
+      <c r="M121" s="55"/>
+      <c r="N121" s="55"/>
+      <c r="O121" s="55"/>
+      <c r="P121" s="55"/>
+      <c r="Q121" s="55"/>
+      <c r="R121" s="55"/>
     </row>
     <row r="122" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="52"/>
-      <c r="L122" s="52"/>
-      <c r="M122" s="52"/>
-      <c r="N122" s="52"/>
-      <c r="O122" s="52"/>
-      <c r="P122" s="52"/>
-      <c r="Q122" s="52"/>
-      <c r="R122" s="52"/>
+      <c r="A122" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" s="35">
+        <v>42803</v>
+      </c>
+      <c r="D122" s="35">
+        <v>42804</v>
+      </c>
+      <c r="E122" s="35">
+        <v>42805</v>
+      </c>
+      <c r="F122" s="35">
+        <v>42806</v>
+      </c>
+      <c r="G122" s="35">
+        <v>42807</v>
+      </c>
+      <c r="H122" s="35">
+        <v>42808</v>
+      </c>
+      <c r="I122" s="35">
+        <v>42809</v>
+      </c>
+      <c r="J122" s="35">
+        <v>42810</v>
+      </c>
+      <c r="K122" s="35">
+        <v>42811</v>
+      </c>
+      <c r="L122" s="35">
+        <v>42812</v>
+      </c>
+      <c r="M122" s="35">
+        <v>42813</v>
+      </c>
+      <c r="N122" s="35">
+        <v>42814</v>
+      </c>
+      <c r="O122" s="35">
+        <v>42815</v>
+      </c>
+      <c r="P122" s="35">
+        <v>42816</v>
+      </c>
+      <c r="Q122" s="35">
+        <v>42817</v>
+      </c>
+      <c r="R122" s="35">
+        <v>42818</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A123" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C123" s="35">
-        <v>42803</v>
-      </c>
-      <c r="D123" s="35">
-        <v>42804</v>
-      </c>
-      <c r="E123" s="35">
-        <v>42805</v>
-      </c>
-      <c r="F123" s="35">
-        <v>42806</v>
-      </c>
-      <c r="G123" s="35">
-        <v>42807</v>
-      </c>
-      <c r="H123" s="35">
-        <v>42808</v>
-      </c>
-      <c r="I123" s="35">
-        <v>42809</v>
-      </c>
-      <c r="J123" s="35">
-        <v>42810</v>
-      </c>
-      <c r="K123" s="35">
-        <v>42811</v>
-      </c>
-      <c r="L123" s="35">
-        <v>42812</v>
-      </c>
-      <c r="M123" s="35">
-        <v>42813</v>
-      </c>
-      <c r="N123" s="35">
-        <v>42814</v>
-      </c>
-      <c r="O123" s="35">
-        <v>42815</v>
-      </c>
-      <c r="P123" s="35">
-        <v>42816</v>
-      </c>
-      <c r="Q123" s="35">
-        <v>42817</v>
-      </c>
-      <c r="R123" s="35">
-        <v>42818</v>
-      </c>
+      <c r="A123" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="25"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="49"/>
+      <c r="Q123" s="50"/>
+      <c r="R123" s="46"/>
     </row>
     <row r="124" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A124" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="18"/>
+      <c r="A124" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
@@ -5638,25 +5671,29 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="47"/>
-      <c r="R124" s="43"/>
+      <c r="O124" s="47"/>
+      <c r="P124" s="51"/>
+      <c r="Q124" s="52"/>
+      <c r="R124" s="47"/>
     </row>
     <row r="125" spans="1:19" ht="13.5" customHeight="1">
       <c r="A125" s="23" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D125" s="18"/>
+      <c r="D125" s="21"/>
       <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
+      <c r="F125" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="H125" s="18"/>
       <c r="I125" s="18"/>
       <c r="J125" s="18"/>
@@ -5664,29 +5701,27 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
-      <c r="O125" s="44"/>
-      <c r="P125" s="48"/>
-      <c r="Q125" s="49"/>
-      <c r="R125" s="44"/>
-    </row>
-    <row r="126" spans="1:19" ht="13.5" customHeight="1">
+      <c r="O125" s="47"/>
+      <c r="P125" s="51"/>
+      <c r="Q125" s="52"/>
+      <c r="R125" s="47"/>
+    </row>
+    <row r="126" spans="1:19" ht="14.25">
       <c r="A126" s="23" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D126" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>129</v>
+      </c>
       <c r="E126" s="18"/>
-      <c r="F126" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
       <c r="J126" s="18"/>
@@ -5694,24 +5729,18 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="44"/>
-      <c r="P126" s="48"/>
-      <c r="Q126" s="49"/>
-      <c r="R126" s="44"/>
-    </row>
-    <row r="127" spans="1:19" ht="14.25">
-      <c r="A127" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D127" s="32" t="s">
-        <v>129</v>
-      </c>
+      <c r="O126" s="47"/>
+      <c r="P126" s="51"/>
+      <c r="Q126" s="52"/>
+      <c r="R126" s="47"/>
+    </row>
+    <row r="127" spans="1:19" ht="17.25">
+      <c r="A127" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="25"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
@@ -5722,18 +5751,22 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="44"/>
-      <c r="P127" s="48"/>
-      <c r="Q127" s="49"/>
-      <c r="R127" s="44"/>
-    </row>
-    <row r="128" spans="1:19" ht="17.25">
-      <c r="A128" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="25"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="52"/>
+      <c r="R127" s="47"/>
+    </row>
+    <row r="128" spans="1:19" ht="14.25">
+      <c r="A128" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="D128" s="22" t="s">
+        <v>157</v>
+      </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
@@ -5744,25 +5777,25 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="44"/>
-      <c r="P128" s="48"/>
-      <c r="Q128" s="49"/>
-      <c r="R128" s="44"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="52"/>
+      <c r="R128" s="47"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
-      <c r="A129" s="34" t="s">
-        <v>126</v>
+      <c r="A129" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C129" s="18"/>
-      <c r="D129" s="22" t="s">
-        <v>157</v>
-      </c>
+      <c r="D129" s="21"/>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
+      <c r="G129" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
@@ -5770,25 +5803,21 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="44"/>
-      <c r="P129" s="48"/>
-      <c r="Q129" s="49"/>
-      <c r="R129" s="44"/>
-    </row>
-    <row r="130" spans="1:18" ht="14.25">
-      <c r="A130" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O129" s="47"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="52"/>
+      <c r="R129" s="47"/>
+    </row>
+    <row r="130" spans="1:18" ht="17.25">
+      <c r="A130" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="25"/>
       <c r="C130" s="18"/>
-      <c r="D130" s="21"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="18"/>
       <c r="F130" s="18"/>
-      <c r="G130" s="22" t="s">
-        <v>155</v>
-      </c>
+      <c r="G130" s="18"/>
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
@@ -5796,20 +5825,22 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="44"/>
-      <c r="P130" s="48"/>
-      <c r="Q130" s="49"/>
-      <c r="R130" s="44"/>
-    </row>
-    <row r="131" spans="1:18" ht="17.25">
-      <c r="A131" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B131" s="25"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
+      <c r="O130" s="47"/>
+      <c r="P130" s="51"/>
+      <c r="Q130" s="52"/>
+      <c r="R130" s="47"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.25">
+      <c r="A131" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="33"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
@@ -5818,20 +5849,20 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="44"/>
-      <c r="P131" s="48"/>
-      <c r="Q131" s="49"/>
-      <c r="R131" s="44"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="52"/>
+      <c r="R131" s="47"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
-      <c r="A132" s="34" t="s">
-        <v>154</v>
+      <c r="A132" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="21"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="26"/>
       <c r="E132" s="26"/>
       <c r="F132" s="26"/>
       <c r="G132" s="18"/>
@@ -5842,21 +5873,25 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="48"/>
-      <c r="Q132" s="49"/>
-      <c r="R132" s="44"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="51"/>
+      <c r="Q132" s="52"/>
+      <c r="R132" s="47"/>
     </row>
     <row r="133" spans="1:18" ht="14.25">
-      <c r="A133" s="24" t="s">
-        <v>153</v>
+      <c r="A133" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C133" s="32"/>
+      <c r="C133" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
+      <c r="E133" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="F133" s="26"/>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
@@ -5866,20 +5901,20 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="44"/>
-      <c r="P133" s="48"/>
-      <c r="Q133" s="49"/>
-      <c r="R133" s="44"/>
+      <c r="O133" s="47"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="52"/>
+      <c r="R133" s="47"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="22" t="s">
@@ -5894,91 +5929,91 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="44"/>
-      <c r="P134" s="48"/>
-      <c r="Q134" s="49"/>
-      <c r="R134" s="44"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="51"/>
+      <c r="Q134" s="52"/>
+      <c r="R134" s="47"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="C135" s="18"/>
+      <c r="D135" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="26"/>
       <c r="F135" s="26"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="44"/>
-      <c r="P135" s="48"/>
-      <c r="Q135" s="49"/>
-      <c r="R135" s="44"/>
-    </row>
-    <row r="136" spans="1:18" ht="14.25">
-      <c r="A136" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="G135" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H135" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="N135" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="O135" s="47"/>
+      <c r="P135" s="51"/>
+      <c r="Q135" s="52"/>
+      <c r="R135" s="47"/>
+    </row>
+    <row r="136" spans="1:18" ht="17.25">
+      <c r="A136" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="25"/>
       <c r="C136" s="18"/>
-      <c r="D136" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H136" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I136" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J136" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K136" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="L136" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="M136" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="N136" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="O136" s="44"/>
-      <c r="P136" s="48"/>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="44"/>
-    </row>
-    <row r="137" spans="1:18" ht="17.25">
-      <c r="A137" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" s="25"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="51"/>
+      <c r="Q136" s="52"/>
+      <c r="R136" s="47"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.25">
+      <c r="A137" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
+      <c r="D137" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
+      <c r="G137" s="28" t="s">
+        <v>145</v>
+      </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
       <c r="J137" s="18"/>
@@ -5986,27 +6021,21 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="44"/>
-      <c r="P137" s="48"/>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="44"/>
-    </row>
-    <row r="138" spans="1:18" ht="14.25">
-      <c r="A138" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O137" s="47"/>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="52"/>
+      <c r="R137" s="47"/>
+    </row>
+    <row r="138" spans="1:18" ht="17.25">
+      <c r="A138" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="25"/>
       <c r="C138" s="18"/>
-      <c r="D138" s="31" t="s">
-        <v>142</v>
-      </c>
+      <c r="D138" s="18"/>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
-      <c r="G138" s="28" t="s">
-        <v>145</v>
-      </c>
+      <c r="G138" s="18"/>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
       <c r="J138" s="18"/>
@@ -6014,21 +6043,27 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="44"/>
-      <c r="P138" s="48"/>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="44"/>
-    </row>
-    <row r="139" spans="1:18" ht="17.25">
-      <c r="A139" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139" s="25"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="51"/>
+      <c r="Q138" s="52"/>
+      <c r="R138" s="47"/>
+    </row>
+    <row r="139" spans="1:18" ht="14.25">
+      <c r="A139" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
+      <c r="D139" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
+      <c r="G139" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
       <c r="J139" s="18"/>
@@ -6036,27 +6071,21 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="44"/>
-      <c r="P139" s="48"/>
-      <c r="Q139" s="49"/>
-      <c r="R139" s="44"/>
-    </row>
-    <row r="140" spans="1:18" ht="14.25">
-      <c r="A140" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O139" s="47"/>
+      <c r="P139" s="51"/>
+      <c r="Q139" s="52"/>
+      <c r="R139" s="47"/>
+    </row>
+    <row r="140" spans="1:18" ht="17.25">
+      <c r="A140" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="25"/>
       <c r="C140" s="18"/>
-      <c r="D140" s="29" t="s">
-        <v>142</v>
-      </c>
+      <c r="D140" s="18"/>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
-      <c r="G140" s="28" t="s">
-        <v>125</v>
-      </c>
+      <c r="G140" s="18"/>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
       <c r="J140" s="18"/>
@@ -6064,36 +6093,48 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="44"/>
-      <c r="P140" s="48"/>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="44"/>
-    </row>
-    <row r="141" spans="1:18" ht="17.25">
-      <c r="A141" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" s="25"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="51"/>
+      <c r="Q140" s="52"/>
+      <c r="R140" s="47"/>
+    </row>
+    <row r="141" spans="1:18" ht="14.25">
+      <c r="A141" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="44"/>
-      <c r="P141" s="48"/>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="44"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I141" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J141" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K141" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
+      <c r="N141" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O141" s="47"/>
+      <c r="P141" s="51"/>
+      <c r="Q141" s="52"/>
+      <c r="R141" s="47"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>117</v>
@@ -6104,94 +6145,84 @@
       <c r="F142" s="18"/>
       <c r="G142" s="27"/>
       <c r="H142" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I142" s="22" t="s">
         <v>138</v>
       </c>
       <c r="J142" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K142" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L142" s="26"/>
       <c r="M142" s="26"/>
       <c r="N142" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O142" s="44"/>
-      <c r="P142" s="48"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="44"/>
-    </row>
-    <row r="143" spans="1:18" ht="14.25">
-      <c r="A143" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O142" s="47"/>
+      <c r="P142" s="51"/>
+      <c r="Q142" s="52"/>
+      <c r="R142" s="47"/>
+    </row>
+    <row r="143" spans="1:18" ht="17.25">
+      <c r="A143" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143" s="25"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I143" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J143" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K143" s="22" t="s">
-        <v>137</v>
-      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
       <c r="L143" s="26"/>
       <c r="M143" s="26"/>
-      <c r="N143" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O143" s="44"/>
-      <c r="P143" s="48"/>
-      <c r="Q143" s="49"/>
-      <c r="R143" s="44"/>
-    </row>
-    <row r="144" spans="1:18" ht="17.25">
-      <c r="A144" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="25"/>
+      <c r="N143" s="26"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="51"/>
+      <c r="Q143" s="52"/>
+      <c r="R143" s="47"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.25">
+      <c r="A144" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
+      <c r="D144" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="E144" s="18"/>
       <c r="F144" s="18"/>
       <c r="G144" s="18"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="26"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="26"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="44"/>
-      <c r="P144" s="48"/>
-      <c r="Q144" s="49"/>
-      <c r="R144" s="44"/>
-    </row>
-    <row r="145" spans="1:18" ht="14.25">
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="51"/>
+      <c r="Q144" s="52"/>
+      <c r="R144" s="47"/>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C145" s="18"/>
-      <c r="D145" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="D145" s="20"/>
       <c r="E145" s="18"/>
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
@@ -6202,23 +6233,21 @@
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
-      <c r="O145" s="44"/>
-      <c r="P145" s="48"/>
-      <c r="Q145" s="49"/>
-      <c r="R145" s="44"/>
-    </row>
-    <row r="146" spans="1:18">
-      <c r="A146" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="O145" s="47"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="52"/>
+      <c r="R145" s="47"/>
+    </row>
+    <row r="146" spans="1:18" ht="17.25">
+      <c r="A146" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B146" s="25"/>
       <c r="C146" s="18"/>
-      <c r="D146" s="20"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
+      <c r="G146" s="21"/>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
       <c r="J146" s="18"/>
@@ -6226,18 +6255,22 @@
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
-      <c r="O146" s="44"/>
-      <c r="P146" s="48"/>
-      <c r="Q146" s="49"/>
-      <c r="R146" s="44"/>
-    </row>
-    <row r="147" spans="1:18" ht="17.25">
-      <c r="A147" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" s="25"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="51"/>
+      <c r="Q146" s="52"/>
+      <c r="R146" s="47"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.25">
+      <c r="A147" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
+      <c r="D147" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
       <c r="G147" s="21"/>
@@ -6248,21 +6281,21 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="44"/>
-      <c r="P147" s="48"/>
-      <c r="Q147" s="49"/>
-      <c r="R147" s="44"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="51"/>
+      <c r="Q147" s="52"/>
+      <c r="R147" s="47"/>
     </row>
     <row r="148" spans="1:18" ht="14.25">
       <c r="A148" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B148" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="22" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
@@ -6274,25 +6307,21 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="44"/>
-      <c r="P148" s="48"/>
-      <c r="Q148" s="49"/>
-      <c r="R148" s="44"/>
-    </row>
-    <row r="149" spans="1:18" ht="14.25">
-      <c r="A149" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O148" s="47"/>
+      <c r="P148" s="51"/>
+      <c r="Q148" s="52"/>
+      <c r="R148" s="47"/>
+    </row>
+    <row r="149" spans="1:18" ht="17.25">
+      <c r="A149" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="25"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="D149" s="18"/>
       <c r="E149" s="18"/>
       <c r="F149" s="18"/>
-      <c r="G149" s="21"/>
+      <c r="G149" s="18"/>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="18"/>
@@ -6300,21 +6329,25 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="44"/>
-      <c r="P149" s="48"/>
-      <c r="Q149" s="49"/>
-      <c r="R149" s="44"/>
-    </row>
-    <row r="150" spans="1:18" ht="17.25">
-      <c r="A150" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B150" s="25"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="51"/>
+      <c r="Q149" s="52"/>
+      <c r="R149" s="47"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.25">
+      <c r="A150" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="D150" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="G150" s="21"/>
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
       <c r="J150" s="18"/>
@@ -6322,25 +6355,21 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="44"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="44"/>
-    </row>
-    <row r="151" spans="1:18" ht="14.25">
-      <c r="A151" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O150" s="47"/>
+      <c r="P150" s="51"/>
+      <c r="Q150" s="52"/>
+      <c r="R150" s="47"/>
+    </row>
+    <row r="151" spans="1:18" ht="17.25">
+      <c r="A151" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="25"/>
       <c r="C151" s="18"/>
-      <c r="D151" s="22" t="s">
-        <v>125</v>
-      </c>
+      <c r="D151" s="18"/>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="21"/>
+      <c r="G151" s="18"/>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="18"/>
@@ -6348,103 +6377,105 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="44"/>
-      <c r="P151" s="48"/>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="44"/>
-    </row>
-    <row r="152" spans="1:18" ht="17.25">
-      <c r="A152" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B152" s="25"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="51"/>
+      <c r="Q151" s="52"/>
+      <c r="R151" s="47"/>
+    </row>
+    <row r="152" spans="1:18" ht="14.25">
+      <c r="A152" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="G152" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="I152" s="18"/>
       <c r="J152" s="18"/>
       <c r="K152" s="18"/>
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="44"/>
-      <c r="P152" s="48"/>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="44"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="52"/>
+      <c r="R152" s="47"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
       <c r="G153" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H153" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="52"/>
+      <c r="R153" s="47"/>
+    </row>
+    <row r="154" spans="1:18" ht="14.25">
+      <c r="A154" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H153" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="44"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="49"/>
-      <c r="R153" s="44"/>
-    </row>
-    <row r="154" spans="1:18" ht="14.25">
-      <c r="A154" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B154" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
-      <c r="G154" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H154" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I154" s="21"/>
-      <c r="J154" s="21"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="44"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="49"/>
-      <c r="R154" s="44"/>
-    </row>
-    <row r="155" spans="1:18" ht="14.25">
-      <c r="A155" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B155" s="23" t="s">
+      <c r="G154" s="21"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+      <c r="O154" s="47"/>
+      <c r="P154" s="51"/>
+      <c r="Q154" s="52"/>
+      <c r="R154" s="47"/>
+    </row>
+    <row r="155" spans="1:18">
+      <c r="A155" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B155" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="D155" s="22" t="s">
-        <v>119</v>
-      </c>
+      <c r="D155" s="20"/>
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
-      <c r="G155" s="21"/>
+      <c r="G155" s="18"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="18"/>
@@ -6452,20 +6483,22 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="44"/>
-      <c r="P155" s="48"/>
-      <c r="Q155" s="49"/>
-      <c r="R155" s="44"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="O155" s="47"/>
+      <c r="P155" s="51"/>
+      <c r="Q155" s="52"/>
+      <c r="R155" s="47"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.25">
       <c r="A156" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="20"/>
+      <c r="D156" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
       <c r="G156" s="18"/>
@@ -6476,39 +6509,13 @@
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="49"/>
-      <c r="R156" s="44"/>
-    </row>
-    <row r="157" spans="1:18" ht="14.25">
-      <c r="A157" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="45"/>
-      <c r="P157" s="50"/>
-      <c r="Q157" s="51"/>
-      <c r="R157" s="45"/>
+      <c r="O156" s="48"/>
+      <c r="P156" s="53"/>
+      <c r="Q156" s="54"/>
+      <c r="R156" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="147">
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
@@ -6525,7 +6532,7 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="A71:A83"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B94:C94"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B77:C77"/>
@@ -6560,21 +6567,20 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B98:C98"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B48:C48"/>
@@ -6582,30 +6588,30 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B118:C118"/>
     <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A100:A119"/>
+    <mergeCell ref="A99:A118"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="A84:A98"/>
+    <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="A57:A70"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
@@ -6633,23 +6639,23 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O124:O157"/>
-    <mergeCell ref="P124:Q157"/>
-    <mergeCell ref="R124:R157"/>
-    <mergeCell ref="A121:R122"/>
+    <mergeCell ref="O123:O156"/>
+    <mergeCell ref="P123:Q156"/>
+    <mergeCell ref="R123:R156"/>
+    <mergeCell ref="A120:R121"/>
     <mergeCell ref="U1:AC2"/>
     <mergeCell ref="U3:AC3"/>
     <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="Q4:R119"/>
-    <mergeCell ref="S4:S119"/>
-    <mergeCell ref="P4:P119"/>
+    <mergeCell ref="Q4:R118"/>
+    <mergeCell ref="S4:S118"/>
+    <mergeCell ref="P4:P118"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B71:C71"/>
@@ -6679,75 +6685,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="53" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="U1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6796,26 +6802,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6830,34 +6836,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="57" t="s">
+      <c r="R4" s="61"/>
+      <c r="S4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6870,26 +6876,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="59"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21">
-      <c r="A6" s="82"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -6904,17 +6910,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="62"/>
     </row>
     <row r="7" spans="1:29" ht="17.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -6927,17 +6933,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="62"/>
     </row>
     <row r="8" spans="1:29" ht="17.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -6950,18 +6956,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="59"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="62"/>
     </row>
     <row r="9" spans="1:29" ht="21">
-      <c r="A9" s="86"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="68" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -6975,18 +6981,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="62"/>
     </row>
     <row r="10" spans="1:29" ht="21">
-      <c r="A10" s="86"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6998,17 +7004,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="62"/>
     </row>
     <row r="11" spans="1:29" ht="17.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -7021,17 +7027,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="59"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" spans="1:29" ht="17.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -7044,65 +7050,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="59"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="62"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="82"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="93" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="82"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="59"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="62"/>
     </row>
     <row r="15" spans="1:29" ht="17.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -7115,17 +7121,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="59"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="62"/>
     </row>
     <row r="16" spans="1:29" ht="17.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -7138,17 +7144,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="59"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="62"/>
     </row>
     <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -7161,17 +7167,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="59"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="62"/>
     </row>
     <row r="18" spans="1:19" ht="21">
-      <c r="A18" s="82"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -7186,17 +7192,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="59"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="62"/>
     </row>
     <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -7209,17 +7215,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="59"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:19" ht="17.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -7232,17 +7238,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="59"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="62"/>
     </row>
     <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -7255,17 +7261,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="59"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="62"/>
     </row>
     <row r="22" spans="1:19" ht="17.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -7278,17 +7284,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="59"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="62"/>
     </row>
     <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -7301,17 +7307,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="59"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="62"/>
     </row>
     <row r="24" spans="1:19" ht="21">
-      <c r="A24" s="82"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7326,17 +7332,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="59"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="62"/>
     </row>
     <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7349,17 +7355,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="62"/>
     </row>
     <row r="26" spans="1:19" ht="17.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7372,17 +7378,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="59"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="62"/>
     </row>
     <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7395,17 +7401,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="59"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="62"/>
     </row>
     <row r="28" spans="1:19" ht="21">
-      <c r="A28" s="82"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7420,17 +7426,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="59"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="62"/>
     </row>
     <row r="29" spans="1:19" ht="17.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7443,17 +7449,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="59"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="62"/>
     </row>
     <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7466,17 +7472,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="59"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="62"/>
     </row>
     <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7489,17 +7495,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="59"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="62"/>
     </row>
     <row r="32" spans="1:19" ht="17.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7512,17 +7518,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="59"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="62"/>
     </row>
     <row r="33" spans="1:19" ht="21">
-      <c r="A33" s="82"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7537,17 +7543,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="59"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="62"/>
     </row>
     <row r="34" spans="1:19" ht="17.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7560,17 +7566,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="59"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="62"/>
     </row>
     <row r="35" spans="1:19" ht="17.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="85"/>
+      <c r="B35" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7583,17 +7589,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="59"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="62"/>
     </row>
     <row r="36" spans="1:19" ht="17.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7606,17 +7612,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="59"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="62"/>
     </row>
     <row r="37" spans="1:19" ht="21">
-      <c r="A37" s="82"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7631,15 +7637,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="59"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:19" ht="21">
-      <c r="A38" s="82"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7652,15 +7658,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="59"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="62"/>
     </row>
     <row r="39" spans="1:19" ht="21">
-      <c r="A39" s="82"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="80"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7673,17 +7679,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="59"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="62"/>
     </row>
     <row r="40" spans="1:19" ht="21">
-      <c r="A40" s="87"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="90"/>
+      <c r="B40" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7698,19 +7704,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="59"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="62"/>
     </row>
     <row r="41" spans="1:19" ht="21">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7725,17 +7731,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="59"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="62"/>
     </row>
     <row r="42" spans="1:19" ht="17.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="91"/>
+      <c r="B42" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7748,17 +7754,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="59"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="62"/>
     </row>
     <row r="43" spans="1:19" ht="17.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="91"/>
+      <c r="B43" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7771,17 +7777,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="59"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="62"/>
     </row>
     <row r="44" spans="1:19" ht="21">
-      <c r="A44" s="88"/>
-      <c r="B44" s="80" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="66"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7796,17 +7802,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="59"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="62"/>
     </row>
     <row r="45" spans="1:19" ht="17.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="64"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7819,17 +7825,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="59"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="62"/>
     </row>
     <row r="46" spans="1:19" ht="17.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="79" t="s">
+      <c r="A46" s="91"/>
+      <c r="B46" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7842,17 +7848,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="59"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="62"/>
     </row>
     <row r="47" spans="1:19" ht="21">
-      <c r="A47" s="88"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="91"/>
+      <c r="B47" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7867,17 +7873,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="59"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="62"/>
     </row>
     <row r="48" spans="1:19" ht="21">
-      <c r="A48" s="88"/>
-      <c r="B48" s="83" t="s">
+      <c r="A48" s="91"/>
+      <c r="B48" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="67"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -7892,19 +7898,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="59"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="62"/>
     </row>
     <row r="49" spans="1:19" ht="21">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -7919,17 +7925,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="59"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="62"/>
     </row>
     <row r="50" spans="1:19" ht="17.25">
-      <c r="A50" s="88"/>
-      <c r="B50" s="68" t="s">
+      <c r="A50" s="91"/>
+      <c r="B50" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -7942,17 +7948,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="59"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="62"/>
     </row>
     <row r="51" spans="1:19" ht="17.25">
-      <c r="A51" s="88"/>
-      <c r="B51" s="79" t="s">
+      <c r="A51" s="91"/>
+      <c r="B51" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7965,17 +7971,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="59"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="62"/>
     </row>
     <row r="52" spans="1:19" ht="17.25">
-      <c r="A52" s="88"/>
-      <c r="B52" s="79" t="s">
+      <c r="A52" s="91"/>
+      <c r="B52" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -7988,17 +7994,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="59"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="62"/>
     </row>
     <row r="53" spans="1:19" ht="17.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="65"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -8011,17 +8017,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="62"/>
     </row>
     <row r="54" spans="1:19" ht="17.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="91"/>
+      <c r="B54" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -8034,17 +8040,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="59"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="62"/>
     </row>
     <row r="55" spans="1:19" ht="17.25">
-      <c r="A55" s="88"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="91"/>
+      <c r="B55" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="65"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8057,17 +8063,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="62"/>
     </row>
     <row r="56" spans="1:19" ht="17.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="79" t="s">
+      <c r="A56" s="91"/>
+      <c r="B56" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="65"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -8080,17 +8086,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="62"/>
     </row>
     <row r="57" spans="1:19" ht="17.25">
-      <c r="A57" s="88"/>
-      <c r="B57" s="79" t="s">
+      <c r="A57" s="91"/>
+      <c r="B57" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="65"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8103,17 +8109,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="59"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="62"/>
     </row>
     <row r="58" spans="1:19" ht="21">
-      <c r="A58" s="89"/>
-      <c r="B58" s="80" t="s">
+      <c r="A58" s="92"/>
+      <c r="B58" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -8128,19 +8134,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="59"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="62"/>
     </row>
     <row r="59" spans="1:19" ht="21">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="67"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -8155,17 +8161,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="59"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="62"/>
     </row>
     <row r="60" spans="1:19" ht="21">
-      <c r="A60" s="78"/>
-      <c r="B60" s="66" t="s">
+      <c r="A60" s="81"/>
+      <c r="B60" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="67"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -8180,17 +8186,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="59"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="62"/>
     </row>
     <row r="61" spans="1:19" ht="17.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="64" t="s">
+      <c r="A61" s="81"/>
+      <c r="B61" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="65"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -8203,17 +8209,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="59"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="62"/>
     </row>
     <row r="62" spans="1:19" ht="17.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="64" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="65"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -8226,17 +8232,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="59"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="62"/>
     </row>
     <row r="63" spans="1:19" ht="21">
-      <c r="A63" s="78"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="81"/>
+      <c r="B63" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -8251,17 +8257,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="59"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="62"/>
     </row>
     <row r="64" spans="1:19" ht="21">
-      <c r="A64" s="78"/>
-      <c r="B64" s="66" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -8276,17 +8282,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="59"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="62"/>
     </row>
     <row r="65" spans="1:19" ht="17.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="64" t="s">
+      <c r="A65" s="81"/>
+      <c r="B65" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -8299,17 +8305,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="59"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="62"/>
     </row>
     <row r="66" spans="1:19" ht="17.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="81"/>
+      <c r="B66" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -8322,17 +8328,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="59"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="62"/>
     </row>
     <row r="67" spans="1:19" ht="17.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="65" t="s">
+      <c r="A67" s="81"/>
+      <c r="B67" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="65"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8345,17 +8351,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="59"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="62"/>
     </row>
     <row r="68" spans="1:19" ht="17.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="81"/>
+      <c r="B68" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="65"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8368,17 +8374,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="59"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="62"/>
     </row>
     <row r="69" spans="1:19" ht="17.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="81"/>
+      <c r="B69" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="65"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8391,17 +8397,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="59"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="62"/>
     </row>
     <row r="70" spans="1:19" ht="17.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="65" t="s">
+      <c r="A70" s="81"/>
+      <c r="B70" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="65"/>
+      <c r="C70" s="68"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8414,17 +8420,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="59"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="62"/>
     </row>
     <row r="71" spans="1:19" ht="21">
-      <c r="A71" s="78"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="81"/>
+      <c r="B71" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="67"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8439,17 +8445,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="59"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="62"/>
     </row>
     <row r="72" spans="1:19" ht="21">
-      <c r="A72" s="78"/>
-      <c r="B72" s="66" t="s">
+      <c r="A72" s="81"/>
+      <c r="B72" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="67"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8464,19 +8470,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="59"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="62"/>
     </row>
     <row r="73" spans="1:19" ht="21">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="67"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8491,17 +8497,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="59"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="62"/>
     </row>
     <row r="74" spans="1:19" ht="17.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="64" t="s">
+      <c r="A74" s="85"/>
+      <c r="B74" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="65"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8514,17 +8520,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="59"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="62"/>
     </row>
     <row r="75" spans="1:19" ht="17.25">
-      <c r="A75" s="82"/>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="85"/>
+      <c r="B75" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="65"/>
+      <c r="C75" s="68"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8541,17 +8547,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="59"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="62"/>
     </row>
     <row r="76" spans="1:19" ht="17.25">
-      <c r="A76" s="82"/>
-      <c r="B76" s="65" t="s">
+      <c r="A76" s="85"/>
+      <c r="B76" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="65"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8567,17 +8573,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="59"/>
+      <c r="P76" s="62"/>
+      <c r="Q76" s="62"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="62"/>
     </row>
     <row r="77" spans="1:19" ht="17.25">
-      <c r="A77" s="82"/>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="85"/>
+      <c r="B77" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="65"/>
+      <c r="C77" s="68"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8594,17 +8600,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="59"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="62"/>
     </row>
     <row r="78" spans="1:19" ht="21">
-      <c r="A78" s="82"/>
-      <c r="B78" s="66" t="s">
+      <c r="A78" s="85"/>
+      <c r="B78" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="67"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8619,17 +8625,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="59"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="62"/>
     </row>
     <row r="79" spans="1:19" ht="17.25">
-      <c r="A79" s="82"/>
-      <c r="B79" s="64" t="s">
+      <c r="A79" s="85"/>
+      <c r="B79" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="65"/>
+      <c r="C79" s="68"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8642,17 +8648,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="59"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="62"/>
     </row>
     <row r="80" spans="1:19" ht="17.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="65" t="s">
+      <c r="A80" s="85"/>
+      <c r="B80" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="65"/>
+      <c r="C80" s="68"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8665,17 +8671,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="60"/>
-      <c r="S80" s="59"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="62"/>
     </row>
     <row r="81" spans="1:19" ht="17.25">
-      <c r="A81" s="82"/>
-      <c r="B81" s="65" t="s">
+      <c r="A81" s="85"/>
+      <c r="B81" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="65"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8688,17 +8694,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="59"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="62"/>
     </row>
     <row r="82" spans="1:19" ht="21">
-      <c r="A82" s="82"/>
-      <c r="B82" s="66" t="s">
+      <c r="A82" s="85"/>
+      <c r="B82" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="67"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8713,17 +8719,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="59"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="62"/>
     </row>
     <row r="83" spans="1:19" ht="17.25">
-      <c r="A83" s="82"/>
-      <c r="B83" s="64" t="s">
+      <c r="A83" s="85"/>
+      <c r="B83" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="68"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8736,17 +8742,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="59"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="62"/>
     </row>
     <row r="84" spans="1:19" ht="17.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="65" t="s">
+      <c r="A84" s="85"/>
+      <c r="B84" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="65"/>
+      <c r="C84" s="68"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8759,17 +8765,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="60"/>
-      <c r="S84" s="59"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="62"/>
     </row>
     <row r="85" spans="1:19" ht="17.25">
-      <c r="A85" s="82"/>
-      <c r="B85" s="65" t="s">
+      <c r="A85" s="85"/>
+      <c r="B85" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8782,19 +8788,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="59"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="62"/>
     </row>
     <row r="86" spans="1:19" ht="21">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="67"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8809,17 +8815,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="59"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="63"/>
+      <c r="S86" s="62"/>
     </row>
     <row r="87" spans="1:19" ht="17.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="64" t="s">
+      <c r="A87" s="85"/>
+      <c r="B87" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="68"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>111</v>
@@ -8834,17 +8840,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="59"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="62"/>
     </row>
     <row r="88" spans="1:19" ht="17.25">
-      <c r="A88" s="82"/>
-      <c r="B88" s="64" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="68"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8859,17 +8865,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="59"/>
+      <c r="P88" s="62"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="63"/>
+      <c r="S88" s="62"/>
     </row>
     <row r="89" spans="1:19" ht="17.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="65" t="s">
+      <c r="A89" s="85"/>
+      <c r="B89" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -8884,17 +8890,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="59"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="62"/>
     </row>
     <row r="90" spans="1:19" ht="17.25">
-      <c r="A90" s="82"/>
-      <c r="B90" s="65" t="s">
+      <c r="A90" s="85"/>
+      <c r="B90" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="68"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -8911,17 +8917,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="59"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="63"/>
+      <c r="S90" s="62"/>
     </row>
     <row r="91" spans="1:19" ht="17.25">
-      <c r="A91" s="82"/>
-      <c r="B91" s="65" t="s">
+      <c r="A91" s="85"/>
+      <c r="B91" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="68"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -8938,17 +8944,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="59"/>
+      <c r="P91" s="62"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="62"/>
     </row>
     <row r="92" spans="1:19" ht="17.25">
-      <c r="A92" s="82"/>
-      <c r="B92" s="65" t="s">
+      <c r="A92" s="85"/>
+      <c r="B92" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="68"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -8965,17 +8971,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="59"/>
+      <c r="P92" s="62"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="63"/>
+      <c r="S92" s="62"/>
     </row>
     <row r="93" spans="1:19" ht="17.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="65" t="s">
+      <c r="A93" s="85"/>
+      <c r="B93" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="65"/>
+      <c r="C93" s="68"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -8992,17 +8998,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="60"/>
-      <c r="S93" s="59"/>
+      <c r="P93" s="62"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="62"/>
     </row>
     <row r="94" spans="1:19" ht="17.25">
-      <c r="A94" s="82"/>
-      <c r="B94" s="65" t="s">
+      <c r="A94" s="85"/>
+      <c r="B94" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="68"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -9017,17 +9023,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="60"/>
-      <c r="S94" s="59"/>
+      <c r="P94" s="62"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="63"/>
+      <c r="S94" s="62"/>
     </row>
     <row r="95" spans="1:19" ht="21">
-      <c r="A95" s="82"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="85"/>
+      <c r="B95" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="67"/>
+      <c r="C95" s="70"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -9042,17 +9048,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="60"/>
-      <c r="S95" s="59"/>
+      <c r="P95" s="62"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="63"/>
+      <c r="S95" s="62"/>
     </row>
     <row r="96" spans="1:19" ht="17.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="64" t="s">
+      <c r="A96" s="85"/>
+      <c r="B96" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="65"/>
+      <c r="C96" s="68"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>111</v>
@@ -9067,17 +9073,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="60"/>
-      <c r="S96" s="59"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="63"/>
+      <c r="S96" s="62"/>
     </row>
     <row r="97" spans="1:19" ht="17.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="64" t="s">
+      <c r="A97" s="85"/>
+      <c r="B97" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="65"/>
+      <c r="C97" s="68"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9092,17 +9098,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="60"/>
-      <c r="S97" s="59"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="63"/>
+      <c r="S97" s="62"/>
     </row>
     <row r="98" spans="1:19" ht="17.25">
-      <c r="A98" s="82"/>
-      <c r="B98" s="65" t="s">
+      <c r="A98" s="85"/>
+      <c r="B98" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="65"/>
+      <c r="C98" s="68"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9117,17 +9123,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="60"/>
-      <c r="S98" s="59"/>
+      <c r="P98" s="62"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="63"/>
+      <c r="S98" s="62"/>
     </row>
     <row r="99" spans="1:19" ht="17.25">
-      <c r="A99" s="82"/>
-      <c r="B99" s="65" t="s">
+      <c r="A99" s="85"/>
+      <c r="B99" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="68"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9146,17 +9152,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="60"/>
-      <c r="S99" s="59"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="63"/>
+      <c r="S99" s="62"/>
     </row>
     <row r="100" spans="1:19" ht="17.25">
-      <c r="A100" s="82"/>
-      <c r="B100" s="65" t="s">
+      <c r="A100" s="85"/>
+      <c r="B100" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="65"/>
+      <c r="C100" s="68"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9171,17 +9177,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="60"/>
-      <c r="S100" s="59"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="63"/>
+      <c r="S100" s="62"/>
     </row>
     <row r="101" spans="1:19" ht="17.25">
-      <c r="A101" s="82"/>
-      <c r="B101" s="65" t="s">
+      <c r="A101" s="85"/>
+      <c r="B101" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="65"/>
+      <c r="C101" s="68"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9196,19 +9202,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="60"/>
-      <c r="S101" s="59"/>
+      <c r="P101" s="62"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="63"/>
+      <c r="S101" s="62"/>
     </row>
     <row r="102" spans="1:19" ht="21">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="67"/>
+      <c r="C102" s="70"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -9223,17 +9229,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="60"/>
-      <c r="S102" s="59"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="63"/>
+      <c r="S102" s="62"/>
     </row>
     <row r="103" spans="1:19" ht="17.25">
-      <c r="A103" s="82"/>
-      <c r="B103" s="64" t="s">
+      <c r="A103" s="85"/>
+      <c r="B103" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="65"/>
+      <c r="C103" s="68"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -9248,17 +9254,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="59"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="63"/>
+      <c r="S103" s="62"/>
     </row>
     <row r="104" spans="1:19" ht="17.25">
-      <c r="A104" s="82"/>
-      <c r="B104" s="64" t="s">
+      <c r="A104" s="85"/>
+      <c r="B104" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="65"/>
+      <c r="C104" s="68"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9271,17 +9277,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="60"/>
-      <c r="S104" s="59"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="63"/>
+      <c r="S104" s="62"/>
     </row>
     <row r="105" spans="1:19" ht="21">
-      <c r="A105" s="82"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="85"/>
+      <c r="B105" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="67"/>
+      <c r="C105" s="70"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -9296,17 +9302,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="59"/>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="63"/>
+      <c r="S105" s="62"/>
     </row>
     <row r="106" spans="1:19" ht="17.25">
-      <c r="A106" s="82"/>
-      <c r="B106" s="64" t="s">
+      <c r="A106" s="85"/>
+      <c r="B106" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="64"/>
+      <c r="C106" s="67"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -9321,17 +9327,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="60"/>
-      <c r="S106" s="59"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="63"/>
+      <c r="S106" s="62"/>
     </row>
     <row r="107" spans="1:19" ht="17.25">
-      <c r="A107" s="82"/>
-      <c r="B107" s="64" t="s">
+      <c r="A107" s="85"/>
+      <c r="B107" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="65"/>
+      <c r="C107" s="68"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9346,17 +9352,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="60"/>
-      <c r="S107" s="59"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="62"/>
     </row>
     <row r="108" spans="1:19" ht="17.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="65" t="s">
+      <c r="A108" s="85"/>
+      <c r="B108" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="65"/>
+      <c r="C108" s="68"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9371,17 +9377,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="60"/>
-      <c r="S108" s="59"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="63"/>
+      <c r="S108" s="62"/>
     </row>
     <row r="109" spans="1:19" ht="17.25">
-      <c r="A109" s="82"/>
-      <c r="B109" s="65" t="s">
+      <c r="A109" s="85"/>
+      <c r="B109" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="65"/>
+      <c r="C109" s="68"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9396,17 +9402,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="60"/>
-      <c r="S109" s="59"/>
+      <c r="P109" s="62"/>
+      <c r="Q109" s="62"/>
+      <c r="R109" s="63"/>
+      <c r="S109" s="62"/>
     </row>
     <row r="110" spans="1:19" ht="17.25">
-      <c r="A110" s="82"/>
-      <c r="B110" s="65" t="s">
+      <c r="A110" s="85"/>
+      <c r="B110" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="65"/>
+      <c r="C110" s="68"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9421,17 +9427,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="60"/>
-      <c r="S110" s="59"/>
+      <c r="P110" s="62"/>
+      <c r="Q110" s="62"/>
+      <c r="R110" s="63"/>
+      <c r="S110" s="62"/>
     </row>
     <row r="111" spans="1:19" ht="17.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="65" t="s">
+      <c r="A111" s="85"/>
+      <c r="B111" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="65"/>
+      <c r="C111" s="68"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9446,17 +9452,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="60"/>
-      <c r="S111" s="59"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="63"/>
+      <c r="S111" s="62"/>
     </row>
     <row r="112" spans="1:19" ht="17.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="65" t="s">
+      <c r="A112" s="85"/>
+      <c r="B112" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="65"/>
+      <c r="C112" s="68"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9471,17 +9477,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-      <c r="R112" s="60"/>
-      <c r="S112" s="59"/>
+      <c r="P112" s="62"/>
+      <c r="Q112" s="62"/>
+      <c r="R112" s="63"/>
+      <c r="S112" s="62"/>
     </row>
     <row r="113" spans="1:19" ht="21">
-      <c r="A113" s="82"/>
-      <c r="B113" s="66" t="s">
+      <c r="A113" s="85"/>
+      <c r="B113" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="67"/>
+      <c r="C113" s="70"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9496,17 +9502,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-      <c r="R113" s="60"/>
-      <c r="S113" s="59"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="62"/>
+      <c r="R113" s="63"/>
+      <c r="S113" s="62"/>
     </row>
     <row r="114" spans="1:19" ht="17.25">
-      <c r="A114" s="82"/>
-      <c r="B114" s="64" t="s">
+      <c r="A114" s="85"/>
+      <c r="B114" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="65"/>
+      <c r="C114" s="68"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9521,17 +9527,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="60"/>
-      <c r="S114" s="59"/>
+      <c r="P114" s="62"/>
+      <c r="Q114" s="62"/>
+      <c r="R114" s="63"/>
+      <c r="S114" s="62"/>
     </row>
     <row r="115" spans="1:19" ht="17.25">
-      <c r="A115" s="82"/>
-      <c r="B115" s="64" t="s">
+      <c r="A115" s="85"/>
+      <c r="B115" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="65"/>
+      <c r="C115" s="68"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9546,17 +9552,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="60"/>
-      <c r="S115" s="59"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="63"/>
+      <c r="S115" s="62"/>
     </row>
     <row r="116" spans="1:19" ht="17.25">
-      <c r="A116" s="82"/>
-      <c r="B116" s="65" t="s">
+      <c r="A116" s="85"/>
+      <c r="B116" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="65"/>
+      <c r="C116" s="68"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9571,17 +9577,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-      <c r="R116" s="60"/>
-      <c r="S116" s="59"/>
+      <c r="P116" s="62"/>
+      <c r="Q116" s="62"/>
+      <c r="R116" s="63"/>
+      <c r="S116" s="62"/>
     </row>
     <row r="117" spans="1:19" ht="17.25">
-      <c r="A117" s="82"/>
-      <c r="B117" s="65" t="s">
+      <c r="A117" s="85"/>
+      <c r="B117" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="65"/>
+      <c r="C117" s="68"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9596,17 +9602,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-      <c r="R117" s="60"/>
-      <c r="S117" s="59"/>
+      <c r="P117" s="62"/>
+      <c r="Q117" s="62"/>
+      <c r="R117" s="63"/>
+      <c r="S117" s="62"/>
     </row>
     <row r="118" spans="1:19" ht="17.25">
-      <c r="A118" s="82"/>
-      <c r="B118" s="65" t="s">
+      <c r="A118" s="85"/>
+      <c r="B118" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="65"/>
+      <c r="C118" s="68"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9621,17 +9627,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="60"/>
-      <c r="S118" s="59"/>
+      <c r="P118" s="62"/>
+      <c r="Q118" s="62"/>
+      <c r="R118" s="63"/>
+      <c r="S118" s="62"/>
     </row>
     <row r="119" spans="1:19" ht="21">
-      <c r="A119" s="82"/>
-      <c r="B119" s="66" t="s">
+      <c r="A119" s="85"/>
+      <c r="B119" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="67"/>
+      <c r="C119" s="70"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9646,17 +9652,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="59"/>
-      <c r="Q119" s="59"/>
-      <c r="R119" s="60"/>
-      <c r="S119" s="59"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="63"/>
+      <c r="S119" s="62"/>
     </row>
     <row r="120" spans="1:19" ht="17.25">
-      <c r="A120" s="82"/>
-      <c r="B120" s="64" t="s">
+      <c r="A120" s="85"/>
+      <c r="B120" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="65"/>
+      <c r="C120" s="68"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9671,17 +9677,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="59"/>
-      <c r="R120" s="60"/>
-      <c r="S120" s="59"/>
+      <c r="P120" s="62"/>
+      <c r="Q120" s="62"/>
+      <c r="R120" s="63"/>
+      <c r="S120" s="62"/>
     </row>
     <row r="121" spans="1:19" ht="17.25">
-      <c r="A121" s="82"/>
-      <c r="B121" s="64" t="s">
+      <c r="A121" s="85"/>
+      <c r="B121" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="65"/>
+      <c r="C121" s="68"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9696,56 +9702,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="61"/>
-      <c r="Q121" s="61"/>
-      <c r="R121" s="62"/>
-      <c r="S121" s="61"/>
+      <c r="P121" s="64"/>
+      <c r="Q121" s="64"/>
+      <c r="R121" s="65"/>
+      <c r="S121" s="64"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="81"/>
-      <c r="C122" s="81"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="84"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="52"/>
-      <c r="M123" s="52"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="52"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="52"/>
-      <c r="R123" s="52"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
+      <c r="L123" s="55"/>
+      <c r="M123" s="55"/>
+      <c r="N123" s="55"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="55"/>
+      <c r="Q123" s="55"/>
+      <c r="R123" s="55"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="52"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
-      <c r="K124" s="52"/>
-      <c r="L124" s="52"/>
-      <c r="M124" s="52"/>
-      <c r="N124" s="52"/>
-      <c r="O124" s="52"/>
-      <c r="P124" s="52"/>
-      <c r="Q124" s="52"/>
-      <c r="R124" s="52"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
+      <c r="L124" s="55"/>
+      <c r="M124" s="55"/>
+      <c r="N124" s="55"/>
+      <c r="O124" s="55"/>
+      <c r="P124" s="55"/>
+      <c r="Q124" s="55"/>
+      <c r="R124" s="55"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
@@ -9820,10 +9826,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="47"/>
-      <c r="R126" s="43"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="49"/>
+      <c r="Q126" s="50"/>
+      <c r="R126" s="46"/>
     </row>
     <row r="127" spans="1:19" ht="14.25">
       <c r="A127" s="23" t="s">
@@ -9846,10 +9852,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="44"/>
-      <c r="P127" s="48"/>
-      <c r="Q127" s="49"/>
-      <c r="R127" s="44"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="52"/>
+      <c r="R127" s="47"/>
     </row>
     <row r="128" spans="1:19" ht="14.25">
       <c r="A128" s="23" t="s">
@@ -9876,10 +9882,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="44"/>
-      <c r="P128" s="48"/>
-      <c r="Q128" s="49"/>
-      <c r="R128" s="44"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="52"/>
+      <c r="R128" s="47"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="23" t="s">
@@ -9904,10 +9910,10 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="44"/>
-      <c r="P129" s="48"/>
-      <c r="Q129" s="49"/>
-      <c r="R129" s="44"/>
+      <c r="O129" s="47"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="52"/>
+      <c r="R129" s="47"/>
     </row>
     <row r="130" spans="1:18" ht="17.25">
       <c r="A130" s="25" t="s">
@@ -9926,10 +9932,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="44"/>
-      <c r="P130" s="48"/>
-      <c r="Q130" s="49"/>
-      <c r="R130" s="44"/>
+      <c r="O130" s="47"/>
+      <c r="P130" s="51"/>
+      <c r="Q130" s="52"/>
+      <c r="R130" s="47"/>
     </row>
     <row r="131" spans="1:18" ht="14.25">
       <c r="A131" s="34" t="s">
@@ -9952,10 +9958,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="44"/>
-      <c r="P131" s="48"/>
-      <c r="Q131" s="49"/>
-      <c r="R131" s="44"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="52"/>
+      <c r="R131" s="47"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="24" t="s">
@@ -9978,10 +9984,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="48"/>
-      <c r="Q132" s="49"/>
-      <c r="R132" s="44"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="51"/>
+      <c r="Q132" s="52"/>
+      <c r="R132" s="47"/>
     </row>
     <row r="133" spans="1:18" ht="17.25">
       <c r="A133" s="25" t="s">
@@ -10000,10 +10006,10 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="44"/>
-      <c r="P133" s="48"/>
-      <c r="Q133" s="49"/>
-      <c r="R133" s="44"/>
+      <c r="O133" s="47"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="52"/>
+      <c r="R133" s="47"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="34" t="s">
@@ -10024,10 +10030,10 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="44"/>
-      <c r="P134" s="48"/>
-      <c r="Q134" s="49"/>
-      <c r="R134" s="44"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="51"/>
+      <c r="Q134" s="52"/>
+      <c r="R134" s="47"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="24" t="s">
@@ -10048,10 +10054,10 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="44"/>
-      <c r="P135" s="48"/>
-      <c r="Q135" s="49"/>
-      <c r="R135" s="44"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="51"/>
+      <c r="Q135" s="52"/>
+      <c r="R135" s="47"/>
     </row>
     <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="30" t="s">
@@ -10076,10 +10082,10 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="44"/>
-      <c r="P136" s="48"/>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="44"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="51"/>
+      <c r="Q136" s="52"/>
+      <c r="R136" s="47"/>
     </row>
     <row r="137" spans="1:18" ht="14.25">
       <c r="A137" s="30" t="s">
@@ -10104,10 +10110,10 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="44"/>
-      <c r="P137" s="48"/>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="44"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="52"/>
+      <c r="R137" s="47"/>
     </row>
     <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="30" t="s">
@@ -10146,10 +10152,10 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="44"/>
-      <c r="P138" s="48"/>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="44"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="51"/>
+      <c r="Q138" s="52"/>
+      <c r="R138" s="47"/>
     </row>
     <row r="139" spans="1:18" ht="17.25">
       <c r="A139" s="25" t="s">
@@ -10168,10 +10174,10 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="44"/>
-      <c r="P139" s="48"/>
-      <c r="Q139" s="49"/>
-      <c r="R139" s="44"/>
+      <c r="O139" s="47"/>
+      <c r="P139" s="51"/>
+      <c r="Q139" s="52"/>
+      <c r="R139" s="47"/>
     </row>
     <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="30" t="s">
@@ -10196,10 +10202,10 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="44"/>
-      <c r="P140" s="48"/>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="44"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="51"/>
+      <c r="Q140" s="52"/>
+      <c r="R140" s="47"/>
     </row>
     <row r="141" spans="1:18" ht="17.25">
       <c r="A141" s="25" t="s">
@@ -10218,10 +10224,10 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="44"/>
-      <c r="P141" s="48"/>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="44"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="51"/>
+      <c r="Q141" s="52"/>
+      <c r="R141" s="47"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="30" t="s">
@@ -10246,10 +10252,10 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="44"/>
-      <c r="P142" s="48"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="44"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="51"/>
+      <c r="Q142" s="52"/>
+      <c r="R142" s="47"/>
     </row>
     <row r="143" spans="1:18" ht="17.25">
       <c r="A143" s="25" t="s">
@@ -10268,10 +10274,10 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="44"/>
-      <c r="P143" s="48"/>
-      <c r="Q143" s="49"/>
-      <c r="R143" s="44"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="51"/>
+      <c r="Q143" s="52"/>
+      <c r="R143" s="47"/>
     </row>
     <row r="144" spans="1:18" ht="14.25">
       <c r="A144" s="23" t="s">
@@ -10302,10 +10308,10 @@
       <c r="N144" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="44"/>
-      <c r="P144" s="48"/>
-      <c r="Q144" s="49"/>
-      <c r="R144" s="44"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="51"/>
+      <c r="Q144" s="52"/>
+      <c r="R144" s="47"/>
     </row>
     <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
@@ -10336,10 +10342,10 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="44"/>
-      <c r="P145" s="48"/>
-      <c r="Q145" s="49"/>
-      <c r="R145" s="44"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="52"/>
+      <c r="R145" s="47"/>
     </row>
     <row r="146" spans="1:18" ht="17.25">
       <c r="A146" s="25" t="s">
@@ -10358,10 +10364,10 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="44"/>
-      <c r="P146" s="48"/>
-      <c r="Q146" s="49"/>
-      <c r="R146" s="44"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="51"/>
+      <c r="Q146" s="52"/>
+      <c r="R146" s="47"/>
     </row>
     <row r="147" spans="1:18" ht="14.25">
       <c r="A147" s="23" t="s">
@@ -10384,10 +10390,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="44"/>
-      <c r="P147" s="48"/>
-      <c r="Q147" s="49"/>
-      <c r="R147" s="44"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="51"/>
+      <c r="Q147" s="52"/>
+      <c r="R147" s="47"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -10408,10 +10414,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="44"/>
-      <c r="P148" s="48"/>
-      <c r="Q148" s="49"/>
-      <c r="R148" s="44"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="51"/>
+      <c r="Q148" s="52"/>
+      <c r="R148" s="47"/>
     </row>
     <row r="149" spans="1:18" ht="17.25">
       <c r="A149" s="25" t="s">
@@ -10430,10 +10436,10 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="44"/>
-      <c r="P149" s="48"/>
-      <c r="Q149" s="49"/>
-      <c r="R149" s="44"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="51"/>
+      <c r="Q149" s="52"/>
+      <c r="R149" s="47"/>
     </row>
     <row r="150" spans="1:18" ht="14.25">
       <c r="A150" s="23" t="s">
@@ -10456,10 +10462,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="44"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="44"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="51"/>
+      <c r="Q150" s="52"/>
+      <c r="R150" s="47"/>
     </row>
     <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="23" t="s">
@@ -10482,10 +10488,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="44"/>
-      <c r="P151" s="48"/>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="44"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="51"/>
+      <c r="Q151" s="52"/>
+      <c r="R151" s="47"/>
     </row>
     <row r="152" spans="1:18" ht="17.25">
       <c r="A152" s="25" t="s">
@@ -10504,10 +10510,10 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="44"/>
-      <c r="P152" s="48"/>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="44"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="52"/>
+      <c r="R152" s="47"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
@@ -10530,10 +10536,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="44"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="49"/>
-      <c r="R153" s="44"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="52"/>
+      <c r="R153" s="47"/>
     </row>
     <row r="154" spans="1:18" ht="17.25">
       <c r="A154" s="25" t="s">
@@ -10552,10 +10558,10 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="44"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="49"/>
-      <c r="R154" s="44"/>
+      <c r="O154" s="47"/>
+      <c r="P154" s="51"/>
+      <c r="Q154" s="52"/>
+      <c r="R154" s="47"/>
     </row>
     <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="23" t="s">
@@ -10580,10 +10586,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="44"/>
-      <c r="P155" s="48"/>
-      <c r="Q155" s="49"/>
-      <c r="R155" s="44"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="51"/>
+      <c r="Q155" s="52"/>
+      <c r="R155" s="47"/>
     </row>
     <row r="156" spans="1:18" ht="14.25">
       <c r="A156" s="23" t="s">
@@ -10608,10 +10614,10 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="49"/>
-      <c r="R156" s="44"/>
+      <c r="O156" s="47"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="52"/>
+      <c r="R156" s="47"/>
     </row>
     <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="24" t="s">
@@ -10634,10 +10640,10 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="44"/>
-      <c r="P157" s="48"/>
-      <c r="Q157" s="49"/>
-      <c r="R157" s="44"/>
+      <c r="O157" s="47"/>
+      <c r="P157" s="51"/>
+      <c r="Q157" s="52"/>
+      <c r="R157" s="47"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
@@ -10658,10 +10664,10 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="44"/>
-      <c r="P158" s="48"/>
-      <c r="Q158" s="49"/>
-      <c r="R158" s="44"/>
+      <c r="O158" s="47"/>
+      <c r="P158" s="51"/>
+      <c r="Q158" s="52"/>
+      <c r="R158" s="47"/>
     </row>
     <row r="159" spans="1:18" ht="14.25">
       <c r="A159" s="18" t="s">
@@ -10684,10 +10690,10 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="45"/>
-      <c r="P159" s="50"/>
-      <c r="Q159" s="51"/>
-      <c r="R159" s="45"/>
+      <c r="O159" s="48"/>
+      <c r="P159" s="53"/>
+      <c r="Q159" s="54"/>
+      <c r="R159" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="150">

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="177">
   <si>
     <t>高松プログラマー開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -1265,6 +1265,31 @@
     <t>1時間</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VOICE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安西</t>
+    <rPh sb="0" eb="2">
+      <t>アンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山路</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1694,7 +1719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1809,6 +1834,99 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1872,100 +1990,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2248,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2268,75 +2305,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="U1" s="56" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="U1" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2385,26 +2422,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2419,34 +2456,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60" t="s">
+      <c r="R4" s="92"/>
+      <c r="S4" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="1"/>
       <c r="E5" s="41" t="s">
         <v>108</v>
@@ -2465,26 +2502,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="62"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="93"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2499,17 +2536,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="62"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="1"/>
       <c r="E7" s="42" t="s">
         <v>105</v>
@@ -2528,17 +2565,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="62"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="93"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="1"/>
       <c r="E8" s="42" t="s">
         <v>105</v>
@@ -2557,18 +2594,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="62"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="93"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="71" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="62" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2582,18 +2619,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="62"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="93"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="71"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2605,17 +2642,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="62"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="1"/>
       <c r="E11" s="42" t="s">
         <v>105</v>
@@ -2634,17 +2671,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="62"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="93"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="1"/>
       <c r="E12" s="42" t="s">
         <v>105</v>
@@ -2663,63 +2700,63 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="62"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="93"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="72" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="62"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="62"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2734,17 +2771,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="62"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="93"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2759,17 +2796,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="62"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2784,17 +2821,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="62"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="93"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2809,17 +2846,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="62"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="93"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2836,17 +2873,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="62"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2863,17 +2900,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="62"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="93"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2890,17 +2927,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="62"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="93"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2917,17 +2954,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="62"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="93"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2944,17 +2981,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="62"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="93"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2969,17 +3006,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="62"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="93"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -2996,17 +3033,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="62"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="93"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -3023,17 +3060,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="62"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="93"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -3050,17 +3087,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="62"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="93"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3075,17 +3112,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="62"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="93"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="85"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -3102,17 +3139,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="62"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="93"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -3129,17 +3166,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="62"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="93"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -3156,17 +3193,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="62"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="93"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3183,17 +3220,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="62"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="93"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3208,17 +3245,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="62"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="93"/>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3237,17 +3274,17 @@
       <c r="O34" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="62"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="93"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="68"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3266,17 +3303,17 @@
       <c r="O35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="62"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="93"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="85"/>
-      <c r="B36" s="68" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3295,17 +3332,17 @@
       <c r="O36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="62"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="93"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="85"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
@@ -3332,17 +3369,17 @@
       <c r="O37" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="62"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="93"/>
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="40" t="s">
         <v>26</v>
       </c>
@@ -3367,19 +3404,19 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="62"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="93"/>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
@@ -3394,17 +3431,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="62"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="93"/>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A40" s="91"/>
-      <c r="B40" s="71" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="3"/>
       <c r="E40" s="42" t="s">
         <v>105</v>
@@ -3423,17 +3460,17 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="62"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="93"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="3"/>
       <c r="E41" s="42" t="s">
         <v>105</v>
@@ -3452,17 +3489,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="62"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="93"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1">
-      <c r="A42" s="91"/>
-      <c r="B42" s="83" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
@@ -3477,17 +3514,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="62"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="93"/>
     </row>
     <row r="43" spans="1:19" ht="21" customHeight="1">
-      <c r="A43" s="91"/>
-      <c r="B43" s="71" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3506,17 +3543,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="62"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="93"/>
     </row>
     <row r="44" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A44" s="91"/>
-      <c r="B44" s="82" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
@@ -3535,17 +3572,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="62"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="93"/>
     </row>
     <row r="45" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A45" s="91"/>
-      <c r="B45" s="83" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="5" t="s">
         <v>25</v>
       </c>
@@ -3566,17 +3603,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="62"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="93"/>
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A46" s="91"/>
-      <c r="B46" s="86" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
@@ -3597,19 +3634,19 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="62"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="93"/>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="70"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3624,17 +3661,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="62"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="93"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A48" s="91"/>
-      <c r="B48" s="71" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -3655,17 +3692,17 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="62"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="93"/>
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="82" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="68"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3686,17 +3723,17 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="62"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="93"/>
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="91"/>
-      <c r="B50" s="82" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="68"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3717,17 +3754,17 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="62"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="93"/>
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="91"/>
-      <c r="B51" s="82" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="68"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3748,17 +3785,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="62"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="93"/>
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="91"/>
-      <c r="B52" s="82" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3779,17 +3816,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="62"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="93"/>
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="82" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3810,17 +3847,17 @@
       <c r="O53" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="62"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="93"/>
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="91"/>
-      <c r="B54" s="82" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="68"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3841,17 +3878,17 @@
       <c r="O54" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="62"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="93"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="91"/>
-      <c r="B55" s="82" t="s">
+      <c r="A55" s="63"/>
+      <c r="B55" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3872,17 +3909,17 @@
       <c r="O55" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="62"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="93"/>
     </row>
     <row r="56" spans="1:19" ht="21" customHeight="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="83" t="s">
+      <c r="A56" s="64"/>
+      <c r="B56" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="70"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3905,19 +3942,19 @@
       <c r="O56" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="62"/>
+      <c r="P56" s="93"/>
+      <c r="Q56" s="93"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="93"/>
     </row>
     <row r="57" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="70"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
@@ -3936,17 +3973,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="62"/>
+      <c r="P57" s="93"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="93"/>
     </row>
     <row r="58" spans="1:19" ht="21" customHeight="1">
-      <c r="A58" s="81"/>
-      <c r="B58" s="69" t="s">
+      <c r="A58" s="68"/>
+      <c r="B58" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="70"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3961,17 +3998,17 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="62"/>
+      <c r="P58" s="93"/>
+      <c r="Q58" s="93"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="93"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A59" s="81"/>
-      <c r="B59" s="67" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="68"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
@@ -3992,17 +4029,17 @@
         <v>166</v>
       </c>
       <c r="O59" s="8"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="62"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="93"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A60" s="81"/>
-      <c r="B60" s="67" t="s">
+      <c r="A60" s="68"/>
+      <c r="B60" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="68"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
@@ -4023,17 +4060,17 @@
         <v>166</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="62"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="93"/>
     </row>
     <row r="61" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A61" s="81"/>
-      <c r="B61" s="69" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="70"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="5" t="s">
         <v>84</v>
       </c>
@@ -4050,17 +4087,17 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="62"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="93"/>
     </row>
     <row r="62" spans="1:19" ht="21" customHeight="1">
-      <c r="A62" s="81"/>
-      <c r="B62" s="69" t="s">
+      <c r="A62" s="68"/>
+      <c r="B62" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="70"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
@@ -4075,17 +4112,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="62"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="93"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A63" s="81"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="68"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="8"/>
@@ -4104,17 +4141,17 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="62"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="93"/>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="81"/>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="8"/>
@@ -4133,17 +4170,17 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="62"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="93"/>
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="81"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="68"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -4162,17 +4199,17 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="62"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="93"/>
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="81"/>
-      <c r="B66" s="68" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="68"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -4191,17 +4228,17 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="62"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="93"/>
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="81"/>
-      <c r="B67" s="68" t="s">
+      <c r="A67" s="68"/>
+      <c r="B67" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="68"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -4220,17 +4257,17 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="62"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="93"/>
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="81"/>
-      <c r="B68" s="68" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="68"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -4249,17 +4286,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="62"/>
+      <c r="P68" s="93"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="93"/>
     </row>
     <row r="69" spans="1:19" ht="21" customHeight="1">
-      <c r="A69" s="81"/>
-      <c r="B69" s="69" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="70"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="5" t="s">
         <v>84</v>
       </c>
@@ -4276,17 +4313,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="62"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="93"/>
     </row>
     <row r="70" spans="1:19" ht="21" customHeight="1">
-      <c r="A70" s="81"/>
-      <c r="B70" s="69" t="s">
+      <c r="A70" s="68"/>
+      <c r="B70" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="70"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
@@ -4303,19 +4340,19 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="62"/>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="93"/>
     </row>
     <row r="71" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="69" t="s">
+      <c r="B71" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="70"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4330,17 +4367,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="62"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="93"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1">
-      <c r="A72" s="85"/>
-      <c r="B72" s="67" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="68"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="3"/>
       <c r="E72" s="36" t="s">
         <v>167</v>
@@ -4357,17 +4394,17 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="62"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="93"/>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A73" s="85"/>
-      <c r="B73" s="68" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="68"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="3"/>
       <c r="E73" s="36" t="s">
         <v>167</v>
@@ -4386,17 +4423,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="62"/>
+      <c r="P73" s="93"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="93"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="85"/>
-      <c r="B74" s="68" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="3"/>
       <c r="E74" s="36" t="s">
         <v>167</v>
@@ -4412,17 +4449,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="62"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="62"/>
+      <c r="P74" s="93"/>
+      <c r="Q74" s="93"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="93"/>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1">
-      <c r="A75" s="85"/>
-      <c r="B75" s="68" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="68"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4439,17 +4476,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="62"/>
+      <c r="P75" s="93"/>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="93"/>
     </row>
     <row r="76" spans="1:19" ht="21" customHeight="1">
-      <c r="A76" s="85"/>
-      <c r="B76" s="69" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="70"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="5" t="s">
         <v>88</v>
       </c>
@@ -4464,17 +4501,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="62"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="93"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1">
-      <c r="A77" s="85"/>
-      <c r="B77" s="67" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="68"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="38" t="s">
@@ -4489,17 +4526,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="62"/>
-      <c r="Q77" s="62"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="62"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="93"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A78" s="85"/>
-      <c r="B78" s="68" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="68"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="38" t="s">
@@ -4514,17 +4551,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="62"/>
+      <c r="P78" s="93"/>
+      <c r="Q78" s="93"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="93"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="85"/>
-      <c r="B79" s="68" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="68"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="38" t="s">
@@ -4539,17 +4576,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="62"/>
+      <c r="P79" s="93"/>
+      <c r="Q79" s="93"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="93"/>
     </row>
     <row r="80" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A80" s="85"/>
-      <c r="B80" s="69" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="70"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="5" t="s">
         <v>88</v>
       </c>
@@ -4564,17 +4601,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="62"/>
-      <c r="Q80" s="62"/>
-      <c r="R80" s="63"/>
-      <c r="S80" s="62"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="93"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="93"/>
     </row>
     <row r="81" spans="1:19" ht="18" customHeight="1">
-      <c r="A81" s="85"/>
-      <c r="B81" s="67" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="68"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="38" t="s">
@@ -4589,17 +4626,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="62"/>
-      <c r="Q81" s="62"/>
-      <c r="R81" s="63"/>
-      <c r="S81" s="62"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="93"/>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
-      <c r="A82" s="85"/>
-      <c r="B82" s="68" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="68"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="G82" s="38" t="s">
@@ -4613,17 +4650,17 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="63"/>
-      <c r="S82" s="62"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="93"/>
     </row>
     <row r="83" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A83" s="85"/>
-      <c r="B83" s="68" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="68"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4636,19 +4673,19 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="63"/>
-      <c r="S83" s="62"/>
+      <c r="P83" s="93"/>
+      <c r="Q83" s="93"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="93"/>
     </row>
     <row r="84" spans="1:19" ht="21" customHeight="1">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="70"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4663,19 +4700,19 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="63"/>
-      <c r="S84" s="62"/>
+      <c r="P84" s="93"/>
+      <c r="Q84" s="93"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="93"/>
     </row>
     <row r="85" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A85" s="85"/>
-      <c r="B85" s="67" t="s">
+      <c r="A85" s="63"/>
+      <c r="B85" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="68"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="98" t="s">
+      <c r="E85" s="48" t="s">
         <v>111</v>
       </c>
       <c r="F85" s="45" t="s">
@@ -4690,17 +4727,17 @@
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
-      <c r="P85" s="62"/>
-      <c r="Q85" s="62"/>
-      <c r="R85" s="63"/>
-      <c r="S85" s="62"/>
+      <c r="P85" s="93"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="93"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A86" s="85"/>
-      <c r="B86" s="67" t="s">
+      <c r="A86" s="63"/>
+      <c r="B86" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="68"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="3"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4715,17 +4752,17 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="63"/>
-      <c r="S86" s="62"/>
+      <c r="P86" s="93"/>
+      <c r="Q86" s="93"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="93"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A87" s="85"/>
-      <c r="B87" s="68" t="s">
+      <c r="A87" s="63"/>
+      <c r="B87" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="68"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="3"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4740,17 +4777,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="62"/>
-      <c r="Q87" s="62"/>
-      <c r="R87" s="63"/>
-      <c r="S87" s="62"/>
+      <c r="P87" s="93"/>
+      <c r="Q87" s="93"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="93"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="85"/>
-      <c r="B88" s="68" t="s">
+      <c r="A88" s="63"/>
+      <c r="B88" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="68"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4765,17 +4802,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="62"/>
-      <c r="Q88" s="62"/>
-      <c r="R88" s="63"/>
-      <c r="S88" s="62"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="93"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="85"/>
-      <c r="B89" s="68" t="s">
+      <c r="A89" s="63"/>
+      <c r="B89" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="68"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4792,17 +4829,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="62"/>
-      <c r="Q89" s="62"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="62"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="93"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="85"/>
-      <c r="B90" s="68" t="s">
+      <c r="A90" s="63"/>
+      <c r="B90" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="68"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4817,17 +4854,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="62"/>
-      <c r="Q90" s="62"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="62"/>
+      <c r="P90" s="93"/>
+      <c r="Q90" s="93"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="93"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="85"/>
-      <c r="B91" s="68" t="s">
+      <c r="A91" s="63"/>
+      <c r="B91" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="68"/>
+      <c r="C91" s="60"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4842,17 +4879,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="62"/>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="63"/>
-      <c r="S91" s="62"/>
+      <c r="P91" s="93"/>
+      <c r="Q91" s="93"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="93"/>
     </row>
     <row r="92" spans="1:19" ht="21" customHeight="1">
-      <c r="A92" s="85"/>
-      <c r="B92" s="69" t="s">
+      <c r="A92" s="63"/>
+      <c r="B92" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="70"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="5" t="s">
         <v>61</v>
       </c>
@@ -4867,17 +4904,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="62"/>
-      <c r="Q92" s="62"/>
-      <c r="R92" s="63"/>
-      <c r="S92" s="62"/>
+      <c r="P92" s="93"/>
+      <c r="Q92" s="93"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="93"/>
     </row>
     <row r="93" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A93" s="85"/>
-      <c r="B93" s="67" t="s">
+      <c r="A93" s="63"/>
+      <c r="B93" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="68"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="5"/>
       <c r="E93" s="44" t="s">
         <v>111</v>
@@ -4894,17 +4931,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="62"/>
-      <c r="Q93" s="62"/>
-      <c r="R93" s="63"/>
-      <c r="S93" s="62"/>
+      <c r="P93" s="93"/>
+      <c r="Q93" s="93"/>
+      <c r="R93" s="94"/>
+      <c r="S93" s="93"/>
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A94" s="85"/>
-      <c r="B94" s="67" t="s">
+      <c r="A94" s="63"/>
+      <c r="B94" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="68"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -4919,17 +4956,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="62"/>
-      <c r="Q94" s="62"/>
-      <c r="R94" s="63"/>
-      <c r="S94" s="62"/>
+      <c r="P94" s="93"/>
+      <c r="Q94" s="93"/>
+      <c r="R94" s="94"/>
+      <c r="S94" s="93"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A95" s="85"/>
-      <c r="B95" s="68" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="68"/>
+      <c r="C95" s="60"/>
       <c r="D95" s="3"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -4944,17 +4981,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="62"/>
-      <c r="Q95" s="62"/>
-      <c r="R95" s="63"/>
-      <c r="S95" s="62"/>
+      <c r="P95" s="93"/>
+      <c r="Q95" s="93"/>
+      <c r="R95" s="94"/>
+      <c r="S95" s="93"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A96" s="85"/>
-      <c r="B96" s="68" t="s">
+      <c r="A96" s="63"/>
+      <c r="B96" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C96" s="68"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="3"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -4969,17 +5006,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="62"/>
-      <c r="Q96" s="62"/>
-      <c r="R96" s="63"/>
-      <c r="S96" s="62"/>
+      <c r="P96" s="93"/>
+      <c r="Q96" s="93"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="93"/>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="85"/>
-      <c r="B97" s="68" t="s">
+      <c r="A97" s="63"/>
+      <c r="B97" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="68"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -4994,17 +5031,17 @@
       <c r="O97" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P97" s="62"/>
-      <c r="Q97" s="62"/>
-      <c r="R97" s="63"/>
-      <c r="S97" s="62"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="94"/>
+      <c r="S97" s="93"/>
     </row>
     <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="85"/>
-      <c r="B98" s="68" t="s">
+      <c r="A98" s="63"/>
+      <c r="B98" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="68"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -5019,22 +5056,18 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="62"/>
-      <c r="Q98" s="62"/>
-      <c r="R98" s="63"/>
-      <c r="S98" s="62"/>
-    </row>
-    <row r="99" spans="1:19" ht="18" customHeight="1">
-      <c r="A99" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="70"/>
-      <c r="D99" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="93"/>
+      <c r="R98" s="94"/>
+      <c r="S98" s="93"/>
+    </row>
+    <row r="99" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A99" s="63"/>
+      <c r="B99" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="65"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -5046,22 +5079,22 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="62"/>
-      <c r="Q99" s="62"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="62"/>
-    </row>
-    <row r="100" spans="1:19" ht="18" customHeight="1">
-      <c r="A100" s="85"/>
-      <c r="B100" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="68"/>
-      <c r="D100" s="1"/>
+      <c r="P99" s="93"/>
+      <c r="Q99" s="93"/>
+      <c r="R99" s="94"/>
+      <c r="S99" s="93"/>
+    </row>
+    <row r="100" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A100" s="63"/>
+      <c r="B100" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="61"/>
+      <c r="D100" s="46" t="s">
+        <v>175</v>
+      </c>
       <c r="E100" s="15"/>
-      <c r="F100" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
@@ -5071,43 +5104,47 @@
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="62"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="63"/>
-      <c r="S100" s="62"/>
-    </row>
-    <row r="101" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A101" s="85"/>
-      <c r="B101" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="68"/>
-      <c r="D101" s="3"/>
+      <c r="P100" s="93"/>
+      <c r="Q100" s="93"/>
+      <c r="R100" s="94"/>
+      <c r="S100" s="93"/>
+    </row>
+    <row r="101" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A101" s="64"/>
+      <c r="B101" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="61"/>
+      <c r="D101" s="47" t="s">
+        <v>176</v>
+      </c>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="K101" s="15"/>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
+      <c r="N101" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="O101" s="15"/>
-      <c r="P101" s="62"/>
-      <c r="Q101" s="62"/>
-      <c r="R101" s="63"/>
-      <c r="S101" s="62"/>
-    </row>
-    <row r="102" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A102" s="85"/>
-      <c r="B102" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="70"/>
-      <c r="D102" s="5" t="s">
+      <c r="P101" s="93"/>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="94"/>
+      <c r="S101" s="93"/>
+    </row>
+    <row r="102" spans="1:19" ht="18" customHeight="1">
+      <c r="A102" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E102" s="15"/>
@@ -5121,21 +5158,21 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="63"/>
-      <c r="S102" s="62"/>
-    </row>
-    <row r="103" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A103" s="85"/>
-      <c r="B103" s="67" t="s">
+      <c r="P102" s="93"/>
+      <c r="Q102" s="93"/>
+      <c r="R102" s="94"/>
+      <c r="S102" s="93"/>
+    </row>
+    <row r="103" spans="1:19" ht="18" customHeight="1">
+      <c r="A103" s="53"/>
+      <c r="B103" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="5"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="1"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
@@ -5146,17 +5183,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
-      <c r="R103" s="63"/>
-      <c r="S103" s="62"/>
-    </row>
-    <row r="104" spans="1:19" ht="15" customHeight="1">
-      <c r="A104" s="85"/>
-      <c r="B104" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="68"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="94"/>
+      <c r="S103" s="93"/>
+    </row>
+    <row r="104" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A104" s="53"/>
+      <c r="B104" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="60"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -5164,31 +5201,31 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="K104" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L104" s="15"/>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="62"/>
-      <c r="Q104" s="62"/>
-      <c r="R104" s="63"/>
-      <c r="S104" s="62"/>
-    </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1">
-      <c r="A105" s="85"/>
-      <c r="B105" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" s="68"/>
-      <c r="D105" s="3"/>
+      <c r="P104" s="93"/>
+      <c r="Q104" s="93"/>
+      <c r="R104" s="94"/>
+      <c r="S104" s="93"/>
+    </row>
+    <row r="105" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A105" s="53"/>
+      <c r="B105" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="57"/>
+      <c r="D105" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
@@ -5196,42 +5233,42 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="62"/>
-      <c r="Q105" s="62"/>
-      <c r="R105" s="63"/>
-      <c r="S105" s="62"/>
-    </row>
-    <row r="106" spans="1:19" ht="15" customHeight="1">
-      <c r="A106" s="85"/>
-      <c r="B106" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C106" s="68"/>
-      <c r="D106" s="3"/>
+      <c r="P105" s="93"/>
+      <c r="Q105" s="93"/>
+      <c r="R105" s="94"/>
+      <c r="S105" s="93"/>
+    </row>
+    <row r="106" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A106" s="53"/>
+      <c r="B106" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
+      <c r="F106" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
-      <c r="L106" s="16" t="s">
-        <v>106</v>
-      </c>
+      <c r="L106" s="15"/>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="62"/>
-      <c r="R106" s="63"/>
-      <c r="S106" s="62"/>
-    </row>
-    <row r="107" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A107" s="85"/>
-      <c r="B107" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="68"/>
+      <c r="P106" s="93"/>
+      <c r="Q106" s="93"/>
+      <c r="R106" s="94"/>
+      <c r="S106" s="93"/>
+    </row>
+    <row r="107" spans="1:19" ht="15" customHeight="1">
+      <c r="A107" s="53"/>
+      <c r="B107" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="60"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -5240,48 +5277,48 @@
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="L107" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="62"/>
-      <c r="Q107" s="62"/>
-      <c r="R107" s="63"/>
-      <c r="S107" s="62"/>
-    </row>
-    <row r="108" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A108" s="85"/>
-      <c r="B108" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="68"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="93"/>
+      <c r="R107" s="94"/>
+      <c r="S107" s="93"/>
+    </row>
+    <row r="108" spans="1:19" ht="15" customHeight="1">
+      <c r="A108" s="53"/>
+      <c r="B108" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="60"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
+      <c r="H108" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
-      <c r="O108" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P108" s="62"/>
-      <c r="Q108" s="62"/>
-      <c r="R108" s="63"/>
-      <c r="S108" s="62"/>
-    </row>
-    <row r="109" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A109" s="85"/>
-      <c r="B109" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="68"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="93"/>
+      <c r="Q108" s="93"/>
+      <c r="R108" s="94"/>
+      <c r="S108" s="93"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" customHeight="1">
+      <c r="A109" s="53"/>
+      <c r="B109" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="60"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -5290,26 +5327,24 @@
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="L109" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
-      <c r="O109" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="62"/>
-      <c r="R109" s="63"/>
-      <c r="S109" s="62"/>
-    </row>
-    <row r="110" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A110" s="85"/>
-      <c r="B110" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="70"/>
-      <c r="D110" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="O109" s="15"/>
+      <c r="P109" s="93"/>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="94"/>
+      <c r="S109" s="93"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A110" s="53"/>
+      <c r="B110" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="60"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -5318,25 +5353,25 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
+      <c r="M110" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="62"/>
-      <c r="Q110" s="62"/>
-      <c r="R110" s="63"/>
-      <c r="S110" s="62"/>
-    </row>
-    <row r="111" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A111" s="85"/>
-      <c r="B111" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" s="68"/>
-      <c r="D111" s="5"/>
+      <c r="P110" s="93"/>
+      <c r="Q110" s="93"/>
+      <c r="R110" s="94"/>
+      <c r="S110" s="93"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A111" s="53"/>
+      <c r="B111" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="60"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -5345,18 +5380,20 @@
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="62"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="63"/>
-      <c r="S111" s="62"/>
-    </row>
-    <row r="112" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A112" s="85"/>
-      <c r="B112" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C112" s="68"/>
+      <c r="O111" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P111" s="93"/>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="94"/>
+      <c r="S111" s="93"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A112" s="53"/>
+      <c r="B112" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="60"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -5365,51 +5402,53 @@
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
-      <c r="L112" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="L112" s="15"/>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="62"/>
-      <c r="Q112" s="62"/>
-      <c r="R112" s="63"/>
-      <c r="S112" s="62"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A113" s="85"/>
-      <c r="B113" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="68"/>
-      <c r="D113" s="3"/>
+      <c r="O112" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P112" s="93"/>
+      <c r="Q112" s="93"/>
+      <c r="R112" s="94"/>
+      <c r="S112" s="93"/>
+    </row>
+    <row r="113" spans="1:19" ht="23.25" customHeight="1">
+      <c r="A113" s="53"/>
+      <c r="B113" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="57"/>
+      <c r="D113" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="K113" s="15"/>
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="63"/>
-      <c r="S113" s="62"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A114" s="85"/>
-      <c r="B114" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" s="68"/>
-      <c r="D114" s="3"/>
+      <c r="P113" s="93"/>
+      <c r="Q113" s="93"/>
+      <c r="R113" s="94"/>
+      <c r="S113" s="93"/>
+    </row>
+    <row r="114" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A114" s="53"/>
+      <c r="B114" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="60"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
+      <c r="F114" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -5418,20 +5457,18 @@
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
-      <c r="O114" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P114" s="62"/>
-      <c r="Q114" s="62"/>
-      <c r="R114" s="63"/>
-      <c r="S114" s="62"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="93"/>
+      <c r="Q114" s="93"/>
+      <c r="R114" s="94"/>
+      <c r="S114" s="93"/>
     </row>
     <row r="115" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A115" s="85"/>
-      <c r="B115" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="68"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="60"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5440,54 +5477,52 @@
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
+      <c r="L115" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
-      <c r="O115" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P115" s="62"/>
-      <c r="Q115" s="62"/>
-      <c r="R115" s="63"/>
-      <c r="S115" s="62"/>
-    </row>
-    <row r="116" spans="1:19" ht="21" customHeight="1">
-      <c r="A116" s="85"/>
-      <c r="B116" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C116" s="70"/>
-      <c r="D116" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="O115" s="15"/>
+      <c r="P115" s="93"/>
+      <c r="Q115" s="93"/>
+      <c r="R115" s="94"/>
+      <c r="S115" s="93"/>
+    </row>
+    <row r="116" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A116" s="53"/>
+      <c r="B116" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="60"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
+      <c r="K116" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="62"/>
-      <c r="R116" s="63"/>
-      <c r="S116" s="62"/>
-    </row>
-    <row r="117" spans="1:19" ht="21" customHeight="1">
-      <c r="A117" s="85"/>
-      <c r="B117" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" s="68"/>
-      <c r="D117" s="5"/>
+      <c r="P116" s="93"/>
+      <c r="Q116" s="93"/>
+      <c r="R116" s="94"/>
+      <c r="S116" s="93"/>
+    </row>
+    <row r="117" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A117" s="53"/>
+      <c r="B117" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="60"/>
+      <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -5495,18 +5530,20 @@
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="62"/>
-      <c r="Q117" s="62"/>
-      <c r="R117" s="63"/>
-      <c r="S117" s="62"/>
-    </row>
-    <row r="118" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A118" s="85"/>
-      <c r="B118" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="68"/>
+      <c r="O117" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P117" s="93"/>
+      <c r="Q117" s="93"/>
+      <c r="R117" s="94"/>
+      <c r="S117" s="93"/>
+    </row>
+    <row r="118" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A118" s="53"/>
+      <c r="B118" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="60"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -5517,208 +5554,199 @@
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
-      <c r="N118" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O118" s="15"/>
-      <c r="P118" s="64"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="65"/>
-      <c r="S118" s="64"/>
-    </row>
-    <row r="119" spans="1:19">
-      <c r="B119" s="84"/>
-      <c r="C119" s="84"/>
-    </row>
-    <row r="120" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A120" s="55" t="s">
+      <c r="N118" s="15"/>
+      <c r="O118" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P118" s="93"/>
+      <c r="Q118" s="93"/>
+      <c r="R118" s="94"/>
+      <c r="S118" s="93"/>
+    </row>
+    <row r="119" spans="1:19" ht="21" customHeight="1">
+      <c r="A119" s="53"/>
+      <c r="B119" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="57"/>
+      <c r="D119" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="93"/>
+      <c r="Q119" s="93"/>
+      <c r="R119" s="94"/>
+      <c r="S119" s="93"/>
+    </row>
+    <row r="120" spans="1:19" ht="21" customHeight="1">
+      <c r="A120" s="53"/>
+      <c r="B120" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="60"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="93"/>
+      <c r="Q120" s="93"/>
+      <c r="R120" s="94"/>
+      <c r="S120" s="93"/>
+    </row>
+    <row r="121" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A121" s="53"/>
+      <c r="B121" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="60"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O121" s="15"/>
+      <c r="P121" s="95"/>
+      <c r="Q121" s="95"/>
+      <c r="R121" s="96"/>
+      <c r="S121" s="95"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="B122" s="66"/>
+      <c r="C122" s="66"/>
+    </row>
+    <row r="123" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A123" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55"/>
-      <c r="L120" s="55"/>
-      <c r="M120" s="55"/>
-      <c r="N120" s="55"/>
-      <c r="O120" s="55"/>
-      <c r="P120" s="55"/>
-      <c r="Q120" s="55"/>
-      <c r="R120" s="55"/>
-    </row>
-    <row r="121" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A121" s="55"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="55"/>
-      <c r="O121" s="55"/>
-      <c r="P121" s="55"/>
-      <c r="Q121" s="55"/>
-      <c r="R121" s="55"/>
-    </row>
-    <row r="122" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A122" s="18" t="s">
+      <c r="B123" s="86"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="86"/>
+      <c r="I123" s="86"/>
+      <c r="J123" s="86"/>
+      <c r="K123" s="86"/>
+      <c r="L123" s="86"/>
+      <c r="M123" s="86"/>
+      <c r="N123" s="86"/>
+      <c r="O123" s="86"/>
+      <c r="P123" s="86"/>
+      <c r="Q123" s="86"/>
+      <c r="R123" s="86"/>
+    </row>
+    <row r="124" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A124" s="86"/>
+      <c r="B124" s="86"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86"/>
+      <c r="I124" s="86"/>
+      <c r="J124" s="86"/>
+      <c r="K124" s="86"/>
+      <c r="L124" s="86"/>
+      <c r="M124" s="86"/>
+      <c r="N124" s="86"/>
+      <c r="O124" s="86"/>
+      <c r="P124" s="86"/>
+      <c r="Q124" s="86"/>
+      <c r="R124" s="86"/>
+    </row>
+    <row r="125" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A125" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B125" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C122" s="35">
+      <c r="C125" s="35">
         <v>42803</v>
       </c>
-      <c r="D122" s="35">
+      <c r="D125" s="35">
         <v>42804</v>
       </c>
-      <c r="E122" s="35">
+      <c r="E125" s="35">
         <v>42805</v>
       </c>
-      <c r="F122" s="35">
+      <c r="F125" s="35">
         <v>42806</v>
       </c>
-      <c r="G122" s="35">
+      <c r="G125" s="35">
         <v>42807</v>
       </c>
-      <c r="H122" s="35">
+      <c r="H125" s="35">
         <v>42808</v>
       </c>
-      <c r="I122" s="35">
+      <c r="I125" s="35">
         <v>42809</v>
       </c>
-      <c r="J122" s="35">
+      <c r="J125" s="35">
         <v>42810</v>
       </c>
-      <c r="K122" s="35">
+      <c r="K125" s="35">
         <v>42811</v>
       </c>
-      <c r="L122" s="35">
+      <c r="L125" s="35">
         <v>42812</v>
       </c>
-      <c r="M122" s="35">
+      <c r="M125" s="35">
         <v>42813</v>
       </c>
-      <c r="N122" s="35">
+      <c r="N125" s="35">
         <v>42814</v>
       </c>
-      <c r="O122" s="35">
+      <c r="O125" s="35">
         <v>42815</v>
       </c>
-      <c r="P122" s="35">
+      <c r="P125" s="35">
         <v>42816</v>
       </c>
-      <c r="Q122" s="35">
+      <c r="Q125" s="35">
         <v>42817</v>
       </c>
-      <c r="R122" s="35">
+      <c r="R125" s="35">
         <v>42818</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A123" s="25" t="s">
+    <row r="126" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A126" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="49"/>
-      <c r="Q123" s="50"/>
-      <c r="R123" s="46"/>
-    </row>
-    <row r="124" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A124" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="47"/>
-      <c r="P124" s="51"/>
-      <c r="Q124" s="52"/>
-      <c r="R124" s="47"/>
-    </row>
-    <row r="125" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A125" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="47"/>
-      <c r="P125" s="51"/>
-      <c r="Q125" s="52"/>
-      <c r="R125" s="47"/>
-    </row>
-    <row r="126" spans="1:19" ht="14.25">
-      <c r="A126" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D126" s="32" t="s">
-        <v>129</v>
-      </c>
+      <c r="B126" s="25"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
@@ -5729,17 +5757,21 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="47"/>
-      <c r="P126" s="51"/>
-      <c r="Q126" s="52"/>
-      <c r="R126" s="47"/>
-    </row>
-    <row r="127" spans="1:19" ht="17.25">
-      <c r="A127" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="18"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="80"/>
+      <c r="Q126" s="81"/>
+      <c r="R126" s="77"/>
+    </row>
+    <row r="127" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A127" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
@@ -5751,25 +5783,29 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="47"/>
-      <c r="P127" s="51"/>
-      <c r="Q127" s="52"/>
-      <c r="R127" s="47"/>
-    </row>
-    <row r="128" spans="1:19" ht="14.25">
-      <c r="A128" s="34" t="s">
-        <v>126</v>
+      <c r="O127" s="78"/>
+      <c r="P127" s="82"/>
+      <c r="Q127" s="83"/>
+      <c r="R127" s="78"/>
+    </row>
+    <row r="128" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A128" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="22" t="s">
-        <v>157</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="21"/>
       <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
+      <c r="F128" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="H128" s="18"/>
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
@@ -5777,25 +5813,27 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="47"/>
-      <c r="P128" s="51"/>
-      <c r="Q128" s="52"/>
-      <c r="R128" s="47"/>
+      <c r="O128" s="78"/>
+      <c r="P128" s="82"/>
+      <c r="Q128" s="83"/>
+      <c r="R128" s="78"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
-      <c r="A129" s="24" t="s">
-        <v>156</v>
+      <c r="A129" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="21"/>
+      <c r="C129" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>129</v>
+      </c>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
-      <c r="G129" s="22" t="s">
-        <v>155</v>
-      </c>
+      <c r="G129" s="18"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
@@ -5803,14 +5841,14 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="47"/>
-      <c r="P129" s="51"/>
-      <c r="Q129" s="52"/>
-      <c r="R129" s="47"/>
+      <c r="O129" s="78"/>
+      <c r="P129" s="82"/>
+      <c r="Q129" s="83"/>
+      <c r="R129" s="78"/>
     </row>
     <row r="130" spans="1:18" ht="17.25">
       <c r="A130" s="25" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="18"/>
@@ -5825,22 +5863,24 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="47"/>
-      <c r="P130" s="51"/>
-      <c r="Q130" s="52"/>
-      <c r="R130" s="47"/>
+      <c r="O130" s="78"/>
+      <c r="P130" s="82"/>
+      <c r="Q130" s="83"/>
+      <c r="R130" s="78"/>
     </row>
     <row r="131" spans="1:18" ht="14.25">
       <c r="A131" s="34" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="33"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
@@ -5849,23 +5889,25 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="47"/>
-      <c r="P131" s="51"/>
-      <c r="Q131" s="52"/>
-      <c r="R131" s="47"/>
+      <c r="O131" s="78"/>
+      <c r="P131" s="82"/>
+      <c r="Q131" s="83"/>
+      <c r="R131" s="78"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="18"/>
+        <v>117</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
       <c r="J132" s="18"/>
@@ -5873,26 +5915,20 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="47"/>
-      <c r="P132" s="51"/>
-      <c r="Q132" s="52"/>
-      <c r="R132" s="47"/>
-    </row>
-    <row r="133" spans="1:18" ht="14.25">
-      <c r="A133" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F133" s="26"/>
+      <c r="O132" s="78"/>
+      <c r="P132" s="82"/>
+      <c r="Q132" s="83"/>
+      <c r="R132" s="78"/>
+    </row>
+    <row r="133" spans="1:18" ht="17.25">
+      <c r="A133" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="25"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
@@ -5901,25 +5937,21 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="47"/>
-      <c r="P133" s="51"/>
-      <c r="Q133" s="52"/>
-      <c r="R133" s="47"/>
+      <c r="O133" s="78"/>
+      <c r="P133" s="82"/>
+      <c r="Q133" s="83"/>
+      <c r="R133" s="78"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
-      <c r="A134" s="30" t="s">
-        <v>150</v>
+      <c r="A134" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C134" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="C134" s="33"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="26"/>
       <c r="F134" s="26"/>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
@@ -5929,62 +5961,50 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="47"/>
-      <c r="P134" s="51"/>
-      <c r="Q134" s="52"/>
-      <c r="R134" s="47"/>
+      <c r="O134" s="78"/>
+      <c r="P134" s="82"/>
+      <c r="Q134" s="83"/>
+      <c r="R134" s="78"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
-      <c r="A135" s="30" t="s">
-        <v>149</v>
+      <c r="A135" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="18"/>
-      <c r="D135" s="28" t="s">
-        <v>138</v>
-      </c>
+      <c r="C135" s="32"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" s="26"/>
-      <c r="G135" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H135" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I135" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J135" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K135" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="L135" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="M135" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="N135" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="O135" s="47"/>
-      <c r="P135" s="51"/>
-      <c r="Q135" s="52"/>
-      <c r="R135" s="47"/>
-    </row>
-    <row r="136" spans="1:18" ht="17.25">
-      <c r="A136" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="78"/>
+      <c r="P135" s="82"/>
+      <c r="Q135" s="83"/>
+      <c r="R135" s="78"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.25">
+      <c r="A136" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136" s="26"/>
+      <c r="E136" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F136" s="26"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
@@ -5993,27 +6013,27 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="47"/>
-      <c r="P136" s="51"/>
-      <c r="Q136" s="52"/>
-      <c r="R136" s="47"/>
+      <c r="O136" s="78"/>
+      <c r="P136" s="82"/>
+      <c r="Q136" s="83"/>
+      <c r="R136" s="78"/>
     </row>
     <row r="137" spans="1:18" ht="14.25">
       <c r="A137" s="30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="28" t="s">
-        <v>145</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="26"/>
+      <c r="E137" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" s="26"/>
+      <c r="G137" s="18"/>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
       <c r="J137" s="18"/>
@@ -6021,49 +6041,63 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="47"/>
-      <c r="P137" s="51"/>
-      <c r="Q137" s="52"/>
-      <c r="R137" s="47"/>
-    </row>
-    <row r="138" spans="1:18" ht="17.25">
-      <c r="A138" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B138" s="25"/>
+      <c r="O137" s="78"/>
+      <c r="P137" s="82"/>
+      <c r="Q137" s="83"/>
+      <c r="R137" s="78"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.25">
+      <c r="A138" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>115</v>
+      </c>
       <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="47"/>
-      <c r="P138" s="51"/>
-      <c r="Q138" s="52"/>
-      <c r="R138" s="47"/>
-    </row>
-    <row r="139" spans="1:18" ht="14.25">
-      <c r="A139" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="D138" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H138" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J138" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K138" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L138" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M138" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="N138" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="O138" s="78"/>
+      <c r="P138" s="82"/>
+      <c r="Q138" s="83"/>
+      <c r="R138" s="78"/>
+    </row>
+    <row r="139" spans="1:18" ht="17.25">
+      <c r="A139" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="25"/>
       <c r="C139" s="18"/>
-      <c r="D139" s="29" t="s">
-        <v>142</v>
-      </c>
+      <c r="D139" s="18"/>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
-      <c r="G139" s="28" t="s">
-        <v>125</v>
-      </c>
+      <c r="G139" s="18"/>
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
       <c r="J139" s="18"/>
@@ -6071,21 +6105,27 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="47"/>
-      <c r="P139" s="51"/>
-      <c r="Q139" s="52"/>
-      <c r="R139" s="47"/>
-    </row>
-    <row r="140" spans="1:18" ht="17.25">
-      <c r="A140" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" s="25"/>
+      <c r="O139" s="78"/>
+      <c r="P139" s="82"/>
+      <c r="Q139" s="83"/>
+      <c r="R139" s="78"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.25">
+      <c r="A140" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
+      <c r="D140" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
+      <c r="G140" s="28" t="s">
+        <v>145</v>
+      </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
       <c r="J140" s="18"/>
@@ -6093,82 +6133,64 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="47"/>
-      <c r="P140" s="51"/>
-      <c r="Q140" s="52"/>
-      <c r="R140" s="47"/>
-    </row>
-    <row r="141" spans="1:18" ht="14.25">
-      <c r="A141" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O140" s="78"/>
+      <c r="P140" s="82"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="78"/>
+    </row>
+    <row r="141" spans="1:18" ht="17.25">
+      <c r="A141" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="25"/>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I141" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J141" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K141" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="L141" s="26"/>
-      <c r="M141" s="26"/>
-      <c r="N141" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O141" s="47"/>
-      <c r="P141" s="51"/>
-      <c r="Q141" s="52"/>
-      <c r="R141" s="47"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="78"/>
+      <c r="P141" s="82"/>
+      <c r="Q141" s="83"/>
+      <c r="R141" s="78"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
-      <c r="A142" s="23" t="s">
-        <v>139</v>
+      <c r="A142" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
+      <c r="D142" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I142" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J142" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K142" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="L142" s="26"/>
-      <c r="M142" s="26"/>
-      <c r="N142" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O142" s="47"/>
-      <c r="P142" s="51"/>
-      <c r="Q142" s="52"/>
-      <c r="R142" s="47"/>
+      <c r="G142" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="78"/>
+      <c r="P142" s="82"/>
+      <c r="Q142" s="83"/>
+      <c r="R142" s="78"/>
     </row>
     <row r="143" spans="1:18" ht="17.25">
       <c r="A143" s="25" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B143" s="25"/>
       <c r="C143" s="18"/>
@@ -6176,104 +6198,122 @@
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="26"/>
-      <c r="L143" s="26"/>
-      <c r="M143" s="26"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="47"/>
-      <c r="P143" s="51"/>
-      <c r="Q143" s="52"/>
-      <c r="R143" s="47"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="78"/>
+      <c r="P143" s="82"/>
+      <c r="Q143" s="83"/>
+      <c r="R143" s="78"/>
     </row>
     <row r="144" spans="1:18" ht="14.25">
       <c r="A144" s="23" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C144" s="18"/>
-      <c r="D144" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="D144" s="18"/>
       <c r="E144" s="18"/>
       <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="47"/>
-      <c r="P144" s="51"/>
-      <c r="Q144" s="52"/>
-      <c r="R144" s="47"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="G144" s="27"/>
+      <c r="H144" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I144" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J144" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K144" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O144" s="78"/>
+      <c r="P144" s="82"/>
+      <c r="Q144" s="83"/>
+      <c r="R144" s="78"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C145" s="18"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="18"/>
       <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="47"/>
-      <c r="P145" s="51"/>
-      <c r="Q145" s="52"/>
-      <c r="R145" s="47"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I145" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J145" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K145" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O145" s="78"/>
+      <c r="P145" s="82"/>
+      <c r="Q145" s="83"/>
+      <c r="R145" s="78"/>
     </row>
     <row r="146" spans="1:18" ht="17.25">
       <c r="A146" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B146" s="25"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="47"/>
-      <c r="P146" s="51"/>
-      <c r="Q146" s="52"/>
-      <c r="R146" s="47"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
+      <c r="M146" s="26"/>
+      <c r="N146" s="26"/>
+      <c r="O146" s="78"/>
+      <c r="P146" s="82"/>
+      <c r="Q146" s="83"/>
+      <c r="R146" s="78"/>
     </row>
     <row r="147" spans="1:18" ht="14.25">
       <c r="A147" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B147" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="22" t="s">
-        <v>129</v>
+      <c r="D147" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
-      <c r="G147" s="21"/>
+      <c r="G147" s="18"/>
       <c r="H147" s="18"/>
       <c r="I147" s="18"/>
       <c r="J147" s="18"/>
@@ -6281,25 +6321,23 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="51"/>
-      <c r="Q147" s="52"/>
-      <c r="R147" s="47"/>
-    </row>
-    <row r="148" spans="1:18" ht="14.25">
+      <c r="O147" s="78"/>
+      <c r="P147" s="82"/>
+      <c r="Q147" s="83"/>
+      <c r="R147" s="78"/>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C148" s="18"/>
-      <c r="D148" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="D148" s="20"/>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
-      <c r="G148" s="21"/>
+      <c r="G148" s="18"/>
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
       <c r="J148" s="18"/>
@@ -6307,21 +6345,21 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="47"/>
-      <c r="P148" s="51"/>
-      <c r="Q148" s="52"/>
-      <c r="R148" s="47"/>
+      <c r="O148" s="78"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="83"/>
+      <c r="R148" s="78"/>
     </row>
     <row r="149" spans="1:18" ht="17.25">
       <c r="A149" s="25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B149" s="25"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
       <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
+      <c r="G149" s="21"/>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
       <c r="J149" s="18"/>
@@ -6329,21 +6367,21 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="47"/>
-      <c r="P149" s="51"/>
-      <c r="Q149" s="52"/>
-      <c r="R149" s="47"/>
+      <c r="O149" s="78"/>
+      <c r="P149" s="82"/>
+      <c r="Q149" s="83"/>
+      <c r="R149" s="78"/>
     </row>
     <row r="150" spans="1:18" ht="14.25">
       <c r="A150" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
@@ -6355,21 +6393,25 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="47"/>
-      <c r="P150" s="51"/>
-      <c r="Q150" s="52"/>
-      <c r="R150" s="47"/>
-    </row>
-    <row r="151" spans="1:18" ht="17.25">
-      <c r="A151" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B151" s="25"/>
+      <c r="O150" s="78"/>
+      <c r="P150" s="82"/>
+      <c r="Q150" s="83"/>
+      <c r="R150" s="78"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.25">
+      <c r="A151" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
+      <c r="D151" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
+      <c r="G151" s="21"/>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
       <c r="J151" s="18"/>
@@ -6377,81 +6419,69 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="47"/>
-      <c r="P151" s="51"/>
-      <c r="Q151" s="52"/>
-      <c r="R151" s="47"/>
-    </row>
-    <row r="152" spans="1:18" ht="14.25">
-      <c r="A152" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="O151" s="78"/>
+      <c r="P151" s="82"/>
+      <c r="Q151" s="83"/>
+      <c r="R151" s="78"/>
+    </row>
+    <row r="152" spans="1:18" ht="17.25">
+      <c r="A152" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="25"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
-      <c r="G152" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="18"/>
       <c r="J152" s="18"/>
       <c r="K152" s="18"/>
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="47"/>
-      <c r="P152" s="51"/>
-      <c r="Q152" s="52"/>
-      <c r="R152" s="47"/>
+      <c r="O152" s="78"/>
+      <c r="P152" s="82"/>
+      <c r="Q152" s="83"/>
+      <c r="R152" s="78"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
+      <c r="D153" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
-      <c r="G153" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H153" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="47"/>
-      <c r="P153" s="51"/>
-      <c r="Q153" s="52"/>
-      <c r="R153" s="47"/>
-    </row>
-    <row r="154" spans="1:18" ht="14.25">
-      <c r="A154" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B154" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="G153" s="21"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="78"/>
+      <c r="P153" s="82"/>
+      <c r="Q153" s="83"/>
+      <c r="R153" s="78"/>
+    </row>
+    <row r="154" spans="1:18" ht="17.25">
+      <c r="A154" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="25"/>
       <c r="C154" s="18"/>
-      <c r="D154" s="22" t="s">
-        <v>119</v>
-      </c>
+      <c r="D154" s="18"/>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
-      <c r="G154" s="21"/>
+      <c r="G154" s="18"/>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
       <c r="J154" s="18"/>
@@ -6459,72 +6489,262 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="47"/>
-      <c r="P154" s="51"/>
-      <c r="Q154" s="52"/>
-      <c r="R154" s="47"/>
-    </row>
-    <row r="155" spans="1:18">
-      <c r="A155" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B155" s="18" t="s">
+      <c r="O154" s="78"/>
+      <c r="P154" s="82"/>
+      <c r="Q154" s="83"/>
+      <c r="R154" s="78"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.25">
+      <c r="A155" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="D155" s="20"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="G155" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="I155" s="18"/>
       <c r="J155" s="18"/>
       <c r="K155" s="18"/>
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="47"/>
-      <c r="P155" s="51"/>
-      <c r="Q155" s="52"/>
-      <c r="R155" s="47"/>
+      <c r="O155" s="78"/>
+      <c r="P155" s="82"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="78"/>
     </row>
     <row r="156" spans="1:18" ht="14.25">
-      <c r="A156" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B156" s="18" t="s">
+      <c r="A156" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="D156" s="18"/>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="48"/>
-      <c r="P156" s="53"/>
-      <c r="Q156" s="54"/>
-      <c r="R156" s="48"/>
+      <c r="G156" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H156" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="78"/>
+      <c r="P156" s="82"/>
+      <c r="Q156" s="83"/>
+      <c r="R156" s="78"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.25">
+      <c r="A157" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="18"/>
+      <c r="D157" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
+      <c r="N157" s="18"/>
+      <c r="O157" s="78"/>
+      <c r="P157" s="82"/>
+      <c r="Q157" s="83"/>
+      <c r="R157" s="78"/>
+    </row>
+    <row r="158" spans="1:18">
+      <c r="A158" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C158" s="18"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
+      <c r="O158" s="78"/>
+      <c r="P158" s="82"/>
+      <c r="Q158" s="83"/>
+      <c r="R158" s="78"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.25">
+      <c r="A159" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="D159" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
+      <c r="O159" s="79"/>
+      <c r="P159" s="84"/>
+      <c r="Q159" s="85"/>
+      <c r="R159" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
+  <mergeCells count="150">
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A84:A101"/>
+    <mergeCell ref="O126:O159"/>
+    <mergeCell ref="P126:Q159"/>
+    <mergeCell ref="R126:R159"/>
+    <mergeCell ref="A123:R124"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="Q4:R121"/>
+    <mergeCell ref="S4:S121"/>
+    <mergeCell ref="P4:P121"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="A4:A38"/>
@@ -6549,120 +6769,15 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="A47:A56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A99:A118"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A84:A98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O123:O156"/>
-    <mergeCell ref="P123:Q156"/>
-    <mergeCell ref="R123:R156"/>
-    <mergeCell ref="A120:R121"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="Q4:R118"/>
-    <mergeCell ref="S4:S118"/>
-    <mergeCell ref="P4:P118"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6685,75 +6800,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="U1" s="56" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="U1" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6802,26 +6917,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6836,34 +6951,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="S4" s="60" t="s">
+      <c r="R4" s="92"/>
+      <c r="S4" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6876,26 +6991,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="62"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="93"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21">
-      <c r="A6" s="85"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -6910,17 +7025,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="62"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="17.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -6933,17 +7048,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="62"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="93"/>
     </row>
     <row r="8" spans="1:29" ht="17.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -6956,18 +7071,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="62"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="93"/>
     </row>
     <row r="9" spans="1:29" ht="21">
-      <c r="A9" s="89"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="71" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="62" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -6981,18 +7096,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="62"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="93"/>
     </row>
     <row r="10" spans="1:29" ht="21">
-      <c r="A10" s="89"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="71"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -7004,17 +7119,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="62"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="17.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -7027,17 +7142,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="62"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="93"/>
     </row>
     <row r="12" spans="1:29" ht="17.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -7050,65 +7165,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="62"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="93"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="85"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="72" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="96" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="62"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="93"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="85"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="62"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="17.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -7121,17 +7236,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="62"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="93"/>
     </row>
     <row r="16" spans="1:29" ht="17.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -7144,17 +7259,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="62"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -7167,17 +7282,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="62"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="93"/>
     </row>
     <row r="18" spans="1:19" ht="21">
-      <c r="A18" s="85"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -7192,17 +7307,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="62"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="93"/>
     </row>
     <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -7215,17 +7330,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="62"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:19" ht="17.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -7238,17 +7353,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="62"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="93"/>
     </row>
     <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -7261,17 +7376,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="62"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="93"/>
     </row>
     <row r="22" spans="1:19" ht="17.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -7284,17 +7399,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="62"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="93"/>
     </row>
     <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -7307,17 +7422,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="62"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="93"/>
     </row>
     <row r="24" spans="1:19" ht="21">
-      <c r="A24" s="85"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7332,17 +7447,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="62"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="93"/>
     </row>
     <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7355,17 +7470,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="62"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="93"/>
     </row>
     <row r="26" spans="1:19" ht="17.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7378,17 +7493,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="62"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="93"/>
     </row>
     <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7401,17 +7516,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="62"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="93"/>
     </row>
     <row r="28" spans="1:19" ht="21">
-      <c r="A28" s="85"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7426,17 +7541,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="62"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="93"/>
     </row>
     <row r="29" spans="1:19" ht="17.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7449,17 +7564,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="62"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="93"/>
     </row>
     <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="67" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7472,17 +7587,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="62"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="93"/>
     </row>
     <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7495,17 +7610,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="62"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="93"/>
     </row>
     <row r="32" spans="1:19" ht="17.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7518,17 +7633,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="62"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="93"/>
     </row>
     <row r="33" spans="1:19" ht="21">
-      <c r="A33" s="85"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7543,17 +7658,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="62"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="93"/>
     </row>
     <row r="34" spans="1:19" ht="17.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7566,17 +7681,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="62"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="93"/>
     </row>
     <row r="35" spans="1:19" ht="17.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="68"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7589,17 +7704,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="62"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="93"/>
     </row>
     <row r="36" spans="1:19" ht="17.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="68" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7612,17 +7727,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="62"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="93"/>
     </row>
     <row r="37" spans="1:19" ht="21">
-      <c r="A37" s="85"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7637,15 +7752,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="62"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="93"/>
     </row>
     <row r="38" spans="1:19" ht="21">
-      <c r="A38" s="85"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7658,15 +7773,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="62"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="93"/>
     </row>
     <row r="39" spans="1:19" ht="21">
-      <c r="A39" s="85"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="83"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7679,17 +7794,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="62"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="93"/>
     </row>
     <row r="40" spans="1:19" ht="21">
-      <c r="A40" s="90"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7704,19 +7819,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="62"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="93"/>
     </row>
     <row r="41" spans="1:19" ht="21">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7731,17 +7846,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="62"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="93"/>
     </row>
     <row r="42" spans="1:19" ht="17.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="71" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7754,17 +7869,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="62"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="93"/>
     </row>
     <row r="43" spans="1:19" ht="17.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="71" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7777,17 +7892,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="62"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="93"/>
     </row>
     <row r="44" spans="1:19" ht="21">
-      <c r="A44" s="91"/>
-      <c r="B44" s="83" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7802,17 +7917,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="62"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="93"/>
     </row>
     <row r="45" spans="1:19" ht="17.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="71" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="67"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7825,17 +7940,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="62"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="93"/>
     </row>
     <row r="46" spans="1:19" ht="17.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="82" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7848,17 +7963,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="62"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="93"/>
     </row>
     <row r="47" spans="1:19" ht="21">
-      <c r="A47" s="91"/>
-      <c r="B47" s="83" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="69"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7873,17 +7988,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="62"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="93"/>
     </row>
     <row r="48" spans="1:19" ht="21">
-      <c r="A48" s="91"/>
-      <c r="B48" s="86" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="70"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -7898,19 +8013,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="62"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="93"/>
     </row>
     <row r="49" spans="1:19" ht="21">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="70"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -7925,17 +8040,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="62"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="93"/>
     </row>
     <row r="50" spans="1:19" ht="17.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="71" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="68"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -7948,17 +8063,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="62"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="93"/>
     </row>
     <row r="51" spans="1:19" ht="17.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="82" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="68"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7971,17 +8086,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="62"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="93"/>
     </row>
     <row r="52" spans="1:19" ht="17.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="82" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -7994,17 +8109,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="62"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="93"/>
     </row>
     <row r="53" spans="1:19" ht="17.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="82" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -8017,17 +8132,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="62"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="93"/>
     </row>
     <row r="54" spans="1:19" ht="17.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="82" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="68"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -8040,17 +8155,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="62"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="93"/>
     </row>
     <row r="55" spans="1:19" ht="17.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="82" t="s">
+      <c r="A55" s="63"/>
+      <c r="B55" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8063,17 +8178,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="62"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="93"/>
     </row>
     <row r="56" spans="1:19" ht="17.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="82" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="68"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -8086,17 +8201,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="62"/>
+      <c r="P56" s="93"/>
+      <c r="Q56" s="93"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="93"/>
     </row>
     <row r="57" spans="1:19" ht="17.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="82" t="s">
+      <c r="A57" s="63"/>
+      <c r="B57" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="68"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8109,17 +8224,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="62"/>
+      <c r="P57" s="93"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="93"/>
     </row>
     <row r="58" spans="1:19" ht="21">
-      <c r="A58" s="92"/>
-      <c r="B58" s="83" t="s">
+      <c r="A58" s="64"/>
+      <c r="B58" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="70"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -8134,19 +8249,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="62"/>
+      <c r="P58" s="93"/>
+      <c r="Q58" s="93"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="93"/>
     </row>
     <row r="59" spans="1:19" ht="21">
-      <c r="A59" s="80" t="s">
+      <c r="A59" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="70"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -8161,17 +8276,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="62"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="93"/>
     </row>
     <row r="60" spans="1:19" ht="21">
-      <c r="A60" s="81"/>
-      <c r="B60" s="69" t="s">
+      <c r="A60" s="68"/>
+      <c r="B60" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="70"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -8186,17 +8301,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="62"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="93"/>
     </row>
     <row r="61" spans="1:19" ht="17.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="67" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -8209,17 +8324,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="62"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="93"/>
     </row>
     <row r="62" spans="1:19" ht="17.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="67" t="s">
+      <c r="A62" s="68"/>
+      <c r="B62" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="68"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -8232,17 +8347,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="62"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="93"/>
     </row>
     <row r="63" spans="1:19" ht="21">
-      <c r="A63" s="81"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="70"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -8257,17 +8372,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="62"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="93"/>
     </row>
     <row r="64" spans="1:19" ht="21">
-      <c r="A64" s="81"/>
-      <c r="B64" s="69" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="70"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -8282,17 +8397,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="62"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="93"/>
     </row>
     <row r="65" spans="1:19" ht="17.25">
-      <c r="A65" s="81"/>
-      <c r="B65" s="67" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="68"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -8305,17 +8420,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="62"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="93"/>
     </row>
     <row r="66" spans="1:19" ht="17.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="68" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="68"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -8328,17 +8443,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="62"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="93"/>
     </row>
     <row r="67" spans="1:19" ht="17.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="68" t="s">
+      <c r="A67" s="68"/>
+      <c r="B67" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="68"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8351,17 +8466,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="62"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="93"/>
     </row>
     <row r="68" spans="1:19" ht="17.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="68" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="68"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8374,17 +8489,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="62"/>
+      <c r="P68" s="93"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="93"/>
     </row>
     <row r="69" spans="1:19" ht="17.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="68" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="68"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8397,17 +8512,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="62"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="93"/>
     </row>
     <row r="70" spans="1:19" ht="17.25">
-      <c r="A70" s="81"/>
-      <c r="B70" s="68" t="s">
+      <c r="A70" s="68"/>
+      <c r="B70" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="68"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8420,17 +8535,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="62"/>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="93"/>
     </row>
     <row r="71" spans="1:19" ht="21">
-      <c r="A71" s="81"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="70"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8445,17 +8560,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="62"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="93"/>
     </row>
     <row r="72" spans="1:19" ht="21">
-      <c r="A72" s="81"/>
-      <c r="B72" s="69" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="70"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8470,19 +8585,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="62"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="93"/>
     </row>
     <row r="73" spans="1:19" ht="21">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="70"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8497,17 +8612,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="62"/>
+      <c r="P73" s="93"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="93"/>
     </row>
     <row r="74" spans="1:19" ht="17.25">
-      <c r="A74" s="85"/>
-      <c r="B74" s="67" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8520,17 +8635,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="62"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="62"/>
+      <c r="P74" s="93"/>
+      <c r="Q74" s="93"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="93"/>
     </row>
     <row r="75" spans="1:19" ht="17.25">
-      <c r="A75" s="85"/>
-      <c r="B75" s="68" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="68"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8547,17 +8662,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="62"/>
+      <c r="P75" s="93"/>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="93"/>
     </row>
     <row r="76" spans="1:19" ht="17.25">
-      <c r="A76" s="85"/>
-      <c r="B76" s="68" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="68"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8573,17 +8688,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="62"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="93"/>
     </row>
     <row r="77" spans="1:19" ht="17.25">
-      <c r="A77" s="85"/>
-      <c r="B77" s="68" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="68"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8600,17 +8715,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="62"/>
-      <c r="Q77" s="62"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="62"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="93"/>
     </row>
     <row r="78" spans="1:19" ht="21">
-      <c r="A78" s="85"/>
-      <c r="B78" s="69" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="70"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8625,17 +8740,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="62"/>
+      <c r="P78" s="93"/>
+      <c r="Q78" s="93"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="93"/>
     </row>
     <row r="79" spans="1:19" ht="17.25">
-      <c r="A79" s="85"/>
-      <c r="B79" s="67" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="68"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8648,17 +8763,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="62"/>
+      <c r="P79" s="93"/>
+      <c r="Q79" s="93"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="93"/>
     </row>
     <row r="80" spans="1:19" ht="17.25">
-      <c r="A80" s="85"/>
-      <c r="B80" s="68" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="68"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8671,17 +8786,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="62"/>
-      <c r="Q80" s="62"/>
-      <c r="R80" s="63"/>
-      <c r="S80" s="62"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="93"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="93"/>
     </row>
     <row r="81" spans="1:19" ht="17.25">
-      <c r="A81" s="85"/>
-      <c r="B81" s="68" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="68"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8694,17 +8809,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="62"/>
-      <c r="Q81" s="62"/>
-      <c r="R81" s="63"/>
-      <c r="S81" s="62"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="93"/>
     </row>
     <row r="82" spans="1:19" ht="21">
-      <c r="A82" s="85"/>
-      <c r="B82" s="69" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="70"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8719,17 +8834,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="63"/>
-      <c r="S82" s="62"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="93"/>
     </row>
     <row r="83" spans="1:19" ht="17.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="67" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="68"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8742,17 +8857,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="63"/>
-      <c r="S83" s="62"/>
+      <c r="P83" s="93"/>
+      <c r="Q83" s="93"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="93"/>
     </row>
     <row r="84" spans="1:19" ht="17.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="68" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="68"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8765,17 +8880,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="63"/>
-      <c r="S84" s="62"/>
+      <c r="P84" s="93"/>
+      <c r="Q84" s="93"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="93"/>
     </row>
     <row r="85" spans="1:19" ht="17.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="68" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="68"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8788,19 +8903,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="62"/>
-      <c r="Q85" s="62"/>
-      <c r="R85" s="63"/>
-      <c r="S85" s="62"/>
+      <c r="P85" s="93"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="93"/>
     </row>
     <row r="86" spans="1:19" ht="21">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="69" t="s">
+      <c r="B86" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="70"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8815,17 +8930,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="63"/>
-      <c r="S86" s="62"/>
+      <c r="P86" s="93"/>
+      <c r="Q86" s="93"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="93"/>
     </row>
     <row r="87" spans="1:19" ht="17.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="67" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="68"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>111</v>
@@ -8840,17 +8955,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="62"/>
-      <c r="Q87" s="62"/>
-      <c r="R87" s="63"/>
-      <c r="S87" s="62"/>
+      <c r="P87" s="93"/>
+      <c r="Q87" s="93"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="93"/>
     </row>
     <row r="88" spans="1:19" ht="17.25">
-      <c r="A88" s="85"/>
-      <c r="B88" s="67" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="68"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8865,17 +8980,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="62"/>
-      <c r="Q88" s="62"/>
-      <c r="R88" s="63"/>
-      <c r="S88" s="62"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="93"/>
     </row>
     <row r="89" spans="1:19" ht="17.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="68" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="68"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -8890,17 +9005,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="62"/>
-      <c r="Q89" s="62"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="62"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="93"/>
     </row>
     <row r="90" spans="1:19" ht="17.25">
-      <c r="A90" s="85"/>
-      <c r="B90" s="68" t="s">
+      <c r="A90" s="53"/>
+      <c r="B90" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="68"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -8917,17 +9032,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="62"/>
-      <c r="Q90" s="62"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="62"/>
+      <c r="P90" s="93"/>
+      <c r="Q90" s="93"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="93"/>
     </row>
     <row r="91" spans="1:19" ht="17.25">
-      <c r="A91" s="85"/>
-      <c r="B91" s="68" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="68"/>
+      <c r="C91" s="60"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -8944,17 +9059,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="62"/>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="63"/>
-      <c r="S91" s="62"/>
+      <c r="P91" s="93"/>
+      <c r="Q91" s="93"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="93"/>
     </row>
     <row r="92" spans="1:19" ht="17.25">
-      <c r="A92" s="85"/>
-      <c r="B92" s="68" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="68"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -8971,17 +9086,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="62"/>
-      <c r="Q92" s="62"/>
-      <c r="R92" s="63"/>
-      <c r="S92" s="62"/>
+      <c r="P92" s="93"/>
+      <c r="Q92" s="93"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="93"/>
     </row>
     <row r="93" spans="1:19" ht="17.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="68" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="68"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -8998,17 +9113,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="62"/>
-      <c r="Q93" s="62"/>
-      <c r="R93" s="63"/>
-      <c r="S93" s="62"/>
+      <c r="P93" s="93"/>
+      <c r="Q93" s="93"/>
+      <c r="R93" s="94"/>
+      <c r="S93" s="93"/>
     </row>
     <row r="94" spans="1:19" ht="17.25">
-      <c r="A94" s="85"/>
-      <c r="B94" s="68" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="68"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -9023,17 +9138,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="62"/>
-      <c r="Q94" s="62"/>
-      <c r="R94" s="63"/>
-      <c r="S94" s="62"/>
+      <c r="P94" s="93"/>
+      <c r="Q94" s="93"/>
+      <c r="R94" s="94"/>
+      <c r="S94" s="93"/>
     </row>
     <row r="95" spans="1:19" ht="21">
-      <c r="A95" s="85"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="70"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -9048,17 +9163,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="62"/>
-      <c r="Q95" s="62"/>
-      <c r="R95" s="63"/>
-      <c r="S95" s="62"/>
+      <c r="P95" s="93"/>
+      <c r="Q95" s="93"/>
+      <c r="R95" s="94"/>
+      <c r="S95" s="93"/>
     </row>
     <row r="96" spans="1:19" ht="17.25">
-      <c r="A96" s="85"/>
-      <c r="B96" s="67" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="68"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>111</v>
@@ -9073,17 +9188,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="62"/>
-      <c r="Q96" s="62"/>
-      <c r="R96" s="63"/>
-      <c r="S96" s="62"/>
+      <c r="P96" s="93"/>
+      <c r="Q96" s="93"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="93"/>
     </row>
     <row r="97" spans="1:19" ht="17.25">
-      <c r="A97" s="85"/>
-      <c r="B97" s="67" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="68"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9098,17 +9213,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="62"/>
-      <c r="Q97" s="62"/>
-      <c r="R97" s="63"/>
-      <c r="S97" s="62"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="94"/>
+      <c r="S97" s="93"/>
     </row>
     <row r="98" spans="1:19" ht="17.25">
-      <c r="A98" s="85"/>
-      <c r="B98" s="68" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="68"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9123,17 +9238,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="62"/>
-      <c r="Q98" s="62"/>
-      <c r="R98" s="63"/>
-      <c r="S98" s="62"/>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="93"/>
+      <c r="R98" s="94"/>
+      <c r="S98" s="93"/>
     </row>
     <row r="99" spans="1:19" ht="17.25">
-      <c r="A99" s="85"/>
-      <c r="B99" s="68" t="s">
+      <c r="A99" s="53"/>
+      <c r="B99" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="68"/>
+      <c r="C99" s="60"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9152,17 +9267,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="62"/>
-      <c r="Q99" s="62"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="62"/>
+      <c r="P99" s="93"/>
+      <c r="Q99" s="93"/>
+      <c r="R99" s="94"/>
+      <c r="S99" s="93"/>
     </row>
     <row r="100" spans="1:19" ht="17.25">
-      <c r="A100" s="85"/>
-      <c r="B100" s="68" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="68"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9177,17 +9292,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="62"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="63"/>
-      <c r="S100" s="62"/>
+      <c r="P100" s="93"/>
+      <c r="Q100" s="93"/>
+      <c r="R100" s="94"/>
+      <c r="S100" s="93"/>
     </row>
     <row r="101" spans="1:19" ht="17.25">
-      <c r="A101" s="85"/>
-      <c r="B101" s="68" t="s">
+      <c r="A101" s="53"/>
+      <c r="B101" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="68"/>
+      <c r="C101" s="60"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9202,19 +9317,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="62"/>
-      <c r="Q101" s="62"/>
-      <c r="R101" s="63"/>
-      <c r="S101" s="62"/>
+      <c r="P101" s="93"/>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="94"/>
+      <c r="S101" s="93"/>
     </row>
     <row r="102" spans="1:19" ht="21">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="69" t="s">
+      <c r="B102" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="70"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -9229,17 +9344,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="63"/>
-      <c r="S102" s="62"/>
+      <c r="P102" s="93"/>
+      <c r="Q102" s="93"/>
+      <c r="R102" s="94"/>
+      <c r="S102" s="93"/>
     </row>
     <row r="103" spans="1:19" ht="17.25">
-      <c r="A103" s="85"/>
-      <c r="B103" s="67" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="68"/>
+      <c r="C103" s="60"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -9254,17 +9369,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
-      <c r="R103" s="63"/>
-      <c r="S103" s="62"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="94"/>
+      <c r="S103" s="93"/>
     </row>
     <row r="104" spans="1:19" ht="17.25">
-      <c r="A104" s="85"/>
-      <c r="B104" s="67" t="s">
+      <c r="A104" s="53"/>
+      <c r="B104" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="68"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9277,17 +9392,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="62"/>
-      <c r="Q104" s="62"/>
-      <c r="R104" s="63"/>
-      <c r="S104" s="62"/>
+      <c r="P104" s="93"/>
+      <c r="Q104" s="93"/>
+      <c r="R104" s="94"/>
+      <c r="S104" s="93"/>
     </row>
     <row r="105" spans="1:19" ht="21">
-      <c r="A105" s="85"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="70"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -9302,17 +9417,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="62"/>
-      <c r="Q105" s="62"/>
-      <c r="R105" s="63"/>
-      <c r="S105" s="62"/>
+      <c r="P105" s="93"/>
+      <c r="Q105" s="93"/>
+      <c r="R105" s="94"/>
+      <c r="S105" s="93"/>
     </row>
     <row r="106" spans="1:19" ht="17.25">
-      <c r="A106" s="85"/>
-      <c r="B106" s="67" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="67"/>
+      <c r="C106" s="59"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -9327,17 +9442,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="62"/>
-      <c r="R106" s="63"/>
-      <c r="S106" s="62"/>
+      <c r="P106" s="93"/>
+      <c r="Q106" s="93"/>
+      <c r="R106" s="94"/>
+      <c r="S106" s="93"/>
     </row>
     <row r="107" spans="1:19" ht="17.25">
-      <c r="A107" s="85"/>
-      <c r="B107" s="67" t="s">
+      <c r="A107" s="53"/>
+      <c r="B107" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="68"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9352,17 +9467,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="62"/>
-      <c r="Q107" s="62"/>
-      <c r="R107" s="63"/>
-      <c r="S107" s="62"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="93"/>
+      <c r="R107" s="94"/>
+      <c r="S107" s="93"/>
     </row>
     <row r="108" spans="1:19" ht="17.25">
-      <c r="A108" s="85"/>
-      <c r="B108" s="68" t="s">
+      <c r="A108" s="53"/>
+      <c r="B108" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="68"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9377,17 +9492,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="62"/>
-      <c r="Q108" s="62"/>
-      <c r="R108" s="63"/>
-      <c r="S108" s="62"/>
+      <c r="P108" s="93"/>
+      <c r="Q108" s="93"/>
+      <c r="R108" s="94"/>
+      <c r="S108" s="93"/>
     </row>
     <row r="109" spans="1:19" ht="17.25">
-      <c r="A109" s="85"/>
-      <c r="B109" s="68" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="68"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9402,17 +9517,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="62"/>
-      <c r="R109" s="63"/>
-      <c r="S109" s="62"/>
+      <c r="P109" s="93"/>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="94"/>
+      <c r="S109" s="93"/>
     </row>
     <row r="110" spans="1:19" ht="17.25">
-      <c r="A110" s="85"/>
-      <c r="B110" s="68" t="s">
+      <c r="A110" s="53"/>
+      <c r="B110" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="68"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9427,17 +9542,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="62"/>
-      <c r="Q110" s="62"/>
-      <c r="R110" s="63"/>
-      <c r="S110" s="62"/>
+      <c r="P110" s="93"/>
+      <c r="Q110" s="93"/>
+      <c r="R110" s="94"/>
+      <c r="S110" s="93"/>
     </row>
     <row r="111" spans="1:19" ht="17.25">
-      <c r="A111" s="85"/>
-      <c r="B111" s="68" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="68"/>
+      <c r="C111" s="60"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9452,17 +9567,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="62"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="63"/>
-      <c r="S111" s="62"/>
+      <c r="P111" s="93"/>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="94"/>
+      <c r="S111" s="93"/>
     </row>
     <row r="112" spans="1:19" ht="17.25">
-      <c r="A112" s="85"/>
-      <c r="B112" s="68" t="s">
+      <c r="A112" s="53"/>
+      <c r="B112" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="68"/>
+      <c r="C112" s="60"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9477,17 +9592,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="62"/>
-      <c r="Q112" s="62"/>
-      <c r="R112" s="63"/>
-      <c r="S112" s="62"/>
+      <c r="P112" s="93"/>
+      <c r="Q112" s="93"/>
+      <c r="R112" s="94"/>
+      <c r="S112" s="93"/>
     </row>
     <row r="113" spans="1:19" ht="21">
-      <c r="A113" s="85"/>
-      <c r="B113" s="69" t="s">
+      <c r="A113" s="53"/>
+      <c r="B113" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="70"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9502,17 +9617,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="63"/>
-      <c r="S113" s="62"/>
+      <c r="P113" s="93"/>
+      <c r="Q113" s="93"/>
+      <c r="R113" s="94"/>
+      <c r="S113" s="93"/>
     </row>
     <row r="114" spans="1:19" ht="17.25">
-      <c r="A114" s="85"/>
-      <c r="B114" s="67" t="s">
+      <c r="A114" s="53"/>
+      <c r="B114" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="68"/>
+      <c r="C114" s="60"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9527,17 +9642,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="62"/>
-      <c r="Q114" s="62"/>
-      <c r="R114" s="63"/>
-      <c r="S114" s="62"/>
+      <c r="P114" s="93"/>
+      <c r="Q114" s="93"/>
+      <c r="R114" s="94"/>
+      <c r="S114" s="93"/>
     </row>
     <row r="115" spans="1:19" ht="17.25">
-      <c r="A115" s="85"/>
-      <c r="B115" s="67" t="s">
+      <c r="A115" s="53"/>
+      <c r="B115" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="68"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9552,17 +9667,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="62"/>
-      <c r="Q115" s="62"/>
-      <c r="R115" s="63"/>
-      <c r="S115" s="62"/>
+      <c r="P115" s="93"/>
+      <c r="Q115" s="93"/>
+      <c r="R115" s="94"/>
+      <c r="S115" s="93"/>
     </row>
     <row r="116" spans="1:19" ht="17.25">
-      <c r="A116" s="85"/>
-      <c r="B116" s="68" t="s">
+      <c r="A116" s="53"/>
+      <c r="B116" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="68"/>
+      <c r="C116" s="60"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9577,17 +9692,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="62"/>
-      <c r="R116" s="63"/>
-      <c r="S116" s="62"/>
+      <c r="P116" s="93"/>
+      <c r="Q116" s="93"/>
+      <c r="R116" s="94"/>
+      <c r="S116" s="93"/>
     </row>
     <row r="117" spans="1:19" ht="17.25">
-      <c r="A117" s="85"/>
-      <c r="B117" s="68" t="s">
+      <c r="A117" s="53"/>
+      <c r="B117" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="68"/>
+      <c r="C117" s="60"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9602,17 +9717,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="62"/>
-      <c r="Q117" s="62"/>
-      <c r="R117" s="63"/>
-      <c r="S117" s="62"/>
+      <c r="P117" s="93"/>
+      <c r="Q117" s="93"/>
+      <c r="R117" s="94"/>
+      <c r="S117" s="93"/>
     </row>
     <row r="118" spans="1:19" ht="17.25">
-      <c r="A118" s="85"/>
-      <c r="B118" s="68" t="s">
+      <c r="A118" s="53"/>
+      <c r="B118" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="68"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9627,17 +9742,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="62"/>
-      <c r="Q118" s="62"/>
-      <c r="R118" s="63"/>
-      <c r="S118" s="62"/>
+      <c r="P118" s="93"/>
+      <c r="Q118" s="93"/>
+      <c r="R118" s="94"/>
+      <c r="S118" s="93"/>
     </row>
     <row r="119" spans="1:19" ht="21">
-      <c r="A119" s="85"/>
-      <c r="B119" s="69" t="s">
+      <c r="A119" s="53"/>
+      <c r="B119" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="70"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9652,17 +9767,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="62"/>
-      <c r="Q119" s="62"/>
-      <c r="R119" s="63"/>
-      <c r="S119" s="62"/>
+      <c r="P119" s="93"/>
+      <c r="Q119" s="93"/>
+      <c r="R119" s="94"/>
+      <c r="S119" s="93"/>
     </row>
     <row r="120" spans="1:19" ht="17.25">
-      <c r="A120" s="85"/>
-      <c r="B120" s="67" t="s">
+      <c r="A120" s="53"/>
+      <c r="B120" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="68"/>
+      <c r="C120" s="60"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9677,17 +9792,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="62"/>
-      <c r="Q120" s="62"/>
-      <c r="R120" s="63"/>
-      <c r="S120" s="62"/>
+      <c r="P120" s="93"/>
+      <c r="Q120" s="93"/>
+      <c r="R120" s="94"/>
+      <c r="S120" s="93"/>
     </row>
     <row r="121" spans="1:19" ht="17.25">
-      <c r="A121" s="85"/>
-      <c r="B121" s="67" t="s">
+      <c r="A121" s="53"/>
+      <c r="B121" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="68"/>
+      <c r="C121" s="60"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9702,56 +9817,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="64"/>
-      <c r="Q121" s="64"/>
-      <c r="R121" s="65"/>
-      <c r="S121" s="64"/>
+      <c r="P121" s="95"/>
+      <c r="Q121" s="95"/>
+      <c r="R121" s="96"/>
+      <c r="S121" s="95"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="84"/>
-      <c r="C122" s="84"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="66"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="55"/>
-      <c r="L123" s="55"/>
-      <c r="M123" s="55"/>
-      <c r="N123" s="55"/>
-      <c r="O123" s="55"/>
-      <c r="P123" s="55"/>
-      <c r="Q123" s="55"/>
-      <c r="R123" s="55"/>
+      <c r="B123" s="86"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="86"/>
+      <c r="I123" s="86"/>
+      <c r="J123" s="86"/>
+      <c r="K123" s="86"/>
+      <c r="L123" s="86"/>
+      <c r="M123" s="86"/>
+      <c r="N123" s="86"/>
+      <c r="O123" s="86"/>
+      <c r="P123" s="86"/>
+      <c r="Q123" s="86"/>
+      <c r="R123" s="86"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="55"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="55"/>
-      <c r="N124" s="55"/>
-      <c r="O124" s="55"/>
-      <c r="P124" s="55"/>
-      <c r="Q124" s="55"/>
-      <c r="R124" s="55"/>
+      <c r="A124" s="86"/>
+      <c r="B124" s="86"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86"/>
+      <c r="I124" s="86"/>
+      <c r="J124" s="86"/>
+      <c r="K124" s="86"/>
+      <c r="L124" s="86"/>
+      <c r="M124" s="86"/>
+      <c r="N124" s="86"/>
+      <c r="O124" s="86"/>
+      <c r="P124" s="86"/>
+      <c r="Q124" s="86"/>
+      <c r="R124" s="86"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
@@ -9826,10 +9941,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="49"/>
-      <c r="Q126" s="50"/>
-      <c r="R126" s="46"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="80"/>
+      <c r="Q126" s="81"/>
+      <c r="R126" s="77"/>
     </row>
     <row r="127" spans="1:19" ht="14.25">
       <c r="A127" s="23" t="s">
@@ -9852,10 +9967,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="47"/>
-      <c r="P127" s="51"/>
-      <c r="Q127" s="52"/>
-      <c r="R127" s="47"/>
+      <c r="O127" s="78"/>
+      <c r="P127" s="82"/>
+      <c r="Q127" s="83"/>
+      <c r="R127" s="78"/>
     </row>
     <row r="128" spans="1:19" ht="14.25">
       <c r="A128" s="23" t="s">
@@ -9882,10 +9997,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="47"/>
-      <c r="P128" s="51"/>
-      <c r="Q128" s="52"/>
-      <c r="R128" s="47"/>
+      <c r="O128" s="78"/>
+      <c r="P128" s="82"/>
+      <c r="Q128" s="83"/>
+      <c r="R128" s="78"/>
     </row>
     <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="23" t="s">
@@ -9910,10 +10025,10 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="47"/>
-      <c r="P129" s="51"/>
-      <c r="Q129" s="52"/>
-      <c r="R129" s="47"/>
+      <c r="O129" s="78"/>
+      <c r="P129" s="82"/>
+      <c r="Q129" s="83"/>
+      <c r="R129" s="78"/>
     </row>
     <row r="130" spans="1:18" ht="17.25">
       <c r="A130" s="25" t="s">
@@ -9932,10 +10047,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="47"/>
-      <c r="P130" s="51"/>
-      <c r="Q130" s="52"/>
-      <c r="R130" s="47"/>
+      <c r="O130" s="78"/>
+      <c r="P130" s="82"/>
+      <c r="Q130" s="83"/>
+      <c r="R130" s="78"/>
     </row>
     <row r="131" spans="1:18" ht="14.25">
       <c r="A131" s="34" t="s">
@@ -9958,10 +10073,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="47"/>
-      <c r="P131" s="51"/>
-      <c r="Q131" s="52"/>
-      <c r="R131" s="47"/>
+      <c r="O131" s="78"/>
+      <c r="P131" s="82"/>
+      <c r="Q131" s="83"/>
+      <c r="R131" s="78"/>
     </row>
     <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="24" t="s">
@@ -9984,10 +10099,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="47"/>
-      <c r="P132" s="51"/>
-      <c r="Q132" s="52"/>
-      <c r="R132" s="47"/>
+      <c r="O132" s="78"/>
+      <c r="P132" s="82"/>
+      <c r="Q132" s="83"/>
+      <c r="R132" s="78"/>
     </row>
     <row r="133" spans="1:18" ht="17.25">
       <c r="A133" s="25" t="s">
@@ -10006,10 +10121,10 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="47"/>
-      <c r="P133" s="51"/>
-      <c r="Q133" s="52"/>
-      <c r="R133" s="47"/>
+      <c r="O133" s="78"/>
+      <c r="P133" s="82"/>
+      <c r="Q133" s="83"/>
+      <c r="R133" s="78"/>
     </row>
     <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="34" t="s">
@@ -10030,10 +10145,10 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="47"/>
-      <c r="P134" s="51"/>
-      <c r="Q134" s="52"/>
-      <c r="R134" s="47"/>
+      <c r="O134" s="78"/>
+      <c r="P134" s="82"/>
+      <c r="Q134" s="83"/>
+      <c r="R134" s="78"/>
     </row>
     <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="24" t="s">
@@ -10054,10 +10169,10 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="47"/>
-      <c r="P135" s="51"/>
-      <c r="Q135" s="52"/>
-      <c r="R135" s="47"/>
+      <c r="O135" s="78"/>
+      <c r="P135" s="82"/>
+      <c r="Q135" s="83"/>
+      <c r="R135" s="78"/>
     </row>
     <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="30" t="s">
@@ -10082,10 +10197,10 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="47"/>
-      <c r="P136" s="51"/>
-      <c r="Q136" s="52"/>
-      <c r="R136" s="47"/>
+      <c r="O136" s="78"/>
+      <c r="P136" s="82"/>
+      <c r="Q136" s="83"/>
+      <c r="R136" s="78"/>
     </row>
     <row r="137" spans="1:18" ht="14.25">
       <c r="A137" s="30" t="s">
@@ -10110,10 +10225,10 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="47"/>
-      <c r="P137" s="51"/>
-      <c r="Q137" s="52"/>
-      <c r="R137" s="47"/>
+      <c r="O137" s="78"/>
+      <c r="P137" s="82"/>
+      <c r="Q137" s="83"/>
+      <c r="R137" s="78"/>
     </row>
     <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="30" t="s">
@@ -10152,10 +10267,10 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="47"/>
-      <c r="P138" s="51"/>
-      <c r="Q138" s="52"/>
-      <c r="R138" s="47"/>
+      <c r="O138" s="78"/>
+      <c r="P138" s="82"/>
+      <c r="Q138" s="83"/>
+      <c r="R138" s="78"/>
     </row>
     <row r="139" spans="1:18" ht="17.25">
       <c r="A139" s="25" t="s">
@@ -10174,10 +10289,10 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="47"/>
-      <c r="P139" s="51"/>
-      <c r="Q139" s="52"/>
-      <c r="R139" s="47"/>
+      <c r="O139" s="78"/>
+      <c r="P139" s="82"/>
+      <c r="Q139" s="83"/>
+      <c r="R139" s="78"/>
     </row>
     <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="30" t="s">
@@ -10202,10 +10317,10 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="47"/>
-      <c r="P140" s="51"/>
-      <c r="Q140" s="52"/>
-      <c r="R140" s="47"/>
+      <c r="O140" s="78"/>
+      <c r="P140" s="82"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="78"/>
     </row>
     <row r="141" spans="1:18" ht="17.25">
       <c r="A141" s="25" t="s">
@@ -10224,10 +10339,10 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="47"/>
-      <c r="P141" s="51"/>
-      <c r="Q141" s="52"/>
-      <c r="R141" s="47"/>
+      <c r="O141" s="78"/>
+      <c r="P141" s="82"/>
+      <c r="Q141" s="83"/>
+      <c r="R141" s="78"/>
     </row>
     <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="30" t="s">
@@ -10252,10 +10367,10 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="47"/>
-      <c r="P142" s="51"/>
-      <c r="Q142" s="52"/>
-      <c r="R142" s="47"/>
+      <c r="O142" s="78"/>
+      <c r="P142" s="82"/>
+      <c r="Q142" s="83"/>
+      <c r="R142" s="78"/>
     </row>
     <row r="143" spans="1:18" ht="17.25">
       <c r="A143" s="25" t="s">
@@ -10274,10 +10389,10 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="47"/>
-      <c r="P143" s="51"/>
-      <c r="Q143" s="52"/>
-      <c r="R143" s="47"/>
+      <c r="O143" s="78"/>
+      <c r="P143" s="82"/>
+      <c r="Q143" s="83"/>
+      <c r="R143" s="78"/>
     </row>
     <row r="144" spans="1:18" ht="14.25">
       <c r="A144" s="23" t="s">
@@ -10308,10 +10423,10 @@
       <c r="N144" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="47"/>
-      <c r="P144" s="51"/>
-      <c r="Q144" s="52"/>
-      <c r="R144" s="47"/>
+      <c r="O144" s="78"/>
+      <c r="P144" s="82"/>
+      <c r="Q144" s="83"/>
+      <c r="R144" s="78"/>
     </row>
     <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="23" t="s">
@@ -10342,10 +10457,10 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="47"/>
-      <c r="P145" s="51"/>
-      <c r="Q145" s="52"/>
-      <c r="R145" s="47"/>
+      <c r="O145" s="78"/>
+      <c r="P145" s="82"/>
+      <c r="Q145" s="83"/>
+      <c r="R145" s="78"/>
     </row>
     <row r="146" spans="1:18" ht="17.25">
       <c r="A146" s="25" t="s">
@@ -10364,10 +10479,10 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="47"/>
-      <c r="P146" s="51"/>
-      <c r="Q146" s="52"/>
-      <c r="R146" s="47"/>
+      <c r="O146" s="78"/>
+      <c r="P146" s="82"/>
+      <c r="Q146" s="83"/>
+      <c r="R146" s="78"/>
     </row>
     <row r="147" spans="1:18" ht="14.25">
       <c r="A147" s="23" t="s">
@@ -10390,10 +10505,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="51"/>
-      <c r="Q147" s="52"/>
-      <c r="R147" s="47"/>
+      <c r="O147" s="78"/>
+      <c r="P147" s="82"/>
+      <c r="Q147" s="83"/>
+      <c r="R147" s="78"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -10414,10 +10529,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="47"/>
-      <c r="P148" s="51"/>
-      <c r="Q148" s="52"/>
-      <c r="R148" s="47"/>
+      <c r="O148" s="78"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="83"/>
+      <c r="R148" s="78"/>
     </row>
     <row r="149" spans="1:18" ht="17.25">
       <c r="A149" s="25" t="s">
@@ -10436,10 +10551,10 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="47"/>
-      <c r="P149" s="51"/>
-      <c r="Q149" s="52"/>
-      <c r="R149" s="47"/>
+      <c r="O149" s="78"/>
+      <c r="P149" s="82"/>
+      <c r="Q149" s="83"/>
+      <c r="R149" s="78"/>
     </row>
     <row r="150" spans="1:18" ht="14.25">
       <c r="A150" s="23" t="s">
@@ -10462,10 +10577,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="47"/>
-      <c r="P150" s="51"/>
-      <c r="Q150" s="52"/>
-      <c r="R150" s="47"/>
+      <c r="O150" s="78"/>
+      <c r="P150" s="82"/>
+      <c r="Q150" s="83"/>
+      <c r="R150" s="78"/>
     </row>
     <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="23" t="s">
@@ -10488,10 +10603,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="47"/>
-      <c r="P151" s="51"/>
-      <c r="Q151" s="52"/>
-      <c r="R151" s="47"/>
+      <c r="O151" s="78"/>
+      <c r="P151" s="82"/>
+      <c r="Q151" s="83"/>
+      <c r="R151" s="78"/>
     </row>
     <row r="152" spans="1:18" ht="17.25">
       <c r="A152" s="25" t="s">
@@ -10510,10 +10625,10 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="47"/>
-      <c r="P152" s="51"/>
-      <c r="Q152" s="52"/>
-      <c r="R152" s="47"/>
+      <c r="O152" s="78"/>
+      <c r="P152" s="82"/>
+      <c r="Q152" s="83"/>
+      <c r="R152" s="78"/>
     </row>
     <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="23" t="s">
@@ -10536,10 +10651,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="47"/>
-      <c r="P153" s="51"/>
-      <c r="Q153" s="52"/>
-      <c r="R153" s="47"/>
+      <c r="O153" s="78"/>
+      <c r="P153" s="82"/>
+      <c r="Q153" s="83"/>
+      <c r="R153" s="78"/>
     </row>
     <row r="154" spans="1:18" ht="17.25">
       <c r="A154" s="25" t="s">
@@ -10558,10 +10673,10 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="47"/>
-      <c r="P154" s="51"/>
-      <c r="Q154" s="52"/>
-      <c r="R154" s="47"/>
+      <c r="O154" s="78"/>
+      <c r="P154" s="82"/>
+      <c r="Q154" s="83"/>
+      <c r="R154" s="78"/>
     </row>
     <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="23" t="s">
@@ -10586,10 +10701,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="47"/>
-      <c r="P155" s="51"/>
-      <c r="Q155" s="52"/>
-      <c r="R155" s="47"/>
+      <c r="O155" s="78"/>
+      <c r="P155" s="82"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="78"/>
     </row>
     <row r="156" spans="1:18" ht="14.25">
       <c r="A156" s="23" t="s">
@@ -10614,10 +10729,10 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="47"/>
-      <c r="P156" s="51"/>
-      <c r="Q156" s="52"/>
-      <c r="R156" s="47"/>
+      <c r="O156" s="78"/>
+      <c r="P156" s="82"/>
+      <c r="Q156" s="83"/>
+      <c r="R156" s="78"/>
     </row>
     <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="24" t="s">
@@ -10640,10 +10755,10 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="47"/>
-      <c r="P157" s="51"/>
-      <c r="Q157" s="52"/>
-      <c r="R157" s="47"/>
+      <c r="O157" s="78"/>
+      <c r="P157" s="82"/>
+      <c r="Q157" s="83"/>
+      <c r="R157" s="78"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
@@ -10664,10 +10779,10 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="47"/>
-      <c r="P158" s="51"/>
-      <c r="Q158" s="52"/>
-      <c r="R158" s="47"/>
+      <c r="O158" s="78"/>
+      <c r="P158" s="82"/>
+      <c r="Q158" s="83"/>
+      <c r="R158" s="78"/>
     </row>
     <row r="159" spans="1:18" ht="14.25">
       <c r="A159" s="18" t="s">
@@ -10690,13 +10805,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="48"/>
-      <c r="P159" s="53"/>
-      <c r="Q159" s="54"/>
-      <c r="R159" s="48"/>
+      <c r="O159" s="79"/>
+      <c r="P159" s="84"/>
+      <c r="Q159" s="85"/>
+      <c r="R159" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A123:R124"/>
+    <mergeCell ref="O126:O159"/>
+    <mergeCell ref="P126:Q159"/>
+    <mergeCell ref="R126:R159"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="U1:AC2"/>
     <mergeCell ref="A3:C3"/>
@@ -10721,132 +10962,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A123:R124"/>
-    <mergeCell ref="O126:O159"/>
-    <mergeCell ref="P126:Q159"/>
-    <mergeCell ref="R126:R159"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ririth\Desktop\GameProject\高松\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoji Anzai\Desktop\Gitリポジトリ\GameProject\高松\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1843,88 +1843,25 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,19 +1927,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2287,93 +2287,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="15" width="8.75" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="7.25" customWidth="1"/>
-    <col min="18" max="18" width="17.25" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
-    <col min="29" max="29" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="29" max="29" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="U1" s="87" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="U1" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2422,26 +2422,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="88" t="s">
+      <c r="U3" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2456,34 +2456,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="91" t="s">
+      <c r="R4" s="71"/>
+      <c r="S4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="1"/>
       <c r="E5" s="41" t="s">
         <v>108</v>
@@ -2502,26 +2502,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="93"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2536,17 +2536,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="93"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="72"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="1"/>
       <c r="E7" s="42" t="s">
         <v>105</v>
@@ -2565,17 +2565,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="93"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="72"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="1"/>
       <c r="E8" s="42" t="s">
         <v>105</v>
@@ -2594,18 +2594,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="93"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="72"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="81" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2619,18 +2619,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="93"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="72"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="62"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2642,17 +2642,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="93"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="72"/>
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="1"/>
       <c r="E11" s="42" t="s">
         <v>105</v>
@@ -2671,17 +2671,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="93"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="72"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="1"/>
       <c r="E12" s="42" t="s">
         <v>105</v>
@@ -2700,63 +2700,63 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="93"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="72"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="93"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="72"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="93"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="72"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="94"/>
+      <c r="B15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2771,17 +2771,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="93"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="72"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="94"/>
+      <c r="B16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2796,17 +2796,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="93"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="72"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="94"/>
+      <c r="B17" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2821,17 +2821,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="93"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="72"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2846,17 +2846,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="93"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="72"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2873,17 +2873,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="93"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="72"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -2900,17 +2900,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="93"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="72"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -2927,17 +2927,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="93"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="72"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="94"/>
+      <c r="B22" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -2954,17 +2954,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="93"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="72"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -2981,17 +2981,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="93"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="72"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3006,17 +3006,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="93"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="72"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -3033,17 +3033,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="93"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="72"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="59" t="s">
+      <c r="A26" s="94"/>
+      <c r="B26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -3060,17 +3060,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="93"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="72"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="94"/>
+      <c r="B27" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -3087,17 +3087,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="93"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3112,17 +3112,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="93"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="72"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="59" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -3139,17 +3139,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="93"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="72"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="59" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="60"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -3166,17 +3166,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="93"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="72"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="60" t="s">
+      <c r="A31" s="94"/>
+      <c r="B31" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="60"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -3193,17 +3193,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="93"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="72"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="60" t="s">
+      <c r="A32" s="94"/>
+      <c r="B32" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3220,17 +3220,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="93"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="72"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="94"/>
+      <c r="B33" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3245,17 +3245,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="93"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="72"/>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="94"/>
+      <c r="B34" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3274,17 +3274,17 @@
       <c r="O34" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="93"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="72"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="60" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="60"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3303,17 +3303,17 @@
       <c r="O35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="93"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="72"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="60" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="60"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3332,17 +3332,17 @@
       <c r="O36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="93"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="72"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="56" t="s">
+      <c r="A37" s="94"/>
+      <c r="B37" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
@@ -3369,17 +3369,17 @@
       <c r="O37" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="93"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="72"/>
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="40" t="s">
         <v>26</v>
       </c>
@@ -3404,19 +3404,19 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="93"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="72"/>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="57"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
@@ -3431,17 +3431,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="93"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="72"/>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="54"/>
+      <c r="B40" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="3"/>
       <c r="E40" s="42" t="s">
         <v>105</v>
@@ -3460,17 +3460,17 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="93"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="72"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="62" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="3"/>
       <c r="E41" s="42" t="s">
         <v>105</v>
@@ -3489,17 +3489,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="93"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="72"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
@@ -3514,17 +3514,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="93"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="72"/>
     </row>
     <row r="43" spans="1:19" ht="21" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -3543,17 +3543,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="93"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="72"/>
     </row>
     <row r="44" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="61" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="60"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
@@ -3572,17 +3572,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="93"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="72"/>
     </row>
     <row r="45" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="5" t="s">
         <v>25</v>
       </c>
@@ -3603,17 +3603,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="93"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="72"/>
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="65" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
@@ -3634,19 +3634,19 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="93"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="72"/>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3661,17 +3661,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="93"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="72"/>
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="60"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -3692,17 +3692,17 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="93"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="72"/>
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="60"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3723,17 +3723,17 @@
       <c r="M49" s="3"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="93"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="72"/>
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="61" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="60"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3754,17 +3754,17 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="93"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="72"/>
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="61" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="60"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3785,17 +3785,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="93"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="72"/>
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="61" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="60"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3816,17 +3816,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="93"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="72"/>
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="61" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="60"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3847,17 +3847,17 @@
       <c r="O53" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="93"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="72"/>
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="61" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="60"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3878,17 +3878,17 @@
       <c r="O54" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="93"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="72"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="61" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="60"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3909,17 +3909,17 @@
       <c r="O55" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="93"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="72"/>
     </row>
     <row r="56" spans="1:19" ht="21" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="58" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="57"/>
+      <c r="C56" s="80"/>
       <c r="D56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3942,19 +3942,19 @@
       <c r="O56" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="93"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="93"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="72"/>
     </row>
     <row r="57" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="57"/>
+      <c r="C57" s="80"/>
       <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
@@ -3973,17 +3973,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="93"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="93"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="72"/>
     </row>
     <row r="58" spans="1:19" ht="21" customHeight="1">
-      <c r="A58" s="68"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="91"/>
+      <c r="B58" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3998,17 +3998,17 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="93"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="93"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="72"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A59" s="68"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="91"/>
+      <c r="B59" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="8"/>
@@ -4029,17 +4029,17 @@
         <v>166</v>
       </c>
       <c r="O59" s="8"/>
-      <c r="P59" s="93"/>
-      <c r="Q59" s="93"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="93"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="72"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A60" s="68"/>
-      <c r="B60" s="59" t="s">
+      <c r="A60" s="91"/>
+      <c r="B60" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
@@ -4060,17 +4060,17 @@
         <v>166</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="93"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="93"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="72"/>
     </row>
     <row r="61" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A61" s="68"/>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="91"/>
+      <c r="B61" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="57"/>
+      <c r="C61" s="80"/>
       <c r="D61" s="5" t="s">
         <v>84</v>
       </c>
@@ -4087,17 +4087,17 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="93"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="72"/>
     </row>
     <row r="62" spans="1:19" ht="21" customHeight="1">
-      <c r="A62" s="68"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="91"/>
+      <c r="B62" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="57"/>
+      <c r="C62" s="80"/>
       <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
@@ -4112,17 +4112,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="93"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="72"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A63" s="68"/>
-      <c r="B63" s="59" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="8"/>
@@ -4141,17 +4141,17 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="93"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="72"/>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="68"/>
-      <c r="B64" s="60" t="s">
+      <c r="A64" s="91"/>
+      <c r="B64" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="60"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="8"/>
@@ -4170,17 +4170,17 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="94"/>
-      <c r="S64" s="93"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="72"/>
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="68"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="91"/>
+      <c r="B65" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="60"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -4199,17 +4199,17 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="93"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="72"/>
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="68"/>
-      <c r="B66" s="60" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="60"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -4228,17 +4228,17 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="94"/>
-      <c r="S66" s="93"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="72"/>
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="68"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="91"/>
+      <c r="B67" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="60"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -4257,17 +4257,17 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="93"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="94"/>
-      <c r="S67" s="93"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="72"/>
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="68"/>
-      <c r="B68" s="60" t="s">
+      <c r="A68" s="91"/>
+      <c r="B68" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="60"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -4286,17 +4286,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="93"/>
-      <c r="Q68" s="93"/>
-      <c r="R68" s="94"/>
-      <c r="S68" s="93"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="72"/>
     </row>
     <row r="69" spans="1:19" ht="21" customHeight="1">
-      <c r="A69" s="68"/>
-      <c r="B69" s="56" t="s">
+      <c r="A69" s="91"/>
+      <c r="B69" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="57"/>
+      <c r="C69" s="80"/>
       <c r="D69" s="5" t="s">
         <v>84</v>
       </c>
@@ -4313,17 +4313,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="93"/>
-      <c r="Q69" s="93"/>
-      <c r="R69" s="94"/>
-      <c r="S69" s="93"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="72"/>
     </row>
     <row r="70" spans="1:19" ht="21" customHeight="1">
-      <c r="A70" s="68"/>
-      <c r="B70" s="56" t="s">
+      <c r="A70" s="91"/>
+      <c r="B70" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="57"/>
+      <c r="C70" s="80"/>
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
@@ -4340,19 +4340,19 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="93"/>
-      <c r="Q70" s="93"/>
-      <c r="R70" s="94"/>
-      <c r="S70" s="93"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="72"/>
     </row>
     <row r="71" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="57"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4367,17 +4367,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="93"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="93"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="72"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1">
-      <c r="A72" s="53"/>
-      <c r="B72" s="59" t="s">
+      <c r="A72" s="94"/>
+      <c r="B72" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="3"/>
       <c r="E72" s="36" t="s">
         <v>167</v>
@@ -4394,17 +4394,17 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="93"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="72"/>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A73" s="53"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="94"/>
+      <c r="B73" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="60"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="3"/>
       <c r="E73" s="36" t="s">
         <v>167</v>
@@ -4423,17 +4423,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="94"/>
-      <c r="S73" s="93"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="72"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="53"/>
-      <c r="B74" s="60" t="s">
+      <c r="A74" s="94"/>
+      <c r="B74" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="60"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="3"/>
       <c r="E74" s="36" t="s">
         <v>167</v>
@@ -4449,17 +4449,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="93"/>
-      <c r="Q74" s="93"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="93"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="72"/>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="94"/>
+      <c r="B75" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="60"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4476,17 +4476,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="93"/>
-      <c r="R75" s="94"/>
-      <c r="S75" s="93"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="72"/>
     </row>
     <row r="76" spans="1:19" ht="21" customHeight="1">
-      <c r="A76" s="53"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="94"/>
+      <c r="B76" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="57"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="5" t="s">
         <v>88</v>
       </c>
@@ -4501,17 +4501,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="94"/>
-      <c r="S76" s="93"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="72"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="94"/>
+      <c r="B77" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="60"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="38" t="s">
@@ -4526,17 +4526,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
-      <c r="R77" s="94"/>
-      <c r="S77" s="93"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="72"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A78" s="53"/>
-      <c r="B78" s="60" t="s">
+      <c r="A78" s="94"/>
+      <c r="B78" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="60"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="38" t="s">
@@ -4551,17 +4551,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
-      <c r="R78" s="94"/>
-      <c r="S78" s="93"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="72"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="53"/>
-      <c r="B79" s="60" t="s">
+      <c r="A79" s="94"/>
+      <c r="B79" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="60"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="38" t="s">
@@ -4576,17 +4576,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="93"/>
-      <c r="Q79" s="93"/>
-      <c r="R79" s="94"/>
-      <c r="S79" s="93"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="72"/>
     </row>
     <row r="80" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A80" s="53"/>
-      <c r="B80" s="56" t="s">
+      <c r="A80" s="94"/>
+      <c r="B80" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="57"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="5" t="s">
         <v>88</v>
       </c>
@@ -4601,17 +4601,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="93"/>
-      <c r="Q80" s="93"/>
-      <c r="R80" s="94"/>
-      <c r="S80" s="93"/>
+      <c r="P80" s="72"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="72"/>
     </row>
     <row r="81" spans="1:19" ht="18" customHeight="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="94"/>
+      <c r="B81" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="78"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="38" t="s">
@@ -4626,17 +4626,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="93"/>
-      <c r="Q81" s="93"/>
-      <c r="R81" s="94"/>
-      <c r="S81" s="93"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="72"/>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
-      <c r="A82" s="53"/>
-      <c r="B82" s="60" t="s">
+      <c r="A82" s="94"/>
+      <c r="B82" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="60"/>
+      <c r="C82" s="78"/>
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="G82" s="38" t="s">
@@ -4650,17 +4650,17 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="94"/>
-      <c r="S82" s="93"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="72"/>
     </row>
     <row r="83" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A83" s="53"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="94"/>
+      <c r="B83" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="60"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4673,19 +4673,19 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="93"/>
-      <c r="Q83" s="93"/>
-      <c r="R83" s="94"/>
-      <c r="S83" s="93"/>
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="72"/>
     </row>
     <row r="84" spans="1:19" ht="21" customHeight="1">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="57"/>
+      <c r="C84" s="80"/>
       <c r="D84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4700,17 +4700,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="93"/>
-      <c r="Q84" s="93"/>
-      <c r="R84" s="94"/>
-      <c r="S84" s="93"/>
+      <c r="P84" s="72"/>
+      <c r="Q84" s="72"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="72"/>
     </row>
     <row r="85" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A85" s="63"/>
-      <c r="B85" s="59" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="60"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="1"/>
       <c r="E85" s="48" t="s">
         <v>111</v>
@@ -4727,17 +4727,17 @@
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
-      <c r="P85" s="93"/>
-      <c r="Q85" s="93"/>
-      <c r="R85" s="94"/>
-      <c r="S85" s="93"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="72"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A86" s="63"/>
-      <c r="B86" s="59" t="s">
+      <c r="A86" s="54"/>
+      <c r="B86" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="60"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="3"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4752,17 +4752,17 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="94"/>
-      <c r="S86" s="93"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="72"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A87" s="63"/>
-      <c r="B87" s="60" t="s">
+      <c r="A87" s="54"/>
+      <c r="B87" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="60"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="3"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4777,17 +4777,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
-      <c r="R87" s="94"/>
-      <c r="S87" s="93"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="72"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="63"/>
-      <c r="B88" s="60" t="s">
+      <c r="A88" s="54"/>
+      <c r="B88" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="60"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4802,17 +4802,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="94"/>
-      <c r="S88" s="93"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="72"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="63"/>
-      <c r="B89" s="60" t="s">
+      <c r="A89" s="54"/>
+      <c r="B89" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="60"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4829,17 +4829,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="93"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="94"/>
-      <c r="S89" s="93"/>
+      <c r="P89" s="72"/>
+      <c r="Q89" s="72"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="72"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="63"/>
-      <c r="B90" s="60" t="s">
+      <c r="A90" s="54"/>
+      <c r="B90" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="60"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4854,17 +4854,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="93"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="94"/>
-      <c r="S90" s="93"/>
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="73"/>
+      <c r="S90" s="72"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="63"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="54"/>
+      <c r="B91" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="60"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -4879,17 +4879,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="93"/>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="94"/>
-      <c r="S91" s="93"/>
+      <c r="P91" s="72"/>
+      <c r="Q91" s="72"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="72"/>
     </row>
     <row r="92" spans="1:19" ht="21" customHeight="1">
-      <c r="A92" s="63"/>
-      <c r="B92" s="56" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="57"/>
+      <c r="C92" s="80"/>
       <c r="D92" s="5" t="s">
         <v>61</v>
       </c>
@@ -4904,17 +4904,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="93"/>
-      <c r="Q92" s="93"/>
-      <c r="R92" s="94"/>
-      <c r="S92" s="93"/>
+      <c r="P92" s="72"/>
+      <c r="Q92" s="72"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="72"/>
     </row>
     <row r="93" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A93" s="63"/>
-      <c r="B93" s="59" t="s">
+      <c r="A93" s="54"/>
+      <c r="B93" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="60"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="5"/>
       <c r="E93" s="44" t="s">
         <v>111</v>
@@ -4931,17 +4931,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="93"/>
-      <c r="Q93" s="93"/>
-      <c r="R93" s="94"/>
-      <c r="S93" s="93"/>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
+      <c r="R93" s="73"/>
+      <c r="S93" s="72"/>
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A94" s="63"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="54"/>
+      <c r="B94" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="60"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -4956,17 +4956,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="93"/>
-      <c r="Q94" s="93"/>
-      <c r="R94" s="94"/>
-      <c r="S94" s="93"/>
+      <c r="P94" s="72"/>
+      <c r="Q94" s="72"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="72"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A95" s="63"/>
-      <c r="B95" s="60" t="s">
+      <c r="A95" s="54"/>
+      <c r="B95" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="60"/>
+      <c r="C95" s="78"/>
       <c r="D95" s="3"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -4981,17 +4981,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="93"/>
-      <c r="Q95" s="93"/>
-      <c r="R95" s="94"/>
-      <c r="S95" s="93"/>
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="73"/>
+      <c r="S95" s="72"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A96" s="63"/>
-      <c r="B96" s="60" t="s">
+      <c r="A96" s="54"/>
+      <c r="B96" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C96" s="60"/>
+      <c r="C96" s="78"/>
       <c r="D96" s="3"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -5006,17 +5006,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="93"/>
-      <c r="Q96" s="93"/>
-      <c r="R96" s="94"/>
-      <c r="S96" s="93"/>
+      <c r="P96" s="72"/>
+      <c r="Q96" s="72"/>
+      <c r="R96" s="73"/>
+      <c r="S96" s="72"/>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="63"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="54"/>
+      <c r="B97" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="60"/>
+      <c r="C97" s="78"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -5031,17 +5031,17 @@
       <c r="O97" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P97" s="93"/>
-      <c r="Q97" s="93"/>
-      <c r="R97" s="94"/>
-      <c r="S97" s="93"/>
+      <c r="P97" s="72"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="73"/>
+      <c r="S97" s="72"/>
     </row>
     <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="63"/>
-      <c r="B98" s="60" t="s">
+      <c r="A98" s="54"/>
+      <c r="B98" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="60"/>
+      <c r="C98" s="78"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -5056,17 +5056,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="93"/>
-      <c r="Q98" s="93"/>
-      <c r="R98" s="94"/>
-      <c r="S98" s="93"/>
+      <c r="P98" s="72"/>
+      <c r="Q98" s="72"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="72"/>
     </row>
     <row r="99" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A99" s="63"/>
-      <c r="B99" s="102" t="s">
+      <c r="A99" s="54"/>
+      <c r="B99" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="50"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -5079,17 +5079,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="93"/>
-      <c r="Q99" s="93"/>
-      <c r="R99" s="94"/>
-      <c r="S99" s="93"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="72"/>
     </row>
     <row r="100" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A100" s="63"/>
-      <c r="B100" s="101" t="s">
+      <c r="A100" s="54"/>
+      <c r="B100" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C100" s="61"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="46" t="s">
         <v>175</v>
       </c>
@@ -5104,17 +5104,17 @@
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="93"/>
-      <c r="Q100" s="93"/>
-      <c r="R100" s="94"/>
-      <c r="S100" s="93"/>
+      <c r="P100" s="72"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="73"/>
+      <c r="S100" s="72"/>
     </row>
     <row r="101" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A101" s="64"/>
-      <c r="B101" s="101" t="s">
+      <c r="A101" s="55"/>
+      <c r="B101" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="61"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="47" t="s">
         <v>176</v>
       </c>
@@ -5131,19 +5131,19 @@
         <v>105</v>
       </c>
       <c r="O101" s="15"/>
-      <c r="P101" s="93"/>
-      <c r="Q101" s="93"/>
-      <c r="R101" s="94"/>
-      <c r="S101" s="93"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="73"/>
+      <c r="S101" s="72"/>
     </row>
     <row r="102" spans="1:19" ht="18" customHeight="1">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="57"/>
+      <c r="C102" s="80"/>
       <c r="D102" s="1" t="s">
         <v>61</v>
       </c>
@@ -5158,17 +5158,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="93"/>
-      <c r="Q102" s="93"/>
-      <c r="R102" s="94"/>
-      <c r="S102" s="93"/>
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="73"/>
+      <c r="S102" s="72"/>
     </row>
     <row r="103" spans="1:19" ht="18" customHeight="1">
-      <c r="A103" s="53"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="94"/>
+      <c r="B103" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="60"/>
+      <c r="C103" s="78"/>
       <c r="D103" s="1"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -5183,17 +5183,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="93"/>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="94"/>
-      <c r="S103" s="93"/>
+      <c r="P103" s="72"/>
+      <c r="Q103" s="72"/>
+      <c r="R103" s="73"/>
+      <c r="S103" s="72"/>
     </row>
     <row r="104" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A104" s="53"/>
-      <c r="B104" s="59" t="s">
+      <c r="A104" s="94"/>
+      <c r="B104" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="60"/>
+      <c r="C104" s="78"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -5208,17 +5208,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="93"/>
-      <c r="Q104" s="93"/>
-      <c r="R104" s="94"/>
-      <c r="S104" s="93"/>
+      <c r="P104" s="72"/>
+      <c r="Q104" s="72"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="72"/>
     </row>
     <row r="105" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A105" s="53"/>
-      <c r="B105" s="56" t="s">
+      <c r="A105" s="94"/>
+      <c r="B105" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="57"/>
+      <c r="C105" s="80"/>
       <c r="D105" s="5" t="s">
         <v>61</v>
       </c>
@@ -5233,17 +5233,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="93"/>
-      <c r="Q105" s="93"/>
-      <c r="R105" s="94"/>
-      <c r="S105" s="93"/>
+      <c r="P105" s="72"/>
+      <c r="Q105" s="72"/>
+      <c r="R105" s="73"/>
+      <c r="S105" s="72"/>
     </row>
     <row r="106" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A106" s="53"/>
-      <c r="B106" s="59" t="s">
+      <c r="A106" s="94"/>
+      <c r="B106" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="59"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="5"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -5258,17 +5258,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="93"/>
-      <c r="Q106" s="93"/>
-      <c r="R106" s="94"/>
-      <c r="S106" s="93"/>
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="73"/>
+      <c r="S106" s="72"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1">
-      <c r="A107" s="53"/>
-      <c r="B107" s="59" t="s">
+      <c r="A107" s="94"/>
+      <c r="B107" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="60"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -5283,17 +5283,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="93"/>
-      <c r="Q107" s="93"/>
-      <c r="R107" s="94"/>
-      <c r="S107" s="93"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="73"/>
+      <c r="S107" s="72"/>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1">
-      <c r="A108" s="53"/>
-      <c r="B108" s="60" t="s">
+      <c r="A108" s="94"/>
+      <c r="B108" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="60"/>
+      <c r="C108" s="78"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -5308,17 +5308,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="93"/>
-      <c r="Q108" s="93"/>
-      <c r="R108" s="94"/>
-      <c r="S108" s="93"/>
+      <c r="P108" s="72"/>
+      <c r="Q108" s="72"/>
+      <c r="R108" s="73"/>
+      <c r="S108" s="72"/>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1">
-      <c r="A109" s="53"/>
-      <c r="B109" s="60" t="s">
+      <c r="A109" s="94"/>
+      <c r="B109" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="60"/>
+      <c r="C109" s="78"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -5333,17 +5333,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="93"/>
-      <c r="Q109" s="93"/>
-      <c r="R109" s="94"/>
-      <c r="S109" s="93"/>
+      <c r="P109" s="72"/>
+      <c r="Q109" s="72"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="72"/>
     </row>
     <row r="110" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A110" s="53"/>
-      <c r="B110" s="60" t="s">
+      <c r="A110" s="94"/>
+      <c r="B110" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="60"/>
+      <c r="C110" s="78"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -5358,17 +5358,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="93"/>
-      <c r="Q110" s="93"/>
-      <c r="R110" s="94"/>
-      <c r="S110" s="93"/>
+      <c r="P110" s="72"/>
+      <c r="Q110" s="72"/>
+      <c r="R110" s="73"/>
+      <c r="S110" s="72"/>
     </row>
     <row r="111" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A111" s="53"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="94"/>
+      <c r="B111" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="60"/>
+      <c r="C111" s="78"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -5383,17 +5383,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="93"/>
-      <c r="Q111" s="93"/>
-      <c r="R111" s="94"/>
-      <c r="S111" s="93"/>
+      <c r="P111" s="72"/>
+      <c r="Q111" s="72"/>
+      <c r="R111" s="73"/>
+      <c r="S111" s="72"/>
     </row>
     <row r="112" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="60" t="s">
+      <c r="A112" s="94"/>
+      <c r="B112" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="60"/>
+      <c r="C112" s="78"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -5408,17 +5408,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="93"/>
-      <c r="Q112" s="93"/>
-      <c r="R112" s="94"/>
-      <c r="S112" s="93"/>
+      <c r="P112" s="72"/>
+      <c r="Q112" s="72"/>
+      <c r="R112" s="73"/>
+      <c r="S112" s="72"/>
     </row>
     <row r="113" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="56" t="s">
+      <c r="A113" s="94"/>
+      <c r="B113" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="57"/>
+      <c r="C113" s="80"/>
       <c r="D113" s="5" t="s">
         <v>61</v>
       </c>
@@ -5433,17 +5433,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="93"/>
-      <c r="Q113" s="93"/>
-      <c r="R113" s="94"/>
-      <c r="S113" s="93"/>
+      <c r="P113" s="72"/>
+      <c r="Q113" s="72"/>
+      <c r="R113" s="73"/>
+      <c r="S113" s="72"/>
     </row>
     <row r="114" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="59" t="s">
+      <c r="A114" s="94"/>
+      <c r="B114" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="60"/>
+      <c r="C114" s="78"/>
       <c r="D114" s="5"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -5458,17 +5458,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="93"/>
-      <c r="Q114" s="93"/>
-      <c r="R114" s="94"/>
-      <c r="S114" s="93"/>
+      <c r="P114" s="72"/>
+      <c r="Q114" s="72"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="72"/>
     </row>
     <row r="115" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="59" t="s">
+      <c r="A115" s="94"/>
+      <c r="B115" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="60"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -5483,17 +5483,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="93"/>
-      <c r="Q115" s="93"/>
-      <c r="R115" s="94"/>
-      <c r="S115" s="93"/>
+      <c r="P115" s="72"/>
+      <c r="Q115" s="72"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="72"/>
     </row>
     <row r="116" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="60" t="s">
+      <c r="A116" s="94"/>
+      <c r="B116" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C116" s="60"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -5508,17 +5508,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="93"/>
-      <c r="Q116" s="93"/>
-      <c r="R116" s="94"/>
-      <c r="S116" s="93"/>
+      <c r="P116" s="72"/>
+      <c r="Q116" s="72"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="72"/>
     </row>
     <row r="117" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A117" s="53"/>
-      <c r="B117" s="60" t="s">
+      <c r="A117" s="94"/>
+      <c r="B117" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C117" s="60"/>
+      <c r="C117" s="78"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -5533,17 +5533,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="93"/>
-      <c r="Q117" s="93"/>
-      <c r="R117" s="94"/>
-      <c r="S117" s="93"/>
+      <c r="P117" s="72"/>
+      <c r="Q117" s="72"/>
+      <c r="R117" s="73"/>
+      <c r="S117" s="72"/>
     </row>
     <row r="118" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A118" s="53"/>
-      <c r="B118" s="60" t="s">
+      <c r="A118" s="94"/>
+      <c r="B118" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="60"/>
+      <c r="C118" s="78"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -5558,17 +5558,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="93"/>
-      <c r="Q118" s="93"/>
-      <c r="R118" s="94"/>
-      <c r="S118" s="93"/>
+      <c r="P118" s="72"/>
+      <c r="Q118" s="72"/>
+      <c r="R118" s="73"/>
+      <c r="S118" s="72"/>
     </row>
     <row r="119" spans="1:19" ht="21" customHeight="1">
-      <c r="A119" s="53"/>
-      <c r="B119" s="56" t="s">
+      <c r="A119" s="94"/>
+      <c r="B119" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="57"/>
+      <c r="C119" s="80"/>
       <c r="D119" s="5" t="s">
         <v>61</v>
       </c>
@@ -5583,17 +5583,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="93"/>
-      <c r="Q119" s="93"/>
-      <c r="R119" s="94"/>
-      <c r="S119" s="93"/>
+      <c r="P119" s="72"/>
+      <c r="Q119" s="72"/>
+      <c r="R119" s="73"/>
+      <c r="S119" s="72"/>
     </row>
     <row r="120" spans="1:19" ht="21" customHeight="1">
-      <c r="A120" s="53"/>
-      <c r="B120" s="59" t="s">
+      <c r="A120" s="94"/>
+      <c r="B120" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="78"/>
       <c r="D120" s="5"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
@@ -5608,17 +5608,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="93"/>
-      <c r="Q120" s="93"/>
-      <c r="R120" s="94"/>
-      <c r="S120" s="93"/>
+      <c r="P120" s="72"/>
+      <c r="Q120" s="72"/>
+      <c r="R120" s="73"/>
+      <c r="S120" s="72"/>
     </row>
     <row r="121" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A121" s="53"/>
-      <c r="B121" s="59" t="s">
+      <c r="A121" s="94"/>
+      <c r="B121" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="60"/>
+      <c r="C121" s="78"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -5633,56 +5633,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="95"/>
-      <c r="Q121" s="95"/>
-      <c r="R121" s="96"/>
-      <c r="S121" s="95"/>
+      <c r="P121" s="74"/>
+      <c r="Q121" s="74"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="74"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="66"/>
-      <c r="C122" s="66"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
     </row>
     <row r="123" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
-      <c r="J123" s="86"/>
-      <c r="K123" s="86"/>
-      <c r="L123" s="86"/>
-      <c r="M123" s="86"/>
-      <c r="N123" s="86"/>
-      <c r="O123" s="86"/>
-      <c r="P123" s="86"/>
-      <c r="Q123" s="86"/>
-      <c r="R123" s="86"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
+      <c r="L123" s="65"/>
+      <c r="M123" s="65"/>
+      <c r="N123" s="65"/>
+      <c r="O123" s="65"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="65"/>
+      <c r="R123" s="65"/>
     </row>
     <row r="124" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A124" s="86"/>
-      <c r="B124" s="86"/>
-      <c r="C124" s="86"/>
-      <c r="D124" s="86"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86"/>
-      <c r="I124" s="86"/>
-      <c r="J124" s="86"/>
-      <c r="K124" s="86"/>
-      <c r="L124" s="86"/>
-      <c r="M124" s="86"/>
-      <c r="N124" s="86"/>
-      <c r="O124" s="86"/>
-      <c r="P124" s="86"/>
-      <c r="Q124" s="86"/>
-      <c r="R124" s="86"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="65"/>
+      <c r="N124" s="65"/>
+      <c r="O124" s="65"/>
+      <c r="P124" s="65"/>
+      <c r="Q124" s="65"/>
+      <c r="R124" s="65"/>
     </row>
     <row r="125" spans="1:19" ht="13.5" customHeight="1">
       <c r="A125" s="18" t="s">
@@ -5757,10 +5757,10 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="80"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="77"/>
+      <c r="O126" s="56"/>
+      <c r="P126" s="59"/>
+      <c r="Q126" s="60"/>
+      <c r="R126" s="56"/>
     </row>
     <row r="127" spans="1:19" ht="13.5" customHeight="1">
       <c r="A127" s="23" t="s">
@@ -5783,10 +5783,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="78"/>
-      <c r="P127" s="82"/>
-      <c r="Q127" s="83"/>
-      <c r="R127" s="78"/>
+      <c r="O127" s="57"/>
+      <c r="P127" s="61"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="57"/>
     </row>
     <row r="128" spans="1:19" ht="13.5" customHeight="1">
       <c r="A128" s="23" t="s">
@@ -5813,12 +5813,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="78"/>
-      <c r="P128" s="82"/>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="78"/>
-    </row>
-    <row r="129" spans="1:18" ht="14.25">
+      <c r="O128" s="57"/>
+      <c r="P128" s="61"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="57"/>
+    </row>
+    <row r="129" spans="1:18" ht="14.4">
       <c r="A129" s="23" t="s">
         <v>126</v>
       </c>
@@ -5841,12 +5841,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="78"/>
-      <c r="P129" s="82"/>
-      <c r="Q129" s="83"/>
-      <c r="R129" s="78"/>
-    </row>
-    <row r="130" spans="1:18" ht="17.25">
+      <c r="O129" s="57"/>
+      <c r="P129" s="61"/>
+      <c r="Q129" s="62"/>
+      <c r="R129" s="57"/>
+    </row>
+    <row r="130" spans="1:18" ht="16.2">
       <c r="A130" s="25" t="s">
         <v>158</v>
       </c>
@@ -5863,12 +5863,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="78"/>
-      <c r="P130" s="82"/>
-      <c r="Q130" s="83"/>
-      <c r="R130" s="78"/>
-    </row>
-    <row r="131" spans="1:18" ht="14.25">
+      <c r="O130" s="57"/>
+      <c r="P130" s="61"/>
+      <c r="Q130" s="62"/>
+      <c r="R130" s="57"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.4">
       <c r="A131" s="34" t="s">
         <v>126</v>
       </c>
@@ -5889,12 +5889,12 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="78"/>
-      <c r="P131" s="82"/>
-      <c r="Q131" s="83"/>
-      <c r="R131" s="78"/>
-    </row>
-    <row r="132" spans="1:18" ht="14.25">
+      <c r="O131" s="57"/>
+      <c r="P131" s="61"/>
+      <c r="Q131" s="62"/>
+      <c r="R131" s="57"/>
+    </row>
+    <row r="132" spans="1:18" ht="14.4">
       <c r="A132" s="24" t="s">
         <v>156</v>
       </c>
@@ -5915,12 +5915,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="78"/>
-      <c r="P132" s="82"/>
-      <c r="Q132" s="83"/>
-      <c r="R132" s="78"/>
-    </row>
-    <row r="133" spans="1:18" ht="17.25">
+      <c r="O132" s="57"/>
+      <c r="P132" s="61"/>
+      <c r="Q132" s="62"/>
+      <c r="R132" s="57"/>
+    </row>
+    <row r="133" spans="1:18" ht="16.2">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -5937,12 +5937,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="78"/>
-      <c r="P133" s="82"/>
-      <c r="Q133" s="83"/>
-      <c r="R133" s="78"/>
-    </row>
-    <row r="134" spans="1:18" ht="14.25">
+      <c r="O133" s="57"/>
+      <c r="P133" s="61"/>
+      <c r="Q133" s="62"/>
+      <c r="R133" s="57"/>
+    </row>
+    <row r="134" spans="1:18" ht="14.4">
       <c r="A134" s="34" t="s">
         <v>154</v>
       </c>
@@ -5961,12 +5961,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="78"/>
-      <c r="P134" s="82"/>
-      <c r="Q134" s="83"/>
-      <c r="R134" s="78"/>
-    </row>
-    <row r="135" spans="1:18" ht="14.25">
+      <c r="O134" s="57"/>
+      <c r="P134" s="61"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="57"/>
+    </row>
+    <row r="135" spans="1:18" ht="14.4">
       <c r="A135" s="24" t="s">
         <v>153</v>
       </c>
@@ -5985,12 +5985,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="78"/>
-      <c r="P135" s="82"/>
-      <c r="Q135" s="83"/>
-      <c r="R135" s="78"/>
-    </row>
-    <row r="136" spans="1:18" ht="14.25">
+      <c r="O135" s="57"/>
+      <c r="P135" s="61"/>
+      <c r="Q135" s="62"/>
+      <c r="R135" s="57"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.4">
       <c r="A136" s="30" t="s">
         <v>152</v>
       </c>
@@ -6013,12 +6013,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="78"/>
-      <c r="P136" s="82"/>
-      <c r="Q136" s="83"/>
-      <c r="R136" s="78"/>
-    </row>
-    <row r="137" spans="1:18" ht="14.25">
+      <c r="O136" s="57"/>
+      <c r="P136" s="61"/>
+      <c r="Q136" s="62"/>
+      <c r="R136" s="57"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.4">
       <c r="A137" s="30" t="s">
         <v>150</v>
       </c>
@@ -6041,12 +6041,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="78"/>
-      <c r="P137" s="82"/>
-      <c r="Q137" s="83"/>
-      <c r="R137" s="78"/>
-    </row>
-    <row r="138" spans="1:18" ht="14.25">
+      <c r="O137" s="57"/>
+      <c r="P137" s="61"/>
+      <c r="Q137" s="62"/>
+      <c r="R137" s="57"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.4">
       <c r="A138" s="30" t="s">
         <v>149</v>
       </c>
@@ -6083,12 +6083,12 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="78"/>
-      <c r="P138" s="82"/>
-      <c r="Q138" s="83"/>
-      <c r="R138" s="78"/>
-    </row>
-    <row r="139" spans="1:18" ht="17.25">
+      <c r="O138" s="57"/>
+      <c r="P138" s="61"/>
+      <c r="Q138" s="62"/>
+      <c r="R138" s="57"/>
+    </row>
+    <row r="139" spans="1:18" ht="16.2">
       <c r="A139" s="25" t="s">
         <v>146</v>
       </c>
@@ -6105,12 +6105,12 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="78"/>
-      <c r="P139" s="82"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="78"/>
-    </row>
-    <row r="140" spans="1:18" ht="14.25">
+      <c r="O139" s="57"/>
+      <c r="P139" s="61"/>
+      <c r="Q139" s="62"/>
+      <c r="R139" s="57"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.4">
       <c r="A140" s="30" t="s">
         <v>143</v>
       </c>
@@ -6133,12 +6133,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="78"/>
-      <c r="P140" s="82"/>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="78"/>
-    </row>
-    <row r="141" spans="1:18" ht="17.25">
+      <c r="O140" s="57"/>
+      <c r="P140" s="61"/>
+      <c r="Q140" s="62"/>
+      <c r="R140" s="57"/>
+    </row>
+    <row r="141" spans="1:18" ht="16.2">
       <c r="A141" s="25" t="s">
         <v>144</v>
       </c>
@@ -6155,12 +6155,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="78"/>
-      <c r="P141" s="82"/>
-      <c r="Q141" s="83"/>
-      <c r="R141" s="78"/>
-    </row>
-    <row r="142" spans="1:18" ht="14.25">
+      <c r="O141" s="57"/>
+      <c r="P141" s="61"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="57"/>
+    </row>
+    <row r="142" spans="1:18" ht="14.4">
       <c r="A142" s="30" t="s">
         <v>143</v>
       </c>
@@ -6183,12 +6183,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="78"/>
-      <c r="P142" s="82"/>
-      <c r="Q142" s="83"/>
-      <c r="R142" s="78"/>
-    </row>
-    <row r="143" spans="1:18" ht="17.25">
+      <c r="O142" s="57"/>
+      <c r="P142" s="61"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="57"/>
+    </row>
+    <row r="143" spans="1:18" ht="16.2">
       <c r="A143" s="25" t="s">
         <v>141</v>
       </c>
@@ -6205,12 +6205,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="78"/>
-      <c r="P143" s="82"/>
-      <c r="Q143" s="83"/>
-      <c r="R143" s="78"/>
-    </row>
-    <row r="144" spans="1:18" ht="14.25">
+      <c r="O143" s="57"/>
+      <c r="P143" s="61"/>
+      <c r="Q143" s="62"/>
+      <c r="R143" s="57"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.4">
       <c r="A144" s="23" t="s">
         <v>140</v>
       </c>
@@ -6239,12 +6239,12 @@
       <c r="N144" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="78"/>
-      <c r="P144" s="82"/>
-      <c r="Q144" s="83"/>
-      <c r="R144" s="78"/>
-    </row>
-    <row r="145" spans="1:18" ht="14.25">
+      <c r="O144" s="57"/>
+      <c r="P144" s="61"/>
+      <c r="Q144" s="62"/>
+      <c r="R144" s="57"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.4">
       <c r="A145" s="23" t="s">
         <v>139</v>
       </c>
@@ -6273,12 +6273,12 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="78"/>
-      <c r="P145" s="82"/>
-      <c r="Q145" s="83"/>
-      <c r="R145" s="78"/>
-    </row>
-    <row r="146" spans="1:18" ht="17.25">
+      <c r="O145" s="57"/>
+      <c r="P145" s="61"/>
+      <c r="Q145" s="62"/>
+      <c r="R145" s="57"/>
+    </row>
+    <row r="146" spans="1:18" ht="16.2">
       <c r="A146" s="25" t="s">
         <v>135</v>
       </c>
@@ -6295,12 +6295,12 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="78"/>
-      <c r="P146" s="82"/>
-      <c r="Q146" s="83"/>
-      <c r="R146" s="78"/>
-    </row>
-    <row r="147" spans="1:18" ht="14.25">
+      <c r="O146" s="57"/>
+      <c r="P146" s="61"/>
+      <c r="Q146" s="62"/>
+      <c r="R146" s="57"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.4">
       <c r="A147" s="23" t="s">
         <v>134</v>
       </c>
@@ -6321,10 +6321,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="78"/>
-      <c r="P147" s="82"/>
-      <c r="Q147" s="83"/>
-      <c r="R147" s="78"/>
+      <c r="O147" s="57"/>
+      <c r="P147" s="61"/>
+      <c r="Q147" s="62"/>
+      <c r="R147" s="57"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -6345,12 +6345,12 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="78"/>
-      <c r="P148" s="82"/>
-      <c r="Q148" s="83"/>
-      <c r="R148" s="78"/>
-    </row>
-    <row r="149" spans="1:18" ht="17.25">
+      <c r="O148" s="57"/>
+      <c r="P148" s="61"/>
+      <c r="Q148" s="62"/>
+      <c r="R148" s="57"/>
+    </row>
+    <row r="149" spans="1:18" ht="16.2">
       <c r="A149" s="25" t="s">
         <v>131</v>
       </c>
@@ -6367,12 +6367,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="78"/>
-      <c r="P149" s="82"/>
-      <c r="Q149" s="83"/>
-      <c r="R149" s="78"/>
-    </row>
-    <row r="150" spans="1:18" ht="14.25">
+      <c r="O149" s="57"/>
+      <c r="P149" s="61"/>
+      <c r="Q149" s="62"/>
+      <c r="R149" s="57"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.4">
       <c r="A150" s="23" t="s">
         <v>130</v>
       </c>
@@ -6393,12 +6393,12 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="78"/>
-      <c r="P150" s="82"/>
-      <c r="Q150" s="83"/>
-      <c r="R150" s="78"/>
-    </row>
-    <row r="151" spans="1:18" ht="14.25">
+      <c r="O150" s="57"/>
+      <c r="P150" s="61"/>
+      <c r="Q150" s="62"/>
+      <c r="R150" s="57"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.4">
       <c r="A151" s="23" t="s">
         <v>128</v>
       </c>
@@ -6419,12 +6419,12 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="78"/>
-      <c r="P151" s="82"/>
-      <c r="Q151" s="83"/>
-      <c r="R151" s="78"/>
-    </row>
-    <row r="152" spans="1:18" ht="17.25">
+      <c r="O151" s="57"/>
+      <c r="P151" s="61"/>
+      <c r="Q151" s="62"/>
+      <c r="R151" s="57"/>
+    </row>
+    <row r="152" spans="1:18" ht="16.2">
       <c r="A152" s="25" t="s">
         <v>127</v>
       </c>
@@ -6441,12 +6441,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="78"/>
-      <c r="P152" s="82"/>
-      <c r="Q152" s="83"/>
-      <c r="R152" s="78"/>
-    </row>
-    <row r="153" spans="1:18" ht="14.25">
+      <c r="O152" s="57"/>
+      <c r="P152" s="61"/>
+      <c r="Q152" s="62"/>
+      <c r="R152" s="57"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.4">
       <c r="A153" s="23" t="s">
         <v>126</v>
       </c>
@@ -6467,12 +6467,12 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="78"/>
-      <c r="P153" s="82"/>
-      <c r="Q153" s="83"/>
-      <c r="R153" s="78"/>
-    </row>
-    <row r="154" spans="1:18" ht="17.25">
+      <c r="O153" s="57"/>
+      <c r="P153" s="61"/>
+      <c r="Q153" s="62"/>
+      <c r="R153" s="57"/>
+    </row>
+    <row r="154" spans="1:18" ht="16.2">
       <c r="A154" s="25" t="s">
         <v>124</v>
       </c>
@@ -6489,12 +6489,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="78"/>
-      <c r="P154" s="82"/>
-      <c r="Q154" s="83"/>
-      <c r="R154" s="78"/>
-    </row>
-    <row r="155" spans="1:18" ht="14.25">
+      <c r="O154" s="57"/>
+      <c r="P154" s="61"/>
+      <c r="Q154" s="62"/>
+      <c r="R154" s="57"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.4">
       <c r="A155" s="23" t="s">
         <v>123</v>
       </c>
@@ -6517,12 +6517,12 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="78"/>
-      <c r="P155" s="82"/>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="78"/>
-    </row>
-    <row r="156" spans="1:18" ht="14.25">
+      <c r="O155" s="57"/>
+      <c r="P155" s="61"/>
+      <c r="Q155" s="62"/>
+      <c r="R155" s="57"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.4">
       <c r="A156" s="23" t="s">
         <v>123</v>
       </c>
@@ -6545,12 +6545,12 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="78"/>
-      <c r="P156" s="82"/>
-      <c r="Q156" s="83"/>
-      <c r="R156" s="78"/>
-    </row>
-    <row r="157" spans="1:18" ht="14.25">
+      <c r="O156" s="57"/>
+      <c r="P156" s="61"/>
+      <c r="Q156" s="62"/>
+      <c r="R156" s="57"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.4">
       <c r="A157" s="24" t="s">
         <v>120</v>
       </c>
@@ -6571,10 +6571,10 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="78"/>
-      <c r="P157" s="82"/>
-      <c r="Q157" s="83"/>
-      <c r="R157" s="78"/>
+      <c r="O157" s="57"/>
+      <c r="P157" s="61"/>
+      <c r="Q157" s="62"/>
+      <c r="R157" s="57"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
@@ -6595,12 +6595,12 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="78"/>
-      <c r="P158" s="82"/>
-      <c r="Q158" s="83"/>
-      <c r="R158" s="78"/>
-    </row>
-    <row r="159" spans="1:18" ht="14.25">
+      <c r="O158" s="57"/>
+      <c r="P158" s="61"/>
+      <c r="Q158" s="62"/>
+      <c r="R158" s="57"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.4">
       <c r="A159" s="18" t="s">
         <v>116</v>
       </c>
@@ -6621,13 +6621,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="79"/>
-      <c r="P159" s="84"/>
-      <c r="Q159" s="85"/>
-      <c r="R159" s="79"/>
+      <c r="O159" s="58"/>
+      <c r="P159" s="63"/>
+      <c r="Q159" s="64"/>
+      <c r="R159" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A4:A38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A71:A83"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
@@ -6652,132 +6778,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A4:A38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6793,82 +6793,82 @@
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="1" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="U1" s="87" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="U1" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="1:29" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6917,26 +6917,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="88" t="s">
+      <c r="U3" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
     </row>
     <row r="4" spans="1:29" ht="21">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -6951,34 +6951,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="91" t="s">
+      <c r="R4" s="71"/>
+      <c r="S4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="17.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="1:29" ht="16.2">
+      <c r="A5" s="94"/>
+      <c r="B5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -6991,26 +6991,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="93"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21">
-      <c r="A6" s="53"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -7025,17 +7025,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="93"/>
-    </row>
-    <row r="7" spans="1:29" ht="17.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="59" t="s">
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="72"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.2">
+      <c r="A7" s="94"/>
+      <c r="B7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -7048,17 +7048,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="93"/>
-    </row>
-    <row r="8" spans="1:29" ht="17.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="69" t="s">
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="72"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.2">
+      <c r="A8" s="94"/>
+      <c r="B8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -7071,18 +7071,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="93"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="72"/>
     </row>
     <row r="9" spans="1:29" ht="21">
-      <c r="A9" s="54"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="81" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -7096,18 +7096,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="93"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="72"/>
     </row>
     <row r="10" spans="1:29" ht="21">
-      <c r="A10" s="54"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="62"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -7119,17 +7119,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="93"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="75" t="s">
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="72"/>
+    </row>
+    <row r="11" spans="1:29" ht="16.2">
+      <c r="A11" s="94"/>
+      <c r="B11" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -7142,17 +7142,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="93"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="59" t="s">
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="72"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.2">
+      <c r="A12" s="94"/>
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -7165,65 +7165,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="93"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="72"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="98" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="93"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="72"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="53"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="93"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="59" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="72"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.2">
+      <c r="A15" s="94"/>
+      <c r="B15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -7236,17 +7236,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="93"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="59" t="s">
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="72"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.2">
+      <c r="A16" s="94"/>
+      <c r="B16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -7259,17 +7259,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="93"/>
-    </row>
-    <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="59" t="s">
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="72"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.2">
+      <c r="A17" s="94"/>
+      <c r="B17" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -7282,17 +7282,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="93"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="72"/>
     </row>
     <row r="18" spans="1:19" ht="21">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -7307,17 +7307,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="93"/>
-    </row>
-    <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="59" t="s">
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="72"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.2">
+      <c r="A19" s="94"/>
+      <c r="B19" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -7330,17 +7330,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="93"/>
-    </row>
-    <row r="20" spans="1:19" ht="17.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="60" t="s">
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="72"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.2">
+      <c r="A20" s="94"/>
+      <c r="B20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -7353,17 +7353,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="93"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="59" t="s">
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="72"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.2">
+      <c r="A21" s="94"/>
+      <c r="B21" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -7376,17 +7376,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="93"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="59" t="s">
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="72"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.2">
+      <c r="A22" s="94"/>
+      <c r="B22" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -7399,17 +7399,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="93"/>
-    </row>
-    <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="59" t="s">
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="72"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.2">
+      <c r="A23" s="94"/>
+      <c r="B23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -7422,17 +7422,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="93"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="72"/>
     </row>
     <row r="24" spans="1:19" ht="21">
-      <c r="A24" s="53"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7447,17 +7447,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="93"/>
-    </row>
-    <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="59" t="s">
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="72"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.2">
+      <c r="A25" s="94"/>
+      <c r="B25" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7470,17 +7470,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="93"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="59" t="s">
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="72"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.2">
+      <c r="A26" s="94"/>
+      <c r="B26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7493,17 +7493,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="93"/>
-    </row>
-    <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="59" t="s">
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="72"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.2">
+      <c r="A27" s="94"/>
+      <c r="B27" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7516,17 +7516,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="93"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="1:19" ht="21">
-      <c r="A28" s="53"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7541,17 +7541,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="93"/>
-    </row>
-    <row r="29" spans="1:19" ht="17.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="59" t="s">
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="72"/>
+    </row>
+    <row r="29" spans="1:19" ht="16.2">
+      <c r="A29" s="94"/>
+      <c r="B29" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7564,17 +7564,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="93"/>
-    </row>
-    <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="59" t="s">
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="72"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.2">
+      <c r="A30" s="94"/>
+      <c r="B30" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="60"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7587,17 +7587,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="93"/>
-    </row>
-    <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="60" t="s">
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="72"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.2">
+      <c r="A31" s="94"/>
+      <c r="B31" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="60"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7610,17 +7610,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="93"/>
-    </row>
-    <row r="32" spans="1:19" ht="17.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="60" t="s">
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="72"/>
+    </row>
+    <row r="32" spans="1:19" ht="16.2">
+      <c r="A32" s="94"/>
+      <c r="B32" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7633,17 +7633,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="93"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="72"/>
     </row>
     <row r="33" spans="1:19" ht="21">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="94"/>
+      <c r="B33" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7658,17 +7658,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="93"/>
-    </row>
-    <row r="34" spans="1:19" ht="17.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="59" t="s">
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="72"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.2">
+      <c r="A34" s="94"/>
+      <c r="B34" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7681,17 +7681,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="93"/>
-    </row>
-    <row r="35" spans="1:19" ht="17.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="60" t="s">
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="72"/>
+    </row>
+    <row r="35" spans="1:19" ht="16.2">
+      <c r="A35" s="94"/>
+      <c r="B35" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="60"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7704,17 +7704,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="93"/>
-    </row>
-    <row r="36" spans="1:19" ht="17.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="60" t="s">
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="72"/>
+    </row>
+    <row r="36" spans="1:19" ht="16.2">
+      <c r="A36" s="94"/>
+      <c r="B36" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="60"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7727,17 +7727,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="93"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="72"/>
     </row>
     <row r="37" spans="1:19" ht="21">
-      <c r="A37" s="53"/>
-      <c r="B37" s="56" t="s">
+      <c r="A37" s="94"/>
+      <c r="B37" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7752,15 +7752,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="93"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="72"/>
     </row>
     <row r="38" spans="1:19" ht="21">
-      <c r="A38" s="53"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7773,15 +7773,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="93"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="72"/>
     </row>
     <row r="39" spans="1:19" ht="21">
-      <c r="A39" s="53"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="100"/>
-      <c r="C39" s="58"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7794,17 +7794,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="93"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="72"/>
     </row>
     <row r="40" spans="1:19" ht="21">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7819,19 +7819,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="93"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="72"/>
     </row>
     <row r="41" spans="1:19" ht="21">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -7846,17 +7846,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="93"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="62" t="s">
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="72"/>
+    </row>
+    <row r="42" spans="1:19" ht="16.2">
+      <c r="A42" s="54"/>
+      <c r="B42" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -7869,17 +7869,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="93"/>
-    </row>
-    <row r="43" spans="1:19" ht="17.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="62" t="s">
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="72"/>
+    </row>
+    <row r="43" spans="1:19" ht="16.2">
+      <c r="A43" s="54"/>
+      <c r="B43" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -7892,17 +7892,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="93"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="72"/>
     </row>
     <row r="44" spans="1:19" ht="21">
-      <c r="A44" s="63"/>
-      <c r="B44" s="58" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="56"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -7917,17 +7917,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="93"/>
-    </row>
-    <row r="45" spans="1:19" ht="17.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="62" t="s">
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="72"/>
+    </row>
+    <row r="45" spans="1:19" ht="16.2">
+      <c r="A45" s="54"/>
+      <c r="B45" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="77"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -7940,17 +7940,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="93"/>
-    </row>
-    <row r="46" spans="1:19" ht="17.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="61" t="s">
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="72"/>
+    </row>
+    <row r="46" spans="1:19" ht="16.2">
+      <c r="A46" s="54"/>
+      <c r="B46" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="60"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -7963,17 +7963,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="93"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="72"/>
     </row>
     <row r="47" spans="1:19" ht="21">
-      <c r="A47" s="63"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="56"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -7988,17 +7988,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="93"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="72"/>
     </row>
     <row r="48" spans="1:19" ht="21">
-      <c r="A48" s="63"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="80"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -8013,19 +8013,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="93"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="72"/>
     </row>
     <row r="49" spans="1:19" ht="21">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="57"/>
+      <c r="C49" s="80"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -8040,17 +8040,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="93"/>
-    </row>
-    <row r="50" spans="1:19" ht="17.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="62" t="s">
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="72"/>
+    </row>
+    <row r="50" spans="1:19" ht="16.2">
+      <c r="A50" s="54"/>
+      <c r="B50" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="60"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -8063,17 +8063,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="93"/>
-    </row>
-    <row r="51" spans="1:19" ht="17.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="61" t="s">
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="72"/>
+    </row>
+    <row r="51" spans="1:19" ht="16.2">
+      <c r="A51" s="54"/>
+      <c r="B51" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="60"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -8086,17 +8086,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="93"/>
-    </row>
-    <row r="52" spans="1:19" ht="17.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="61" t="s">
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="72"/>
+    </row>
+    <row r="52" spans="1:19" ht="16.2">
+      <c r="A52" s="54"/>
+      <c r="B52" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="60"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -8109,17 +8109,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="93"/>
-    </row>
-    <row r="53" spans="1:19" ht="17.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="61" t="s">
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="72"/>
+    </row>
+    <row r="53" spans="1:19" ht="16.2">
+      <c r="A53" s="54"/>
+      <c r="B53" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="60"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -8132,17 +8132,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="93"/>
-    </row>
-    <row r="54" spans="1:19" ht="17.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="61" t="s">
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="72"/>
+    </row>
+    <row r="54" spans="1:19" ht="16.2">
+      <c r="A54" s="54"/>
+      <c r="B54" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="60"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -8155,17 +8155,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="93"/>
-    </row>
-    <row r="55" spans="1:19" ht="17.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="61" t="s">
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="72"/>
+    </row>
+    <row r="55" spans="1:19" ht="16.2">
+      <c r="A55" s="54"/>
+      <c r="B55" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="60"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8178,17 +8178,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="93"/>
-    </row>
-    <row r="56" spans="1:19" ht="17.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="61" t="s">
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="72"/>
+    </row>
+    <row r="56" spans="1:19" ht="16.2">
+      <c r="A56" s="54"/>
+      <c r="B56" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="60"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -8201,17 +8201,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="93"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="93"/>
-    </row>
-    <row r="57" spans="1:19" ht="17.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="61" t="s">
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="72"/>
+    </row>
+    <row r="57" spans="1:19" ht="16.2">
+      <c r="A57" s="54"/>
+      <c r="B57" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8224,17 +8224,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="93"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="93"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="72"/>
     </row>
     <row r="58" spans="1:19" ht="21">
-      <c r="A58" s="64"/>
-      <c r="B58" s="58" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -8249,19 +8249,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="93"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="93"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="72"/>
     </row>
     <row r="59" spans="1:19" ht="21">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="80"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -8276,17 +8276,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="93"/>
-      <c r="Q59" s="93"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="93"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="72"/>
     </row>
     <row r="60" spans="1:19" ht="21">
-      <c r="A60" s="68"/>
-      <c r="B60" s="56" t="s">
+      <c r="A60" s="91"/>
+      <c r="B60" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="57"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -8301,17 +8301,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="93"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="93"/>
-    </row>
-    <row r="61" spans="1:19" ht="17.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="59" t="s">
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="72"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.2">
+      <c r="A61" s="91"/>
+      <c r="B61" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="60"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -8324,17 +8324,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="93"/>
-    </row>
-    <row r="62" spans="1:19" ht="17.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="59" t="s">
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="72"/>
+    </row>
+    <row r="62" spans="1:19" ht="16.2">
+      <c r="A62" s="91"/>
+      <c r="B62" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="60"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -8347,17 +8347,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="93"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="72"/>
     </row>
     <row r="63" spans="1:19" ht="21">
-      <c r="A63" s="68"/>
-      <c r="B63" s="56" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="57"/>
+      <c r="C63" s="80"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -8372,17 +8372,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="93"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="72"/>
     </row>
     <row r="64" spans="1:19" ht="21">
-      <c r="A64" s="68"/>
-      <c r="B64" s="56" t="s">
+      <c r="A64" s="91"/>
+      <c r="B64" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -8397,17 +8397,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="94"/>
-      <c r="S64" s="93"/>
-    </row>
-    <row r="65" spans="1:19" ht="17.25">
-      <c r="A65" s="68"/>
-      <c r="B65" s="59" t="s">
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="72"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.2">
+      <c r="A65" s="91"/>
+      <c r="B65" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="60"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -8420,17 +8420,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="93"/>
-    </row>
-    <row r="66" spans="1:19" ht="17.25">
-      <c r="A66" s="68"/>
-      <c r="B66" s="60" t="s">
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="72"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.2">
+      <c r="A66" s="91"/>
+      <c r="B66" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="60"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -8443,17 +8443,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="94"/>
-      <c r="S66" s="93"/>
-    </row>
-    <row r="67" spans="1:19" ht="17.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="60" t="s">
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="72"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.2">
+      <c r="A67" s="91"/>
+      <c r="B67" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="60"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8466,17 +8466,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="93"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="94"/>
-      <c r="S67" s="93"/>
-    </row>
-    <row r="68" spans="1:19" ht="17.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="60" t="s">
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="72"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.2">
+      <c r="A68" s="91"/>
+      <c r="B68" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="60"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8489,17 +8489,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="93"/>
-      <c r="Q68" s="93"/>
-      <c r="R68" s="94"/>
-      <c r="S68" s="93"/>
-    </row>
-    <row r="69" spans="1:19" ht="17.25">
-      <c r="A69" s="68"/>
-      <c r="B69" s="60" t="s">
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="72"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.2">
+      <c r="A69" s="91"/>
+      <c r="B69" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="60"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8512,17 +8512,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="93"/>
-      <c r="Q69" s="93"/>
-      <c r="R69" s="94"/>
-      <c r="S69" s="93"/>
-    </row>
-    <row r="70" spans="1:19" ht="17.25">
-      <c r="A70" s="68"/>
-      <c r="B70" s="60" t="s">
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="72"/>
+    </row>
+    <row r="70" spans="1:19" ht="16.2">
+      <c r="A70" s="91"/>
+      <c r="B70" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="60"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8535,17 +8535,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="93"/>
-      <c r="Q70" s="93"/>
-      <c r="R70" s="94"/>
-      <c r="S70" s="93"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="72"/>
     </row>
     <row r="71" spans="1:19" ht="21">
-      <c r="A71" s="68"/>
-      <c r="B71" s="56" t="s">
+      <c r="A71" s="91"/>
+      <c r="B71" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="57"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8560,17 +8560,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="93"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="93"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="72"/>
     </row>
     <row r="72" spans="1:19" ht="21">
-      <c r="A72" s="68"/>
-      <c r="B72" s="56" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="57"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8585,19 +8585,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="93"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="72"/>
     </row>
     <row r="73" spans="1:19" ht="21">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="57"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8612,17 +8612,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="94"/>
-      <c r="S73" s="93"/>
-    </row>
-    <row r="74" spans="1:19" ht="17.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="59" t="s">
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="72"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.2">
+      <c r="A74" s="94"/>
+      <c r="B74" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="60"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8635,17 +8635,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="93"/>
-      <c r="Q74" s="93"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="93"/>
-    </row>
-    <row r="75" spans="1:19" ht="17.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="60" t="s">
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="72"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.2">
+      <c r="A75" s="94"/>
+      <c r="B75" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="60"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8662,17 +8662,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="93"/>
-      <c r="R75" s="94"/>
-      <c r="S75" s="93"/>
-    </row>
-    <row r="76" spans="1:19" ht="17.25">
-      <c r="A76" s="53"/>
-      <c r="B76" s="60" t="s">
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="72"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.2">
+      <c r="A76" s="94"/>
+      <c r="B76" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="60"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8688,17 +8688,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="94"/>
-      <c r="S76" s="93"/>
-    </row>
-    <row r="77" spans="1:19" ht="17.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="60" t="s">
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="72"/>
+    </row>
+    <row r="77" spans="1:19" ht="16.2">
+      <c r="A77" s="94"/>
+      <c r="B77" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="60"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8715,17 +8715,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
-      <c r="R77" s="94"/>
-      <c r="S77" s="93"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="72"/>
     </row>
     <row r="78" spans="1:19" ht="21">
-      <c r="A78" s="53"/>
-      <c r="B78" s="56" t="s">
+      <c r="A78" s="94"/>
+      <c r="B78" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="57"/>
+      <c r="C78" s="80"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8740,17 +8740,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
-      <c r="R78" s="94"/>
-      <c r="S78" s="93"/>
-    </row>
-    <row r="79" spans="1:19" ht="17.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="59" t="s">
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="72"/>
+    </row>
+    <row r="79" spans="1:19" ht="16.2">
+      <c r="A79" s="94"/>
+      <c r="B79" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="60"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8763,17 +8763,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="93"/>
-      <c r="Q79" s="93"/>
-      <c r="R79" s="94"/>
-      <c r="S79" s="93"/>
-    </row>
-    <row r="80" spans="1:19" ht="17.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="60" t="s">
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="72"/>
+    </row>
+    <row r="80" spans="1:19" ht="16.2">
+      <c r="A80" s="94"/>
+      <c r="B80" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="60"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8786,17 +8786,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="93"/>
-      <c r="Q80" s="93"/>
-      <c r="R80" s="94"/>
-      <c r="S80" s="93"/>
-    </row>
-    <row r="81" spans="1:19" ht="17.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="60" t="s">
+      <c r="P80" s="72"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="72"/>
+    </row>
+    <row r="81" spans="1:19" ht="16.2">
+      <c r="A81" s="94"/>
+      <c r="B81" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="78"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8809,17 +8809,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="93"/>
-      <c r="Q81" s="93"/>
-      <c r="R81" s="94"/>
-      <c r="S81" s="93"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="72"/>
     </row>
     <row r="82" spans="1:19" ht="21">
-      <c r="A82" s="53"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="94"/>
+      <c r="B82" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="57"/>
+      <c r="C82" s="80"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8834,17 +8834,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="94"/>
-      <c r="S82" s="93"/>
-    </row>
-    <row r="83" spans="1:19" ht="17.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="59" t="s">
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="72"/>
+    </row>
+    <row r="83" spans="1:19" ht="16.2">
+      <c r="A83" s="94"/>
+      <c r="B83" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="60"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8857,17 +8857,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="93"/>
-      <c r="Q83" s="93"/>
-      <c r="R83" s="94"/>
-      <c r="S83" s="93"/>
-    </row>
-    <row r="84" spans="1:19" ht="17.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="60" t="s">
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="72"/>
+    </row>
+    <row r="84" spans="1:19" ht="16.2">
+      <c r="A84" s="94"/>
+      <c r="B84" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="60"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -8880,17 +8880,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="93"/>
-      <c r="Q84" s="93"/>
-      <c r="R84" s="94"/>
-      <c r="S84" s="93"/>
-    </row>
-    <row r="85" spans="1:19" ht="17.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="60" t="s">
+      <c r="P84" s="72"/>
+      <c r="Q84" s="72"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="72"/>
+    </row>
+    <row r="85" spans="1:19" ht="16.2">
+      <c r="A85" s="94"/>
+      <c r="B85" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="60"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8903,19 +8903,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="93"/>
-      <c r="Q85" s="93"/>
-      <c r="R85" s="94"/>
-      <c r="S85" s="93"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="72"/>
     </row>
     <row r="86" spans="1:19" ht="21">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="57"/>
+      <c r="C86" s="80"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -8930,17 +8930,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="94"/>
-      <c r="S86" s="93"/>
-    </row>
-    <row r="87" spans="1:19" ht="17.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="59" t="s">
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="72"/>
+    </row>
+    <row r="87" spans="1:19" ht="16.2">
+      <c r="A87" s="94"/>
+      <c r="B87" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="60"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>111</v>
@@ -8955,17 +8955,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
-      <c r="R87" s="94"/>
-      <c r="S87" s="93"/>
-    </row>
-    <row r="88" spans="1:19" ht="17.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="59" t="s">
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="72"/>
+    </row>
+    <row r="88" spans="1:19" ht="16.2">
+      <c r="A88" s="94"/>
+      <c r="B88" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="60"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -8980,17 +8980,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="94"/>
-      <c r="S88" s="93"/>
-    </row>
-    <row r="89" spans="1:19" ht="17.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="60" t="s">
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="72"/>
+    </row>
+    <row r="89" spans="1:19" ht="16.2">
+      <c r="A89" s="94"/>
+      <c r="B89" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="60"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -9005,17 +9005,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="93"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="94"/>
-      <c r="S89" s="93"/>
-    </row>
-    <row r="90" spans="1:19" ht="17.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="60" t="s">
+      <c r="P89" s="72"/>
+      <c r="Q89" s="72"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="72"/>
+    </row>
+    <row r="90" spans="1:19" ht="16.2">
+      <c r="A90" s="94"/>
+      <c r="B90" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="60"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -9032,17 +9032,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="93"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="94"/>
-      <c r="S90" s="93"/>
-    </row>
-    <row r="91" spans="1:19" ht="17.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="60" t="s">
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="73"/>
+      <c r="S90" s="72"/>
+    </row>
+    <row r="91" spans="1:19" ht="16.2">
+      <c r="A91" s="94"/>
+      <c r="B91" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="60"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -9059,17 +9059,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="93"/>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="94"/>
-      <c r="S91" s="93"/>
-    </row>
-    <row r="92" spans="1:19" ht="17.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="60" t="s">
+      <c r="P91" s="72"/>
+      <c r="Q91" s="72"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="72"/>
+    </row>
+    <row r="92" spans="1:19" ht="16.2">
+      <c r="A92" s="94"/>
+      <c r="B92" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="60"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -9086,17 +9086,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="93"/>
-      <c r="Q92" s="93"/>
-      <c r="R92" s="94"/>
-      <c r="S92" s="93"/>
-    </row>
-    <row r="93" spans="1:19" ht="17.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="60" t="s">
+      <c r="P92" s="72"/>
+      <c r="Q92" s="72"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="72"/>
+    </row>
+    <row r="93" spans="1:19" ht="16.2">
+      <c r="A93" s="94"/>
+      <c r="B93" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="60"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -9113,17 +9113,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="93"/>
-      <c r="Q93" s="93"/>
-      <c r="R93" s="94"/>
-      <c r="S93" s="93"/>
-    </row>
-    <row r="94" spans="1:19" ht="17.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="60" t="s">
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
+      <c r="R93" s="73"/>
+      <c r="S93" s="72"/>
+    </row>
+    <row r="94" spans="1:19" ht="16.2">
+      <c r="A94" s="94"/>
+      <c r="B94" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="60"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -9138,17 +9138,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="93"/>
-      <c r="Q94" s="93"/>
-      <c r="R94" s="94"/>
-      <c r="S94" s="93"/>
+      <c r="P94" s="72"/>
+      <c r="Q94" s="72"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="72"/>
     </row>
     <row r="95" spans="1:19" ht="21">
-      <c r="A95" s="53"/>
-      <c r="B95" s="56" t="s">
+      <c r="A95" s="94"/>
+      <c r="B95" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="57"/>
+      <c r="C95" s="80"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -9163,17 +9163,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="93"/>
-      <c r="Q95" s="93"/>
-      <c r="R95" s="94"/>
-      <c r="S95" s="93"/>
-    </row>
-    <row r="96" spans="1:19" ht="17.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="59" t="s">
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="73"/>
+      <c r="S95" s="72"/>
+    </row>
+    <row r="96" spans="1:19" ht="16.2">
+      <c r="A96" s="94"/>
+      <c r="B96" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="60"/>
+      <c r="C96" s="78"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>111</v>
@@ -9188,17 +9188,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="93"/>
-      <c r="Q96" s="93"/>
-      <c r="R96" s="94"/>
-      <c r="S96" s="93"/>
-    </row>
-    <row r="97" spans="1:19" ht="17.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="59" t="s">
+      <c r="P96" s="72"/>
+      <c r="Q96" s="72"/>
+      <c r="R96" s="73"/>
+      <c r="S96" s="72"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.2">
+      <c r="A97" s="94"/>
+      <c r="B97" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="60"/>
+      <c r="C97" s="78"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9213,17 +9213,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="93"/>
-      <c r="Q97" s="93"/>
-      <c r="R97" s="94"/>
-      <c r="S97" s="93"/>
-    </row>
-    <row r="98" spans="1:19" ht="17.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="60" t="s">
+      <c r="P97" s="72"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="73"/>
+      <c r="S97" s="72"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.2">
+      <c r="A98" s="94"/>
+      <c r="B98" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="60"/>
+      <c r="C98" s="78"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9238,17 +9238,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="93"/>
-      <c r="Q98" s="93"/>
-      <c r="R98" s="94"/>
-      <c r="S98" s="93"/>
-    </row>
-    <row r="99" spans="1:19" ht="17.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="60" t="s">
+      <c r="P98" s="72"/>
+      <c r="Q98" s="72"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="72"/>
+    </row>
+    <row r="99" spans="1:19" ht="16.2">
+      <c r="A99" s="94"/>
+      <c r="B99" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="60"/>
+      <c r="C99" s="78"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9267,17 +9267,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="93"/>
-      <c r="Q99" s="93"/>
-      <c r="R99" s="94"/>
-      <c r="S99" s="93"/>
-    </row>
-    <row r="100" spans="1:19" ht="17.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="60" t="s">
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="72"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.2">
+      <c r="A100" s="94"/>
+      <c r="B100" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="60"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9292,17 +9292,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="93"/>
-      <c r="Q100" s="93"/>
-      <c r="R100" s="94"/>
-      <c r="S100" s="93"/>
-    </row>
-    <row r="101" spans="1:19" ht="17.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="60" t="s">
+      <c r="P100" s="72"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="73"/>
+      <c r="S100" s="72"/>
+    </row>
+    <row r="101" spans="1:19" ht="16.2">
+      <c r="A101" s="94"/>
+      <c r="B101" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="60"/>
+      <c r="C101" s="78"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9317,19 +9317,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="93"/>
-      <c r="Q101" s="93"/>
-      <c r="R101" s="94"/>
-      <c r="S101" s="93"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="73"/>
+      <c r="S101" s="72"/>
     </row>
     <row r="102" spans="1:19" ht="21">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="57"/>
+      <c r="C102" s="80"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -9344,17 +9344,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="93"/>
-      <c r="Q102" s="93"/>
-      <c r="R102" s="94"/>
-      <c r="S102" s="93"/>
-    </row>
-    <row r="103" spans="1:19" ht="17.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="59" t="s">
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="73"/>
+      <c r="S102" s="72"/>
+    </row>
+    <row r="103" spans="1:19" ht="16.2">
+      <c r="A103" s="94"/>
+      <c r="B103" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="60"/>
+      <c r="C103" s="78"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -9369,17 +9369,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="93"/>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="94"/>
-      <c r="S103" s="93"/>
-    </row>
-    <row r="104" spans="1:19" ht="17.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="59" t="s">
+      <c r="P103" s="72"/>
+      <c r="Q103" s="72"/>
+      <c r="R103" s="73"/>
+      <c r="S103" s="72"/>
+    </row>
+    <row r="104" spans="1:19" ht="16.2">
+      <c r="A104" s="94"/>
+      <c r="B104" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="60"/>
+      <c r="C104" s="78"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9392,17 +9392,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="93"/>
-      <c r="Q104" s="93"/>
-      <c r="R104" s="94"/>
-      <c r="S104" s="93"/>
+      <c r="P104" s="72"/>
+      <c r="Q104" s="72"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="72"/>
     </row>
     <row r="105" spans="1:19" ht="21">
-      <c r="A105" s="53"/>
-      <c r="B105" s="56" t="s">
+      <c r="A105" s="94"/>
+      <c r="B105" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="57"/>
+      <c r="C105" s="80"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -9417,17 +9417,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="93"/>
-      <c r="Q105" s="93"/>
-      <c r="R105" s="94"/>
-      <c r="S105" s="93"/>
-    </row>
-    <row r="106" spans="1:19" ht="17.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="59" t="s">
+      <c r="P105" s="72"/>
+      <c r="Q105" s="72"/>
+      <c r="R105" s="73"/>
+      <c r="S105" s="72"/>
+    </row>
+    <row r="106" spans="1:19" ht="16.2">
+      <c r="A106" s="94"/>
+      <c r="B106" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="59"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -9442,17 +9442,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="93"/>
-      <c r="Q106" s="93"/>
-      <c r="R106" s="94"/>
-      <c r="S106" s="93"/>
-    </row>
-    <row r="107" spans="1:19" ht="17.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="59" t="s">
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="73"/>
+      <c r="S106" s="72"/>
+    </row>
+    <row r="107" spans="1:19" ht="16.2">
+      <c r="A107" s="94"/>
+      <c r="B107" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="60"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9467,17 +9467,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="93"/>
-      <c r="Q107" s="93"/>
-      <c r="R107" s="94"/>
-      <c r="S107" s="93"/>
-    </row>
-    <row r="108" spans="1:19" ht="17.25">
-      <c r="A108" s="53"/>
-      <c r="B108" s="60" t="s">
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="73"/>
+      <c r="S107" s="72"/>
+    </row>
+    <row r="108" spans="1:19" ht="16.2">
+      <c r="A108" s="94"/>
+      <c r="B108" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="60"/>
+      <c r="C108" s="78"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9492,17 +9492,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="93"/>
-      <c r="Q108" s="93"/>
-      <c r="R108" s="94"/>
-      <c r="S108" s="93"/>
-    </row>
-    <row r="109" spans="1:19" ht="17.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="60" t="s">
+      <c r="P108" s="72"/>
+      <c r="Q108" s="72"/>
+      <c r="R108" s="73"/>
+      <c r="S108" s="72"/>
+    </row>
+    <row r="109" spans="1:19" ht="16.2">
+      <c r="A109" s="94"/>
+      <c r="B109" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="60"/>
+      <c r="C109" s="78"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9517,17 +9517,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="93"/>
-      <c r="Q109" s="93"/>
-      <c r="R109" s="94"/>
-      <c r="S109" s="93"/>
-    </row>
-    <row r="110" spans="1:19" ht="17.25">
-      <c r="A110" s="53"/>
-      <c r="B110" s="60" t="s">
+      <c r="P109" s="72"/>
+      <c r="Q109" s="72"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="72"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.2">
+      <c r="A110" s="94"/>
+      <c r="B110" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="60"/>
+      <c r="C110" s="78"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9542,17 +9542,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="93"/>
-      <c r="Q110" s="93"/>
-      <c r="R110" s="94"/>
-      <c r="S110" s="93"/>
-    </row>
-    <row r="111" spans="1:19" ht="17.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="60" t="s">
+      <c r="P110" s="72"/>
+      <c r="Q110" s="72"/>
+      <c r="R110" s="73"/>
+      <c r="S110" s="72"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.2">
+      <c r="A111" s="94"/>
+      <c r="B111" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="60"/>
+      <c r="C111" s="78"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9567,17 +9567,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="93"/>
-      <c r="Q111" s="93"/>
-      <c r="R111" s="94"/>
-      <c r="S111" s="93"/>
-    </row>
-    <row r="112" spans="1:19" ht="17.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="60" t="s">
+      <c r="P111" s="72"/>
+      <c r="Q111" s="72"/>
+      <c r="R111" s="73"/>
+      <c r="S111" s="72"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.2">
+      <c r="A112" s="94"/>
+      <c r="B112" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="60"/>
+      <c r="C112" s="78"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9592,17 +9592,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="93"/>
-      <c r="Q112" s="93"/>
-      <c r="R112" s="94"/>
-      <c r="S112" s="93"/>
+      <c r="P112" s="72"/>
+      <c r="Q112" s="72"/>
+      <c r="R112" s="73"/>
+      <c r="S112" s="72"/>
     </row>
     <row r="113" spans="1:19" ht="21">
-      <c r="A113" s="53"/>
-      <c r="B113" s="56" t="s">
+      <c r="A113" s="94"/>
+      <c r="B113" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="57"/>
+      <c r="C113" s="80"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9617,17 +9617,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="93"/>
-      <c r="Q113" s="93"/>
-      <c r="R113" s="94"/>
-      <c r="S113" s="93"/>
-    </row>
-    <row r="114" spans="1:19" ht="17.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="59" t="s">
+      <c r="P113" s="72"/>
+      <c r="Q113" s="72"/>
+      <c r="R113" s="73"/>
+      <c r="S113" s="72"/>
+    </row>
+    <row r="114" spans="1:19" ht="16.2">
+      <c r="A114" s="94"/>
+      <c r="B114" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="60"/>
+      <c r="C114" s="78"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9642,17 +9642,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="93"/>
-      <c r="Q114" s="93"/>
-      <c r="R114" s="94"/>
-      <c r="S114" s="93"/>
-    </row>
-    <row r="115" spans="1:19" ht="17.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="59" t="s">
+      <c r="P114" s="72"/>
+      <c r="Q114" s="72"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="72"/>
+    </row>
+    <row r="115" spans="1:19" ht="16.2">
+      <c r="A115" s="94"/>
+      <c r="B115" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="60"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9667,17 +9667,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="93"/>
-      <c r="Q115" s="93"/>
-      <c r="R115" s="94"/>
-      <c r="S115" s="93"/>
-    </row>
-    <row r="116" spans="1:19" ht="17.25">
-      <c r="A116" s="53"/>
-      <c r="B116" s="60" t="s">
+      <c r="P115" s="72"/>
+      <c r="Q115" s="72"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="72"/>
+    </row>
+    <row r="116" spans="1:19" ht="16.2">
+      <c r="A116" s="94"/>
+      <c r="B116" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="60"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9692,17 +9692,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="93"/>
-      <c r="Q116" s="93"/>
-      <c r="R116" s="94"/>
-      <c r="S116" s="93"/>
-    </row>
-    <row r="117" spans="1:19" ht="17.25">
-      <c r="A117" s="53"/>
-      <c r="B117" s="60" t="s">
+      <c r="P116" s="72"/>
+      <c r="Q116" s="72"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="72"/>
+    </row>
+    <row r="117" spans="1:19" ht="16.2">
+      <c r="A117" s="94"/>
+      <c r="B117" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="60"/>
+      <c r="C117" s="78"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9717,17 +9717,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="93"/>
-      <c r="Q117" s="93"/>
-      <c r="R117" s="94"/>
-      <c r="S117" s="93"/>
-    </row>
-    <row r="118" spans="1:19" ht="17.25">
-      <c r="A118" s="53"/>
-      <c r="B118" s="60" t="s">
+      <c r="P117" s="72"/>
+      <c r="Q117" s="72"/>
+      <c r="R117" s="73"/>
+      <c r="S117" s="72"/>
+    </row>
+    <row r="118" spans="1:19" ht="16.2">
+      <c r="A118" s="94"/>
+      <c r="B118" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="60"/>
+      <c r="C118" s="78"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9742,17 +9742,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="93"/>
-      <c r="Q118" s="93"/>
-      <c r="R118" s="94"/>
-      <c r="S118" s="93"/>
+      <c r="P118" s="72"/>
+      <c r="Q118" s="72"/>
+      <c r="R118" s="73"/>
+      <c r="S118" s="72"/>
     </row>
     <row r="119" spans="1:19" ht="21">
-      <c r="A119" s="53"/>
-      <c r="B119" s="56" t="s">
+      <c r="A119" s="94"/>
+      <c r="B119" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="57"/>
+      <c r="C119" s="80"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9767,17 +9767,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="93"/>
-      <c r="Q119" s="93"/>
-      <c r="R119" s="94"/>
-      <c r="S119" s="93"/>
-    </row>
-    <row r="120" spans="1:19" ht="17.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="59" t="s">
+      <c r="P119" s="72"/>
+      <c r="Q119" s="72"/>
+      <c r="R119" s="73"/>
+      <c r="S119" s="72"/>
+    </row>
+    <row r="120" spans="1:19" ht="16.2">
+      <c r="A120" s="94"/>
+      <c r="B120" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="78"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9792,17 +9792,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="93"/>
-      <c r="Q120" s="93"/>
-      <c r="R120" s="94"/>
-      <c r="S120" s="93"/>
-    </row>
-    <row r="121" spans="1:19" ht="17.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="59" t="s">
+      <c r="P120" s="72"/>
+      <c r="Q120" s="72"/>
+      <c r="R120" s="73"/>
+      <c r="S120" s="72"/>
+    </row>
+    <row r="121" spans="1:19" ht="16.2">
+      <c r="A121" s="94"/>
+      <c r="B121" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="60"/>
+      <c r="C121" s="78"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9817,56 +9817,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="95"/>
-      <c r="Q121" s="95"/>
-      <c r="R121" s="96"/>
-      <c r="S121" s="95"/>
+      <c r="P121" s="74"/>
+      <c r="Q121" s="74"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="74"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="66"/>
-      <c r="C122" s="66"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="86" t="s">
+      <c r="A123" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
-      <c r="J123" s="86"/>
-      <c r="K123" s="86"/>
-      <c r="L123" s="86"/>
-      <c r="M123" s="86"/>
-      <c r="N123" s="86"/>
-      <c r="O123" s="86"/>
-      <c r="P123" s="86"/>
-      <c r="Q123" s="86"/>
-      <c r="R123" s="86"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
+      <c r="L123" s="65"/>
+      <c r="M123" s="65"/>
+      <c r="N123" s="65"/>
+      <c r="O123" s="65"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="65"/>
+      <c r="R123" s="65"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="86"/>
-      <c r="B124" s="86"/>
-      <c r="C124" s="86"/>
-      <c r="D124" s="86"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86"/>
-      <c r="I124" s="86"/>
-      <c r="J124" s="86"/>
-      <c r="K124" s="86"/>
-      <c r="L124" s="86"/>
-      <c r="M124" s="86"/>
-      <c r="N124" s="86"/>
-      <c r="O124" s="86"/>
-      <c r="P124" s="86"/>
-      <c r="Q124" s="86"/>
-      <c r="R124" s="86"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="65"/>
+      <c r="N124" s="65"/>
+      <c r="O124" s="65"/>
+      <c r="P124" s="65"/>
+      <c r="Q124" s="65"/>
+      <c r="R124" s="65"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
@@ -9924,7 +9924,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="17.25">
+    <row r="126" spans="1:19" ht="16.2">
       <c r="A126" s="25" t="s">
         <v>162</v>
       </c>
@@ -9941,12 +9941,12 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="80"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="77"/>
-    </row>
-    <row r="127" spans="1:19" ht="14.25">
+      <c r="O126" s="56"/>
+      <c r="P126" s="59"/>
+      <c r="Q126" s="60"/>
+      <c r="R126" s="56"/>
+    </row>
+    <row r="127" spans="1:19" ht="14.4">
       <c r="A127" s="23" t="s">
         <v>143</v>
       </c>
@@ -9967,12 +9967,12 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="78"/>
-      <c r="P127" s="82"/>
-      <c r="Q127" s="83"/>
-      <c r="R127" s="78"/>
-    </row>
-    <row r="128" spans="1:19" ht="14.25">
+      <c r="O127" s="57"/>
+      <c r="P127" s="61"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="57"/>
+    </row>
+    <row r="128" spans="1:19" ht="14.4">
       <c r="A128" s="23" t="s">
         <v>161</v>
       </c>
@@ -9997,12 +9997,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="78"/>
-      <c r="P128" s="82"/>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="78"/>
-    </row>
-    <row r="129" spans="1:18" ht="14.25">
+      <c r="O128" s="57"/>
+      <c r="P128" s="61"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="57"/>
+    </row>
+    <row r="129" spans="1:18" ht="14.4">
       <c r="A129" s="23" t="s">
         <v>126</v>
       </c>
@@ -10025,12 +10025,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="78"/>
-      <c r="P129" s="82"/>
-      <c r="Q129" s="83"/>
-      <c r="R129" s="78"/>
-    </row>
-    <row r="130" spans="1:18" ht="17.25">
+      <c r="O129" s="57"/>
+      <c r="P129" s="61"/>
+      <c r="Q129" s="62"/>
+      <c r="R129" s="57"/>
+    </row>
+    <row r="130" spans="1:18" ht="16.2">
       <c r="A130" s="25" t="s">
         <v>158</v>
       </c>
@@ -10047,12 +10047,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="78"/>
-      <c r="P130" s="82"/>
-      <c r="Q130" s="83"/>
-      <c r="R130" s="78"/>
-    </row>
-    <row r="131" spans="1:18" ht="14.25">
+      <c r="O130" s="57"/>
+      <c r="P130" s="61"/>
+      <c r="Q130" s="62"/>
+      <c r="R130" s="57"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.4">
       <c r="A131" s="34" t="s">
         <v>126</v>
       </c>
@@ -10073,12 +10073,12 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="78"/>
-      <c r="P131" s="82"/>
-      <c r="Q131" s="83"/>
-      <c r="R131" s="78"/>
-    </row>
-    <row r="132" spans="1:18" ht="14.25">
+      <c r="O131" s="57"/>
+      <c r="P131" s="61"/>
+      <c r="Q131" s="62"/>
+      <c r="R131" s="57"/>
+    </row>
+    <row r="132" spans="1:18" ht="14.4">
       <c r="A132" s="24" t="s">
         <v>156</v>
       </c>
@@ -10099,12 +10099,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="78"/>
-      <c r="P132" s="82"/>
-      <c r="Q132" s="83"/>
-      <c r="R132" s="78"/>
-    </row>
-    <row r="133" spans="1:18" ht="17.25">
+      <c r="O132" s="57"/>
+      <c r="P132" s="61"/>
+      <c r="Q132" s="62"/>
+      <c r="R132" s="57"/>
+    </row>
+    <row r="133" spans="1:18" ht="16.2">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -10121,12 +10121,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="78"/>
-      <c r="P133" s="82"/>
-      <c r="Q133" s="83"/>
-      <c r="R133" s="78"/>
-    </row>
-    <row r="134" spans="1:18" ht="14.25">
+      <c r="O133" s="57"/>
+      <c r="P133" s="61"/>
+      <c r="Q133" s="62"/>
+      <c r="R133" s="57"/>
+    </row>
+    <row r="134" spans="1:18" ht="14.4">
       <c r="A134" s="34" t="s">
         <v>154</v>
       </c>
@@ -10145,12 +10145,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="78"/>
-      <c r="P134" s="82"/>
-      <c r="Q134" s="83"/>
-      <c r="R134" s="78"/>
-    </row>
-    <row r="135" spans="1:18" ht="14.25">
+      <c r="O134" s="57"/>
+      <c r="P134" s="61"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="57"/>
+    </row>
+    <row r="135" spans="1:18" ht="14.4">
       <c r="A135" s="24" t="s">
         <v>153</v>
       </c>
@@ -10169,12 +10169,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="78"/>
-      <c r="P135" s="82"/>
-      <c r="Q135" s="83"/>
-      <c r="R135" s="78"/>
-    </row>
-    <row r="136" spans="1:18" ht="14.25">
+      <c r="O135" s="57"/>
+      <c r="P135" s="61"/>
+      <c r="Q135" s="62"/>
+      <c r="R135" s="57"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.4">
       <c r="A136" s="30" t="s">
         <v>152</v>
       </c>
@@ -10197,12 +10197,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="78"/>
-      <c r="P136" s="82"/>
-      <c r="Q136" s="83"/>
-      <c r="R136" s="78"/>
-    </row>
-    <row r="137" spans="1:18" ht="14.25">
+      <c r="O136" s="57"/>
+      <c r="P136" s="61"/>
+      <c r="Q136" s="62"/>
+      <c r="R136" s="57"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.4">
       <c r="A137" s="30" t="s">
         <v>150</v>
       </c>
@@ -10225,12 +10225,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="78"/>
-      <c r="P137" s="82"/>
-      <c r="Q137" s="83"/>
-      <c r="R137" s="78"/>
-    </row>
-    <row r="138" spans="1:18" ht="14.25">
+      <c r="O137" s="57"/>
+      <c r="P137" s="61"/>
+      <c r="Q137" s="62"/>
+      <c r="R137" s="57"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.4">
       <c r="A138" s="30" t="s">
         <v>149</v>
       </c>
@@ -10267,12 +10267,12 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="78"/>
-      <c r="P138" s="82"/>
-      <c r="Q138" s="83"/>
-      <c r="R138" s="78"/>
-    </row>
-    <row r="139" spans="1:18" ht="17.25">
+      <c r="O138" s="57"/>
+      <c r="P138" s="61"/>
+      <c r="Q138" s="62"/>
+      <c r="R138" s="57"/>
+    </row>
+    <row r="139" spans="1:18" ht="16.2">
       <c r="A139" s="25" t="s">
         <v>146</v>
       </c>
@@ -10289,12 +10289,12 @@
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
-      <c r="O139" s="78"/>
-      <c r="P139" s="82"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="78"/>
-    </row>
-    <row r="140" spans="1:18" ht="14.25">
+      <c r="O139" s="57"/>
+      <c r="P139" s="61"/>
+      <c r="Q139" s="62"/>
+      <c r="R139" s="57"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.4">
       <c r="A140" s="30" t="s">
         <v>143</v>
       </c>
@@ -10317,12 +10317,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="78"/>
-      <c r="P140" s="82"/>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="78"/>
-    </row>
-    <row r="141" spans="1:18" ht="17.25">
+      <c r="O140" s="57"/>
+      <c r="P140" s="61"/>
+      <c r="Q140" s="62"/>
+      <c r="R140" s="57"/>
+    </row>
+    <row r="141" spans="1:18" ht="16.2">
       <c r="A141" s="25" t="s">
         <v>144</v>
       </c>
@@ -10339,12 +10339,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="78"/>
-      <c r="P141" s="82"/>
-      <c r="Q141" s="83"/>
-      <c r="R141" s="78"/>
-    </row>
-    <row r="142" spans="1:18" ht="14.25">
+      <c r="O141" s="57"/>
+      <c r="P141" s="61"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="57"/>
+    </row>
+    <row r="142" spans="1:18" ht="14.4">
       <c r="A142" s="30" t="s">
         <v>143</v>
       </c>
@@ -10367,12 +10367,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="78"/>
-      <c r="P142" s="82"/>
-      <c r="Q142" s="83"/>
-      <c r="R142" s="78"/>
-    </row>
-    <row r="143" spans="1:18" ht="17.25">
+      <c r="O142" s="57"/>
+      <c r="P142" s="61"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="57"/>
+    </row>
+    <row r="143" spans="1:18" ht="16.2">
       <c r="A143" s="25" t="s">
         <v>141</v>
       </c>
@@ -10389,12 +10389,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="78"/>
-      <c r="P143" s="82"/>
-      <c r="Q143" s="83"/>
-      <c r="R143" s="78"/>
-    </row>
-    <row r="144" spans="1:18" ht="14.25">
+      <c r="O143" s="57"/>
+      <c r="P143" s="61"/>
+      <c r="Q143" s="62"/>
+      <c r="R143" s="57"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.4">
       <c r="A144" s="23" t="s">
         <v>140</v>
       </c>
@@ -10423,12 +10423,12 @@
       <c r="N144" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O144" s="78"/>
-      <c r="P144" s="82"/>
-      <c r="Q144" s="83"/>
-      <c r="R144" s="78"/>
-    </row>
-    <row r="145" spans="1:18" ht="14.25">
+      <c r="O144" s="57"/>
+      <c r="P144" s="61"/>
+      <c r="Q144" s="62"/>
+      <c r="R144" s="57"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.4">
       <c r="A145" s="23" t="s">
         <v>139</v>
       </c>
@@ -10457,12 +10457,12 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="78"/>
-      <c r="P145" s="82"/>
-      <c r="Q145" s="83"/>
-      <c r="R145" s="78"/>
-    </row>
-    <row r="146" spans="1:18" ht="17.25">
+      <c r="O145" s="57"/>
+      <c r="P145" s="61"/>
+      <c r="Q145" s="62"/>
+      <c r="R145" s="57"/>
+    </row>
+    <row r="146" spans="1:18" ht="16.2">
       <c r="A146" s="25" t="s">
         <v>135</v>
       </c>
@@ -10479,12 +10479,12 @@
       <c r="L146" s="26"/>
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="78"/>
-      <c r="P146" s="82"/>
-      <c r="Q146" s="83"/>
-      <c r="R146" s="78"/>
-    </row>
-    <row r="147" spans="1:18" ht="14.25">
+      <c r="O146" s="57"/>
+      <c r="P146" s="61"/>
+      <c r="Q146" s="62"/>
+      <c r="R146" s="57"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.4">
       <c r="A147" s="23" t="s">
         <v>134</v>
       </c>
@@ -10505,10 +10505,10 @@
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
-      <c r="O147" s="78"/>
-      <c r="P147" s="82"/>
-      <c r="Q147" s="83"/>
-      <c r="R147" s="78"/>
+      <c r="O147" s="57"/>
+      <c r="P147" s="61"/>
+      <c r="Q147" s="62"/>
+      <c r="R147" s="57"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -10529,12 +10529,12 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="78"/>
-      <c r="P148" s="82"/>
-      <c r="Q148" s="83"/>
-      <c r="R148" s="78"/>
-    </row>
-    <row r="149" spans="1:18" ht="17.25">
+      <c r="O148" s="57"/>
+      <c r="P148" s="61"/>
+      <c r="Q148" s="62"/>
+      <c r="R148" s="57"/>
+    </row>
+    <row r="149" spans="1:18" ht="16.2">
       <c r="A149" s="25" t="s">
         <v>131</v>
       </c>
@@ -10551,12 +10551,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="78"/>
-      <c r="P149" s="82"/>
-      <c r="Q149" s="83"/>
-      <c r="R149" s="78"/>
-    </row>
-    <row r="150" spans="1:18" ht="14.25">
+      <c r="O149" s="57"/>
+      <c r="P149" s="61"/>
+      <c r="Q149" s="62"/>
+      <c r="R149" s="57"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.4">
       <c r="A150" s="23" t="s">
         <v>130</v>
       </c>
@@ -10577,12 +10577,12 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="78"/>
-      <c r="P150" s="82"/>
-      <c r="Q150" s="83"/>
-      <c r="R150" s="78"/>
-    </row>
-    <row r="151" spans="1:18" ht="14.25">
+      <c r="O150" s="57"/>
+      <c r="P150" s="61"/>
+      <c r="Q150" s="62"/>
+      <c r="R150" s="57"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.4">
       <c r="A151" s="23" t="s">
         <v>128</v>
       </c>
@@ -10603,12 +10603,12 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="78"/>
-      <c r="P151" s="82"/>
-      <c r="Q151" s="83"/>
-      <c r="R151" s="78"/>
-    </row>
-    <row r="152" spans="1:18" ht="17.25">
+      <c r="O151" s="57"/>
+      <c r="P151" s="61"/>
+      <c r="Q151" s="62"/>
+      <c r="R151" s="57"/>
+    </row>
+    <row r="152" spans="1:18" ht="16.2">
       <c r="A152" s="25" t="s">
         <v>127</v>
       </c>
@@ -10625,12 +10625,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="78"/>
-      <c r="P152" s="82"/>
-      <c r="Q152" s="83"/>
-      <c r="R152" s="78"/>
-    </row>
-    <row r="153" spans="1:18" ht="14.25">
+      <c r="O152" s="57"/>
+      <c r="P152" s="61"/>
+      <c r="Q152" s="62"/>
+      <c r="R152" s="57"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.4">
       <c r="A153" s="23" t="s">
         <v>126</v>
       </c>
@@ -10651,12 +10651,12 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="78"/>
-      <c r="P153" s="82"/>
-      <c r="Q153" s="83"/>
-      <c r="R153" s="78"/>
-    </row>
-    <row r="154" spans="1:18" ht="17.25">
+      <c r="O153" s="57"/>
+      <c r="P153" s="61"/>
+      <c r="Q153" s="62"/>
+      <c r="R153" s="57"/>
+    </row>
+    <row r="154" spans="1:18" ht="16.2">
       <c r="A154" s="25" t="s">
         <v>124</v>
       </c>
@@ -10673,12 +10673,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="78"/>
-      <c r="P154" s="82"/>
-      <c r="Q154" s="83"/>
-      <c r="R154" s="78"/>
-    </row>
-    <row r="155" spans="1:18" ht="14.25">
+      <c r="O154" s="57"/>
+      <c r="P154" s="61"/>
+      <c r="Q154" s="62"/>
+      <c r="R154" s="57"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.4">
       <c r="A155" s="23" t="s">
         <v>123</v>
       </c>
@@ -10701,12 +10701,12 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="78"/>
-      <c r="P155" s="82"/>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="78"/>
-    </row>
-    <row r="156" spans="1:18" ht="14.25">
+      <c r="O155" s="57"/>
+      <c r="P155" s="61"/>
+      <c r="Q155" s="62"/>
+      <c r="R155" s="57"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.4">
       <c r="A156" s="23" t="s">
         <v>123</v>
       </c>
@@ -10729,12 +10729,12 @@
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="78"/>
-      <c r="P156" s="82"/>
-      <c r="Q156" s="83"/>
-      <c r="R156" s="78"/>
-    </row>
-    <row r="157" spans="1:18" ht="14.25">
+      <c r="O156" s="57"/>
+      <c r="P156" s="61"/>
+      <c r="Q156" s="62"/>
+      <c r="R156" s="57"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.4">
       <c r="A157" s="24" t="s">
         <v>120</v>
       </c>
@@ -10755,10 +10755,10 @@
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="78"/>
-      <c r="P157" s="82"/>
-      <c r="Q157" s="83"/>
-      <c r="R157" s="78"/>
+      <c r="O157" s="57"/>
+      <c r="P157" s="61"/>
+      <c r="Q157" s="62"/>
+      <c r="R157" s="57"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="18" t="s">
@@ -10779,12 +10779,12 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="78"/>
-      <c r="P158" s="82"/>
-      <c r="Q158" s="83"/>
-      <c r="R158" s="78"/>
-    </row>
-    <row r="159" spans="1:18" ht="14.25">
+      <c r="O158" s="57"/>
+      <c r="P158" s="61"/>
+      <c r="Q158" s="62"/>
+      <c r="R158" s="57"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.4">
       <c r="A159" s="18" t="s">
         <v>116</v>
       </c>
@@ -10805,13 +10805,139 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="79"/>
-      <c r="P159" s="84"/>
-      <c r="Q159" s="85"/>
-      <c r="R159" s="79"/>
+      <c r="O159" s="58"/>
+      <c r="P159" s="63"/>
+      <c r="Q159" s="64"/>
+      <c r="R159" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="A4:A40"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="P4:P121"/>
+    <mergeCell ref="Q4:R121"/>
+    <mergeCell ref="S4:S121"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="A123:R124"/>
     <mergeCell ref="O126:O159"/>
     <mergeCell ref="P126:Q159"/>
@@ -10836,132 +10962,6 @@
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="A4:A40"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="P4:P121"/>
-    <mergeCell ref="Q4:R121"/>
-    <mergeCell ref="S4:S121"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/TakamatsuSchedule.xlsx
+++ b/高松/ドキュメント/TakamatsuSchedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ririth\Desktop\GameProject\高松\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoji Anzai\Desktop\Gitリポジトリ\GameProject\高松\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1954,6 +1954,111 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1970,15 +2075,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2017,97 +2113,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,12 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2404,93 +2404,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="15" width="8.69921875" customWidth="1"/>
     <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="7.25" customWidth="1"/>
-    <col min="18" max="18" width="17.25" customWidth="1"/>
-    <col min="19" max="19" width="11.75" customWidth="1"/>
-    <col min="29" max="29" width="24.25" customWidth="1"/>
+    <col min="17" max="17" width="7.19921875" customWidth="1"/>
+    <col min="18" max="18" width="17.19921875" customWidth="1"/>
+    <col min="19" max="19" width="11.69921875" customWidth="1"/>
+    <col min="29" max="29" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="U1" s="64" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="U1" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-    </row>
-    <row r="3" spans="1:29" ht="30">
-      <c r="A3" s="77" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+    </row>
+    <row r="3" spans="1:29" ht="28.8">
+      <c r="A3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2539,26 +2539,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2573,34 +2573,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="68" t="s">
+      <c r="R4" s="101"/>
+      <c r="S4" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
       <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="1"/>
       <c r="E5" s="47" t="s">
         <v>108</v>
@@ -2619,26 +2619,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="70"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="102"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2653,17 +2653,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="70"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="102"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="75" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="1"/>
       <c r="E7" s="48" t="s">
         <v>105</v>
@@ -2682,17 +2682,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="70"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="102"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="1"/>
       <c r="E8" s="48" t="s">
         <v>105</v>
@@ -2711,18 +2711,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="70"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="102"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="69" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -2736,18 +2736,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="70"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="102"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="89"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2759,17 +2759,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="70"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="102"/>
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="1"/>
       <c r="E11" s="48" t="s">
         <v>105</v>
@@ -2788,17 +2788,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="70"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="102"/>
     </row>
     <row r="12" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="1"/>
       <c r="E12" s="48" t="s">
         <v>105</v>
@@ -2817,63 +2817,63 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="70"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="102"/>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="90" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="70"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="102"/>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="70"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="102"/>
     </row>
     <row r="15" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -2890,17 +2890,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="70"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="102"/>
     </row>
     <row r="16" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -2917,17 +2917,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="70"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="102"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -2944,17 +2944,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="70"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="102"/>
     </row>
     <row r="18" spans="1:19" ht="21" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="77" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="1" t="s">
         <v>184</v>
       </c>
@@ -2969,17 +2969,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="70"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="102"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2996,17 +2996,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="70"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="102"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -3023,17 +3023,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="70"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="102"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -3050,17 +3050,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="70"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="102"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -3077,17 +3077,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="70"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="102"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="75" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -3104,17 +3104,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="70"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="102"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3129,17 +3129,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="70"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="102"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -3156,17 +3156,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="70"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="102"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A26" s="88"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -3183,17 +3183,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="70"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="102"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -3210,17 +3210,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="70"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="102"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="88"/>
-      <c r="B28" s="77" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3235,17 +3235,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="70"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="102"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A29" s="88"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -3262,17 +3262,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="70"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="102"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="75" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -3289,17 +3289,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="70"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="102"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -3320,17 +3320,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="70"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="102"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -3347,17 +3347,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="70"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="102"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="77" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="78"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3372,17 +3372,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="70"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="102"/>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A34" s="88"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -3401,17 +3401,17 @@
       <c r="O34" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="70"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="102"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A35" s="88"/>
-      <c r="B35" s="76" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -3430,17 +3430,17 @@
       <c r="O35" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="70"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="102"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A36" s="88"/>
-      <c r="B36" s="76" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -3459,17 +3459,17 @@
       <c r="O36" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="70"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="102"/>
     </row>
     <row r="37" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="77" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="1" t="s">
         <v>26</v>
       </c>
@@ -3482,8 +3482,8 @@
       <c r="G37" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -3496,27 +3496,27 @@
       <c r="O37" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="70"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="102"/>
     </row>
     <row r="38" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A38" s="83"/>
-      <c r="B38" s="105" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="51" t="s">
         <v>183</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="108" t="s">
+      <c r="H38" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="108" t="s">
+      <c r="I38" s="54" t="s">
         <v>105</v>
       </c>
       <c r="J38" s="8"/>
@@ -3525,17 +3525,17 @@
       <c r="M38" s="40"/>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="70"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="102"/>
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="39" t="s">
         <v>26</v>
       </c>
@@ -3560,19 +3560,19 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="70"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="102"/>
     </row>
     <row r="40" spans="1:19" ht="21" customHeight="1">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="5" t="s">
         <v>25</v>
       </c>
@@ -3587,17 +3587,17 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="70"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="102"/>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="89" t="s">
+      <c r="A41" s="70"/>
+      <c r="B41" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="3"/>
       <c r="E41" s="40" t="s">
         <v>105</v>
@@ -3616,17 +3616,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="70"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="102"/>
     </row>
     <row r="42" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="89" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="3"/>
       <c r="E42" s="40" t="s">
         <v>105</v>
@@ -3645,17 +3645,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="70"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="102"/>
     </row>
     <row r="43" spans="1:19" ht="21" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="80" t="s">
+      <c r="A43" s="70"/>
+      <c r="B43" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="77"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="5" t="s">
         <v>25</v>
       </c>
@@ -3670,17 +3670,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="70"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="102"/>
     </row>
     <row r="44" spans="1:19" ht="21" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="89" t="s">
+      <c r="A44" s="70"/>
+      <c r="B44" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="8"/>
@@ -3699,17 +3699,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="70"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="102"/>
     </row>
     <row r="45" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="79" t="s">
+      <c r="A45" s="70"/>
+      <c r="B45" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -3728,17 +3728,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="70"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="102"/>
     </row>
     <row r="46" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="80" t="s">
+      <c r="A46" s="70"/>
+      <c r="B46" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
@@ -3759,17 +3759,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="70"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="102"/>
     </row>
     <row r="47" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="82" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
@@ -3790,19 +3790,19 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="70"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="102"/>
     </row>
     <row r="48" spans="1:19" ht="21" customHeight="1">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="78"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="5" t="s">
         <v>27</v>
       </c>
@@ -3817,17 +3817,17 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="70"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="102"/>
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="70"/>
+      <c r="B49" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="8"/>
@@ -3848,17 +3848,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="70"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="102"/>
     </row>
     <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="79" t="s">
+      <c r="A50" s="70"/>
+      <c r="B50" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3879,17 +3879,17 @@
       <c r="M50" s="3"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="70"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="102"/>
     </row>
     <row r="51" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="79" t="s">
+      <c r="A51" s="70"/>
+      <c r="B51" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3910,17 +3910,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="70"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="102"/>
     </row>
     <row r="52" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="79" t="s">
+      <c r="A52" s="70"/>
+      <c r="B52" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3941,17 +3941,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="70"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="102"/>
     </row>
     <row r="53" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="79" t="s">
+      <c r="A53" s="70"/>
+      <c r="B53" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3971,17 +3971,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="70"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="102"/>
     </row>
     <row r="54" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A54" s="84"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="70"/>
+      <c r="B54" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4002,17 +4002,17 @@
       <c r="O54" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="70"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="102"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A55" s="84"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="70"/>
+      <c r="B55" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4033,17 +4033,17 @@
       <c r="O55" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="70"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="102"/>
     </row>
     <row r="56" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="79" t="s">
+      <c r="A56" s="70"/>
+      <c r="B56" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="76"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -4064,17 +4064,17 @@
       <c r="O56" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="70"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="103"/>
+      <c r="S56" s="102"/>
     </row>
     <row r="57" spans="1:19" ht="21" customHeight="1">
-      <c r="A57" s="85"/>
-      <c r="B57" s="80" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="78"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="5" t="s">
         <v>25</v>
       </c>
@@ -4097,19 +4097,19 @@
       <c r="O57" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="70"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="102"/>
     </row>
     <row r="58" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="78"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="1" t="s">
         <v>84</v>
       </c>
@@ -4128,17 +4128,17 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="70"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="102"/>
     </row>
     <row r="59" spans="1:19" ht="21" customHeight="1">
-      <c r="A59" s="87"/>
-      <c r="B59" s="77" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4153,17 +4153,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="70"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="102"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A60" s="87"/>
-      <c r="B60" s="75" t="s">
+      <c r="A60" s="88"/>
+      <c r="B60" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="8"/>
@@ -4184,17 +4184,17 @@
         <v>166</v>
       </c>
       <c r="O60" s="8"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="70"/>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="102"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="102"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A61" s="87"/>
-      <c r="B61" s="75" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -4215,17 +4215,17 @@
         <v>166</v>
       </c>
       <c r="O61" s="3"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="70"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="102"/>
     </row>
     <row r="62" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A62" s="87"/>
-      <c r="B62" s="77" t="s">
+      <c r="A62" s="88"/>
+      <c r="B62" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="78"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="70"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="102"/>
     </row>
     <row r="63" spans="1:19" ht="21" customHeight="1">
-      <c r="A63" s="87"/>
-      <c r="B63" s="77" t="s">
+      <c r="A63" s="88"/>
+      <c r="B63" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="5" t="s">
         <v>84</v>
       </c>
@@ -4267,17 +4267,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="70"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="102"/>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="87"/>
-      <c r="B64" s="75" t="s">
+      <c r="A64" s="88"/>
+      <c r="B64" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="8"/>
@@ -4296,17 +4296,17 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="70"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="102"/>
     </row>
     <row r="65" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A65" s="87"/>
-      <c r="B65" s="76" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -4325,17 +4325,17 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="70"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="103"/>
+      <c r="S65" s="102"/>
     </row>
     <row r="66" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A66" s="87"/>
-      <c r="B66" s="76" t="s">
+      <c r="A66" s="88"/>
+      <c r="B66" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="76"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -4354,17 +4354,17 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="70"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="102"/>
     </row>
     <row r="67" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A67" s="87"/>
-      <c r="B67" s="76" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -4383,17 +4383,17 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="70"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="70"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="103"/>
+      <c r="S67" s="102"/>
     </row>
     <row r="68" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A68" s="87"/>
-      <c r="B68" s="76" t="s">
+      <c r="A68" s="88"/>
+      <c r="B68" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="76"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -4412,17 +4412,17 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="70"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="102"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="102"/>
     </row>
     <row r="69" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A69" s="87"/>
-      <c r="B69" s="76" t="s">
+      <c r="A69" s="88"/>
+      <c r="B69" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="76"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -4441,17 +4441,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="70"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="103"/>
+      <c r="S69" s="102"/>
     </row>
     <row r="70" spans="1:19" ht="21" customHeight="1">
-      <c r="A70" s="87"/>
-      <c r="B70" s="77" t="s">
+      <c r="A70" s="88"/>
+      <c r="B70" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="78"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="5" t="s">
         <v>84</v>
       </c>
@@ -4468,17 +4468,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="70"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="102"/>
     </row>
     <row r="71" spans="1:19" ht="21" customHeight="1">
-      <c r="A71" s="87"/>
-      <c r="B71" s="77" t="s">
+      <c r="A71" s="88"/>
+      <c r="B71" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="78"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="5" t="s">
         <v>84</v>
       </c>
@@ -4495,19 +4495,19 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="70"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="R71" s="103"/>
+      <c r="S71" s="102"/>
     </row>
     <row r="72" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="78"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4522,17 +4522,17 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="70"/>
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="R72" s="103"/>
+      <c r="S72" s="102"/>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1">
-      <c r="A73" s="88"/>
-      <c r="B73" s="75" t="s">
+      <c r="A73" s="60"/>
+      <c r="B73" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="76"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="3"/>
       <c r="E73" s="52" t="s">
         <v>167</v>
@@ -4549,17 +4549,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="70"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="103"/>
+      <c r="S73" s="102"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="88"/>
-      <c r="B74" s="76" t="s">
+      <c r="A74" s="60"/>
+      <c r="B74" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="76"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="3"/>
       <c r="E74" s="52" t="s">
         <v>167</v>
@@ -4578,17 +4578,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="70"/>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="70"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="103"/>
+      <c r="S74" s="102"/>
     </row>
     <row r="75" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A75" s="88"/>
-      <c r="B75" s="76" t="s">
+      <c r="A75" s="60"/>
+      <c r="B75" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="3"/>
       <c r="E75" s="52" t="s">
         <v>167</v>
@@ -4604,17 +4604,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="70"/>
+      <c r="P75" s="102"/>
+      <c r="Q75" s="102"/>
+      <c r="R75" s="103"/>
+      <c r="S75" s="102"/>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1">
-      <c r="A76" s="88"/>
-      <c r="B76" s="76" t="s">
+      <c r="A76" s="60"/>
+      <c r="B76" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="3"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -4631,17 +4631,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="70"/>
-      <c r="Q76" s="70"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="70"/>
+      <c r="P76" s="102"/>
+      <c r="Q76" s="102"/>
+      <c r="R76" s="103"/>
+      <c r="S76" s="102"/>
     </row>
     <row r="77" spans="1:19" ht="21" customHeight="1">
-      <c r="A77" s="88"/>
-      <c r="B77" s="77" t="s">
+      <c r="A77" s="60"/>
+      <c r="B77" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="78"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="5" t="s">
         <v>88</v>
       </c>
@@ -4656,17 +4656,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="70"/>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="70"/>
+      <c r="P77" s="102"/>
+      <c r="Q77" s="102"/>
+      <c r="R77" s="103"/>
+      <c r="S77" s="102"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1">
-      <c r="A78" s="88"/>
-      <c r="B78" s="75" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="76"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="37" t="s">
@@ -4681,17 +4681,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="70"/>
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
+      <c r="R78" s="103"/>
+      <c r="S78" s="102"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="88"/>
-      <c r="B79" s="76" t="s">
+      <c r="A79" s="60"/>
+      <c r="B79" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="76"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="37" t="s">
@@ -4706,17 +4706,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="70"/>
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
+      <c r="R79" s="103"/>
+      <c r="S79" s="102"/>
     </row>
     <row r="80" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A80" s="88"/>
-      <c r="B80" s="76" t="s">
+      <c r="A80" s="60"/>
+      <c r="B80" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="76"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="37" t="s">
@@ -4731,17 +4731,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="70"/>
+      <c r="P80" s="102"/>
+      <c r="Q80" s="102"/>
+      <c r="R80" s="103"/>
+      <c r="S80" s="102"/>
     </row>
     <row r="81" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A81" s="88"/>
-      <c r="B81" s="77" t="s">
+      <c r="A81" s="60"/>
+      <c r="B81" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="78"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="5" t="s">
         <v>88</v>
       </c>
@@ -4756,17 +4756,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="70"/>
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
+      <c r="R81" s="103"/>
+      <c r="S81" s="102"/>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
-      <c r="A82" s="88"/>
-      <c r="B82" s="75" t="s">
+      <c r="A82" s="60"/>
+      <c r="B82" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="76"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="37" t="s">
@@ -4781,17 +4781,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="70"/>
-      <c r="Q82" s="70"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="70"/>
+      <c r="P82" s="102"/>
+      <c r="Q82" s="102"/>
+      <c r="R82" s="103"/>
+      <c r="S82" s="102"/>
     </row>
     <row r="83" spans="1:19" ht="18" customHeight="1">
-      <c r="A83" s="88"/>
-      <c r="B83" s="76" t="s">
+      <c r="A83" s="60"/>
+      <c r="B83" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="76"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="G83" s="37" t="s">
@@ -4805,17 +4805,17 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="70"/>
-      <c r="Q83" s="70"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="70"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="103"/>
+      <c r="S83" s="102"/>
     </row>
     <row r="84" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A84" s="88"/>
-      <c r="B84" s="76" t="s">
+      <c r="A84" s="60"/>
+      <c r="B84" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4828,19 +4828,19 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="70"/>
+      <c r="P84" s="102"/>
+      <c r="Q84" s="102"/>
+      <c r="R84" s="103"/>
+      <c r="S84" s="102"/>
     </row>
     <row r="85" spans="1:19" ht="21" customHeight="1">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="77" t="s">
+      <c r="B85" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="78"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="1" t="s">
         <v>61</v>
       </c>
@@ -4855,17 +4855,17 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="70"/>
-      <c r="Q85" s="70"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="70"/>
+      <c r="P85" s="102"/>
+      <c r="Q85" s="102"/>
+      <c r="R85" s="103"/>
+      <c r="S85" s="102"/>
     </row>
     <row r="86" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A86" s="84"/>
-      <c r="B86" s="75" t="s">
+      <c r="A86" s="70"/>
+      <c r="B86" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="76"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="1"/>
       <c r="E86" s="46" t="s">
         <v>111</v>
@@ -4882,17 +4882,17 @@
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="70"/>
-      <c r="Q86" s="70"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="70"/>
+      <c r="P86" s="102"/>
+      <c r="Q86" s="102"/>
+      <c r="R86" s="103"/>
+      <c r="S86" s="102"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A87" s="84"/>
-      <c r="B87" s="75" t="s">
+      <c r="A87" s="70"/>
+      <c r="B87" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="76"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="3"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4907,17 +4907,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="70"/>
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="103"/>
+      <c r="S87" s="102"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A88" s="84"/>
-      <c r="B88" s="76" t="s">
+      <c r="A88" s="70"/>
+      <c r="B88" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="76"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4932,17 +4932,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="70"/>
+      <c r="P88" s="102"/>
+      <c r="Q88" s="102"/>
+      <c r="R88" s="103"/>
+      <c r="S88" s="102"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A89" s="84"/>
-      <c r="B89" s="76" t="s">
+      <c r="A89" s="70"/>
+      <c r="B89" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="76"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -4957,17 +4957,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="70"/>
+      <c r="P89" s="102"/>
+      <c r="Q89" s="102"/>
+      <c r="R89" s="103"/>
+      <c r="S89" s="102"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A90" s="84"/>
-      <c r="B90" s="76" t="s">
+      <c r="A90" s="70"/>
+      <c r="B90" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="76"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -4984,17 +4984,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="70"/>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="70"/>
+      <c r="P90" s="102"/>
+      <c r="Q90" s="102"/>
+      <c r="R90" s="103"/>
+      <c r="S90" s="102"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A91" s="84"/>
-      <c r="B91" s="76" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="76"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -5009,17 +5009,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="70"/>
+      <c r="P91" s="102"/>
+      <c r="Q91" s="102"/>
+      <c r="R91" s="103"/>
+      <c r="S91" s="102"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A92" s="84"/>
-      <c r="B92" s="76" t="s">
+      <c r="A92" s="70"/>
+      <c r="B92" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="76"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -5034,17 +5034,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="70"/>
-      <c r="Q92" s="70"/>
-      <c r="R92" s="71"/>
-      <c r="S92" s="70"/>
+      <c r="P92" s="102"/>
+      <c r="Q92" s="102"/>
+      <c r="R92" s="103"/>
+      <c r="S92" s="102"/>
     </row>
     <row r="93" spans="1:19" ht="21" customHeight="1">
-      <c r="A93" s="84"/>
-      <c r="B93" s="77" t="s">
+      <c r="A93" s="70"/>
+      <c r="B93" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="78"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="5" t="s">
         <v>61</v>
       </c>
@@ -5059,17 +5059,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="70"/>
-      <c r="R93" s="71"/>
-      <c r="S93" s="70"/>
+      <c r="P93" s="102"/>
+      <c r="Q93" s="102"/>
+      <c r="R93" s="103"/>
+      <c r="S93" s="102"/>
     </row>
     <row r="94" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A94" s="84"/>
-      <c r="B94" s="75" t="s">
+      <c r="A94" s="70"/>
+      <c r="B94" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="76"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="5"/>
       <c r="E94" s="42" t="s">
         <v>111</v>
@@ -5086,17 +5086,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="70"/>
-      <c r="R94" s="71"/>
-      <c r="S94" s="70"/>
+      <c r="P94" s="102"/>
+      <c r="Q94" s="102"/>
+      <c r="R94" s="103"/>
+      <c r="S94" s="102"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A95" s="84"/>
-      <c r="B95" s="75" t="s">
+      <c r="A95" s="70"/>
+      <c r="B95" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="76"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="3"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -5111,17 +5111,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="70"/>
-      <c r="R95" s="71"/>
-      <c r="S95" s="70"/>
+      <c r="P95" s="102"/>
+      <c r="Q95" s="102"/>
+      <c r="R95" s="103"/>
+      <c r="S95" s="102"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A96" s="84"/>
-      <c r="B96" s="76" t="s">
+      <c r="A96" s="70"/>
+      <c r="B96" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="76"/>
+      <c r="C96" s="67"/>
       <c r="D96" s="3"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -5136,17 +5136,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="71"/>
-      <c r="S96" s="70"/>
+      <c r="P96" s="102"/>
+      <c r="Q96" s="102"/>
+      <c r="R96" s="103"/>
+      <c r="S96" s="102"/>
     </row>
     <row r="97" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A97" s="84"/>
-      <c r="B97" s="76" t="s">
+      <c r="A97" s="70"/>
+      <c r="B97" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="76"/>
+      <c r="C97" s="67"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -5161,17 +5161,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="70"/>
-      <c r="R97" s="71"/>
-      <c r="S97" s="70"/>
+      <c r="P97" s="102"/>
+      <c r="Q97" s="102"/>
+      <c r="R97" s="103"/>
+      <c r="S97" s="102"/>
     </row>
     <row r="98" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A98" s="84"/>
-      <c r="B98" s="76" t="s">
+      <c r="A98" s="70"/>
+      <c r="B98" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="76"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -5186,17 +5186,17 @@
       <c r="O98" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="70"/>
-      <c r="R98" s="71"/>
-      <c r="S98" s="70"/>
+      <c r="P98" s="102"/>
+      <c r="Q98" s="102"/>
+      <c r="R98" s="103"/>
+      <c r="S98" s="102"/>
     </row>
     <row r="99" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A99" s="84"/>
-      <c r="B99" s="76" t="s">
+      <c r="A99" s="70"/>
+      <c r="B99" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -5211,17 +5211,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="70"/>
+      <c r="P99" s="102"/>
+      <c r="Q99" s="102"/>
+      <c r="R99" s="103"/>
+      <c r="S99" s="102"/>
     </row>
     <row r="100" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A100" s="84"/>
-      <c r="B100" s="81" t="s">
+      <c r="A100" s="70"/>
+      <c r="B100" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="82"/>
+      <c r="C100" s="73"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -5234,17 +5234,17 @@
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="70"/>
-      <c r="R100" s="71"/>
-      <c r="S100" s="70"/>
+      <c r="P100" s="102"/>
+      <c r="Q100" s="102"/>
+      <c r="R100" s="103"/>
+      <c r="S100" s="102"/>
     </row>
     <row r="101" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A101" s="84"/>
-      <c r="B101" s="99" t="s">
+      <c r="A101" s="70"/>
+      <c r="B101" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="79"/>
+      <c r="C101" s="68"/>
       <c r="D101" s="44" t="s">
         <v>175</v>
       </c>
@@ -5259,17 +5259,17 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
-      <c r="R101" s="71"/>
-      <c r="S101" s="70"/>
+      <c r="P101" s="102"/>
+      <c r="Q101" s="102"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="102"/>
     </row>
     <row r="102" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A102" s="85"/>
-      <c r="B102" s="99" t="s">
+      <c r="A102" s="71"/>
+      <c r="B102" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="79"/>
+      <c r="C102" s="68"/>
       <c r="D102" s="45" t="s">
         <v>176</v>
       </c>
@@ -5286,19 +5286,19 @@
         <v>105</v>
       </c>
       <c r="O102" s="15"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="70"/>
-      <c r="R102" s="71"/>
-      <c r="S102" s="70"/>
+      <c r="P102" s="102"/>
+      <c r="Q102" s="102"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="102"/>
     </row>
     <row r="103" spans="1:19" ht="18" customHeight="1">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="B103" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C103" s="78"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="1" t="s">
         <v>61</v>
       </c>
@@ -5313,17 +5313,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="70"/>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="71"/>
-      <c r="S103" s="70"/>
+      <c r="P103" s="102"/>
+      <c r="Q103" s="102"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="102"/>
     </row>
     <row r="104" spans="1:19" ht="18" customHeight="1">
-      <c r="A104" s="88"/>
-      <c r="B104" s="75" t="s">
+      <c r="A104" s="60"/>
+      <c r="B104" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="76"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="1"/>
       <c r="E104" s="15"/>
       <c r="F104" s="16" t="s">
@@ -5338,17 +5338,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="71"/>
-      <c r="S104" s="70"/>
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="102"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A105" s="88"/>
-      <c r="B105" s="75" t="s">
+      <c r="A105" s="60"/>
+      <c r="B105" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C105" s="76"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="3"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -5363,17 +5363,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="71"/>
-      <c r="S105" s="70"/>
+      <c r="P105" s="102"/>
+      <c r="Q105" s="102"/>
+      <c r="R105" s="103"/>
+      <c r="S105" s="102"/>
     </row>
     <row r="106" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A106" s="88"/>
-      <c r="B106" s="77" t="s">
+      <c r="A106" s="60"/>
+      <c r="B106" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="78"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="5" t="s">
         <v>61</v>
       </c>
@@ -5388,17 +5388,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="70"/>
-      <c r="R106" s="71"/>
-      <c r="S106" s="70"/>
+      <c r="P106" s="102"/>
+      <c r="Q106" s="102"/>
+      <c r="R106" s="103"/>
+      <c r="S106" s="102"/>
     </row>
     <row r="107" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A107" s="88"/>
-      <c r="B107" s="75" t="s">
+      <c r="A107" s="60"/>
+      <c r="B107" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="75"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="5"/>
       <c r="E107" s="15"/>
       <c r="F107" s="16" t="s">
@@ -5413,17 +5413,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="70"/>
-      <c r="Q107" s="70"/>
-      <c r="R107" s="71"/>
-      <c r="S107" s="70"/>
+      <c r="P107" s="102"/>
+      <c r="Q107" s="102"/>
+      <c r="R107" s="103"/>
+      <c r="S107" s="102"/>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1">
-      <c r="A108" s="88"/>
-      <c r="B108" s="75" t="s">
+      <c r="A108" s="60"/>
+      <c r="B108" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="76"/>
+      <c r="C108" s="67"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -5438,17 +5438,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="70"/>
-      <c r="R108" s="71"/>
-      <c r="S108" s="70"/>
+      <c r="P108" s="102"/>
+      <c r="Q108" s="102"/>
+      <c r="R108" s="103"/>
+      <c r="S108" s="102"/>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1">
-      <c r="A109" s="88"/>
-      <c r="B109" s="76" t="s">
+      <c r="A109" s="60"/>
+      <c r="B109" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C109" s="76"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -5463,17 +5463,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="71"/>
-      <c r="S109" s="70"/>
+      <c r="P109" s="102"/>
+      <c r="Q109" s="102"/>
+      <c r="R109" s="103"/>
+      <c r="S109" s="102"/>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1">
-      <c r="A110" s="88"/>
-      <c r="B110" s="76" t="s">
+      <c r="A110" s="60"/>
+      <c r="B110" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C110" s="76"/>
+      <c r="C110" s="67"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -5488,17 +5488,17 @@
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="70"/>
-      <c r="Q110" s="70"/>
-      <c r="R110" s="71"/>
-      <c r="S110" s="70"/>
+      <c r="P110" s="102"/>
+      <c r="Q110" s="102"/>
+      <c r="R110" s="103"/>
+      <c r="S110" s="102"/>
     </row>
     <row r="111" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A111" s="88"/>
-      <c r="B111" s="76" t="s">
+      <c r="A111" s="60"/>
+      <c r="B111" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="76"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -5513,17 +5513,17 @@
       </c>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="70"/>
-      <c r="R111" s="71"/>
-      <c r="S111" s="70"/>
+      <c r="P111" s="102"/>
+      <c r="Q111" s="102"/>
+      <c r="R111" s="103"/>
+      <c r="S111" s="102"/>
     </row>
     <row r="112" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A112" s="88"/>
-      <c r="B112" s="76" t="s">
+      <c r="A112" s="60"/>
+      <c r="B112" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="76"/>
+      <c r="C112" s="67"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -5538,17 +5538,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="70"/>
-      <c r="Q112" s="70"/>
-      <c r="R112" s="71"/>
-      <c r="S112" s="70"/>
+      <c r="P112" s="102"/>
+      <c r="Q112" s="102"/>
+      <c r="R112" s="103"/>
+      <c r="S112" s="102"/>
     </row>
     <row r="113" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A113" s="88"/>
-      <c r="B113" s="76" t="s">
+      <c r="A113" s="60"/>
+      <c r="B113" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C113" s="76"/>
+      <c r="C113" s="67"/>
       <c r="D113" s="3"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
@@ -5563,17 +5563,17 @@
       <c r="O113" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P113" s="70"/>
-      <c r="Q113" s="70"/>
-      <c r="R113" s="71"/>
-      <c r="S113" s="70"/>
+      <c r="P113" s="102"/>
+      <c r="Q113" s="102"/>
+      <c r="R113" s="103"/>
+      <c r="S113" s="102"/>
     </row>
     <row r="114" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A114" s="88"/>
-      <c r="B114" s="77" t="s">
+      <c r="A114" s="60"/>
+      <c r="B114" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="78"/>
+      <c r="C114" s="64"/>
       <c r="D114" s="5" t="s">
         <v>61</v>
       </c>
@@ -5588,17 +5588,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="70"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="71"/>
-      <c r="S114" s="70"/>
+      <c r="P114" s="102"/>
+      <c r="Q114" s="102"/>
+      <c r="R114" s="103"/>
+      <c r="S114" s="102"/>
     </row>
     <row r="115" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A115" s="88"/>
-      <c r="B115" s="75" t="s">
+      <c r="A115" s="60"/>
+      <c r="B115" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="76"/>
+      <c r="C115" s="67"/>
       <c r="D115" s="5"/>
       <c r="E115" s="15"/>
       <c r="F115" s="16" t="s">
@@ -5613,17 +5613,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="70"/>
-      <c r="Q115" s="70"/>
-      <c r="R115" s="71"/>
-      <c r="S115" s="70"/>
+      <c r="P115" s="102"/>
+      <c r="Q115" s="102"/>
+      <c r="R115" s="103"/>
+      <c r="S115" s="102"/>
     </row>
     <row r="116" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A116" s="88"/>
-      <c r="B116" s="75" t="s">
+      <c r="A116" s="60"/>
+      <c r="B116" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C116" s="76"/>
+      <c r="C116" s="67"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -5638,17 +5638,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="70"/>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="71"/>
-      <c r="S116" s="70"/>
+      <c r="P116" s="102"/>
+      <c r="Q116" s="102"/>
+      <c r="R116" s="103"/>
+      <c r="S116" s="102"/>
     </row>
     <row r="117" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A117" s="88"/>
-      <c r="B117" s="76" t="s">
+      <c r="A117" s="60"/>
+      <c r="B117" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C117" s="76"/>
+      <c r="C117" s="67"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -5663,17 +5663,17 @@
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
-      <c r="P117" s="70"/>
-      <c r="Q117" s="70"/>
-      <c r="R117" s="71"/>
-      <c r="S117" s="70"/>
+      <c r="P117" s="102"/>
+      <c r="Q117" s="102"/>
+      <c r="R117" s="103"/>
+      <c r="S117" s="102"/>
     </row>
     <row r="118" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A118" s="88"/>
-      <c r="B118" s="76" t="s">
+      <c r="A118" s="60"/>
+      <c r="B118" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="67"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -5688,17 +5688,17 @@
       <c r="O118" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P118" s="70"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="70"/>
+      <c r="P118" s="102"/>
+      <c r="Q118" s="102"/>
+      <c r="R118" s="103"/>
+      <c r="S118" s="102"/>
     </row>
     <row r="119" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A119" s="88"/>
-      <c r="B119" s="76" t="s">
+      <c r="A119" s="60"/>
+      <c r="B119" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C119" s="76"/>
+      <c r="C119" s="67"/>
       <c r="D119" s="3"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
@@ -5713,17 +5713,17 @@
       <c r="O119" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P119" s="70"/>
-      <c r="Q119" s="70"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="70"/>
+      <c r="P119" s="102"/>
+      <c r="Q119" s="102"/>
+      <c r="R119" s="103"/>
+      <c r="S119" s="102"/>
     </row>
     <row r="120" spans="1:19" ht="21" customHeight="1">
-      <c r="A120" s="88"/>
-      <c r="B120" s="77" t="s">
+      <c r="A120" s="60"/>
+      <c r="B120" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="78"/>
+      <c r="C120" s="64"/>
       <c r="D120" s="5" t="s">
         <v>61</v>
       </c>
@@ -5738,17 +5738,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="70"/>
-      <c r="Q120" s="70"/>
-      <c r="R120" s="71"/>
-      <c r="S120" s="70"/>
+      <c r="P120" s="102"/>
+      <c r="Q120" s="102"/>
+      <c r="R120" s="103"/>
+      <c r="S120" s="102"/>
     </row>
     <row r="121" spans="1:19" ht="21" customHeight="1">
-      <c r="A121" s="88"/>
-      <c r="B121" s="75" t="s">
+      <c r="A121" s="60"/>
+      <c r="B121" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="76"/>
+      <c r="C121" s="67"/>
       <c r="D121" s="5"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -5763,17 +5763,17 @@
       <c r="M121" s="15"/>
       <c r="N121" s="15"/>
       <c r="O121" s="15"/>
-      <c r="P121" s="70"/>
-      <c r="Q121" s="70"/>
-      <c r="R121" s="71"/>
-      <c r="S121" s="70"/>
+      <c r="P121" s="102"/>
+      <c r="Q121" s="102"/>
+      <c r="R121" s="103"/>
+      <c r="S121" s="102"/>
     </row>
     <row r="122" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A122" s="88"/>
-      <c r="B122" s="75" t="s">
+      <c r="A122" s="60"/>
+      <c r="B122" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C122" s="76"/>
+      <c r="C122" s="67"/>
       <c r="D122" s="3"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
@@ -5788,56 +5788,56 @@
         <v>105</v>
       </c>
       <c r="O122" s="15"/>
-      <c r="P122" s="72"/>
-      <c r="Q122" s="72"/>
-      <c r="R122" s="73"/>
-      <c r="S122" s="72"/>
+      <c r="P122" s="104"/>
+      <c r="Q122" s="104"/>
+      <c r="R122" s="105"/>
+      <c r="S122" s="104"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="B123" s="98"/>
-      <c r="C123" s="98"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
     </row>
     <row r="124" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A124" s="63" t="s">
+      <c r="A124" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="B124" s="63"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
-      <c r="L124" s="63"/>
-      <c r="M124" s="63"/>
-      <c r="N124" s="63"/>
-      <c r="O124" s="63"/>
-      <c r="P124" s="63"/>
-      <c r="Q124" s="63"/>
-      <c r="R124" s="63"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="95"/>
+      <c r="G124" s="95"/>
+      <c r="H124" s="95"/>
+      <c r="I124" s="95"/>
+      <c r="J124" s="95"/>
+      <c r="K124" s="95"/>
+      <c r="L124" s="95"/>
+      <c r="M124" s="95"/>
+      <c r="N124" s="95"/>
+      <c r="O124" s="95"/>
+      <c r="P124" s="95"/>
+      <c r="Q124" s="95"/>
+      <c r="R124" s="95"/>
     </row>
     <row r="125" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A125" s="63"/>
-      <c r="B125" s="63"/>
-      <c r="C125" s="63"/>
-      <c r="D125" s="63"/>
-      <c r="E125" s="63"/>
-      <c r="F125" s="63"/>
-      <c r="G125" s="63"/>
-      <c r="H125" s="63"/>
-      <c r="I125" s="63"/>
-      <c r="J125" s="63"/>
-      <c r="K125" s="63"/>
-      <c r="L125" s="63"/>
-      <c r="M125" s="63"/>
-      <c r="N125" s="63"/>
-      <c r="O125" s="63"/>
-      <c r="P125" s="63"/>
-      <c r="Q125" s="63"/>
-      <c r="R125" s="63"/>
+      <c r="A125" s="95"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="95"/>
+      <c r="G125" s="95"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95"/>
+      <c r="K125" s="95"/>
+      <c r="L125" s="95"/>
+      <c r="M125" s="95"/>
+      <c r="N125" s="95"/>
+      <c r="O125" s="95"/>
+      <c r="P125" s="95"/>
+      <c r="Q125" s="95"/>
+      <c r="R125" s="95"/>
     </row>
     <row r="126" spans="1:19" ht="13.5" customHeight="1">
       <c r="A126" s="18" t="s">
@@ -5912,10 +5912,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="60"/>
-      <c r="P127" s="54"/>
-      <c r="Q127" s="55"/>
-      <c r="R127" s="60"/>
+      <c r="O127" s="84"/>
+      <c r="P127" s="89"/>
+      <c r="Q127" s="90"/>
+      <c r="R127" s="84"/>
     </row>
     <row r="128" spans="1:19" ht="13.5" customHeight="1">
       <c r="A128" s="23" t="s">
@@ -5938,10 +5938,10 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="61"/>
-      <c r="P128" s="56"/>
-      <c r="Q128" s="57"/>
-      <c r="R128" s="61"/>
+      <c r="O128" s="85"/>
+      <c r="P128" s="91"/>
+      <c r="Q128" s="92"/>
+      <c r="R128" s="85"/>
     </row>
     <row r="129" spans="1:18" ht="13.5" customHeight="1">
       <c r="A129" s="23" t="s">
@@ -5968,12 +5968,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="61"/>
-      <c r="P129" s="56"/>
-      <c r="Q129" s="57"/>
-      <c r="R129" s="61"/>
-    </row>
-    <row r="130" spans="1:18" ht="19.5">
+      <c r="O129" s="85"/>
+      <c r="P129" s="91"/>
+      <c r="Q129" s="92"/>
+      <c r="R129" s="85"/>
+    </row>
+    <row r="130" spans="1:18" ht="19.8">
       <c r="A130" s="23" t="s">
         <v>126</v>
       </c>
@@ -5996,12 +5996,12 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="61"/>
-      <c r="P130" s="56"/>
-      <c r="Q130" s="57"/>
-      <c r="R130" s="61"/>
-    </row>
-    <row r="131" spans="1:18" ht="24">
+      <c r="O130" s="85"/>
+      <c r="P130" s="91"/>
+      <c r="Q130" s="92"/>
+      <c r="R130" s="85"/>
+    </row>
+    <row r="131" spans="1:18" ht="22.2">
       <c r="A131" s="25" t="s">
         <v>158</v>
       </c>
@@ -6018,10 +6018,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="61"/>
-      <c r="P131" s="56"/>
-      <c r="Q131" s="57"/>
-      <c r="R131" s="61"/>
+      <c r="O131" s="85"/>
+      <c r="P131" s="91"/>
+      <c r="Q131" s="92"/>
+      <c r="R131" s="85"/>
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="34" t="s">
@@ -6044,10 +6044,10 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="61"/>
-      <c r="P132" s="56"/>
-      <c r="Q132" s="57"/>
-      <c r="R132" s="61"/>
+      <c r="O132" s="85"/>
+      <c r="P132" s="91"/>
+      <c r="Q132" s="92"/>
+      <c r="R132" s="85"/>
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="24" t="s">
@@ -6070,12 +6070,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="61"/>
-      <c r="P133" s="56"/>
-      <c r="Q133" s="57"/>
-      <c r="R133" s="61"/>
-    </row>
-    <row r="134" spans="1:18" ht="24">
+      <c r="O133" s="85"/>
+      <c r="P133" s="91"/>
+      <c r="Q133" s="92"/>
+      <c r="R133" s="85"/>
+    </row>
+    <row r="134" spans="1:18" ht="22.2">
       <c r="A134" s="25" t="s">
         <v>65</v>
       </c>
@@ -6092,12 +6092,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="61"/>
-      <c r="P134" s="56"/>
-      <c r="Q134" s="57"/>
-      <c r="R134" s="61"/>
-    </row>
-    <row r="135" spans="1:18" ht="19.5">
+      <c r="O134" s="85"/>
+      <c r="P134" s="91"/>
+      <c r="Q134" s="92"/>
+      <c r="R134" s="85"/>
+    </row>
+    <row r="135" spans="1:18" ht="19.8">
       <c r="A135" s="50" t="s">
         <v>178</v>
       </c>
@@ -6116,12 +6116,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="56"/>
-      <c r="Q135" s="57"/>
-      <c r="R135" s="61"/>
-    </row>
-    <row r="136" spans="1:18" ht="19.5">
+      <c r="O135" s="85"/>
+      <c r="P135" s="91"/>
+      <c r="Q135" s="92"/>
+      <c r="R135" s="85"/>
+    </row>
+    <row r="136" spans="1:18" ht="19.8">
       <c r="A136" s="24" t="s">
         <v>179</v>
       </c>
@@ -6140,12 +6140,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="61"/>
-      <c r="P136" s="56"/>
-      <c r="Q136" s="57"/>
-      <c r="R136" s="61"/>
-    </row>
-    <row r="137" spans="1:18" ht="19.5">
+      <c r="O136" s="85"/>
+      <c r="P136" s="91"/>
+      <c r="Q136" s="92"/>
+      <c r="R136" s="85"/>
+    </row>
+    <row r="137" spans="1:18" ht="19.8">
       <c r="A137" s="30" t="s">
         <v>180</v>
       </c>
@@ -6168,12 +6168,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="61"/>
-      <c r="P137" s="56"/>
-      <c r="Q137" s="57"/>
-      <c r="R137" s="61"/>
-    </row>
-    <row r="138" spans="1:18" ht="19.5">
+      <c r="O137" s="85"/>
+      <c r="P137" s="91"/>
+      <c r="Q137" s="92"/>
+      <c r="R137" s="85"/>
+    </row>
+    <row r="138" spans="1:18" ht="19.8">
       <c r="A138" s="30" t="s">
         <v>181</v>
       </c>
@@ -6196,12 +6196,12 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="61"/>
-      <c r="P138" s="56"/>
-      <c r="Q138" s="57"/>
-      <c r="R138" s="61"/>
-    </row>
-    <row r="139" spans="1:18" ht="19.5">
+      <c r="O138" s="85"/>
+      <c r="P138" s="91"/>
+      <c r="Q138" s="92"/>
+      <c r="R138" s="85"/>
+    </row>
+    <row r="139" spans="1:18" ht="19.8">
       <c r="A139" s="30" t="s">
         <v>177</v>
       </c>
@@ -6238,12 +6238,12 @@
       <c r="N139" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O139" s="61"/>
-      <c r="P139" s="56"/>
-      <c r="Q139" s="57"/>
-      <c r="R139" s="61"/>
-    </row>
-    <row r="140" spans="1:18" ht="24">
+      <c r="O139" s="85"/>
+      <c r="P139" s="91"/>
+      <c r="Q139" s="92"/>
+      <c r="R139" s="85"/>
+    </row>
+    <row r="140" spans="1:18" ht="22.2">
       <c r="A140" s="25" t="s">
         <v>146</v>
       </c>
@@ -6260,12 +6260,12 @@
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="61"/>
-      <c r="P140" s="56"/>
-      <c r="Q140" s="57"/>
-      <c r="R140" s="61"/>
-    </row>
-    <row r="141" spans="1:18" ht="19.5">
+      <c r="O140" s="85"/>
+      <c r="P140" s="91"/>
+      <c r="Q140" s="92"/>
+      <c r="R140" s="85"/>
+    </row>
+    <row r="141" spans="1:18" ht="19.8">
       <c r="A141" s="30" t="s">
         <v>143</v>
       </c>
@@ -6288,12 +6288,12 @@
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
-      <c r="O141" s="61"/>
-      <c r="P141" s="56"/>
-      <c r="Q141" s="57"/>
-      <c r="R141" s="61"/>
-    </row>
-    <row r="142" spans="1:18" ht="24">
+      <c r="O141" s="85"/>
+      <c r="P141" s="91"/>
+      <c r="Q141" s="92"/>
+      <c r="R141" s="85"/>
+    </row>
+    <row r="142" spans="1:18" ht="22.2">
       <c r="A142" s="25" t="s">
         <v>144</v>
       </c>
@@ -6310,12 +6310,12 @@
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
-      <c r="O142" s="61"/>
-      <c r="P142" s="56"/>
-      <c r="Q142" s="57"/>
-      <c r="R142" s="61"/>
-    </row>
-    <row r="143" spans="1:18" ht="19.5">
+      <c r="O142" s="85"/>
+      <c r="P142" s="91"/>
+      <c r="Q142" s="92"/>
+      <c r="R142" s="85"/>
+    </row>
+    <row r="143" spans="1:18" ht="19.8">
       <c r="A143" s="30" t="s">
         <v>143</v>
       </c>
@@ -6338,12 +6338,12 @@
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
-      <c r="O143" s="61"/>
-      <c r="P143" s="56"/>
-      <c r="Q143" s="57"/>
-      <c r="R143" s="61"/>
-    </row>
-    <row r="144" spans="1:18" ht="24">
+      <c r="O143" s="85"/>
+      <c r="P143" s="91"/>
+      <c r="Q143" s="92"/>
+      <c r="R143" s="85"/>
+    </row>
+    <row r="144" spans="1:18" ht="22.2">
       <c r="A144" s="25" t="s">
         <v>141</v>
       </c>
@@ -6360,12 +6360,12 @@
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
-      <c r="O144" s="61"/>
-      <c r="P144" s="56"/>
-      <c r="Q144" s="57"/>
-      <c r="R144" s="61"/>
-    </row>
-    <row r="145" spans="1:18" ht="19.5">
+      <c r="O144" s="85"/>
+      <c r="P144" s="91"/>
+      <c r="Q144" s="92"/>
+      <c r="R144" s="85"/>
+    </row>
+    <row r="145" spans="1:18" ht="19.8">
       <c r="A145" s="23" t="s">
         <v>140</v>
       </c>
@@ -6394,12 +6394,12 @@
       <c r="N145" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O145" s="61"/>
-      <c r="P145" s="56"/>
-      <c r="Q145" s="57"/>
-      <c r="R145" s="61"/>
-    </row>
-    <row r="146" spans="1:18" ht="19.5">
+      <c r="O145" s="85"/>
+      <c r="P145" s="91"/>
+      <c r="Q145" s="92"/>
+      <c r="R145" s="85"/>
+    </row>
+    <row r="146" spans="1:18" ht="19.8">
       <c r="A146" s="23" t="s">
         <v>139</v>
       </c>
@@ -6428,12 +6428,12 @@
       <c r="N146" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O146" s="61"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="57"/>
-      <c r="R146" s="61"/>
-    </row>
-    <row r="147" spans="1:18" ht="24">
+      <c r="O146" s="85"/>
+      <c r="P146" s="91"/>
+      <c r="Q146" s="92"/>
+      <c r="R146" s="85"/>
+    </row>
+    <row r="147" spans="1:18" ht="22.2">
       <c r="A147" s="25" t="s">
         <v>135</v>
       </c>
@@ -6450,10 +6450,10 @@
       <c r="L147" s="26"/>
       <c r="M147" s="26"/>
       <c r="N147" s="26"/>
-      <c r="O147" s="61"/>
-      <c r="P147" s="56"/>
-      <c r="Q147" s="57"/>
-      <c r="R147" s="61"/>
+      <c r="O147" s="85"/>
+      <c r="P147" s="91"/>
+      <c r="Q147" s="92"/>
+      <c r="R147" s="85"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="23" t="s">
@@ -6476,10 +6476,10 @@
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
-      <c r="O148" s="61"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="57"/>
-      <c r="R148" s="61"/>
+      <c r="O148" s="85"/>
+      <c r="P148" s="91"/>
+      <c r="Q148" s="92"/>
+      <c r="R148" s="85"/>
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="23" t="s">
@@ -6500,12 +6500,12 @@
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
-      <c r="O149" s="61"/>
-      <c r="P149" s="56"/>
-      <c r="Q149" s="57"/>
-      <c r="R149" s="61"/>
-    </row>
-    <row r="150" spans="1:18" ht="24">
+      <c r="O149" s="85"/>
+      <c r="P149" s="91"/>
+      <c r="Q149" s="92"/>
+      <c r="R149" s="85"/>
+    </row>
+    <row r="150" spans="1:18" ht="22.2">
       <c r="A150" s="25" t="s">
         <v>131</v>
       </c>
@@ -6522,10 +6522,10 @@
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="61"/>
-      <c r="P150" s="56"/>
-      <c r="Q150" s="57"/>
-      <c r="R150" s="61"/>
+      <c r="O150" s="85"/>
+      <c r="P150" s="91"/>
+      <c r="Q150" s="92"/>
+      <c r="R150" s="85"/>
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="23" t="s">
@@ -6548,10 +6548,10 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="61"/>
-      <c r="P151" s="56"/>
-      <c r="Q151" s="57"/>
-      <c r="R151" s="61"/>
+      <c r="O151" s="85"/>
+      <c r="P151" s="91"/>
+      <c r="Q151" s="92"/>
+      <c r="R151" s="85"/>
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="23" t="s">
@@ -6574,12 +6574,12 @@
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
-      <c r="O152" s="61"/>
-      <c r="P152" s="56"/>
-      <c r="Q152" s="57"/>
-      <c r="R152" s="61"/>
-    </row>
-    <row r="153" spans="1:18" ht="24">
+      <c r="O152" s="85"/>
+      <c r="P152" s="91"/>
+      <c r="Q152" s="92"/>
+      <c r="R152" s="85"/>
+    </row>
+    <row r="153" spans="1:18" ht="22.2">
       <c r="A153" s="25" t="s">
         <v>127</v>
       </c>
@@ -6596,10 +6596,10 @@
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
-      <c r="O153" s="61"/>
-      <c r="P153" s="56"/>
-      <c r="Q153" s="57"/>
-      <c r="R153" s="61"/>
+      <c r="O153" s="85"/>
+      <c r="P153" s="91"/>
+      <c r="Q153" s="92"/>
+      <c r="R153" s="85"/>
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="23" t="s">
@@ -6622,12 +6622,12 @@
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
-      <c r="O154" s="61"/>
-      <c r="P154" s="56"/>
-      <c r="Q154" s="57"/>
-      <c r="R154" s="61"/>
-    </row>
-    <row r="155" spans="1:18" ht="24">
+      <c r="O154" s="85"/>
+      <c r="P154" s="91"/>
+      <c r="Q154" s="92"/>
+      <c r="R154" s="85"/>
+    </row>
+    <row r="155" spans="1:18" ht="22.2">
       <c r="A155" s="25" t="s">
         <v>124</v>
       </c>
@@ -6644,10 +6644,10 @@
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="61"/>
-      <c r="P155" s="56"/>
-      <c r="Q155" s="57"/>
-      <c r="R155" s="61"/>
+      <c r="O155" s="85"/>
+      <c r="P155" s="91"/>
+      <c r="Q155" s="92"/>
+      <c r="R155" s="85"/>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="23" t="s">
@@ -6672,12 +6672,12 @@
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="61"/>
-      <c r="P156" s="56"/>
-      <c r="Q156" s="57"/>
-      <c r="R156" s="61"/>
-    </row>
-    <row r="157" spans="1:18" ht="19.5">
+      <c r="O156" s="85"/>
+      <c r="P156" s="91"/>
+      <c r="Q156" s="92"/>
+      <c r="R156" s="85"/>
+    </row>
+    <row r="157" spans="1:18" ht="19.8">
       <c r="A157" s="23" t="s">
         <v>123</v>
       </c>
@@ -6700,10 +6700,10 @@
       <c r="L157" s="21"/>
       <c r="M157" s="21"/>
       <c r="N157" s="21"/>
-      <c r="O157" s="61"/>
-      <c r="P157" s="56"/>
-      <c r="Q157" s="57"/>
-      <c r="R157" s="61"/>
+      <c r="O157" s="85"/>
+      <c r="P157" s="91"/>
+      <c r="Q157" s="92"/>
+      <c r="R157" s="85"/>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="24" t="s">
@@ -6726,10 +6726,10 @@
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="61"/>
-      <c r="P158" s="56"/>
-      <c r="Q158" s="57"/>
-      <c r="R158" s="61"/>
+      <c r="O158" s="85"/>
+      <c r="P158" s="91"/>
+      <c r="Q158" s="92"/>
+      <c r="R158" s="85"/>
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="18" t="s">
@@ -6750,10 +6750,10 @@
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="61"/>
-      <c r="P159" s="56"/>
-      <c r="Q159" s="57"/>
-      <c r="R159" s="61"/>
+      <c r="O159" s="85"/>
+      <c r="P159" s="91"/>
+      <c r="Q159" s="92"/>
+      <c r="R159" s="85"/>
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="18" t="s">
@@ -6776,22 +6776,131 @@
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
-      <c r="O160" s="62"/>
-      <c r="P160" s="58"/>
-      <c r="Q160" s="59"/>
-      <c r="R160" s="62"/>
+      <c r="O160" s="86"/>
+      <c r="P160" s="93"/>
+      <c r="Q160" s="94"/>
+      <c r="R160" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="151">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="P127:Q160"/>
+    <mergeCell ref="R127:R160"/>
+    <mergeCell ref="A124:R125"/>
+    <mergeCell ref="U1:AC2"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="U4:AB5"/>
+    <mergeCell ref="Q4:R122"/>
+    <mergeCell ref="S4:S122"/>
+    <mergeCell ref="P4:P122"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="A85:A102"/>
+    <mergeCell ref="O127:O160"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A58:A71"/>
+    <mergeCell ref="A103:A122"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="A4:A39"/>
@@ -6816,124 +6925,15 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A57"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A85:A102"/>
-    <mergeCell ref="O127:O160"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A58:A71"/>
-    <mergeCell ref="A103:A122"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="P127:Q160"/>
-    <mergeCell ref="R127:R160"/>
-    <mergeCell ref="A124:R125"/>
-    <mergeCell ref="U1:AC2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:AB5"/>
-    <mergeCell ref="Q4:R122"/>
-    <mergeCell ref="S4:S122"/>
-    <mergeCell ref="P4:P122"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6949,82 +6949,82 @@
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="12.75" customWidth="1"/>
+    <col min="1" max="3" width="12.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="U1" s="64" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="U1" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-    </row>
-    <row r="3" spans="1:29" ht="30">
-      <c r="A3" s="77" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+    </row>
+    <row r="3" spans="1:29" ht="28.8">
+      <c r="A3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7073,26 +7073,26 @@
       <c r="S3" s="6">
         <v>42818</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-    </row>
-    <row r="4" spans="1:29" ht="30">
-      <c r="A4" s="88" t="s">
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+    </row>
+    <row r="4" spans="1:29" ht="28.8">
+      <c r="A4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
@@ -7107,34 +7107,34 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="68" t="s">
+      <c r="R4" s="101"/>
+      <c r="S4" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="24">
-      <c r="A5" s="88"/>
-      <c r="B5" s="75" t="s">
+    <row r="5" spans="1:29" ht="22.2">
+      <c r="A5" s="60"/>
+      <c r="B5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -7147,26 +7147,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="70"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="102"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="30">
-      <c r="A6" s="88"/>
-      <c r="B6" s="77" t="s">
+    <row r="6" spans="1:29" ht="28.8">
+      <c r="A6" s="60"/>
+      <c r="B6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
@@ -7181,17 +7181,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="70"/>
-    </row>
-    <row r="7" spans="1:29" ht="24">
-      <c r="A7" s="88"/>
-      <c r="B7" s="75" t="s">
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="102"/>
+    </row>
+    <row r="7" spans="1:29" ht="22.2">
+      <c r="A7" s="60"/>
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -7204,17 +7204,17 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="70"/>
-    </row>
-    <row r="8" spans="1:29" ht="24">
-      <c r="A8" s="88"/>
-      <c r="B8" s="90" t="s">
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="102"/>
+    </row>
+    <row r="8" spans="1:29" ht="22.2">
+      <c r="A8" s="60"/>
+      <c r="B8" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8"/>
@@ -7227,18 +7227,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="70"/>
-    </row>
-    <row r="9" spans="1:29" ht="30">
-      <c r="A9" s="102"/>
-      <c r="B9" s="93" t="s">
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="102"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.8">
+      <c r="A9" s="61"/>
+      <c r="B9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="69" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
@@ -7252,18 +7252,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="70"/>
-    </row>
-    <row r="10" spans="1:29" ht="30">
-      <c r="A10" s="102"/>
-      <c r="B10" s="95" t="s">
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="102"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8">
+      <c r="A10" s="61"/>
+      <c r="B10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="89"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -7275,17 +7275,17 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="70"/>
-    </row>
-    <row r="11" spans="1:29" ht="24">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91" t="s">
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="102"/>
+    </row>
+    <row r="11" spans="1:29" ht="22.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
@@ -7298,17 +7298,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="70"/>
-    </row>
-    <row r="12" spans="1:29" ht="24">
-      <c r="A12" s="88"/>
-      <c r="B12" s="75" t="s">
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="102"/>
+    </row>
+    <row r="12" spans="1:29" ht="22.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -7321,65 +7321,65 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="70"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="102"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="88"/>
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="90" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="106" t="s">
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="70"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="102"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="88"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="70"/>
-    </row>
-    <row r="15" spans="1:29" ht="24">
-      <c r="A15" s="88"/>
-      <c r="B15" s="75" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="102"/>
+    </row>
+    <row r="15" spans="1:29" ht="22.2">
+      <c r="A15" s="60"/>
+      <c r="B15" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="12"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
@@ -7392,17 +7392,17 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="70"/>
-    </row>
-    <row r="16" spans="1:29" ht="24">
-      <c r="A16" s="88"/>
-      <c r="B16" s="75" t="s">
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="102"/>
+    </row>
+    <row r="16" spans="1:29" ht="22.2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="12"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -7415,17 +7415,17 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="70"/>
-    </row>
-    <row r="17" spans="1:19" ht="24">
-      <c r="A17" s="88"/>
-      <c r="B17" s="75" t="s">
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="102"/>
+    </row>
+    <row r="17" spans="1:19" ht="22.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="12"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
@@ -7438,17 +7438,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="70"/>
-    </row>
-    <row r="18" spans="1:19" ht="30">
-      <c r="A18" s="88"/>
-      <c r="B18" s="77" t="s">
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="102"/>
+    </row>
+    <row r="18" spans="1:19" ht="28.8">
+      <c r="A18" s="60"/>
+      <c r="B18" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
@@ -7463,17 +7463,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="70"/>
-    </row>
-    <row r="19" spans="1:19" ht="24">
-      <c r="A19" s="88"/>
-      <c r="B19" s="75" t="s">
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="102"/>
+    </row>
+    <row r="19" spans="1:19" ht="22.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -7486,17 +7486,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20" spans="1:19" ht="24">
-      <c r="A20" s="88"/>
-      <c r="B20" s="76" t="s">
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="102"/>
+    </row>
+    <row r="20" spans="1:19" ht="22.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -7509,17 +7509,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="70"/>
-    </row>
-    <row r="21" spans="1:19" ht="24">
-      <c r="A21" s="88"/>
-      <c r="B21" s="75" t="s">
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="102"/>
+    </row>
+    <row r="21" spans="1:19" ht="22.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
@@ -7532,17 +7532,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="70"/>
-    </row>
-    <row r="22" spans="1:19" ht="24">
-      <c r="A22" s="88"/>
-      <c r="B22" s="75" t="s">
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="102"/>
+    </row>
+    <row r="22" spans="1:19" ht="22.2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
@@ -7555,17 +7555,17 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="70"/>
-    </row>
-    <row r="23" spans="1:19" ht="24">
-      <c r="A23" s="88"/>
-      <c r="B23" s="75" t="s">
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="102"/>
+    </row>
+    <row r="23" spans="1:19" ht="22.2">
+      <c r="A23" s="60"/>
+      <c r="B23" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="12"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
@@ -7578,17 +7578,17 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="70"/>
-    </row>
-    <row r="24" spans="1:19" ht="30">
-      <c r="A24" s="88"/>
-      <c r="B24" s="77" t="s">
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="102"/>
+    </row>
+    <row r="24" spans="1:19" ht="28.8">
+      <c r="A24" s="60"/>
+      <c r="B24" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
@@ -7603,17 +7603,17 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="70"/>
-    </row>
-    <row r="25" spans="1:19" ht="24">
-      <c r="A25" s="88"/>
-      <c r="B25" s="75" t="s">
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="102"/>
+    </row>
+    <row r="25" spans="1:19" ht="22.2">
+      <c r="A25" s="60"/>
+      <c r="B25" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
@@ -7626,17 +7626,17 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="70"/>
-    </row>
-    <row r="26" spans="1:19" ht="24">
-      <c r="A26" s="88"/>
-      <c r="B26" s="75" t="s">
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="102"/>
+    </row>
+    <row r="26" spans="1:19" ht="22.2">
+      <c r="A26" s="60"/>
+      <c r="B26" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
@@ -7649,17 +7649,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="70"/>
-    </row>
-    <row r="27" spans="1:19" ht="24">
-      <c r="A27" s="88"/>
-      <c r="B27" s="75" t="s">
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="102"/>
+    </row>
+    <row r="27" spans="1:19" ht="22.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
@@ -7672,17 +7672,17 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="70"/>
-    </row>
-    <row r="28" spans="1:19" ht="30">
-      <c r="A28" s="88"/>
-      <c r="B28" s="77" t="s">
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="102"/>
+    </row>
+    <row r="28" spans="1:19" ht="28.8">
+      <c r="A28" s="60"/>
+      <c r="B28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
@@ -7697,17 +7697,17 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="70"/>
-    </row>
-    <row r="29" spans="1:19" ht="24">
-      <c r="A29" s="88"/>
-      <c r="B29" s="75" t="s">
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="102"/>
+    </row>
+    <row r="29" spans="1:19" ht="22.2">
+      <c r="A29" s="60"/>
+      <c r="B29" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="8"/>
@@ -7720,17 +7720,17 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="70"/>
-    </row>
-    <row r="30" spans="1:19" ht="24">
-      <c r="A30" s="88"/>
-      <c r="B30" s="75" t="s">
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="102"/>
+    </row>
+    <row r="30" spans="1:19" ht="22.2">
+      <c r="A30" s="60"/>
+      <c r="B30" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="8"/>
@@ -7743,17 +7743,17 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="70"/>
-    </row>
-    <row r="31" spans="1:19" ht="24">
-      <c r="A31" s="88"/>
-      <c r="B31" s="76" t="s">
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="102"/>
+    </row>
+    <row r="31" spans="1:19" ht="22.2">
+      <c r="A31" s="60"/>
+      <c r="B31" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="8"/>
@@ -7766,17 +7766,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="70"/>
-    </row>
-    <row r="32" spans="1:19" ht="24">
-      <c r="A32" s="88"/>
-      <c r="B32" s="76" t="s">
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="102"/>
+    </row>
+    <row r="32" spans="1:19" ht="22.2">
+      <c r="A32" s="60"/>
+      <c r="B32" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="8"/>
@@ -7789,17 +7789,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="70"/>
-    </row>
-    <row r="33" spans="1:19" ht="30">
-      <c r="A33" s="88"/>
-      <c r="B33" s="77" t="s">
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="102"/>
+    </row>
+    <row r="33" spans="1:19" ht="28.8">
+      <c r="A33" s="60"/>
+      <c r="B33" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="78"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
@@ -7814,17 +7814,17 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="70"/>
-    </row>
-    <row r="34" spans="1:19" ht="24">
-      <c r="A34" s="88"/>
-      <c r="B34" s="75" t="s">
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="102"/>
+    </row>
+    <row r="34" spans="1:19" ht="22.2">
+      <c r="A34" s="60"/>
+      <c r="B34" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
@@ -7837,17 +7837,17 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="70"/>
-    </row>
-    <row r="35" spans="1:19" ht="24">
-      <c r="A35" s="88"/>
-      <c r="B35" s="76" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="102"/>
+    </row>
+    <row r="35" spans="1:19" ht="22.2">
+      <c r="A35" s="60"/>
+      <c r="B35" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="8"/>
@@ -7860,17 +7860,17 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="70"/>
-    </row>
-    <row r="36" spans="1:19" ht="24">
-      <c r="A36" s="88"/>
-      <c r="B36" s="76" t="s">
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="102"/>
+    </row>
+    <row r="36" spans="1:19" ht="22.2">
+      <c r="A36" s="60"/>
+      <c r="B36" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="8"/>
@@ -7883,17 +7883,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="70"/>
-    </row>
-    <row r="37" spans="1:19" ht="30">
-      <c r="A37" s="88"/>
-      <c r="B37" s="77" t="s">
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="102"/>
+    </row>
+    <row r="37" spans="1:19" ht="28.8">
+      <c r="A37" s="60"/>
+      <c r="B37" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
@@ -7908,15 +7908,15 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="70"/>
-    </row>
-    <row r="38" spans="1:19" ht="30">
-      <c r="A38" s="88"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="102"/>
+    </row>
+    <row r="38" spans="1:19" ht="28.8">
+      <c r="A38" s="60"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="8"/>
@@ -7929,15 +7929,15 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="70"/>
-    </row>
-    <row r="39" spans="1:19" ht="30">
-      <c r="A39" s="88"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="80"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="102"/>
+    </row>
+    <row r="39" spans="1:19" ht="28.8">
+      <c r="A39" s="60"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -7950,17 +7950,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="70"/>
-    </row>
-    <row r="40" spans="1:19" ht="30">
-      <c r="A40" s="83"/>
-      <c r="B40" s="77" t="s">
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="102"/>
+    </row>
+    <row r="40" spans="1:19" ht="28.8">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="4" t="s">
         <v>102</v>
       </c>
@@ -7975,19 +7975,19 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="70"/>
-    </row>
-    <row r="41" spans="1:19" ht="30">
-      <c r="A41" s="83" t="s">
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="102"/>
+    </row>
+    <row r="41" spans="1:19" ht="28.8">
+      <c r="A41" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="78"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="13" t="s">
         <v>25</v>
       </c>
@@ -8002,17 +8002,17 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="70"/>
-    </row>
-    <row r="42" spans="1:19" ht="24">
-      <c r="A42" s="84"/>
-      <c r="B42" s="89" t="s">
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="102"/>
+    </row>
+    <row r="42" spans="1:19" ht="22.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="8"/>
@@ -8025,17 +8025,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="70"/>
-    </row>
-    <row r="43" spans="1:19" ht="24">
-      <c r="A43" s="84"/>
-      <c r="B43" s="89" t="s">
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="102"/>
+    </row>
+    <row r="43" spans="1:19" ht="22.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="8"/>
@@ -8048,17 +8048,17 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="70"/>
-    </row>
-    <row r="44" spans="1:19" ht="30">
-      <c r="A44" s="84"/>
-      <c r="B44" s="80" t="s">
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="102"/>
+    </row>
+    <row r="44" spans="1:19" ht="28.8">
+      <c r="A44" s="70"/>
+      <c r="B44" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="13" t="s">
         <v>25</v>
       </c>
@@ -8073,17 +8073,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="70"/>
-    </row>
-    <row r="45" spans="1:19" ht="24">
-      <c r="A45" s="84"/>
-      <c r="B45" s="89" t="s">
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="102"/>
+    </row>
+    <row r="45" spans="1:19" ht="22.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="75"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="8"/>
@@ -8096,17 +8096,17 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="70"/>
-    </row>
-    <row r="46" spans="1:19" ht="24">
-      <c r="A46" s="84"/>
-      <c r="B46" s="79" t="s">
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="102"/>
+    </row>
+    <row r="46" spans="1:19" ht="22.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="8"/>
@@ -8119,17 +8119,17 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="70"/>
-    </row>
-    <row r="47" spans="1:19" ht="30">
-      <c r="A47" s="84"/>
-      <c r="B47" s="80" t="s">
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="102"/>
+    </row>
+    <row r="47" spans="1:19" ht="28.8">
+      <c r="A47" s="70"/>
+      <c r="B47" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="77"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
@@ -8144,17 +8144,17 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="70"/>
-    </row>
-    <row r="48" spans="1:19" ht="30">
-      <c r="A48" s="84"/>
-      <c r="B48" s="82" t="s">
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="102"/>
+    </row>
+    <row r="48" spans="1:19" ht="28.8">
+      <c r="A48" s="70"/>
+      <c r="B48" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="78"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="13" t="s">
         <v>25</v>
       </c>
@@ -8169,19 +8169,19 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="70"/>
-    </row>
-    <row r="49" spans="1:19" ht="30">
-      <c r="A49" s="84" t="s">
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="102"/>
+    </row>
+    <row r="49" spans="1:19" ht="28.8">
+      <c r="A49" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="78"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
@@ -8196,17 +8196,17 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="70"/>
-    </row>
-    <row r="50" spans="1:19" ht="24">
-      <c r="A50" s="84"/>
-      <c r="B50" s="89" t="s">
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="102"/>
+    </row>
+    <row r="50" spans="1:19" ht="22.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="8"/>
@@ -8219,17 +8219,17 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="70"/>
-    </row>
-    <row r="51" spans="1:19" ht="24">
-      <c r="A51" s="84"/>
-      <c r="B51" s="79" t="s">
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="102"/>
+    </row>
+    <row r="51" spans="1:19" ht="22.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -8242,17 +8242,17 @@
       <c r="M51" s="3"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="70"/>
-    </row>
-    <row r="52" spans="1:19" ht="24">
-      <c r="A52" s="84"/>
-      <c r="B52" s="79" t="s">
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="102"/>
+    </row>
+    <row r="52" spans="1:19" ht="22.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -8265,17 +8265,17 @@
       <c r="M52" s="3"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="70"/>
-    </row>
-    <row r="53" spans="1:19" ht="24">
-      <c r="A53" s="84"/>
-      <c r="B53" s="79" t="s">
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="102"/>
+    </row>
+    <row r="53" spans="1:19" ht="22.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -8288,17 +8288,17 @@
       <c r="M53" s="3"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="70"/>
-    </row>
-    <row r="54" spans="1:19" ht="24">
-      <c r="A54" s="84"/>
-      <c r="B54" s="79" t="s">
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="102"/>
+    </row>
+    <row r="54" spans="1:19" ht="22.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -8311,17 +8311,17 @@
       <c r="M54" s="3"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="70"/>
-    </row>
-    <row r="55" spans="1:19" ht="24">
-      <c r="A55" s="84"/>
-      <c r="B55" s="79" t="s">
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="102"/>
+    </row>
+    <row r="55" spans="1:19" ht="22.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8334,17 +8334,17 @@
       <c r="M55" s="3"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="70"/>
-    </row>
-    <row r="56" spans="1:19" ht="24">
-      <c r="A56" s="84"/>
-      <c r="B56" s="79" t="s">
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="102"/>
+    </row>
+    <row r="56" spans="1:19" ht="22.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="76"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -8357,17 +8357,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="70"/>
-    </row>
-    <row r="57" spans="1:19" ht="24">
-      <c r="A57" s="84"/>
-      <c r="B57" s="79" t="s">
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="103"/>
+      <c r="S56" s="102"/>
+    </row>
+    <row r="57" spans="1:19" ht="22.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8380,17 +8380,17 @@
       <c r="M57" s="3"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="70"/>
-    </row>
-    <row r="58" spans="1:19" ht="30">
-      <c r="A58" s="85"/>
-      <c r="B58" s="80" t="s">
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="102"/>
+    </row>
+    <row r="58" spans="1:19" ht="28.8">
+      <c r="A58" s="71"/>
+      <c r="B58" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="78"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
@@ -8405,19 +8405,19 @@
       <c r="M58" s="3"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="70"/>
-    </row>
-    <row r="59" spans="1:19" ht="30">
-      <c r="A59" s="86" t="s">
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="102"/>
+    </row>
+    <row r="59" spans="1:19" ht="28.8">
+      <c r="A59" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
@@ -8432,17 +8432,17 @@
       <c r="M59" s="3"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="70"/>
-    </row>
-    <row r="60" spans="1:19" ht="30">
-      <c r="A60" s="87"/>
-      <c r="B60" s="77" t="s">
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="102"/>
+    </row>
+    <row r="60" spans="1:19" ht="28.8">
+      <c r="A60" s="88"/>
+      <c r="B60" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="78"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="13" t="s">
         <v>84</v>
       </c>
@@ -8457,17 +8457,17 @@
       <c r="M60" s="3"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="70"/>
-    </row>
-    <row r="61" spans="1:19" ht="24">
-      <c r="A61" s="87"/>
-      <c r="B61" s="75" t="s">
+      <c r="P60" s="102"/>
+      <c r="Q60" s="102"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="102"/>
+    </row>
+    <row r="61" spans="1:19" ht="22.2">
+      <c r="A61" s="88"/>
+      <c r="B61" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -8480,17 +8480,17 @@
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="70"/>
-    </row>
-    <row r="62" spans="1:19" ht="24">
-      <c r="A62" s="87"/>
-      <c r="B62" s="75" t="s">
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="102"/>
+    </row>
+    <row r="62" spans="1:19" ht="22.2">
+      <c r="A62" s="88"/>
+      <c r="B62" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="8"/>
@@ -8503,17 +8503,17 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="70"/>
-    </row>
-    <row r="63" spans="1:19" ht="30">
-      <c r="A63" s="87"/>
-      <c r="B63" s="77" t="s">
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="102"/>
+    </row>
+    <row r="63" spans="1:19" ht="28.8">
+      <c r="A63" s="88"/>
+      <c r="B63" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="13" t="s">
         <v>84</v>
       </c>
@@ -8528,17 +8528,17 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="70"/>
-    </row>
-    <row r="64" spans="1:19" ht="30">
-      <c r="A64" s="87"/>
-      <c r="B64" s="77" t="s">
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="102"/>
+    </row>
+    <row r="64" spans="1:19" ht="28.8">
+      <c r="A64" s="88"/>
+      <c r="B64" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="78"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="13" t="s">
         <v>84</v>
       </c>
@@ -8553,17 +8553,17 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="70"/>
-    </row>
-    <row r="65" spans="1:19" ht="24">
-      <c r="A65" s="87"/>
-      <c r="B65" s="75" t="s">
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="102"/>
+    </row>
+    <row r="65" spans="1:19" ht="22.2">
+      <c r="A65" s="88"/>
+      <c r="B65" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="8"/>
@@ -8576,17 +8576,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="70"/>
-    </row>
-    <row r="66" spans="1:19" ht="24">
-      <c r="A66" s="87"/>
-      <c r="B66" s="76" t="s">
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="103"/>
+      <c r="S65" s="102"/>
+    </row>
+    <row r="66" spans="1:19" ht="22.2">
+      <c r="A66" s="88"/>
+      <c r="B66" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="76"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="8"/>
@@ -8599,17 +8599,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="70"/>
-    </row>
-    <row r="67" spans="1:19" ht="24">
-      <c r="A67" s="87"/>
-      <c r="B67" s="76" t="s">
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="102"/>
+    </row>
+    <row r="67" spans="1:19" ht="22.2">
+      <c r="A67" s="88"/>
+      <c r="B67" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="8"/>
@@ -8622,17 +8622,17 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="70"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="70"/>
-    </row>
-    <row r="68" spans="1:19" ht="24">
-      <c r="A68" s="87"/>
-      <c r="B68" s="76" t="s">
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="103"/>
+      <c r="S67" s="102"/>
+    </row>
+    <row r="68" spans="1:19" ht="22.2">
+      <c r="A68" s="88"/>
+      <c r="B68" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="76"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="8"/>
@@ -8645,17 +8645,17 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="70"/>
-    </row>
-    <row r="69" spans="1:19" ht="24">
-      <c r="A69" s="87"/>
-      <c r="B69" s="76" t="s">
+      <c r="P68" s="102"/>
+      <c r="Q68" s="102"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="102"/>
+    </row>
+    <row r="69" spans="1:19" ht="22.2">
+      <c r="A69" s="88"/>
+      <c r="B69" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="76"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="8"/>
@@ -8668,17 +8668,17 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="70"/>
-    </row>
-    <row r="70" spans="1:19" ht="24">
-      <c r="A70" s="87"/>
-      <c r="B70" s="76" t="s">
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="103"/>
+      <c r="S69" s="102"/>
+    </row>
+    <row r="70" spans="1:19" ht="22.2">
+      <c r="A70" s="88"/>
+      <c r="B70" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="76"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="8"/>
@@ -8691,17 +8691,17 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="70"/>
-    </row>
-    <row r="71" spans="1:19" ht="30">
-      <c r="A71" s="87"/>
-      <c r="B71" s="77" t="s">
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="102"/>
+    </row>
+    <row r="71" spans="1:19" ht="28.8">
+      <c r="A71" s="88"/>
+      <c r="B71" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="78"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="13" t="s">
         <v>84</v>
       </c>
@@ -8716,17 +8716,17 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="70"/>
-    </row>
-    <row r="72" spans="1:19" ht="30">
-      <c r="A72" s="87"/>
-      <c r="B72" s="77" t="s">
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="R71" s="103"/>
+      <c r="S71" s="102"/>
+    </row>
+    <row r="72" spans="1:19" ht="28.8">
+      <c r="A72" s="88"/>
+      <c r="B72" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="78"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="13" t="s">
         <v>84</v>
       </c>
@@ -8741,19 +8741,19 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="70"/>
-    </row>
-    <row r="73" spans="1:19" ht="30">
-      <c r="A73" s="88" t="s">
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="R72" s="103"/>
+      <c r="S72" s="102"/>
+    </row>
+    <row r="73" spans="1:19" ht="28.8">
+      <c r="A73" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="78"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="12" t="s">
         <v>95</v>
       </c>
@@ -8768,17 +8768,17 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="70"/>
-    </row>
-    <row r="74" spans="1:19" ht="24">
-      <c r="A74" s="88"/>
-      <c r="B74" s="75" t="s">
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="103"/>
+      <c r="S73" s="102"/>
+    </row>
+    <row r="74" spans="1:19" ht="22.2">
+      <c r="A74" s="60"/>
+      <c r="B74" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="76"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="3"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8791,17 +8791,17 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="70"/>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="70"/>
-    </row>
-    <row r="75" spans="1:19" ht="24">
-      <c r="A75" s="88"/>
-      <c r="B75" s="76" t="s">
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="103"/>
+      <c r="S74" s="102"/>
+    </row>
+    <row r="75" spans="1:19" ht="22.2">
+      <c r="A75" s="60"/>
+      <c r="B75" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="3"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -8818,17 +8818,17 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="70"/>
-    </row>
-    <row r="76" spans="1:19" ht="24">
-      <c r="A76" s="88"/>
-      <c r="B76" s="76" t="s">
+      <c r="P75" s="102"/>
+      <c r="Q75" s="102"/>
+      <c r="R75" s="103"/>
+      <c r="S75" s="102"/>
+    </row>
+    <row r="76" spans="1:19" ht="22.2">
+      <c r="A76" s="60"/>
+      <c r="B76" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="3"/>
       <c r="E76" s="16" t="s">
         <v>105</v>
@@ -8844,17 +8844,17 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="70"/>
-      <c r="Q76" s="70"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="70"/>
-    </row>
-    <row r="77" spans="1:19" ht="24">
-      <c r="A77" s="88"/>
-      <c r="B77" s="76" t="s">
+      <c r="P76" s="102"/>
+      <c r="Q76" s="102"/>
+      <c r="R76" s="103"/>
+      <c r="S76" s="102"/>
+    </row>
+    <row r="77" spans="1:19" ht="22.2">
+      <c r="A77" s="60"/>
+      <c r="B77" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="76"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="3"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -8871,17 +8871,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="70"/>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="70"/>
-    </row>
-    <row r="78" spans="1:19" ht="30">
-      <c r="A78" s="88"/>
-      <c r="B78" s="77" t="s">
+      <c r="P77" s="102"/>
+      <c r="Q77" s="102"/>
+      <c r="R77" s="103"/>
+      <c r="S77" s="102"/>
+    </row>
+    <row r="78" spans="1:19" ht="28.8">
+      <c r="A78" s="60"/>
+      <c r="B78" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="78"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="13" t="s">
         <v>88</v>
       </c>
@@ -8896,17 +8896,17 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="70"/>
-    </row>
-    <row r="79" spans="1:19" ht="24">
-      <c r="A79" s="88"/>
-      <c r="B79" s="75" t="s">
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
+      <c r="R78" s="103"/>
+      <c r="S78" s="102"/>
+    </row>
+    <row r="79" spans="1:19" ht="22.2">
+      <c r="A79" s="60"/>
+      <c r="B79" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="76"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="8"/>
@@ -8919,17 +8919,17 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="70"/>
-    </row>
-    <row r="80" spans="1:19" ht="24">
-      <c r="A80" s="88"/>
-      <c r="B80" s="76" t="s">
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
+      <c r="R79" s="103"/>
+      <c r="S79" s="102"/>
+    </row>
+    <row r="80" spans="1:19" ht="22.2">
+      <c r="A80" s="60"/>
+      <c r="B80" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="76"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="8"/>
@@ -8942,17 +8942,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="70"/>
-    </row>
-    <row r="81" spans="1:19" ht="24">
-      <c r="A81" s="88"/>
-      <c r="B81" s="76" t="s">
+      <c r="P80" s="102"/>
+      <c r="Q80" s="102"/>
+      <c r="R80" s="103"/>
+      <c r="S80" s="102"/>
+    </row>
+    <row r="81" spans="1:19" ht="22.2">
+      <c r="A81" s="60"/>
+      <c r="B81" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="76"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="8"/>
@@ -8965,17 +8965,17 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="70"/>
-    </row>
-    <row r="82" spans="1:19" ht="30">
-      <c r="A82" s="88"/>
-      <c r="B82" s="77" t="s">
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
+      <c r="R81" s="103"/>
+      <c r="S81" s="102"/>
+    </row>
+    <row r="82" spans="1:19" ht="28.8">
+      <c r="A82" s="60"/>
+      <c r="B82" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="78"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="13" t="s">
         <v>88</v>
       </c>
@@ -8990,17 +8990,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="70"/>
-      <c r="Q82" s="70"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="70"/>
-    </row>
-    <row r="83" spans="1:19" ht="24">
-      <c r="A83" s="88"/>
-      <c r="B83" s="75" t="s">
+      <c r="P82" s="102"/>
+      <c r="Q82" s="102"/>
+      <c r="R82" s="103"/>
+      <c r="S82" s="102"/>
+    </row>
+    <row r="83" spans="1:19" ht="22.2">
+      <c r="A83" s="60"/>
+      <c r="B83" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="76"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -9013,17 +9013,17 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="70"/>
-      <c r="Q83" s="70"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="70"/>
-    </row>
-    <row r="84" spans="1:19" ht="24">
-      <c r="A84" s="88"/>
-      <c r="B84" s="76" t="s">
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="103"/>
+      <c r="S83" s="102"/>
+    </row>
+    <row r="84" spans="1:19" ht="22.2">
+      <c r="A84" s="60"/>
+      <c r="B84" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -9036,17 +9036,17 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="70"/>
-    </row>
-    <row r="85" spans="1:19" ht="24">
-      <c r="A85" s="88"/>
-      <c r="B85" s="76" t="s">
+      <c r="P84" s="102"/>
+      <c r="Q84" s="102"/>
+      <c r="R84" s="103"/>
+      <c r="S84" s="102"/>
+    </row>
+    <row r="85" spans="1:19" ht="22.2">
+      <c r="A85" s="60"/>
+      <c r="B85" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="76"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -9059,19 +9059,19 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="70"/>
-      <c r="Q85" s="70"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="70"/>
-    </row>
-    <row r="86" spans="1:19" ht="30">
-      <c r="A86" s="88" t="s">
+      <c r="P85" s="102"/>
+      <c r="Q85" s="102"/>
+      <c r="R85" s="103"/>
+      <c r="S85" s="102"/>
+    </row>
+    <row r="86" spans="1:19" ht="28.8">
+      <c r="A86" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="77" t="s">
+      <c r="B86" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="78"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
@@ -9086,17 +9086,17 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="70"/>
-      <c r="Q86" s="70"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="70"/>
-    </row>
-    <row r="87" spans="1:19" ht="24">
-      <c r="A87" s="88"/>
-      <c r="B87" s="75" t="s">
+      <c r="P86" s="102"/>
+      <c r="Q86" s="102"/>
+      <c r="R86" s="103"/>
+      <c r="S86" s="102"/>
+    </row>
+    <row r="87" spans="1:19" ht="22.2">
+      <c r="A87" s="60"/>
+      <c r="B87" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="76"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="12"/>
       <c r="E87" s="16" t="s">
         <v>111</v>
@@ -9111,17 +9111,17 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="70"/>
-    </row>
-    <row r="88" spans="1:19" ht="24">
-      <c r="A88" s="88"/>
-      <c r="B88" s="75" t="s">
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="103"/>
+      <c r="S87" s="102"/>
+    </row>
+    <row r="88" spans="1:19" ht="22.2">
+      <c r="A88" s="60"/>
+      <c r="B88" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="76"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="3"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -9136,17 +9136,17 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="70"/>
-    </row>
-    <row r="89" spans="1:19" ht="24">
-      <c r="A89" s="88"/>
-      <c r="B89" s="76" t="s">
+      <c r="P88" s="102"/>
+      <c r="Q88" s="102"/>
+      <c r="R88" s="103"/>
+      <c r="S88" s="102"/>
+    </row>
+    <row r="89" spans="1:19" ht="22.2">
+      <c r="A89" s="60"/>
+      <c r="B89" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="76"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="3"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -9161,17 +9161,17 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="70"/>
-    </row>
-    <row r="90" spans="1:19" ht="24">
-      <c r="A90" s="88"/>
-      <c r="B90" s="76" t="s">
+      <c r="P89" s="102"/>
+      <c r="Q89" s="102"/>
+      <c r="R89" s="103"/>
+      <c r="S89" s="102"/>
+    </row>
+    <row r="90" spans="1:19" ht="22.2">
+      <c r="A90" s="60"/>
+      <c r="B90" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="76"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="3"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -9188,17 +9188,17 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
-      <c r="P90" s="70"/>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="70"/>
-    </row>
-    <row r="91" spans="1:19" ht="24">
-      <c r="A91" s="88"/>
-      <c r="B91" s="76" t="s">
+      <c r="P90" s="102"/>
+      <c r="Q90" s="102"/>
+      <c r="R90" s="103"/>
+      <c r="S90" s="102"/>
+    </row>
+    <row r="91" spans="1:19" ht="22.2">
+      <c r="A91" s="60"/>
+      <c r="B91" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="76"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="3"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -9215,17 +9215,17 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="70"/>
-    </row>
-    <row r="92" spans="1:19" ht="24">
-      <c r="A92" s="88"/>
-      <c r="B92" s="76" t="s">
+      <c r="P91" s="102"/>
+      <c r="Q91" s="102"/>
+      <c r="R91" s="103"/>
+      <c r="S91" s="102"/>
+    </row>
+    <row r="92" spans="1:19" ht="22.2">
+      <c r="A92" s="60"/>
+      <c r="B92" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="76"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="3"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -9242,17 +9242,17 @@
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="70"/>
-      <c r="Q92" s="70"/>
-      <c r="R92" s="71"/>
-      <c r="S92" s="70"/>
-    </row>
-    <row r="93" spans="1:19" ht="24">
-      <c r="A93" s="88"/>
-      <c r="B93" s="76" t="s">
+      <c r="P92" s="102"/>
+      <c r="Q92" s="102"/>
+      <c r="R92" s="103"/>
+      <c r="S92" s="102"/>
+    </row>
+    <row r="93" spans="1:19" ht="22.2">
+      <c r="A93" s="60"/>
+      <c r="B93" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="76"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="3"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -9269,17 +9269,17 @@
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="70"/>
-      <c r="R93" s="71"/>
-      <c r="S93" s="70"/>
-    </row>
-    <row r="94" spans="1:19" ht="24">
-      <c r="A94" s="88"/>
-      <c r="B94" s="76" t="s">
+      <c r="P93" s="102"/>
+      <c r="Q93" s="102"/>
+      <c r="R93" s="103"/>
+      <c r="S93" s="102"/>
+    </row>
+    <row r="94" spans="1:19" ht="22.2">
+      <c r="A94" s="60"/>
+      <c r="B94" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="76"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="3"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -9294,17 +9294,17 @@
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="70"/>
-      <c r="R94" s="71"/>
-      <c r="S94" s="70"/>
-    </row>
-    <row r="95" spans="1:19" ht="30">
-      <c r="A95" s="88"/>
-      <c r="B95" s="77" t="s">
+      <c r="P94" s="102"/>
+      <c r="Q94" s="102"/>
+      <c r="R94" s="103"/>
+      <c r="S94" s="102"/>
+    </row>
+    <row r="95" spans="1:19" ht="28.8">
+      <c r="A95" s="60"/>
+      <c r="B95" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="78"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="13" t="s">
         <v>26</v>
       </c>
@@ -9319,17 +9319,17 @@
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="70"/>
-      <c r="R95" s="71"/>
-      <c r="S95" s="70"/>
-    </row>
-    <row r="96" spans="1:19" ht="24">
-      <c r="A96" s="88"/>
-      <c r="B96" s="75" t="s">
+      <c r="P95" s="102"/>
+      <c r="Q95" s="102"/>
+      <c r="R95" s="103"/>
+      <c r="S95" s="102"/>
+    </row>
+    <row r="96" spans="1:19" ht="22.2">
+      <c r="A96" s="60"/>
+      <c r="B96" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="76"/>
+      <c r="C96" s="67"/>
       <c r="D96" s="13"/>
       <c r="E96" s="17" t="s">
         <v>111</v>
@@ -9344,17 +9344,17 @@
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="71"/>
-      <c r="S96" s="70"/>
-    </row>
-    <row r="97" spans="1:19" ht="24">
-      <c r="A97" s="88"/>
-      <c r="B97" s="75" t="s">
+      <c r="P96" s="102"/>
+      <c r="Q96" s="102"/>
+      <c r="R96" s="103"/>
+      <c r="S96" s="102"/>
+    </row>
+    <row r="97" spans="1:19" ht="22.2">
+      <c r="A97" s="60"/>
+      <c r="B97" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="76"/>
+      <c r="C97" s="67"/>
       <c r="D97" s="3"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
@@ -9369,17 +9369,17 @@
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="70"/>
-      <c r="R97" s="71"/>
-      <c r="S97" s="70"/>
-    </row>
-    <row r="98" spans="1:19" ht="24">
-      <c r="A98" s="88"/>
-      <c r="B98" s="76" t="s">
+      <c r="P97" s="102"/>
+      <c r="Q97" s="102"/>
+      <c r="R97" s="103"/>
+      <c r="S97" s="102"/>
+    </row>
+    <row r="98" spans="1:19" ht="22.2">
+      <c r="A98" s="60"/>
+      <c r="B98" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="76"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="3"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
@@ -9394,17 +9394,17 @@
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="70"/>
-      <c r="R98" s="71"/>
-      <c r="S98" s="70"/>
-    </row>
-    <row r="99" spans="1:19" ht="24">
-      <c r="A99" s="88"/>
-      <c r="B99" s="76" t="s">
+      <c r="P98" s="102"/>
+      <c r="Q98" s="102"/>
+      <c r="R98" s="103"/>
+      <c r="S98" s="102"/>
+    </row>
+    <row r="99" spans="1:19" ht="22.2">
+      <c r="A99" s="60"/>
+      <c r="B99" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="67"/>
       <c r="D99" s="3"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
@@ -9423,17 +9423,17 @@
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="70"/>
-    </row>
-    <row r="100" spans="1:19" ht="24">
-      <c r="A100" s="88"/>
-      <c r="B100" s="76" t="s">
+      <c r="P99" s="102"/>
+      <c r="Q99" s="102"/>
+      <c r="R99" s="103"/>
+      <c r="S99" s="102"/>
+    </row>
+    <row r="100" spans="1:19" ht="22.2">
+      <c r="A100" s="60"/>
+      <c r="B100" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="76"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="3"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
@@ -9448,17 +9448,17 @@
       <c r="O100" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="70"/>
-      <c r="R100" s="71"/>
-      <c r="S100" s="70"/>
-    </row>
-    <row r="101" spans="1:19" ht="24">
-      <c r="A101" s="88"/>
-      <c r="B101" s="76" t="s">
+      <c r="P100" s="102"/>
+      <c r="Q100" s="102"/>
+      <c r="R100" s="103"/>
+      <c r="S100" s="102"/>
+    </row>
+    <row r="101" spans="1:19" ht="22.2">
+      <c r="A101" s="60"/>
+      <c r="B101" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="76"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="3"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
@@ -9473,19 +9473,19 @@
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
-      <c r="R101" s="71"/>
-      <c r="S101" s="70"/>
-    </row>
-    <row r="102" spans="1:19" ht="30">
-      <c r="A102" s="88" t="s">
+      <c r="P101" s="102"/>
+      <c r="Q101" s="102"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="102"/>
+    </row>
+    <row r="102" spans="1:19" ht="28.8">
+      <c r="A102" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="78"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="12" t="s">
         <v>26</v>
       </c>
@@ -9500,17 +9500,17 @@
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="70"/>
-      <c r="R102" s="71"/>
-      <c r="S102" s="70"/>
-    </row>
-    <row r="103" spans="1:19" ht="24">
-      <c r="A103" s="88"/>
-      <c r="B103" s="75" t="s">
+      <c r="P102" s="102"/>
+      <c r="Q102" s="102"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="102"/>
+    </row>
+    <row r="103" spans="1:19" ht="22.2">
+      <c r="A103" s="60"/>
+      <c r="B103" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="76"/>
+      <c r="C103" s="67"/>
       <c r="D103" s="12"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16" t="s">
@@ -9525,17 +9525,17 @@
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
-      <c r="P103" s="70"/>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="71"/>
-      <c r="S103" s="70"/>
-    </row>
-    <row r="104" spans="1:19" ht="24">
-      <c r="A104" s="88"/>
-      <c r="B104" s="75" t="s">
+      <c r="P103" s="102"/>
+      <c r="Q103" s="102"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="102"/>
+    </row>
+    <row r="104" spans="1:19" ht="22.2">
+      <c r="A104" s="60"/>
+      <c r="B104" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="76"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="3"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -9548,17 +9548,17 @@
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="71"/>
-      <c r="S104" s="70"/>
-    </row>
-    <row r="105" spans="1:19" ht="30">
-      <c r="A105" s="88"/>
-      <c r="B105" s="77" t="s">
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="102"/>
+    </row>
+    <row r="105" spans="1:19" ht="28.8">
+      <c r="A105" s="60"/>
+      <c r="B105" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="78"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="13" t="s">
         <v>26</v>
       </c>
@@ -9573,17 +9573,17 @@
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="71"/>
-      <c r="S105" s="70"/>
-    </row>
-    <row r="106" spans="1:19" ht="24">
-      <c r="A106" s="88"/>
-      <c r="B106" s="75" t="s">
+      <c r="P105" s="102"/>
+      <c r="Q105" s="102"/>
+      <c r="R105" s="103"/>
+      <c r="S105" s="102"/>
+    </row>
+    <row r="106" spans="1:19" ht="22.2">
+      <c r="A106" s="60"/>
+      <c r="B106" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="75"/>
+      <c r="C106" s="66"/>
       <c r="D106" s="13"/>
       <c r="E106" s="15"/>
       <c r="F106" s="16" t="s">
@@ -9598,17 +9598,17 @@
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="70"/>
-      <c r="R106" s="71"/>
-      <c r="S106" s="70"/>
-    </row>
-    <row r="107" spans="1:19" ht="24">
-      <c r="A107" s="88"/>
-      <c r="B107" s="75" t="s">
+      <c r="P106" s="102"/>
+      <c r="Q106" s="102"/>
+      <c r="R106" s="103"/>
+      <c r="S106" s="102"/>
+    </row>
+    <row r="107" spans="1:19" ht="22.2">
+      <c r="A107" s="60"/>
+      <c r="B107" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="76"/>
+      <c r="C107" s="67"/>
       <c r="D107" s="3"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
@@ -9623,17 +9623,17 @@
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
-      <c r="P107" s="70"/>
-      <c r="Q107" s="70"/>
-      <c r="R107" s="71"/>
-      <c r="S107" s="70"/>
-    </row>
-    <row r="108" spans="1:19" ht="24">
-      <c r="A108" s="88"/>
-      <c r="B108" s="76" t="s">
+      <c r="P107" s="102"/>
+      <c r="Q107" s="102"/>
+      <c r="R107" s="103"/>
+      <c r="S107" s="102"/>
+    </row>
+    <row r="108" spans="1:19" ht="22.2">
+      <c r="A108" s="60"/>
+      <c r="B108" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="76"/>
+      <c r="C108" s="67"/>
       <c r="D108" s="3"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
@@ -9648,17 +9648,17 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="70"/>
-      <c r="R108" s="71"/>
-      <c r="S108" s="70"/>
-    </row>
-    <row r="109" spans="1:19" ht="24">
-      <c r="A109" s="88"/>
-      <c r="B109" s="76" t="s">
+      <c r="P108" s="102"/>
+      <c r="Q108" s="102"/>
+      <c r="R108" s="103"/>
+      <c r="S108" s="102"/>
+    </row>
+    <row r="109" spans="1:19" ht="22.2">
+      <c r="A109" s="60"/>
+      <c r="B109" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="76"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="3"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
@@ -9673,17 +9673,17 @@
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="71"/>
-      <c r="S109" s="70"/>
-    </row>
-    <row r="110" spans="1:19" ht="24">
-      <c r="A110" s="88"/>
-      <c r="B110" s="76" t="s">
+      <c r="P109" s="102"/>
+      <c r="Q109" s="102"/>
+      <c r="R109" s="103"/>
+      <c r="S109" s="102"/>
+    </row>
+    <row r="110" spans="1:19" ht="22.2">
+      <c r="A110" s="60"/>
+      <c r="B110" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="76"/>
+      <c r="C110" s="67"/>
       <c r="D110" s="3"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
@@ -9698,17 +9698,17 @@
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
-      <c r="P110" s="70"/>
-      <c r="Q110" s="70"/>
-      <c r="R110" s="71"/>
-      <c r="S110" s="70"/>
-    </row>
-    <row r="111" spans="1:19" ht="24">
-      <c r="A111" s="88"/>
-      <c r="B111" s="76" t="s">
+      <c r="P110" s="102"/>
+      <c r="Q110" s="102"/>
+      <c r="R110" s="103"/>
+      <c r="S110" s="102"/>
+    </row>
+    <row r="111" spans="1:19" ht="22.2">
+      <c r="A111" s="60"/>
+      <c r="B111" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="76"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="3"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
@@ -9723,17 +9723,17 @@
       <c r="O111" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="70"/>
-      <c r="R111" s="71"/>
-      <c r="S111" s="70"/>
-    </row>
-    <row r="112" spans="1:19" ht="24">
-      <c r="A112" s="88"/>
-      <c r="B112" s="76" t="s">
+      <c r="P111" s="102"/>
+      <c r="Q111" s="102"/>
+      <c r="R111" s="103"/>
+      <c r="S111" s="102"/>
+    </row>
+    <row r="112" spans="1:19" ht="22.2">
+      <c r="A112" s="60"/>
+      <c r="B112" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="76"/>
+      <c r="C112" s="67"/>
       <c r="D112" s="3"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
@@ -9748,17 +9748,17 @@
       <c r="O112" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P112" s="70"/>
-      <c r="Q112" s="70"/>
-      <c r="R112" s="71"/>
-      <c r="S112" s="70"/>
-    </row>
-    <row r="113" spans="1:19" ht="30">
-      <c r="A113" s="88"/>
-      <c r="B113" s="77" t="s">
+      <c r="P112" s="102"/>
+      <c r="Q112" s="102"/>
+      <c r="R112" s="103"/>
+      <c r="S112" s="102"/>
+    </row>
+    <row r="113" spans="1:19" ht="28.8">
+      <c r="A113" s="60"/>
+      <c r="B113" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="78"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="13" t="s">
         <v>26</v>
       </c>
@@ -9773,17 +9773,17 @@
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
-      <c r="P113" s="70"/>
-      <c r="Q113" s="70"/>
-      <c r="R113" s="71"/>
-      <c r="S113" s="70"/>
-    </row>
-    <row r="114" spans="1:19" ht="24">
-      <c r="A114" s="88"/>
-      <c r="B114" s="75" t="s">
+      <c r="P113" s="102"/>
+      <c r="Q113" s="102"/>
+      <c r="R113" s="103"/>
+      <c r="S113" s="102"/>
+    </row>
+    <row r="114" spans="1:19" ht="22.2">
+      <c r="A114" s="60"/>
+      <c r="B114" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="76"/>
+      <c r="C114" s="67"/>
       <c r="D114" s="13"/>
       <c r="E114" s="15"/>
       <c r="F114" s="16" t="s">
@@ -9798,17 +9798,17 @@
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
-      <c r="P114" s="70"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="71"/>
-      <c r="S114" s="70"/>
-    </row>
-    <row r="115" spans="1:19" ht="24">
-      <c r="A115" s="88"/>
-      <c r="B115" s="75" t="s">
+      <c r="P114" s="102"/>
+      <c r="Q114" s="102"/>
+      <c r="R114" s="103"/>
+      <c r="S114" s="102"/>
+    </row>
+    <row r="115" spans="1:19" ht="22.2">
+      <c r="A115" s="60"/>
+      <c r="B115" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="76"/>
+      <c r="C115" s="67"/>
       <c r="D115" s="3"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
@@ -9823,17 +9823,17 @@
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
-      <c r="P115" s="70"/>
-      <c r="Q115" s="70"/>
-      <c r="R115" s="71"/>
-      <c r="S115" s="70"/>
-    </row>
-    <row r="116" spans="1:19" ht="24">
-      <c r="A116" s="88"/>
-      <c r="B116" s="76" t="s">
+      <c r="P115" s="102"/>
+      <c r="Q115" s="102"/>
+      <c r="R115" s="103"/>
+      <c r="S115" s="102"/>
+    </row>
+    <row r="116" spans="1:19" ht="22.2">
+      <c r="A116" s="60"/>
+      <c r="B116" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="76"/>
+      <c r="C116" s="67"/>
       <c r="D116" s="3"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
@@ -9848,17 +9848,17 @@
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="70"/>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="71"/>
-      <c r="S116" s="70"/>
-    </row>
-    <row r="117" spans="1:19" ht="24">
-      <c r="A117" s="88"/>
-      <c r="B117" s="76" t="s">
+      <c r="P116" s="102"/>
+      <c r="Q116" s="102"/>
+      <c r="R116" s="103"/>
+      <c r="S116" s="102"/>
+    </row>
+    <row r="117" spans="1:19" ht="22.2">
+      <c r="A117" s="60"/>
+      <c r="B117" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="76"/>
+      <c r="C117" s="67"/>
       <c r="D117" s="3"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
@@ -9873,17 +9873,17 @@
       <c r="O117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P117" s="70"/>
-      <c r="Q117" s="70"/>
-      <c r="R117" s="71"/>
-      <c r="S117" s="70"/>
-    </row>
-    <row r="118" spans="1:19" ht="24">
-      <c r="A118" s="88"/>
-      <c r="B118" s="76" t="s">
+      <c r="P117" s="102"/>
+      <c r="Q117" s="102"/>
+      <c r="R117" s="103"/>
+      <c r="S117" s="102"/>
+    </row>
+    <row r="118" spans="1:19" ht="22.2">
+      <c r="A118" s="60"/>
+      <c r="B118" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="67"/>
       <c r="D118" s="3"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
@@ -9898,17 +9898,17 @@
       <c r="O118" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P118" s="70"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="70"/>
-    </row>
-    <row r="119" spans="1:19" ht="30">
-      <c r="A119" s="88"/>
-      <c r="B119" s="77" t="s">
+      <c r="P118" s="102"/>
+      <c r="Q118" s="102"/>
+      <c r="R118" s="103"/>
+      <c r="S118" s="102"/>
+    </row>
+    <row r="119" spans="1:19" ht="28.8">
+      <c r="A119" s="60"/>
+      <c r="B119" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="78"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="13" t="s">
         <v>26</v>
       </c>
@@ -9923,17 +9923,17 @@
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
-      <c r="P119" s="70"/>
-      <c r="Q119" s="70"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="70"/>
-    </row>
-    <row r="120" spans="1:19" ht="24">
-      <c r="A120" s="88"/>
-      <c r="B120" s="75" t="s">
+      <c r="P119" s="102"/>
+      <c r="Q119" s="102"/>
+      <c r="R119" s="103"/>
+      <c r="S119" s="102"/>
+    </row>
+    <row r="120" spans="1:19" ht="22.2">
+      <c r="A120" s="60"/>
+      <c r="B120" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="76"/>
+      <c r="C120" s="67"/>
       <c r="D120" s="13"/>
       <c r="E120" s="17" t="s">
         <v>105</v>
@@ -9948,17 +9948,17 @@
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
-      <c r="P120" s="70"/>
-      <c r="Q120" s="70"/>
-      <c r="R120" s="71"/>
-      <c r="S120" s="70"/>
-    </row>
-    <row r="121" spans="1:19" ht="24">
-      <c r="A121" s="88"/>
-      <c r="B121" s="75" t="s">
+      <c r="P120" s="102"/>
+      <c r="Q120" s="102"/>
+      <c r="R120" s="103"/>
+      <c r="S120" s="102"/>
+    </row>
+    <row r="121" spans="1:19" ht="22.2">
+      <c r="A121" s="60"/>
+      <c r="B121" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="76"/>
+      <c r="C121" s="67"/>
       <c r="D121" s="3"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
@@ -9973,56 +9973,56 @@
         <v>105</v>
       </c>
       <c r="O121" s="15"/>
-      <c r="P121" s="72"/>
-      <c r="Q121" s="72"/>
-      <c r="R121" s="73"/>
-      <c r="S121" s="72"/>
+      <c r="P121" s="104"/>
+      <c r="Q121" s="104"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="104"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="B122" s="98"/>
-      <c r="C122" s="98"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="74"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="63" t="s">
+      <c r="A123" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="63"/>
-      <c r="C123" s="63"/>
-      <c r="D123" s="63"/>
-      <c r="E123" s="63"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="63"/>
-      <c r="I123" s="63"/>
-      <c r="J123" s="63"/>
-      <c r="K123" s="63"/>
-      <c r="L123" s="63"/>
-      <c r="M123" s="63"/>
-      <c r="N123" s="63"/>
-      <c r="O123" s="63"/>
-      <c r="P123" s="63"/>
-      <c r="Q123" s="63"/>
-      <c r="R123" s="63"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="95"/>
+      <c r="G123" s="95"/>
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="95"/>
+      <c r="K123" s="95"/>
+      <c r="L123" s="95"/>
+      <c r="M123" s="95"/>
+      <c r="N123" s="95"/>
+      <c r="O123" s="95"/>
+      <c r="P123" s="95"/>
+      <c r="Q123" s="95"/>
+      <c r="R123" s="95"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="63"/>
-      <c r="B124" s="63"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
-      <c r="L124" s="63"/>
-      <c r="M124" s="63"/>
-      <c r="N124" s="63"/>
-      <c r="O124" s="63"/>
-      <c r="P124" s="63"/>
-      <c r="Q124" s="63"/>
-      <c r="R124" s="63"/>
+      <c r="A124" s="95"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="95"/>
+      <c r="G124" s="95"/>
+      <c r="H124" s="95"/>
+      <c r="I124" s="95"/>
+      <c r="J124" s="95"/>
+      <c r="K124" s="95"/>
+      <c r="L124" s="95"/>
+      <c r="M124" s="95"/>
+      <c r="N124" s="95"/>
+      <c r="O124" s="95"/>
+      <c r="P124" s="95"/>
+      <c r="Q124" s="95"/>
+      <c r="R124" s="95"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="18" t="s">
@@ -10080,7 +10080,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="24">
+    <row r="126" spans="1:19" ht="22.2">
       <c r="A126" s="25" t="s">
         <v>162</v>
       </c>
@@ -10097,12 +10097,12 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="60"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="55"/>
-      <c r="R126" s="60"/>
-    </row>
-    <row r="127" spans="1:19" ht="19.5">
+      <c r="O126" s="84"/>
+      <c r="P126" s="89"/>
+      <c r="Q126" s="90"/>
+      <c r="R126" s="84"/>
+    </row>
+    <row r="127" spans="1:19" ht="19.8">
       <c r="A127" s="23" t="s">
         <v>143</v>
       </c>
@@ -10123,10 +10123,10 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="61"/>
-      <c r="P127" s="56"/>
-      <c r="Q127" s="57"/>
-      <c r="R127" s="61"/>
+      <c r="O127" s="85"/>
+      <c r="P127" s="91"/>
+      <c r="Q127" s="92"/>
+      <c r="R127" s="85"/>
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="23" t="s">
@@ -10153,12 +10153,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="61"/>
-      <c r="P128" s="56"/>
-      <c r="Q128" s="57"/>
-      <c r="R128" s="61"/>
-    </row>
-    <row r="129" spans="1:18" ht="19.5">
+      <c r="O128" s="85"/>
+      <c r="P128" s="91"/>
+      <c r="Q128" s="92"/>
+      <c r="R128" s="85"/>
+    </row>
+    <row r="129" spans="1:18" ht="19.8">
       <c r="A129" s="23" t="s">
         <v>126</v>
       </c>
@@ -10181,12 +10181,12 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="61"/>
-      <c r="P129" s="56"/>
-      <c r="Q129" s="57"/>
-      <c r="R129" s="61"/>
-    </row>
-    <row r="130" spans="1:18" ht="24">
+      <c r="O129" s="85"/>
+      <c r="P129" s="91"/>
+      <c r="Q129" s="92"/>
+      <c r="R129" s="85"/>
+    </row>
+    <row r="130" spans="1:18" ht="22.2">
       <c r="A130" s="25" t="s">
         <v>158</v>
       </c>
@@ -10203,10 +10203,10 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="61"/>
-      <c r="P130" s="56"/>
-      <c r="Q130" s="57"/>
-      <c r="R130" s="61"/>
+      <c r="O130" s="85"/>
+      <c r="P130" s="91"/>
+      <c r="Q130" s="92"/>
+      <c r="R130" s="85"/>
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="34" t="s">
@@ -10229,10 +10229,10 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="61"/>
-      <c r="P131" s="56"/>
-      <c r="Q131" s="57"/>
-      <c r="R131" s="61"/>
+      <c r="O131" s="85"/>
+      <c r="P131" s="91"/>
+      <c r="Q131" s="92"/>
+      <c r="R131" s="85"/>
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="24" t="s">
@@ -10255,12 +10255,12 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="61"/>
-      <c r="P132" s="56"/>
-      <c r="Q132" s="57"/>
-      <c r="R132" s="61"/>
-    </row>
-    <row r="133" spans="1:18" ht="24">
+      <c r="O132" s="85"/>
+      <c r="P132" s="91"/>
+      <c r="Q132" s="92"/>
+      <c r="R132" s="85"/>
+    </row>
+    <row r="133" spans="1:18" ht="22.2">
       <c r="A133" s="25" t="s">
         <v>65</v>
       </c>
@@ -10277,12 +10277,12 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="61"/>
-      <c r="P133" s="56"/>
-      <c r="Q133" s="57"/>
-      <c r="R133" s="61"/>
-    </row>
-    <row r="134" spans="1:18" ht="19.5">
+      <c r="O133" s="85"/>
+      <c r="P133" s="91"/>
+      <c r="Q133" s="92"/>
+      <c r="R133" s="85"/>
+    </row>
+    <row r="134" spans="1:18" ht="19.8">
       <c r="A134" s="34" t="s">
         <v>154</v>
       </c>
@@ -10301,12 +10301,12 @@
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
-      <c r="O134" s="61"/>
-      <c r="P134" s="56"/>
-      <c r="Q134" s="57"/>
-      <c r="R134" s="61"/>
-    </row>
-    <row r="135" spans="1:18" ht="19.5">
+      <c r="O134" s="85"/>
+      <c r="P134" s="91"/>
+      <c r="Q134" s="92"/>
+      <c r="R134" s="85"/>
+    </row>
+    <row r="135" spans="1:18" ht="19.8">
       <c r="A135" s="24" t="s">
         <v>153</v>
       </c>
@@ -10325,12 +10325,12 @@
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="56"/>
-      <c r="Q135" s="57"/>
-      <c r="R135" s="61"/>
-    </row>
-    <row r="136" spans="1:18" ht="19.5">
+      <c r="O135" s="85"/>
+      <c r="P135" s="91"/>
+      <c r="Q135" s="92"/>
+      <c r="R135" s="85"/>
+    </row>
+    <row r="136" spans="1:18" ht="19.8">
       <c r="A136" s="30" t="s">
         <v>152</v>
       </c>
@@ -10353,12 +10353,12 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
-      <c r="O136" s="61"/>
-      <c r="P136" s="56"/>
-      <c r="Q136" s="57"/>
-      <c r="R136" s="61"/>
-    </row>
-    <row r="137" spans="1:18" ht="19.5">
+      <c r="O136" s="85"/>
+      <c r="P136" s="91"/>
+      <c r="Q136" s="92"/>
+      <c r="R136" s="85"/>
+    </row>
+    <row r="137" spans="1:18" ht="19.8">
       <c r="A137" s="30" t="s">
         <v>150</v>
       </c>
@@ -10381,12 +10381,12 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
-      <c r="O137" s="61"/>
-      <c r="P137" s="56"/>
-      <c r="Q137" s="57"/>
-      <c r="R137" s="61"/>
-    </row>
-    <row r="138" spans="1:18" ht="19.5">
+      <c r="O137" s="85"/>
+      <c r="P137" s="91"/>
+      <c r="Q137" s="92"/>
+      <c r="R137" s="85"/>
+    </row>
+    <row r="138" spans="1:18" ht="19.8">
       <c r="A138" s="30" t="s">
         <v>149</v>
       </c>
@@ -10423,12 +10423,12 @@
       <c r="N138" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="O138" s="61"/>
-      <c r="P138" s="56"/>
-      <c r="Q138" s="57"/>
-      <c r="R138" s="61"/>
-    </row>
-    <row r="139" spans="1:18" ht="24">
+      <c r="O138" s="85"/>
+      <c r="P138" s="91"/>
+      <c r="Q138" s="92"/>
+      <c r="R138" s="85"/>
+    </row>
+    <row r="139" spans="1:18" ht="22.2">
       <c r="A139" s="25" t="s">
         <v>146</v>
       </c>
@@ -10445,12 +10445,12 @@
       <c r="L139" s="18"/>
     